--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,157 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20334600</v>
+        <v>20428500</v>
       </c>
       <c r="E8" s="3">
-        <v>19065100</v>
+        <v>19371800</v>
       </c>
       <c r="F8" s="3">
-        <v>19334000</v>
+        <v>18162400</v>
       </c>
       <c r="G8" s="3">
-        <v>17743800</v>
+        <v>18418600</v>
       </c>
       <c r="H8" s="3">
-        <v>17758000</v>
+        <v>16903700</v>
       </c>
       <c r="I8" s="3">
-        <v>18929300</v>
+        <v>16917300</v>
       </c>
       <c r="J8" s="3">
+        <v>18033100</v>
+      </c>
+      <c r="K8" s="3">
         <v>15721900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14648000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18785800</v>
+        <v>19268400</v>
       </c>
       <c r="E9" s="3">
-        <v>32112100</v>
+        <v>17896400</v>
       </c>
       <c r="F9" s="3">
-        <v>15393500</v>
+        <v>30591700</v>
       </c>
       <c r="G9" s="3">
-        <v>13521500</v>
+        <v>14664700</v>
       </c>
       <c r="H9" s="3">
-        <v>13617200</v>
+        <v>12881300</v>
       </c>
       <c r="I9" s="3">
-        <v>30585300</v>
+        <v>12972400</v>
       </c>
       <c r="J9" s="3">
+        <v>29137200</v>
+      </c>
+      <c r="K9" s="3">
         <v>12193800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11424500</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1548800</v>
+        <v>1160200</v>
       </c>
       <c r="E10" s="3">
-        <v>-13047000</v>
+        <v>1475500</v>
       </c>
       <c r="F10" s="3">
-        <v>3940500</v>
+        <v>-12429300</v>
       </c>
       <c r="G10" s="3">
-        <v>4222300</v>
+        <v>3753900</v>
       </c>
       <c r="H10" s="3">
-        <v>4140900</v>
+        <v>4022400</v>
       </c>
       <c r="I10" s="3">
-        <v>-11656000</v>
+        <v>3944800</v>
       </c>
       <c r="J10" s="3">
+        <v>-11104100</v>
+      </c>
+      <c r="K10" s="3">
         <v>3528100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3223500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,38 +828,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>836400</v>
+        <v>784500</v>
       </c>
       <c r="E12" s="3">
-        <v>897200</v>
+        <v>796800</v>
       </c>
       <c r="F12" s="3">
-        <v>996800</v>
+        <v>854700</v>
       </c>
       <c r="G12" s="3">
-        <v>880400</v>
+        <v>949600</v>
       </c>
       <c r="H12" s="3">
-        <v>863600</v>
+        <v>838700</v>
       </c>
       <c r="I12" s="3">
-        <v>1561700</v>
+        <v>822700</v>
       </c>
       <c r="J12" s="3">
+        <v>1487800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1447900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>609700</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,69 +891,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-453800</v>
+        <v>-146600</v>
       </c>
       <c r="E14" s="3">
-        <v>-1014900</v>
+        <v>-432300</v>
       </c>
       <c r="F14" s="3">
-        <v>1267000</v>
+        <v>-966800</v>
       </c>
       <c r="G14" s="3">
-        <v>-2600</v>
+        <v>1207000</v>
       </c>
       <c r="H14" s="3">
-        <v>9000</v>
+        <v>-2500</v>
       </c>
       <c r="I14" s="3">
-        <v>-446000</v>
+        <v>8600</v>
       </c>
       <c r="J14" s="3">
+        <v>-424900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-903700</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>147400</v>
+        <v>139200</v>
       </c>
       <c r="E15" s="3">
-        <v>192600</v>
+        <v>140400</v>
       </c>
       <c r="F15" s="3">
-        <v>190000</v>
+        <v>183500</v>
       </c>
       <c r="G15" s="3">
-        <v>177100</v>
+        <v>181000</v>
       </c>
       <c r="H15" s="3">
-        <v>161600</v>
+        <v>168700</v>
       </c>
       <c r="I15" s="3">
-        <v>168100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+        <v>154000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>160100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -947,68 +972,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21372700</v>
+        <v>21306700</v>
       </c>
       <c r="E17" s="3">
-        <v>17577000</v>
+        <v>20360800</v>
       </c>
       <c r="F17" s="3">
-        <v>19281000</v>
+        <v>16744800</v>
       </c>
       <c r="G17" s="3">
-        <v>15803300</v>
+        <v>18368100</v>
       </c>
       <c r="H17" s="3">
-        <v>15970100</v>
+        <v>15055100</v>
       </c>
       <c r="I17" s="3">
-        <v>16621700</v>
+        <v>15214000</v>
       </c>
       <c r="J17" s="3">
+        <v>15834700</v>
+      </c>
+      <c r="K17" s="3">
         <v>13036700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13086300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1038100</v>
+        <v>-878100</v>
       </c>
       <c r="E18" s="3">
-        <v>1488000</v>
+        <v>-989000</v>
       </c>
       <c r="F18" s="3">
-        <v>53000</v>
+        <v>1417600</v>
       </c>
       <c r="G18" s="3">
-        <v>1940500</v>
+        <v>50500</v>
       </c>
       <c r="H18" s="3">
-        <v>1788000</v>
+        <v>1848600</v>
       </c>
       <c r="I18" s="3">
-        <v>2307700</v>
+        <v>1703300</v>
       </c>
       <c r="J18" s="3">
+        <v>2198400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2685200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1561700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1021,158 +1053,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2633500</v>
+        <v>4900</v>
       </c>
       <c r="E20" s="3">
-        <v>3638000</v>
+        <v>-2508800</v>
       </c>
       <c r="F20" s="3">
-        <v>-5946900</v>
+        <v>3465700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1641900</v>
+        <v>-5665400</v>
       </c>
       <c r="H20" s="3">
-        <v>-1619900</v>
+        <v>-1564100</v>
       </c>
       <c r="I20" s="3">
-        <v>-34900</v>
+        <v>-1543200</v>
       </c>
       <c r="J20" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="K20" s="3">
         <v>956700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-39500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2499000</v>
+        <v>737700</v>
       </c>
       <c r="E21" s="3">
-        <v>6149100</v>
+        <v>-2392800</v>
       </c>
       <c r="F21" s="3">
-        <v>-4814900</v>
+        <v>5847400</v>
       </c>
       <c r="G21" s="3">
-        <v>1312600</v>
+        <v>-4598100</v>
       </c>
       <c r="H21" s="3">
-        <v>1132700</v>
+        <v>1240000</v>
       </c>
       <c r="I21" s="3">
-        <v>3312800</v>
+        <v>1069100</v>
       </c>
       <c r="J21" s="3">
+        <v>3145100</v>
+      </c>
+      <c r="K21" s="3">
         <v>4274900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2060100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>138300</v>
+        <v>224200</v>
       </c>
       <c r="E22" s="3">
-        <v>86600</v>
+        <v>131800</v>
       </c>
       <c r="F22" s="3">
-        <v>99500</v>
+        <v>82500</v>
       </c>
       <c r="G22" s="3">
-        <v>91800</v>
+        <v>94800</v>
       </c>
       <c r="H22" s="3">
-        <v>81400</v>
+        <v>87400</v>
       </c>
       <c r="I22" s="3">
-        <v>75000</v>
+        <v>77600</v>
       </c>
       <c r="J22" s="3">
+        <v>71400</v>
+      </c>
+      <c r="K22" s="3">
         <v>65900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>67200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3809900</v>
+        <v>-1097400</v>
       </c>
       <c r="E23" s="3">
-        <v>5039400</v>
+        <v>-3629500</v>
       </c>
       <c r="F23" s="3">
-        <v>-5993500</v>
+        <v>4800800</v>
       </c>
       <c r="G23" s="3">
-        <v>206800</v>
+        <v>-5709700</v>
       </c>
       <c r="H23" s="3">
-        <v>86600</v>
+        <v>197100</v>
       </c>
       <c r="I23" s="3">
-        <v>2197800</v>
+        <v>82500</v>
       </c>
       <c r="J23" s="3">
+        <v>2093700</v>
+      </c>
+      <c r="K23" s="3">
         <v>3575900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1455100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-660600</v>
+        <v>517300</v>
       </c>
       <c r="E24" s="3">
-        <v>601200</v>
+        <v>-629300</v>
       </c>
       <c r="F24" s="3">
-        <v>-780900</v>
+        <v>572700</v>
       </c>
       <c r="G24" s="3">
-        <v>98300</v>
+        <v>-743900</v>
       </c>
       <c r="H24" s="3">
-        <v>195200</v>
+        <v>93600</v>
       </c>
       <c r="I24" s="3">
-        <v>487400</v>
+        <v>186000</v>
       </c>
       <c r="J24" s="3">
+        <v>464300</v>
+      </c>
+      <c r="K24" s="3">
         <v>557200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>338400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,69 +1248,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3149300</v>
+        <v>-1614600</v>
       </c>
       <c r="E26" s="3">
-        <v>4438200</v>
+        <v>-3000200</v>
       </c>
       <c r="F26" s="3">
-        <v>-5212600</v>
+        <v>4228100</v>
       </c>
       <c r="G26" s="3">
-        <v>108600</v>
+        <v>-4965800</v>
       </c>
       <c r="H26" s="3">
-        <v>-108600</v>
+        <v>103500</v>
       </c>
       <c r="I26" s="3">
-        <v>1710400</v>
+        <v>-103500</v>
       </c>
       <c r="J26" s="3">
+        <v>1629400</v>
+      </c>
+      <c r="K26" s="3">
         <v>3018700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1116600</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3159600</v>
+        <v>-1619600</v>
       </c>
       <c r="E27" s="3">
-        <v>4436900</v>
+        <v>-3010000</v>
       </c>
       <c r="F27" s="3">
-        <v>-5212600</v>
+        <v>4226900</v>
       </c>
       <c r="G27" s="3">
-        <v>107300</v>
+        <v>-4965800</v>
       </c>
       <c r="H27" s="3">
-        <v>-94400</v>
+        <v>102200</v>
       </c>
       <c r="I27" s="3">
-        <v>1694900</v>
+        <v>-89900</v>
       </c>
       <c r="J27" s="3">
+        <v>1614600</v>
+      </c>
+      <c r="K27" s="3">
         <v>3000600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1119300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1290,39 +1347,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>55600</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-64600</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>53000</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
-        <v>183600</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>72400</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+        <v>174900</v>
+      </c>
+      <c r="J29" s="3">
+        <v>69000</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1350,9 +1413,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1380,69 +1446,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2633500</v>
+        <v>-4900</v>
       </c>
       <c r="E32" s="3">
-        <v>-3638000</v>
+        <v>2508800</v>
       </c>
       <c r="F32" s="3">
-        <v>5946900</v>
+        <v>-3465700</v>
       </c>
       <c r="G32" s="3">
-        <v>1641900</v>
+        <v>5665400</v>
       </c>
       <c r="H32" s="3">
-        <v>1619900</v>
+        <v>1564100</v>
       </c>
       <c r="I32" s="3">
-        <v>34900</v>
+        <v>1543200</v>
       </c>
       <c r="J32" s="3">
+        <v>33300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-956700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>39500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3104000</v>
+        <v>-1619600</v>
       </c>
       <c r="E33" s="3">
-        <v>4372300</v>
+        <v>-2957100</v>
       </c>
       <c r="F33" s="3">
-        <v>-5212600</v>
+        <v>4165300</v>
       </c>
       <c r="G33" s="3">
-        <v>107300</v>
+        <v>-4965800</v>
       </c>
       <c r="H33" s="3">
-        <v>89200</v>
+        <v>102200</v>
       </c>
       <c r="I33" s="3">
-        <v>1767300</v>
+        <v>85000</v>
       </c>
       <c r="J33" s="3">
+        <v>1683600</v>
+      </c>
+      <c r="K33" s="3">
         <v>3000600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1119300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1470,74 +1545,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3104000</v>
+        <v>-1619600</v>
       </c>
       <c r="E35" s="3">
-        <v>4372300</v>
+        <v>-2957100</v>
       </c>
       <c r="F35" s="3">
-        <v>-5212600</v>
+        <v>4165300</v>
       </c>
       <c r="G35" s="3">
-        <v>107300</v>
+        <v>-4965800</v>
       </c>
       <c r="H35" s="3">
-        <v>89200</v>
+        <v>102200</v>
       </c>
       <c r="I35" s="3">
-        <v>1767300</v>
+        <v>85000</v>
       </c>
       <c r="J35" s="3">
+        <v>1683600</v>
+      </c>
+      <c r="K35" s="3">
         <v>3000600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1119300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1550,8 +1634,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1564,278 +1649,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6390400</v>
+        <v>5442500</v>
       </c>
       <c r="E41" s="3">
-        <v>7605600</v>
+        <v>6101600</v>
       </c>
       <c r="F41" s="3">
-        <v>3538400</v>
+        <v>7262000</v>
       </c>
       <c r="G41" s="3">
-        <v>4078800</v>
+        <v>3378600</v>
       </c>
       <c r="H41" s="3">
-        <v>3661200</v>
+        <v>3894500</v>
       </c>
       <c r="I41" s="3">
-        <v>4788600</v>
+        <v>3495800</v>
       </c>
       <c r="J41" s="3">
+        <v>4572200</v>
+      </c>
+      <c r="K41" s="3">
         <v>8082600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1706600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7800</v>
+        <v>22200</v>
       </c>
       <c r="E42" s="3">
-        <v>3900</v>
+        <v>7400</v>
       </c>
       <c r="F42" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G42" s="3">
-        <v>2600</v>
+        <v>3700</v>
       </c>
       <c r="H42" s="3">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="I42" s="3">
-        <v>415000</v>
+        <v>8600</v>
       </c>
       <c r="J42" s="3">
+        <v>396200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1971500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32900</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7999900</v>
+        <v>8140900</v>
       </c>
       <c r="E43" s="3">
-        <v>16092900</v>
+        <v>7638500</v>
       </c>
       <c r="F43" s="3">
-        <v>8779500</v>
+        <v>15365800</v>
       </c>
       <c r="G43" s="3">
-        <v>7849900</v>
+        <v>8382800</v>
       </c>
       <c r="H43" s="3">
-        <v>6888100</v>
+        <v>7495300</v>
       </c>
       <c r="I43" s="3">
-        <v>6299900</v>
+        <v>6576900</v>
       </c>
       <c r="J43" s="3">
+        <v>6015200</v>
+      </c>
+      <c r="K43" s="3">
         <v>15530500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5099900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5542300</v>
+        <v>5332600</v>
       </c>
       <c r="E44" s="3">
-        <v>9954600</v>
+        <v>5291900</v>
       </c>
       <c r="F44" s="3">
-        <v>3989600</v>
+        <v>9504900</v>
       </c>
       <c r="G44" s="3">
-        <v>3409100</v>
+        <v>3809400</v>
       </c>
       <c r="H44" s="3">
-        <v>3578500</v>
+        <v>3255100</v>
       </c>
       <c r="I44" s="3">
-        <v>4290800</v>
+        <v>3416800</v>
       </c>
       <c r="J44" s="3">
+        <v>4097000</v>
+      </c>
+      <c r="K44" s="3">
         <v>10572600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3372300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1804800</v>
+        <v>878900</v>
       </c>
       <c r="E45" s="3">
-        <v>354200</v>
+        <v>1723200</v>
       </c>
       <c r="F45" s="3">
-        <v>311600</v>
+        <v>338200</v>
       </c>
       <c r="G45" s="3">
-        <v>323200</v>
+        <v>297500</v>
       </c>
       <c r="H45" s="3">
-        <v>327100</v>
+        <v>308600</v>
       </c>
       <c r="I45" s="3">
-        <v>777000</v>
+        <v>312300</v>
       </c>
       <c r="J45" s="3">
+        <v>741900</v>
+      </c>
+      <c r="K45" s="3">
         <v>837700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>737400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21745100</v>
+        <v>19817100</v>
       </c>
       <c r="E46" s="3">
-        <v>16957800</v>
+        <v>20762600</v>
       </c>
       <c r="F46" s="3">
-        <v>16623000</v>
+        <v>16191600</v>
       </c>
       <c r="G46" s="3">
-        <v>15663700</v>
+        <v>15871900</v>
       </c>
       <c r="H46" s="3">
-        <v>14464000</v>
+        <v>14956000</v>
       </c>
       <c r="I46" s="3">
-        <v>16571200</v>
+        <v>13810500</v>
       </c>
       <c r="J46" s="3">
+        <v>15822500</v>
+      </c>
+      <c r="K46" s="3">
         <v>12401900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10949100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>561100</v>
+        <v>533300</v>
       </c>
       <c r="E47" s="3">
-        <v>518400</v>
+        <v>535700</v>
       </c>
       <c r="F47" s="3">
-        <v>1140300</v>
+        <v>495000</v>
       </c>
       <c r="G47" s="3">
-        <v>787300</v>
+        <v>1088700</v>
       </c>
       <c r="H47" s="3">
-        <v>736900</v>
+        <v>751700</v>
       </c>
       <c r="I47" s="3">
-        <v>811900</v>
+        <v>703600</v>
       </c>
       <c r="J47" s="3">
+        <v>775200</v>
+      </c>
+      <c r="K47" s="3">
         <v>4669600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2225400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6372300</v>
+        <v>8408700</v>
       </c>
       <c r="E48" s="3">
-        <v>6021900</v>
+        <v>6084400</v>
       </c>
       <c r="F48" s="3">
-        <v>5318600</v>
+        <v>5749800</v>
       </c>
       <c r="G48" s="3">
-        <v>4511900</v>
+        <v>5078300</v>
       </c>
       <c r="H48" s="3">
-        <v>4455000</v>
+        <v>4308100</v>
       </c>
       <c r="I48" s="3">
-        <v>4385200</v>
+        <v>4253700</v>
       </c>
       <c r="J48" s="3">
+        <v>4187100</v>
+      </c>
+      <c r="K48" s="3">
         <v>9944300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3078700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6845400</v>
+        <v>6717600</v>
       </c>
       <c r="E49" s="3">
-        <v>7194500</v>
+        <v>6536100</v>
       </c>
       <c r="F49" s="3">
-        <v>6567500</v>
+        <v>6869400</v>
       </c>
       <c r="G49" s="3">
-        <v>6005100</v>
+        <v>6270800</v>
       </c>
       <c r="H49" s="3">
-        <v>6210700</v>
+        <v>5733800</v>
       </c>
       <c r="I49" s="3">
-        <v>6447200</v>
+        <v>5930100</v>
       </c>
       <c r="J49" s="3">
+        <v>6156000</v>
+      </c>
+      <c r="K49" s="3">
         <v>11251300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3795000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1863,9 +1976,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1893,39 +2009,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5661200</v>
+        <v>4352500</v>
       </c>
       <c r="E52" s="3">
-        <v>5411700</v>
+        <v>5405400</v>
       </c>
       <c r="F52" s="3">
-        <v>3366500</v>
+        <v>5167200</v>
       </c>
       <c r="G52" s="3">
-        <v>1892700</v>
+        <v>3214400</v>
       </c>
       <c r="H52" s="3">
-        <v>2864900</v>
+        <v>1807200</v>
       </c>
       <c r="I52" s="3">
-        <v>1600500</v>
+        <v>2735400</v>
       </c>
       <c r="J52" s="3">
+        <v>1528200</v>
+      </c>
+      <c r="K52" s="3">
         <v>3248800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1577500</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1953,39 +2075,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41185000</v>
+        <v>39829200</v>
       </c>
       <c r="E54" s="3">
-        <v>36104300</v>
+        <v>39324300</v>
       </c>
       <c r="F54" s="3">
-        <v>33015800</v>
+        <v>34473100</v>
       </c>
       <c r="G54" s="3">
-        <v>28860700</v>
+        <v>31524100</v>
       </c>
       <c r="H54" s="3">
-        <v>28731400</v>
+        <v>27556700</v>
       </c>
       <c r="I54" s="3">
-        <v>29816100</v>
+        <v>27433300</v>
       </c>
       <c r="J54" s="3">
+        <v>28469000</v>
+      </c>
+      <c r="K54" s="3">
         <v>23459300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21625600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1998,8 +2126,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2012,188 +2141,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4078800</v>
+        <v>3824200</v>
       </c>
       <c r="E57" s="3">
-        <v>17724400</v>
+        <v>3894500</v>
       </c>
       <c r="F57" s="3">
-        <v>2907500</v>
+        <v>16923600</v>
       </c>
       <c r="G57" s="3">
-        <v>2060700</v>
+        <v>2776200</v>
       </c>
       <c r="H57" s="3">
-        <v>2046500</v>
+        <v>1967600</v>
       </c>
       <c r="I57" s="3">
-        <v>2018100</v>
+        <v>1954100</v>
       </c>
       <c r="J57" s="3">
+        <v>1926900</v>
+      </c>
+      <c r="K57" s="3">
         <v>14007600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3773900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1109200</v>
+        <v>956700</v>
       </c>
       <c r="E58" s="3">
-        <v>212000</v>
+        <v>1059100</v>
       </c>
       <c r="F58" s="3">
-        <v>222400</v>
+        <v>202400</v>
       </c>
       <c r="G58" s="3">
-        <v>541700</v>
+        <v>212300</v>
       </c>
       <c r="H58" s="3">
-        <v>87900</v>
+        <v>517200</v>
       </c>
       <c r="I58" s="3">
-        <v>267600</v>
+        <v>83900</v>
       </c>
       <c r="J58" s="3">
+        <v>255500</v>
+      </c>
+      <c r="K58" s="3">
         <v>385300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14011500</v>
+        <v>13705500</v>
       </c>
       <c r="E59" s="3">
-        <v>19199500</v>
+        <v>13378400</v>
       </c>
       <c r="F59" s="3">
-        <v>9195800</v>
+        <v>18332100</v>
       </c>
       <c r="G59" s="3">
-        <v>7963700</v>
+        <v>8780300</v>
       </c>
       <c r="H59" s="3">
-        <v>7800800</v>
+        <v>7603900</v>
       </c>
       <c r="I59" s="3">
-        <v>10358000</v>
+        <v>7448400</v>
       </c>
       <c r="J59" s="3">
+        <v>9890000</v>
+      </c>
+      <c r="K59" s="3">
         <v>12483400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5306700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19199500</v>
+        <v>18486400</v>
       </c>
       <c r="E60" s="3">
-        <v>16070900</v>
+        <v>18332100</v>
       </c>
       <c r="F60" s="3">
-        <v>12325700</v>
+        <v>15344800</v>
       </c>
       <c r="G60" s="3">
-        <v>10566100</v>
+        <v>11768800</v>
       </c>
       <c r="H60" s="3">
-        <v>9935200</v>
+        <v>10088800</v>
       </c>
       <c r="I60" s="3">
-        <v>12643700</v>
+        <v>9486400</v>
       </c>
       <c r="J60" s="3">
+        <v>12072400</v>
+      </c>
+      <c r="K60" s="3">
         <v>9318600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9106900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4917800</v>
+        <v>6060900</v>
       </c>
       <c r="E61" s="3">
-        <v>4403300</v>
+        <v>4695700</v>
       </c>
       <c r="F61" s="3">
-        <v>4117600</v>
+        <v>4204400</v>
       </c>
       <c r="G61" s="3">
-        <v>3727200</v>
+        <v>3931600</v>
       </c>
       <c r="H61" s="3">
-        <v>2835100</v>
+        <v>3558800</v>
       </c>
       <c r="I61" s="3">
-        <v>3263100</v>
+        <v>2707000</v>
       </c>
       <c r="J61" s="3">
+        <v>3115600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2135700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1559100</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17941600</v>
+        <v>19403500</v>
       </c>
       <c r="E62" s="3">
-        <v>22800000</v>
+        <v>17131000</v>
       </c>
       <c r="F62" s="3">
-        <v>14162700</v>
+        <v>21769900</v>
       </c>
       <c r="G62" s="3">
-        <v>8082600</v>
+        <v>13522900</v>
       </c>
       <c r="H62" s="3">
-        <v>7703900</v>
+        <v>7717500</v>
       </c>
       <c r="I62" s="3">
-        <v>5760800</v>
+        <v>7355800</v>
       </c>
       <c r="J62" s="3">
+        <v>5500500</v>
+      </c>
+      <c r="K62" s="3">
         <v>8779500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5009100</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2221,9 +2369,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2251,9 +2402,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2281,39 +2435,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42573500</v>
+        <v>43996500</v>
       </c>
       <c r="E66" s="3">
-        <v>34902000</v>
+        <v>40650000</v>
       </c>
       <c r="F66" s="3">
-        <v>30608600</v>
+        <v>33325100</v>
       </c>
       <c r="G66" s="3">
-        <v>22378500</v>
+        <v>29225700</v>
       </c>
       <c r="H66" s="3">
-        <v>20480700</v>
+        <v>21367500</v>
       </c>
       <c r="I66" s="3">
-        <v>22569900</v>
+        <v>19555400</v>
       </c>
       <c r="J66" s="3">
+        <v>21550200</v>
+      </c>
+      <c r="K66" s="3">
         <v>15729600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15676400</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2326,8 +2486,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2355,9 +2516,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2385,9 +2549,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2415,9 +2582,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2445,39 +2615,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3133800</v>
+        <v>-5409100</v>
       </c>
       <c r="E72" s="3">
-        <v>623100</v>
+        <v>-2992200</v>
       </c>
       <c r="F72" s="3">
-        <v>1837100</v>
+        <v>595000</v>
       </c>
       <c r="G72" s="3">
-        <v>5904300</v>
+        <v>1754100</v>
       </c>
       <c r="H72" s="3">
-        <v>7637900</v>
+        <v>5637500</v>
       </c>
       <c r="I72" s="3">
-        <v>6744600</v>
+        <v>7292800</v>
       </c>
       <c r="J72" s="3">
+        <v>6439900</v>
+      </c>
+      <c r="K72" s="3">
         <v>14793600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5456800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2505,9 +2681,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2535,9 +2714,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2565,39 +2747,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1388500</v>
+        <v>-4167300</v>
       </c>
       <c r="E76" s="3">
-        <v>1202300</v>
+        <v>-1325700</v>
       </c>
       <c r="F76" s="3">
-        <v>2407200</v>
+        <v>1148000</v>
       </c>
       <c r="G76" s="3">
-        <v>6482100</v>
+        <v>2298500</v>
       </c>
       <c r="H76" s="3">
-        <v>8250700</v>
+        <v>6189300</v>
       </c>
       <c r="I76" s="3">
-        <v>7246200</v>
+        <v>7877900</v>
       </c>
       <c r="J76" s="3">
+        <v>6918800</v>
+      </c>
+      <c r="K76" s="3">
         <v>7729700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5949300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2625,74 +2813,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3104000</v>
+        <v>-1619600</v>
       </c>
       <c r="E81" s="3">
-        <v>4372300</v>
+        <v>-2957100</v>
       </c>
       <c r="F81" s="3">
-        <v>-5212600</v>
+        <v>4165300</v>
       </c>
       <c r="G81" s="3">
-        <v>107300</v>
+        <v>-4965800</v>
       </c>
       <c r="H81" s="3">
-        <v>89200</v>
+        <v>102200</v>
       </c>
       <c r="I81" s="3">
-        <v>1767300</v>
+        <v>85000</v>
       </c>
       <c r="J81" s="3">
+        <v>1683600</v>
+      </c>
+      <c r="K81" s="3">
         <v>3000600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1119300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2705,38 +2902,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1166100</v>
+        <v>1619600</v>
       </c>
       <c r="E83" s="3">
-        <v>1017400</v>
+        <v>1110900</v>
       </c>
       <c r="F83" s="3">
-        <v>1073000</v>
+        <v>969300</v>
       </c>
       <c r="G83" s="3">
-        <v>1008400</v>
+        <v>1022200</v>
       </c>
       <c r="H83" s="3">
-        <v>959300</v>
+        <v>960600</v>
       </c>
       <c r="I83" s="3">
-        <v>1034200</v>
+        <v>913800</v>
       </c>
       <c r="J83" s="3">
+        <v>985300</v>
+      </c>
+      <c r="K83" s="3">
         <v>629600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>539900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2764,9 +2965,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2794,9 +2998,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2824,9 +3031,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2854,9 +3064,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2884,39 +3097,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2877800</v>
+        <v>2829000</v>
       </c>
       <c r="E89" s="3">
-        <v>1954700</v>
+        <v>2741500</v>
       </c>
       <c r="F89" s="3">
-        <v>1824200</v>
+        <v>1862200</v>
       </c>
       <c r="G89" s="3">
-        <v>1414300</v>
+        <v>1737800</v>
       </c>
       <c r="H89" s="3">
-        <v>1681900</v>
+        <v>1347400</v>
       </c>
       <c r="I89" s="3">
-        <v>2637300</v>
+        <v>1602300</v>
       </c>
       <c r="J89" s="3">
+        <v>2512500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1622500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1719700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2929,38 +3148,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1170000</v>
+        <v>-920000</v>
       </c>
       <c r="E91" s="3">
-        <v>-943800</v>
+        <v>-1114600</v>
       </c>
       <c r="F91" s="3">
-        <v>-756300</v>
+        <v>-899100</v>
       </c>
       <c r="G91" s="3">
-        <v>-629600</v>
+        <v>-720500</v>
       </c>
       <c r="H91" s="3">
-        <v>-837700</v>
+        <v>-599800</v>
       </c>
       <c r="I91" s="3">
-        <v>-864900</v>
+        <v>-798100</v>
       </c>
       <c r="J91" s="3">
+        <v>-823900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-562400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1020500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2988,9 +3211,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3018,39 +3244,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1260500</v>
+        <v>-1130600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1491900</v>
+        <v>-1200800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1762100</v>
+        <v>-1421300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1286300</v>
+        <v>-1678700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2541700</v>
+        <v>-1225400</v>
       </c>
       <c r="I94" s="3">
-        <v>-956700</v>
+        <v>-2421300</v>
       </c>
       <c r="J94" s="3">
+        <v>-911400</v>
+      </c>
+      <c r="K94" s="3">
         <v>548200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2906200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3063,8 +3295,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3092,9 +3325,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3122,9 +3358,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3152,9 +3391,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3182,97 +3424,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>907600</v>
+        <v>-2207000</v>
       </c>
       <c r="E100" s="3">
-        <v>-164200</v>
+        <v>864600</v>
       </c>
       <c r="F100" s="3">
-        <v>-955400</v>
+        <v>-156400</v>
       </c>
       <c r="G100" s="3">
-        <v>285700</v>
+        <v>-910200</v>
       </c>
       <c r="H100" s="3">
-        <v>-605000</v>
+        <v>272200</v>
       </c>
       <c r="I100" s="3">
-        <v>175800</v>
+        <v>-576400</v>
       </c>
       <c r="J100" s="3">
+        <v>167500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-427900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-862500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>85300</v>
+        <v>-128100</v>
       </c>
       <c r="E101" s="3">
-        <v>-89200</v>
+        <v>81300</v>
       </c>
       <c r="F101" s="3">
-        <v>369700</v>
+        <v>-85000</v>
       </c>
       <c r="G101" s="3">
-        <v>-7800</v>
+        <v>352200</v>
       </c>
       <c r="H101" s="3">
-        <v>10300</v>
+        <v>-7400</v>
       </c>
       <c r="I101" s="3">
-        <v>-44000</v>
+        <v>9900</v>
       </c>
       <c r="J101" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-69800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5300</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2610200</v>
+        <v>-636700</v>
       </c>
       <c r="E102" s="3">
-        <v>209400</v>
+        <v>2486600</v>
       </c>
       <c r="F102" s="3">
-        <v>-523600</v>
+        <v>199500</v>
       </c>
       <c r="G102" s="3">
-        <v>405900</v>
+        <v>-498800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1454400</v>
+        <v>386700</v>
       </c>
       <c r="I102" s="3">
-        <v>1812500</v>
+        <v>-1385600</v>
       </c>
       <c r="J102" s="3">
+        <v>1726700</v>
+      </c>
+      <c r="K102" s="3">
         <v>1672900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2054200</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20428500</v>
+        <v>21907900</v>
       </c>
       <c r="E8" s="3">
-        <v>19371800</v>
+        <v>20774700</v>
       </c>
       <c r="F8" s="3">
-        <v>18162400</v>
+        <v>19477700</v>
       </c>
       <c r="G8" s="3">
-        <v>18418600</v>
+        <v>19752400</v>
       </c>
       <c r="H8" s="3">
-        <v>16903700</v>
+        <v>18127800</v>
       </c>
       <c r="I8" s="3">
-        <v>16917300</v>
+        <v>18142400</v>
       </c>
       <c r="J8" s="3">
-        <v>18033100</v>
+        <v>19339000</v>
       </c>
       <c r="K8" s="3">
         <v>15721900</v>
@@ -754,25 +754,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19268400</v>
+        <v>20663800</v>
       </c>
       <c r="E9" s="3">
-        <v>17896400</v>
+        <v>19192400</v>
       </c>
       <c r="F9" s="3">
-        <v>30591700</v>
+        <v>32807100</v>
       </c>
       <c r="G9" s="3">
-        <v>14664700</v>
+        <v>15726600</v>
       </c>
       <c r="H9" s="3">
-        <v>12881300</v>
+        <v>13814100</v>
       </c>
       <c r="I9" s="3">
-        <v>12972400</v>
+        <v>13911900</v>
       </c>
       <c r="J9" s="3">
-        <v>29137200</v>
+        <v>31247200</v>
       </c>
       <c r="K9" s="3">
         <v>12193800</v>
@@ -787,25 +787,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1160200</v>
+        <v>1244200</v>
       </c>
       <c r="E10" s="3">
-        <v>1475500</v>
+        <v>1582300</v>
       </c>
       <c r="F10" s="3">
-        <v>-12429300</v>
+        <v>-13329400</v>
       </c>
       <c r="G10" s="3">
-        <v>3753900</v>
+        <v>4025800</v>
       </c>
       <c r="H10" s="3">
-        <v>4022400</v>
+        <v>4313700</v>
       </c>
       <c r="I10" s="3">
-        <v>3944800</v>
+        <v>4230500</v>
       </c>
       <c r="J10" s="3">
-        <v>-11104100</v>
+        <v>-11908200</v>
       </c>
       <c r="K10" s="3">
         <v>3528100</v>
@@ -835,25 +835,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>784500</v>
+        <v>841300</v>
       </c>
       <c r="E12" s="3">
-        <v>796800</v>
+        <v>854600</v>
       </c>
       <c r="F12" s="3">
-        <v>854700</v>
+        <v>916600</v>
       </c>
       <c r="G12" s="3">
-        <v>949600</v>
+        <v>1018300</v>
       </c>
       <c r="H12" s="3">
-        <v>838700</v>
+        <v>899500</v>
       </c>
       <c r="I12" s="3">
-        <v>822700</v>
+        <v>882300</v>
       </c>
       <c r="J12" s="3">
-        <v>1487800</v>
+        <v>1595500</v>
       </c>
       <c r="K12" s="3">
         <v>1447900</v>
@@ -901,25 +901,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-146600</v>
+        <v>-157200</v>
       </c>
       <c r="E14" s="3">
-        <v>-432300</v>
+        <v>-463600</v>
       </c>
       <c r="F14" s="3">
-        <v>-966800</v>
+        <v>-1036800</v>
       </c>
       <c r="G14" s="3">
-        <v>1207000</v>
+        <v>1294400</v>
       </c>
       <c r="H14" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I14" s="3">
-        <v>8600</v>
+        <v>9200</v>
       </c>
       <c r="J14" s="3">
-        <v>-424900</v>
+        <v>-455700</v>
       </c>
       <c r="K14" s="3">
         <v>-903700</v>
@@ -934,25 +934,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>139200</v>
+        <v>149200</v>
       </c>
       <c r="E15" s="3">
-        <v>140400</v>
+        <v>150600</v>
       </c>
       <c r="F15" s="3">
-        <v>183500</v>
+        <v>196800</v>
       </c>
       <c r="G15" s="3">
-        <v>181000</v>
+        <v>194200</v>
       </c>
       <c r="H15" s="3">
-        <v>168700</v>
+        <v>180900</v>
       </c>
       <c r="I15" s="3">
-        <v>154000</v>
+        <v>165100</v>
       </c>
       <c r="J15" s="3">
-        <v>160100</v>
+        <v>171700</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21306700</v>
+        <v>22849700</v>
       </c>
       <c r="E17" s="3">
-        <v>20360800</v>
+        <v>21835300</v>
       </c>
       <c r="F17" s="3">
-        <v>16744800</v>
+        <v>17957500</v>
       </c>
       <c r="G17" s="3">
-        <v>18368100</v>
+        <v>19698300</v>
       </c>
       <c r="H17" s="3">
-        <v>15055100</v>
+        <v>16145300</v>
       </c>
       <c r="I17" s="3">
-        <v>15214000</v>
+        <v>16315700</v>
       </c>
       <c r="J17" s="3">
-        <v>15834700</v>
+        <v>16981400</v>
       </c>
       <c r="K17" s="3">
         <v>13036700</v>
@@ -1012,25 +1012,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-878100</v>
+        <v>-941700</v>
       </c>
       <c r="E18" s="3">
-        <v>-989000</v>
+        <v>-1060600</v>
       </c>
       <c r="F18" s="3">
-        <v>1417600</v>
+        <v>1520200</v>
       </c>
       <c r="G18" s="3">
-        <v>50500</v>
+        <v>54200</v>
       </c>
       <c r="H18" s="3">
-        <v>1848600</v>
+        <v>1982500</v>
       </c>
       <c r="I18" s="3">
-        <v>1703300</v>
+        <v>1826700</v>
       </c>
       <c r="J18" s="3">
-        <v>2198400</v>
+        <v>2357600</v>
       </c>
       <c r="K18" s="3">
         <v>2685200</v>
@@ -1060,25 +1060,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="E20" s="3">
-        <v>-2508800</v>
+        <v>-2690400</v>
       </c>
       <c r="F20" s="3">
-        <v>3465700</v>
+        <v>3716700</v>
       </c>
       <c r="G20" s="3">
-        <v>-5665400</v>
+        <v>-6075600</v>
       </c>
       <c r="H20" s="3">
-        <v>-1564100</v>
+        <v>-1677400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1543200</v>
+        <v>-1654900</v>
       </c>
       <c r="J20" s="3">
-        <v>-33300</v>
+        <v>-35700</v>
       </c>
       <c r="K20" s="3">
         <v>956700</v>
@@ -1093,25 +1093,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>737700</v>
+        <v>792800</v>
       </c>
       <c r="E21" s="3">
-        <v>-2392800</v>
+        <v>-2564900</v>
       </c>
       <c r="F21" s="3">
-        <v>5847400</v>
+        <v>6271800</v>
       </c>
       <c r="G21" s="3">
-        <v>-4598100</v>
+        <v>-4930000</v>
       </c>
       <c r="H21" s="3">
-        <v>1240000</v>
+        <v>1330800</v>
       </c>
       <c r="I21" s="3">
-        <v>1069100</v>
+        <v>1147400</v>
       </c>
       <c r="J21" s="3">
-        <v>3145100</v>
+        <v>3373900</v>
       </c>
       <c r="K21" s="3">
         <v>4274900</v>
@@ -1126,25 +1126,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>224200</v>
+        <v>240400</v>
       </c>
       <c r="E22" s="3">
-        <v>131800</v>
+        <v>141300</v>
       </c>
       <c r="F22" s="3">
-        <v>82500</v>
+        <v>88500</v>
       </c>
       <c r="G22" s="3">
-        <v>94800</v>
+        <v>101700</v>
       </c>
       <c r="H22" s="3">
-        <v>87400</v>
+        <v>93800</v>
       </c>
       <c r="I22" s="3">
-        <v>77600</v>
+        <v>83200</v>
       </c>
       <c r="J22" s="3">
-        <v>71400</v>
+        <v>76600</v>
       </c>
       <c r="K22" s="3">
         <v>65900</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1097400</v>
+        <v>-1176800</v>
       </c>
       <c r="E23" s="3">
-        <v>-3629500</v>
+        <v>-3892400</v>
       </c>
       <c r="F23" s="3">
-        <v>4800800</v>
+        <v>5148400</v>
       </c>
       <c r="G23" s="3">
-        <v>-5709700</v>
+        <v>-6123200</v>
       </c>
       <c r="H23" s="3">
-        <v>197100</v>
+        <v>211300</v>
       </c>
       <c r="I23" s="3">
-        <v>82500</v>
+        <v>88500</v>
       </c>
       <c r="J23" s="3">
-        <v>2093700</v>
+        <v>2245300</v>
       </c>
       <c r="K23" s="3">
         <v>3575900</v>
@@ -1192,25 +1192,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>517300</v>
+        <v>554700</v>
       </c>
       <c r="E24" s="3">
-        <v>-629300</v>
+        <v>-674900</v>
       </c>
       <c r="F24" s="3">
-        <v>572700</v>
+        <v>614200</v>
       </c>
       <c r="G24" s="3">
-        <v>-743900</v>
+        <v>-797800</v>
       </c>
       <c r="H24" s="3">
-        <v>93600</v>
+        <v>100400</v>
       </c>
       <c r="I24" s="3">
-        <v>186000</v>
+        <v>199400</v>
       </c>
       <c r="J24" s="3">
-        <v>464300</v>
+        <v>497900</v>
       </c>
       <c r="K24" s="3">
         <v>557200</v>
@@ -1258,25 +1258,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1614600</v>
+        <v>-1731600</v>
       </c>
       <c r="E26" s="3">
-        <v>-3000200</v>
+        <v>-3217400</v>
       </c>
       <c r="F26" s="3">
-        <v>4228100</v>
+        <v>4534300</v>
       </c>
       <c r="G26" s="3">
-        <v>-4965800</v>
+        <v>-5325400</v>
       </c>
       <c r="H26" s="3">
-        <v>103500</v>
+        <v>110900</v>
       </c>
       <c r="I26" s="3">
-        <v>-103500</v>
+        <v>-110900</v>
       </c>
       <c r="J26" s="3">
-        <v>1629400</v>
+        <v>1747400</v>
       </c>
       <c r="K26" s="3">
         <v>3018700</v>
@@ -1291,25 +1291,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1619600</v>
+        <v>-1736800</v>
       </c>
       <c r="E27" s="3">
-        <v>-3010000</v>
+        <v>-3228000</v>
       </c>
       <c r="F27" s="3">
-        <v>4226900</v>
+        <v>4533000</v>
       </c>
       <c r="G27" s="3">
-        <v>-4965800</v>
+        <v>-5325400</v>
       </c>
       <c r="H27" s="3">
-        <v>102200</v>
+        <v>109600</v>
       </c>
       <c r="I27" s="3">
-        <v>-89900</v>
+        <v>-96400</v>
       </c>
       <c r="J27" s="3">
-        <v>1614600</v>
+        <v>1731600</v>
       </c>
       <c r="K27" s="3">
         <v>3000600</v>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>53000</v>
+        <v>56800</v>
       </c>
       <c r="F29" s="3">
-        <v>-61600</v>
+        <v>-66000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>174900</v>
+        <v>187600</v>
       </c>
       <c r="J29" s="3">
-        <v>69000</v>
+        <v>74000</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1456,25 +1456,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4900</v>
+        <v>-5300</v>
       </c>
       <c r="E32" s="3">
-        <v>2508800</v>
+        <v>2690400</v>
       </c>
       <c r="F32" s="3">
-        <v>-3465700</v>
+        <v>-3716700</v>
       </c>
       <c r="G32" s="3">
-        <v>5665400</v>
+        <v>6075600</v>
       </c>
       <c r="H32" s="3">
-        <v>1564100</v>
+        <v>1677400</v>
       </c>
       <c r="I32" s="3">
-        <v>1543200</v>
+        <v>1654900</v>
       </c>
       <c r="J32" s="3">
-        <v>33300</v>
+        <v>35700</v>
       </c>
       <c r="K32" s="3">
         <v>-956700</v>
@@ -1489,25 +1489,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1619600</v>
+        <v>-1736800</v>
       </c>
       <c r="E33" s="3">
-        <v>-2957100</v>
+        <v>-3171200</v>
       </c>
       <c r="F33" s="3">
-        <v>4165300</v>
+        <v>4466900</v>
       </c>
       <c r="G33" s="3">
-        <v>-4965800</v>
+        <v>-5325400</v>
       </c>
       <c r="H33" s="3">
-        <v>102200</v>
+        <v>109600</v>
       </c>
       <c r="I33" s="3">
-        <v>85000</v>
+        <v>91100</v>
       </c>
       <c r="J33" s="3">
-        <v>1683600</v>
+        <v>1805500</v>
       </c>
       <c r="K33" s="3">
         <v>3000600</v>
@@ -1555,25 +1555,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1619600</v>
+        <v>-1736800</v>
       </c>
       <c r="E35" s="3">
-        <v>-2957100</v>
+        <v>-3171200</v>
       </c>
       <c r="F35" s="3">
-        <v>4165300</v>
+        <v>4466900</v>
       </c>
       <c r="G35" s="3">
-        <v>-4965800</v>
+        <v>-5325400</v>
       </c>
       <c r="H35" s="3">
-        <v>102200</v>
+        <v>109600</v>
       </c>
       <c r="I35" s="3">
-        <v>85000</v>
+        <v>91100</v>
       </c>
       <c r="J35" s="3">
-        <v>1683600</v>
+        <v>1805500</v>
       </c>
       <c r="K35" s="3">
         <v>3000600</v>
@@ -1656,25 +1656,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5442500</v>
+        <v>5823400</v>
       </c>
       <c r="E41" s="3">
-        <v>6101600</v>
+        <v>6528700</v>
       </c>
       <c r="F41" s="3">
-        <v>7262000</v>
+        <v>7770200</v>
       </c>
       <c r="G41" s="3">
-        <v>3378600</v>
+        <v>3615000</v>
       </c>
       <c r="H41" s="3">
-        <v>3894500</v>
+        <v>4167100</v>
       </c>
       <c r="I41" s="3">
-        <v>3495800</v>
+        <v>3740500</v>
       </c>
       <c r="J41" s="3">
-        <v>4572200</v>
+        <v>4892200</v>
       </c>
       <c r="K41" s="3">
         <v>8082600</v>
@@ -1689,25 +1689,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>22200</v>
+        <v>23800</v>
       </c>
       <c r="E42" s="3">
-        <v>7400</v>
+        <v>7900</v>
       </c>
       <c r="F42" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="G42" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="H42" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I42" s="3">
-        <v>8600</v>
+        <v>9200</v>
       </c>
       <c r="J42" s="3">
-        <v>396200</v>
+        <v>424000</v>
       </c>
       <c r="K42" s="3">
         <v>1971500</v>
@@ -1722,25 +1722,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8140900</v>
+        <v>8710600</v>
       </c>
       <c r="E43" s="3">
-        <v>7638500</v>
+        <v>8173000</v>
       </c>
       <c r="F43" s="3">
-        <v>15365800</v>
+        <v>16441200</v>
       </c>
       <c r="G43" s="3">
-        <v>8382800</v>
+        <v>8969500</v>
       </c>
       <c r="H43" s="3">
-        <v>7495300</v>
+        <v>8019800</v>
       </c>
       <c r="I43" s="3">
-        <v>6576900</v>
+        <v>7037200</v>
       </c>
       <c r="J43" s="3">
-        <v>6015200</v>
+        <v>6436200</v>
       </c>
       <c r="K43" s="3">
         <v>15530500</v>
@@ -1755,25 +1755,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5332600</v>
+        <v>5705800</v>
       </c>
       <c r="E44" s="3">
-        <v>5291900</v>
+        <v>5662200</v>
       </c>
       <c r="F44" s="3">
-        <v>9504900</v>
+        <v>10170100</v>
       </c>
       <c r="G44" s="3">
-        <v>3809400</v>
+        <v>4076000</v>
       </c>
       <c r="H44" s="3">
-        <v>3255100</v>
+        <v>3482900</v>
       </c>
       <c r="I44" s="3">
-        <v>3416800</v>
+        <v>3655900</v>
       </c>
       <c r="J44" s="3">
-        <v>4097000</v>
+        <v>4383700</v>
       </c>
       <c r="K44" s="3">
         <v>10572600</v>
@@ -1788,25 +1788,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>878900</v>
+        <v>940400</v>
       </c>
       <c r="E45" s="3">
-        <v>1723200</v>
+        <v>1843800</v>
       </c>
       <c r="F45" s="3">
-        <v>338200</v>
+        <v>361900</v>
       </c>
       <c r="G45" s="3">
-        <v>297500</v>
+        <v>318300</v>
       </c>
       <c r="H45" s="3">
-        <v>308600</v>
+        <v>330200</v>
       </c>
       <c r="I45" s="3">
-        <v>312300</v>
+        <v>334200</v>
       </c>
       <c r="J45" s="3">
-        <v>741900</v>
+        <v>793800</v>
       </c>
       <c r="K45" s="3">
         <v>837700</v>
@@ -1821,25 +1821,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19817100</v>
+        <v>21204000</v>
       </c>
       <c r="E46" s="3">
-        <v>20762600</v>
+        <v>22215700</v>
       </c>
       <c r="F46" s="3">
-        <v>16191600</v>
+        <v>17324800</v>
       </c>
       <c r="G46" s="3">
-        <v>15871900</v>
+        <v>16982700</v>
       </c>
       <c r="H46" s="3">
-        <v>14956000</v>
+        <v>16002700</v>
       </c>
       <c r="I46" s="3">
-        <v>13810500</v>
+        <v>14777000</v>
       </c>
       <c r="J46" s="3">
-        <v>15822500</v>
+        <v>16929900</v>
       </c>
       <c r="K46" s="3">
         <v>12401900</v>
@@ -1854,25 +1854,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>533300</v>
+        <v>570600</v>
       </c>
       <c r="E47" s="3">
-        <v>535700</v>
+        <v>573200</v>
       </c>
       <c r="F47" s="3">
-        <v>495000</v>
+        <v>529600</v>
       </c>
       <c r="G47" s="3">
-        <v>1088700</v>
+        <v>1164900</v>
       </c>
       <c r="H47" s="3">
-        <v>751700</v>
+        <v>804400</v>
       </c>
       <c r="I47" s="3">
-        <v>703600</v>
+        <v>752900</v>
       </c>
       <c r="J47" s="3">
-        <v>775200</v>
+        <v>829500</v>
       </c>
       <c r="K47" s="3">
         <v>4669600</v>
@@ -1887,25 +1887,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8408700</v>
+        <v>8997200</v>
       </c>
       <c r="E48" s="3">
-        <v>6084400</v>
+        <v>6510200</v>
       </c>
       <c r="F48" s="3">
-        <v>5749800</v>
+        <v>6152200</v>
       </c>
       <c r="G48" s="3">
-        <v>5078300</v>
+        <v>5433700</v>
       </c>
       <c r="H48" s="3">
-        <v>4308100</v>
+        <v>4609600</v>
       </c>
       <c r="I48" s="3">
-        <v>4253700</v>
+        <v>4551400</v>
       </c>
       <c r="J48" s="3">
-        <v>4187100</v>
+        <v>4480100</v>
       </c>
       <c r="K48" s="3">
         <v>9944300</v>
@@ -1920,25 +1920,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6717600</v>
+        <v>7187700</v>
       </c>
       <c r="E49" s="3">
-        <v>6536100</v>
+        <v>6993600</v>
       </c>
       <c r="F49" s="3">
-        <v>6869400</v>
+        <v>7350200</v>
       </c>
       <c r="G49" s="3">
-        <v>6270800</v>
+        <v>6709600</v>
       </c>
       <c r="H49" s="3">
-        <v>5733800</v>
+        <v>6135100</v>
       </c>
       <c r="I49" s="3">
-        <v>5930100</v>
+        <v>6345100</v>
       </c>
       <c r="J49" s="3">
-        <v>6156000</v>
+        <v>6586800</v>
       </c>
       <c r="K49" s="3">
         <v>11251300</v>
@@ -2019,25 +2019,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4352500</v>
+        <v>4657100</v>
       </c>
       <c r="E52" s="3">
-        <v>5405400</v>
+        <v>5783700</v>
       </c>
       <c r="F52" s="3">
-        <v>5167200</v>
+        <v>5528800</v>
       </c>
       <c r="G52" s="3">
-        <v>3214400</v>
+        <v>3439300</v>
       </c>
       <c r="H52" s="3">
-        <v>1807200</v>
+        <v>1933600</v>
       </c>
       <c r="I52" s="3">
-        <v>2735400</v>
+        <v>2926900</v>
       </c>
       <c r="J52" s="3">
-        <v>1528200</v>
+        <v>1635100</v>
       </c>
       <c r="K52" s="3">
         <v>3248800</v>
@@ -2085,25 +2085,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39829200</v>
+        <v>42616600</v>
       </c>
       <c r="E54" s="3">
-        <v>39324300</v>
+        <v>42076400</v>
       </c>
       <c r="F54" s="3">
-        <v>34473100</v>
+        <v>36885700</v>
       </c>
       <c r="G54" s="3">
-        <v>31524100</v>
+        <v>33730300</v>
       </c>
       <c r="H54" s="3">
-        <v>27556700</v>
+        <v>29485300</v>
       </c>
       <c r="I54" s="3">
-        <v>27433300</v>
+        <v>29353200</v>
       </c>
       <c r="J54" s="3">
-        <v>28469000</v>
+        <v>30461400</v>
       </c>
       <c r="K54" s="3">
         <v>23459300</v>
@@ -2148,25 +2148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3824200</v>
+        <v>4091800</v>
       </c>
       <c r="E57" s="3">
-        <v>3894500</v>
+        <v>4167100</v>
       </c>
       <c r="F57" s="3">
-        <v>16923600</v>
+        <v>18108000</v>
       </c>
       <c r="G57" s="3">
-        <v>2776200</v>
+        <v>2970500</v>
       </c>
       <c r="H57" s="3">
-        <v>1967600</v>
+        <v>2105300</v>
       </c>
       <c r="I57" s="3">
-        <v>1954100</v>
+        <v>2090800</v>
       </c>
       <c r="J57" s="3">
-        <v>1926900</v>
+        <v>2061800</v>
       </c>
       <c r="K57" s="3">
         <v>14007600</v>
@@ -2181,25 +2181,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>956700</v>
+        <v>1023600</v>
       </c>
       <c r="E58" s="3">
-        <v>1059100</v>
+        <v>1133200</v>
       </c>
       <c r="F58" s="3">
-        <v>202400</v>
+        <v>216600</v>
       </c>
       <c r="G58" s="3">
-        <v>212300</v>
+        <v>227200</v>
       </c>
       <c r="H58" s="3">
-        <v>517200</v>
+        <v>553400</v>
       </c>
       <c r="I58" s="3">
-        <v>83900</v>
+        <v>89800</v>
       </c>
       <c r="J58" s="3">
-        <v>255500</v>
+        <v>273400</v>
       </c>
       <c r="K58" s="3">
         <v>385300</v>
@@ -2214,25 +2214,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13705500</v>
+        <v>14664700</v>
       </c>
       <c r="E59" s="3">
-        <v>13378400</v>
+        <v>14314700</v>
       </c>
       <c r="F59" s="3">
-        <v>18332100</v>
+        <v>19615100</v>
       </c>
       <c r="G59" s="3">
-        <v>8780300</v>
+        <v>9394800</v>
       </c>
       <c r="H59" s="3">
-        <v>7603900</v>
+        <v>8136100</v>
       </c>
       <c r="I59" s="3">
-        <v>7448400</v>
+        <v>7969600</v>
       </c>
       <c r="J59" s="3">
-        <v>9890000</v>
+        <v>10582200</v>
       </c>
       <c r="K59" s="3">
         <v>12483400</v>
@@ -2247,25 +2247,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18486400</v>
+        <v>19780200</v>
       </c>
       <c r="E60" s="3">
-        <v>18332100</v>
+        <v>19615100</v>
       </c>
       <c r="F60" s="3">
-        <v>15344800</v>
+        <v>16418700</v>
       </c>
       <c r="G60" s="3">
-        <v>11768800</v>
+        <v>12592400</v>
       </c>
       <c r="H60" s="3">
-        <v>10088800</v>
+        <v>10794800</v>
       </c>
       <c r="I60" s="3">
-        <v>9486400</v>
+        <v>10150300</v>
       </c>
       <c r="J60" s="3">
-        <v>12072400</v>
+        <v>12917300</v>
       </c>
       <c r="K60" s="3">
         <v>9318600</v>
@@ -2280,25 +2280,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6060900</v>
+        <v>6485100</v>
       </c>
       <c r="E61" s="3">
-        <v>4695700</v>
+        <v>5024300</v>
       </c>
       <c r="F61" s="3">
-        <v>4204400</v>
+        <v>4498600</v>
       </c>
       <c r="G61" s="3">
-        <v>3931600</v>
+        <v>4206700</v>
       </c>
       <c r="H61" s="3">
-        <v>3558800</v>
+        <v>3807800</v>
       </c>
       <c r="I61" s="3">
-        <v>2707000</v>
+        <v>2896500</v>
       </c>
       <c r="J61" s="3">
-        <v>3115600</v>
+        <v>3333700</v>
       </c>
       <c r="K61" s="3">
         <v>2135700</v>
@@ -2313,25 +2313,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19403500</v>
+        <v>20761500</v>
       </c>
       <c r="E62" s="3">
-        <v>17131000</v>
+        <v>18329900</v>
       </c>
       <c r="F62" s="3">
-        <v>21769900</v>
+        <v>23293500</v>
       </c>
       <c r="G62" s="3">
-        <v>13522900</v>
+        <v>14469300</v>
       </c>
       <c r="H62" s="3">
-        <v>7717500</v>
+        <v>8257600</v>
       </c>
       <c r="I62" s="3">
-        <v>7355800</v>
+        <v>7870600</v>
       </c>
       <c r="J62" s="3">
-        <v>5500500</v>
+        <v>5885400</v>
       </c>
       <c r="K62" s="3">
         <v>8779500</v>
@@ -2445,25 +2445,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43996500</v>
+        <v>47075600</v>
       </c>
       <c r="E66" s="3">
-        <v>40650000</v>
+        <v>43494900</v>
       </c>
       <c r="F66" s="3">
-        <v>33325100</v>
+        <v>35657400</v>
       </c>
       <c r="G66" s="3">
-        <v>29225700</v>
+        <v>31271000</v>
       </c>
       <c r="H66" s="3">
-        <v>21367500</v>
+        <v>22862900</v>
       </c>
       <c r="I66" s="3">
-        <v>19555400</v>
+        <v>20924000</v>
       </c>
       <c r="J66" s="3">
-        <v>21550200</v>
+        <v>23058400</v>
       </c>
       <c r="K66" s="3">
         <v>15729600</v>
@@ -2625,25 +2625,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5409100</v>
+        <v>-5787700</v>
       </c>
       <c r="E72" s="3">
-        <v>-2992200</v>
+        <v>-3201600</v>
       </c>
       <c r="F72" s="3">
-        <v>595000</v>
+        <v>636600</v>
       </c>
       <c r="G72" s="3">
-        <v>1754100</v>
+        <v>1876800</v>
       </c>
       <c r="H72" s="3">
-        <v>5637500</v>
+        <v>6032000</v>
       </c>
       <c r="I72" s="3">
-        <v>7292800</v>
+        <v>7803200</v>
       </c>
       <c r="J72" s="3">
-        <v>6439900</v>
+        <v>6890600</v>
       </c>
       <c r="K72" s="3">
         <v>14793600</v>
@@ -2757,25 +2757,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4167300</v>
+        <v>-4459000</v>
       </c>
       <c r="E76" s="3">
-        <v>-1325700</v>
+        <v>-1418500</v>
       </c>
       <c r="F76" s="3">
-        <v>1148000</v>
+        <v>1228300</v>
       </c>
       <c r="G76" s="3">
-        <v>2298500</v>
+        <v>2459300</v>
       </c>
       <c r="H76" s="3">
-        <v>6189300</v>
+        <v>6622400</v>
       </c>
       <c r="I76" s="3">
-        <v>7877900</v>
+        <v>8429300</v>
       </c>
       <c r="J76" s="3">
-        <v>6918800</v>
+        <v>7403000</v>
       </c>
       <c r="K76" s="3">
         <v>7729700</v>
@@ -2861,25 +2861,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1619600</v>
+        <v>-1736800</v>
       </c>
       <c r="E81" s="3">
-        <v>-2957100</v>
+        <v>-3171200</v>
       </c>
       <c r="F81" s="3">
-        <v>4165300</v>
+        <v>4466900</v>
       </c>
       <c r="G81" s="3">
-        <v>-4965800</v>
+        <v>-5325400</v>
       </c>
       <c r="H81" s="3">
-        <v>102200</v>
+        <v>109600</v>
       </c>
       <c r="I81" s="3">
-        <v>85000</v>
+        <v>91100</v>
       </c>
       <c r="J81" s="3">
-        <v>1683600</v>
+        <v>1805500</v>
       </c>
       <c r="K81" s="3">
         <v>3000600</v>
@@ -2909,25 +2909,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1619600</v>
+        <v>1736800</v>
       </c>
       <c r="E83" s="3">
-        <v>1110900</v>
+        <v>1191400</v>
       </c>
       <c r="F83" s="3">
-        <v>969300</v>
+        <v>1039500</v>
       </c>
       <c r="G83" s="3">
-        <v>1022200</v>
+        <v>1096300</v>
       </c>
       <c r="H83" s="3">
-        <v>960600</v>
+        <v>1030200</v>
       </c>
       <c r="I83" s="3">
-        <v>913800</v>
+        <v>980000</v>
       </c>
       <c r="J83" s="3">
-        <v>985300</v>
+        <v>1056600</v>
       </c>
       <c r="K83" s="3">
         <v>629600</v>
@@ -3107,25 +3107,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2829000</v>
+        <v>3033900</v>
       </c>
       <c r="E89" s="3">
-        <v>2741500</v>
+        <v>2940100</v>
       </c>
       <c r="F89" s="3">
-        <v>1862200</v>
+        <v>1997000</v>
       </c>
       <c r="G89" s="3">
-        <v>1737800</v>
+        <v>1863600</v>
       </c>
       <c r="H89" s="3">
-        <v>1347400</v>
+        <v>1444900</v>
       </c>
       <c r="I89" s="3">
-        <v>1602300</v>
+        <v>1718300</v>
       </c>
       <c r="J89" s="3">
-        <v>2512500</v>
+        <v>2694400</v>
       </c>
       <c r="K89" s="3">
         <v>1622500</v>
@@ -3155,25 +3155,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-920000</v>
+        <v>-986600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1114600</v>
+        <v>-1195300</v>
       </c>
       <c r="F91" s="3">
-        <v>-899100</v>
+        <v>-964200</v>
       </c>
       <c r="G91" s="3">
-        <v>-720500</v>
+        <v>-772700</v>
       </c>
       <c r="H91" s="3">
-        <v>-599800</v>
+        <v>-643200</v>
       </c>
       <c r="I91" s="3">
-        <v>-798100</v>
+        <v>-855900</v>
       </c>
       <c r="J91" s="3">
-        <v>-823900</v>
+        <v>-883600</v>
       </c>
       <c r="K91" s="3">
         <v>-562400</v>
@@ -3254,25 +3254,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1130600</v>
+        <v>-1212500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1200800</v>
+        <v>-1287800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1421300</v>
+        <v>-1524200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1678700</v>
+        <v>-1800200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1225400</v>
+        <v>-1314200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2421300</v>
+        <v>-2596700</v>
       </c>
       <c r="J94" s="3">
-        <v>-911400</v>
+        <v>-977400</v>
       </c>
       <c r="K94" s="3">
         <v>548200</v>
@@ -3434,25 +3434,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2207000</v>
+        <v>-2366900</v>
       </c>
       <c r="E100" s="3">
-        <v>864600</v>
+        <v>927200</v>
       </c>
       <c r="F100" s="3">
-        <v>-156400</v>
+        <v>-167700</v>
       </c>
       <c r="G100" s="3">
-        <v>-910200</v>
+        <v>-976100</v>
       </c>
       <c r="H100" s="3">
-        <v>272200</v>
+        <v>291900</v>
       </c>
       <c r="I100" s="3">
-        <v>-576400</v>
+        <v>-618100</v>
       </c>
       <c r="J100" s="3">
-        <v>167500</v>
+        <v>179600</v>
       </c>
       <c r="K100" s="3">
         <v>-427900</v>
@@ -3467,25 +3467,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-128100</v>
+        <v>-137400</v>
       </c>
       <c r="E101" s="3">
-        <v>81300</v>
+        <v>87200</v>
       </c>
       <c r="F101" s="3">
-        <v>-85000</v>
+        <v>-91100</v>
       </c>
       <c r="G101" s="3">
-        <v>352200</v>
+        <v>377700</v>
       </c>
       <c r="H101" s="3">
-        <v>-7400</v>
+        <v>-7900</v>
       </c>
       <c r="I101" s="3">
-        <v>9900</v>
+        <v>10600</v>
       </c>
       <c r="J101" s="3">
-        <v>-41900</v>
+        <v>-44900</v>
       </c>
       <c r="K101" s="3">
         <v>-69800</v>
@@ -3500,25 +3500,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-636700</v>
+        <v>-682800</v>
       </c>
       <c r="E102" s="3">
-        <v>2486600</v>
+        <v>2666700</v>
       </c>
       <c r="F102" s="3">
-        <v>199500</v>
+        <v>214000</v>
       </c>
       <c r="G102" s="3">
-        <v>-498800</v>
+        <v>-534900</v>
       </c>
       <c r="H102" s="3">
-        <v>386700</v>
+        <v>414700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1385600</v>
+        <v>-1485900</v>
       </c>
       <c r="J102" s="3">
-        <v>1726700</v>
+        <v>1851700</v>
       </c>
       <c r="K102" s="3">
         <v>1672900</v>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21907900</v>
+        <v>22083900</v>
       </c>
       <c r="E8" s="3">
-        <v>20774700</v>
+        <v>20941600</v>
       </c>
       <c r="F8" s="3">
-        <v>19477700</v>
+        <v>19634200</v>
       </c>
       <c r="G8" s="3">
-        <v>19752400</v>
+        <v>19911100</v>
       </c>
       <c r="H8" s="3">
-        <v>18127800</v>
+        <v>18273500</v>
       </c>
       <c r="I8" s="3">
-        <v>18142400</v>
+        <v>18288100</v>
       </c>
       <c r="J8" s="3">
-        <v>19339000</v>
+        <v>19494400</v>
       </c>
       <c r="K8" s="3">
         <v>15721900</v>
@@ -754,25 +754,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20663800</v>
+        <v>20829800</v>
       </c>
       <c r="E9" s="3">
-        <v>19192400</v>
+        <v>19346600</v>
       </c>
       <c r="F9" s="3">
-        <v>32807100</v>
+        <v>33070600</v>
       </c>
       <c r="G9" s="3">
-        <v>15726600</v>
+        <v>15853000</v>
       </c>
       <c r="H9" s="3">
-        <v>13814100</v>
+        <v>13925100</v>
       </c>
       <c r="I9" s="3">
-        <v>13911900</v>
+        <v>14023600</v>
       </c>
       <c r="J9" s="3">
-        <v>31247200</v>
+        <v>31498300</v>
       </c>
       <c r="K9" s="3">
         <v>12193800</v>
@@ -787,25 +787,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1244200</v>
+        <v>1254200</v>
       </c>
       <c r="E10" s="3">
-        <v>1582300</v>
+        <v>1595000</v>
       </c>
       <c r="F10" s="3">
-        <v>-13329400</v>
+        <v>-13436500</v>
       </c>
       <c r="G10" s="3">
-        <v>4025800</v>
+        <v>4058100</v>
       </c>
       <c r="H10" s="3">
-        <v>4313700</v>
+        <v>4348400</v>
       </c>
       <c r="I10" s="3">
-        <v>4230500</v>
+        <v>4264500</v>
       </c>
       <c r="J10" s="3">
-        <v>-11908200</v>
+        <v>-12003900</v>
       </c>
       <c r="K10" s="3">
         <v>3528100</v>
@@ -835,25 +835,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>841300</v>
+        <v>848100</v>
       </c>
       <c r="E12" s="3">
-        <v>854600</v>
+        <v>861400</v>
       </c>
       <c r="F12" s="3">
-        <v>916600</v>
+        <v>924000</v>
       </c>
       <c r="G12" s="3">
-        <v>1018300</v>
+        <v>1026500</v>
       </c>
       <c r="H12" s="3">
-        <v>899500</v>
+        <v>906700</v>
       </c>
       <c r="I12" s="3">
-        <v>882300</v>
+        <v>889400</v>
       </c>
       <c r="J12" s="3">
-        <v>1595500</v>
+        <v>1608300</v>
       </c>
       <c r="K12" s="3">
         <v>1447900</v>
@@ -901,25 +901,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-157200</v>
+        <v>-158400</v>
       </c>
       <c r="E14" s="3">
-        <v>-463600</v>
+        <v>-467300</v>
       </c>
       <c r="F14" s="3">
-        <v>-1036800</v>
+        <v>-1045100</v>
       </c>
       <c r="G14" s="3">
-        <v>1294400</v>
+        <v>1304800</v>
       </c>
       <c r="H14" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="I14" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="J14" s="3">
-        <v>-455700</v>
+        <v>-459300</v>
       </c>
       <c r="K14" s="3">
         <v>-903700</v>
@@ -934,25 +934,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>149200</v>
+        <v>150400</v>
       </c>
       <c r="E15" s="3">
-        <v>150600</v>
+        <v>151800</v>
       </c>
       <c r="F15" s="3">
-        <v>196800</v>
+        <v>198400</v>
       </c>
       <c r="G15" s="3">
-        <v>194200</v>
+        <v>195700</v>
       </c>
       <c r="H15" s="3">
-        <v>180900</v>
+        <v>182400</v>
       </c>
       <c r="I15" s="3">
-        <v>165100</v>
+        <v>166400</v>
       </c>
       <c r="J15" s="3">
-        <v>171700</v>
+        <v>173100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22849700</v>
+        <v>23033200</v>
       </c>
       <c r="E17" s="3">
-        <v>21835300</v>
+        <v>22010700</v>
       </c>
       <c r="F17" s="3">
-        <v>17957500</v>
+        <v>18101700</v>
       </c>
       <c r="G17" s="3">
-        <v>19698300</v>
+        <v>19856500</v>
       </c>
       <c r="H17" s="3">
-        <v>16145300</v>
+        <v>16275000</v>
       </c>
       <c r="I17" s="3">
-        <v>16315700</v>
+        <v>16446800</v>
       </c>
       <c r="J17" s="3">
-        <v>16981400</v>
+        <v>17117800</v>
       </c>
       <c r="K17" s="3">
         <v>13036700</v>
@@ -1012,25 +1012,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-941700</v>
+        <v>-949300</v>
       </c>
       <c r="E18" s="3">
-        <v>-1060600</v>
+        <v>-1069100</v>
       </c>
       <c r="F18" s="3">
-        <v>1520200</v>
+        <v>1532400</v>
       </c>
       <c r="G18" s="3">
-        <v>54200</v>
+        <v>54600</v>
       </c>
       <c r="H18" s="3">
-        <v>1982500</v>
+        <v>1998400</v>
       </c>
       <c r="I18" s="3">
-        <v>1826700</v>
+        <v>1841300</v>
       </c>
       <c r="J18" s="3">
-        <v>2357600</v>
+        <v>2376500</v>
       </c>
       <c r="K18" s="3">
         <v>2685200</v>
@@ -1063,22 +1063,22 @@
         <v>5300</v>
       </c>
       <c r="E20" s="3">
-        <v>-2690400</v>
+        <v>-2712100</v>
       </c>
       <c r="F20" s="3">
-        <v>3716700</v>
+        <v>3746600</v>
       </c>
       <c r="G20" s="3">
-        <v>-6075600</v>
+        <v>-6124400</v>
       </c>
       <c r="H20" s="3">
-        <v>-1677400</v>
+        <v>-1690900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1654900</v>
+        <v>-1668200</v>
       </c>
       <c r="J20" s="3">
-        <v>-35700</v>
+        <v>-35900</v>
       </c>
       <c r="K20" s="3">
         <v>956700</v>
@@ -1093,25 +1093,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>792800</v>
+        <v>812200</v>
       </c>
       <c r="E21" s="3">
-        <v>-2564900</v>
+        <v>-2576500</v>
       </c>
       <c r="F21" s="3">
-        <v>6271800</v>
+        <v>6330000</v>
       </c>
       <c r="G21" s="3">
-        <v>-4930000</v>
+        <v>-4961400</v>
       </c>
       <c r="H21" s="3">
-        <v>1330800</v>
+        <v>1349300</v>
       </c>
       <c r="I21" s="3">
-        <v>1147400</v>
+        <v>1164000</v>
       </c>
       <c r="J21" s="3">
-        <v>3373900</v>
+        <v>3409000</v>
       </c>
       <c r="K21" s="3">
         <v>4274900</v>
@@ -1126,25 +1126,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>240400</v>
+        <v>242300</v>
       </c>
       <c r="E22" s="3">
-        <v>141300</v>
+        <v>142500</v>
       </c>
       <c r="F22" s="3">
-        <v>88500</v>
+        <v>89200</v>
       </c>
       <c r="G22" s="3">
-        <v>101700</v>
+        <v>102500</v>
       </c>
       <c r="H22" s="3">
-        <v>93800</v>
+        <v>94500</v>
       </c>
       <c r="I22" s="3">
-        <v>83200</v>
+        <v>83900</v>
       </c>
       <c r="J22" s="3">
-        <v>76600</v>
+        <v>77200</v>
       </c>
       <c r="K22" s="3">
         <v>65900</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1176800</v>
+        <v>-1186300</v>
       </c>
       <c r="E23" s="3">
-        <v>-3892400</v>
+        <v>-3923600</v>
       </c>
       <c r="F23" s="3">
-        <v>5148400</v>
+        <v>5189800</v>
       </c>
       <c r="G23" s="3">
-        <v>-6123200</v>
+        <v>-6172400</v>
       </c>
       <c r="H23" s="3">
-        <v>211300</v>
+        <v>213000</v>
       </c>
       <c r="I23" s="3">
-        <v>88500</v>
+        <v>89200</v>
       </c>
       <c r="J23" s="3">
-        <v>2245300</v>
+        <v>2263400</v>
       </c>
       <c r="K23" s="3">
         <v>3575900</v>
@@ -1192,25 +1192,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>554700</v>
+        <v>559200</v>
       </c>
       <c r="E24" s="3">
-        <v>-674900</v>
+        <v>-680300</v>
       </c>
       <c r="F24" s="3">
-        <v>614200</v>
+        <v>619100</v>
       </c>
       <c r="G24" s="3">
-        <v>-797800</v>
+        <v>-804200</v>
       </c>
       <c r="H24" s="3">
-        <v>100400</v>
+        <v>101200</v>
       </c>
       <c r="I24" s="3">
-        <v>199400</v>
+        <v>201000</v>
       </c>
       <c r="J24" s="3">
-        <v>497900</v>
+        <v>501900</v>
       </c>
       <c r="K24" s="3">
         <v>557200</v>
@@ -1258,25 +1258,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1731600</v>
+        <v>-1745500</v>
       </c>
       <c r="E26" s="3">
-        <v>-3217400</v>
+        <v>-3243300</v>
       </c>
       <c r="F26" s="3">
-        <v>4534300</v>
+        <v>4570700</v>
       </c>
       <c r="G26" s="3">
-        <v>-5325400</v>
+        <v>-5368200</v>
       </c>
       <c r="H26" s="3">
-        <v>110900</v>
+        <v>111800</v>
       </c>
       <c r="I26" s="3">
-        <v>-110900</v>
+        <v>-111800</v>
       </c>
       <c r="J26" s="3">
-        <v>1747400</v>
+        <v>1761400</v>
       </c>
       <c r="K26" s="3">
         <v>3018700</v>
@@ -1291,25 +1291,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1736800</v>
+        <v>-1750800</v>
       </c>
       <c r="E27" s="3">
-        <v>-3228000</v>
+        <v>-3253900</v>
       </c>
       <c r="F27" s="3">
-        <v>4533000</v>
+        <v>4569400</v>
       </c>
       <c r="G27" s="3">
-        <v>-5325400</v>
+        <v>-5368200</v>
       </c>
       <c r="H27" s="3">
-        <v>109600</v>
+        <v>110500</v>
       </c>
       <c r="I27" s="3">
-        <v>-96400</v>
+        <v>-97200</v>
       </c>
       <c r="J27" s="3">
-        <v>1731600</v>
+        <v>1745500</v>
       </c>
       <c r="K27" s="3">
         <v>3000600</v>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>56800</v>
+        <v>57300</v>
       </c>
       <c r="F29" s="3">
-        <v>-66000</v>
+        <v>-66600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>187600</v>
+        <v>189100</v>
       </c>
       <c r="J29" s="3">
-        <v>74000</v>
+        <v>74600</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1459,22 +1459,22 @@
         <v>-5300</v>
       </c>
       <c r="E32" s="3">
-        <v>2690400</v>
+        <v>2712100</v>
       </c>
       <c r="F32" s="3">
-        <v>-3716700</v>
+        <v>-3746600</v>
       </c>
       <c r="G32" s="3">
-        <v>6075600</v>
+        <v>6124400</v>
       </c>
       <c r="H32" s="3">
-        <v>1677400</v>
+        <v>1690900</v>
       </c>
       <c r="I32" s="3">
-        <v>1654900</v>
+        <v>1668200</v>
       </c>
       <c r="J32" s="3">
-        <v>35700</v>
+        <v>35900</v>
       </c>
       <c r="K32" s="3">
         <v>-956700</v>
@@ -1489,25 +1489,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1736800</v>
+        <v>-1750800</v>
       </c>
       <c r="E33" s="3">
-        <v>-3171200</v>
+        <v>-3196700</v>
       </c>
       <c r="F33" s="3">
-        <v>4466900</v>
+        <v>4502800</v>
       </c>
       <c r="G33" s="3">
-        <v>-5325400</v>
+        <v>-5368200</v>
       </c>
       <c r="H33" s="3">
-        <v>109600</v>
+        <v>110500</v>
       </c>
       <c r="I33" s="3">
-        <v>91100</v>
+        <v>91900</v>
       </c>
       <c r="J33" s="3">
-        <v>1805500</v>
+        <v>1820000</v>
       </c>
       <c r="K33" s="3">
         <v>3000600</v>
@@ -1555,25 +1555,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1736800</v>
+        <v>-1750800</v>
       </c>
       <c r="E35" s="3">
-        <v>-3171200</v>
+        <v>-3196700</v>
       </c>
       <c r="F35" s="3">
-        <v>4466900</v>
+        <v>4502800</v>
       </c>
       <c r="G35" s="3">
-        <v>-5325400</v>
+        <v>-5368200</v>
       </c>
       <c r="H35" s="3">
-        <v>109600</v>
+        <v>110500</v>
       </c>
       <c r="I35" s="3">
-        <v>91100</v>
+        <v>91900</v>
       </c>
       <c r="J35" s="3">
-        <v>1805500</v>
+        <v>1820000</v>
       </c>
       <c r="K35" s="3">
         <v>3000600</v>
@@ -1656,25 +1656,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5823400</v>
+        <v>5870100</v>
       </c>
       <c r="E41" s="3">
-        <v>6528700</v>
+        <v>6581100</v>
       </c>
       <c r="F41" s="3">
-        <v>7770200</v>
+        <v>7832600</v>
       </c>
       <c r="G41" s="3">
-        <v>3615000</v>
+        <v>3644000</v>
       </c>
       <c r="H41" s="3">
-        <v>4167100</v>
+        <v>4200600</v>
       </c>
       <c r="I41" s="3">
-        <v>3740500</v>
+        <v>3770500</v>
       </c>
       <c r="J41" s="3">
-        <v>4892200</v>
+        <v>4931500</v>
       </c>
       <c r="K41" s="3">
         <v>8082600</v>
@@ -1689,10 +1689,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="E42" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="F42" s="3">
         <v>4000</v>
@@ -1701,13 +1701,13 @@
         <v>4000</v>
       </c>
       <c r="H42" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I42" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="J42" s="3">
-        <v>424000</v>
+        <v>427400</v>
       </c>
       <c r="K42" s="3">
         <v>1971500</v>
@@ -1722,25 +1722,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8710600</v>
+        <v>8780600</v>
       </c>
       <c r="E43" s="3">
-        <v>8173000</v>
+        <v>8238700</v>
       </c>
       <c r="F43" s="3">
-        <v>16441200</v>
+        <v>16573300</v>
       </c>
       <c r="G43" s="3">
-        <v>8969500</v>
+        <v>9041500</v>
       </c>
       <c r="H43" s="3">
-        <v>8019800</v>
+        <v>8084300</v>
       </c>
       <c r="I43" s="3">
-        <v>7037200</v>
+        <v>7093700</v>
       </c>
       <c r="J43" s="3">
-        <v>6436200</v>
+        <v>6487900</v>
       </c>
       <c r="K43" s="3">
         <v>15530500</v>
@@ -1755,25 +1755,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5705800</v>
+        <v>5751600</v>
       </c>
       <c r="E44" s="3">
-        <v>5662200</v>
+        <v>5707700</v>
       </c>
       <c r="F44" s="3">
-        <v>10170100</v>
+        <v>10251800</v>
       </c>
       <c r="G44" s="3">
-        <v>4076000</v>
+        <v>4108700</v>
       </c>
       <c r="H44" s="3">
-        <v>3482900</v>
+        <v>3510900</v>
       </c>
       <c r="I44" s="3">
-        <v>3655900</v>
+        <v>3685300</v>
       </c>
       <c r="J44" s="3">
-        <v>4383700</v>
+        <v>4418900</v>
       </c>
       <c r="K44" s="3">
         <v>10572600</v>
@@ -1788,25 +1788,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>940400</v>
+        <v>948000</v>
       </c>
       <c r="E45" s="3">
-        <v>1843800</v>
+        <v>1858600</v>
       </c>
       <c r="F45" s="3">
-        <v>361900</v>
+        <v>364800</v>
       </c>
       <c r="G45" s="3">
-        <v>318300</v>
+        <v>320900</v>
       </c>
       <c r="H45" s="3">
-        <v>330200</v>
+        <v>332800</v>
       </c>
       <c r="I45" s="3">
-        <v>334200</v>
+        <v>336800</v>
       </c>
       <c r="J45" s="3">
-        <v>793800</v>
+        <v>800200</v>
       </c>
       <c r="K45" s="3">
         <v>837700</v>
@@ -1821,25 +1821,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21204000</v>
+        <v>21374300</v>
       </c>
       <c r="E46" s="3">
-        <v>22215700</v>
+        <v>22394100</v>
       </c>
       <c r="F46" s="3">
-        <v>17324800</v>
+        <v>17464000</v>
       </c>
       <c r="G46" s="3">
-        <v>16982700</v>
+        <v>17119100</v>
       </c>
       <c r="H46" s="3">
-        <v>16002700</v>
+        <v>16131200</v>
       </c>
       <c r="I46" s="3">
-        <v>14777000</v>
+        <v>14895700</v>
       </c>
       <c r="J46" s="3">
-        <v>16929900</v>
+        <v>17065900</v>
       </c>
       <c r="K46" s="3">
         <v>12401900</v>
@@ -1854,25 +1854,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>570600</v>
+        <v>575200</v>
       </c>
       <c r="E47" s="3">
-        <v>573200</v>
+        <v>577800</v>
       </c>
       <c r="F47" s="3">
-        <v>529600</v>
+        <v>533900</v>
       </c>
       <c r="G47" s="3">
-        <v>1164900</v>
+        <v>1174300</v>
       </c>
       <c r="H47" s="3">
-        <v>804400</v>
+        <v>810800</v>
       </c>
       <c r="I47" s="3">
-        <v>752900</v>
+        <v>758900</v>
       </c>
       <c r="J47" s="3">
-        <v>829500</v>
+        <v>836100</v>
       </c>
       <c r="K47" s="3">
         <v>4669600</v>
@@ -1887,25 +1887,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8997200</v>
+        <v>9069500</v>
       </c>
       <c r="E48" s="3">
-        <v>6510200</v>
+        <v>6562500</v>
       </c>
       <c r="F48" s="3">
-        <v>6152200</v>
+        <v>6201700</v>
       </c>
       <c r="G48" s="3">
-        <v>5433700</v>
+        <v>5477400</v>
       </c>
       <c r="H48" s="3">
-        <v>4609600</v>
+        <v>4646600</v>
       </c>
       <c r="I48" s="3">
-        <v>4551400</v>
+        <v>4588000</v>
       </c>
       <c r="J48" s="3">
-        <v>4480100</v>
+        <v>4516100</v>
       </c>
       <c r="K48" s="3">
         <v>9944300</v>
@@ -1920,25 +1920,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7187700</v>
+        <v>7245500</v>
       </c>
       <c r="E49" s="3">
-        <v>6993600</v>
+        <v>7049800</v>
       </c>
       <c r="F49" s="3">
-        <v>7350200</v>
+        <v>7409200</v>
       </c>
       <c r="G49" s="3">
-        <v>6709600</v>
+        <v>6763500</v>
       </c>
       <c r="H49" s="3">
-        <v>6135100</v>
+        <v>6184400</v>
       </c>
       <c r="I49" s="3">
-        <v>6345100</v>
+        <v>6396000</v>
       </c>
       <c r="J49" s="3">
-        <v>6586800</v>
+        <v>6639700</v>
       </c>
       <c r="K49" s="3">
         <v>11251300</v>
@@ -2019,25 +2019,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4657100</v>
+        <v>4694500</v>
       </c>
       <c r="E52" s="3">
-        <v>5783700</v>
+        <v>5830200</v>
       </c>
       <c r="F52" s="3">
-        <v>5528800</v>
+        <v>5573200</v>
       </c>
       <c r="G52" s="3">
-        <v>3439300</v>
+        <v>3467000</v>
       </c>
       <c r="H52" s="3">
-        <v>1933600</v>
+        <v>1949200</v>
       </c>
       <c r="I52" s="3">
-        <v>2926900</v>
+        <v>2950400</v>
       </c>
       <c r="J52" s="3">
-        <v>1635100</v>
+        <v>1648300</v>
       </c>
       <c r="K52" s="3">
         <v>3248800</v>
@@ -2085,25 +2085,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42616600</v>
+        <v>42959000</v>
       </c>
       <c r="E54" s="3">
-        <v>42076400</v>
+        <v>42414400</v>
       </c>
       <c r="F54" s="3">
-        <v>36885700</v>
+        <v>37182000</v>
       </c>
       <c r="G54" s="3">
-        <v>33730300</v>
+        <v>34001300</v>
       </c>
       <c r="H54" s="3">
-        <v>29485300</v>
+        <v>29722200</v>
       </c>
       <c r="I54" s="3">
-        <v>29353200</v>
+        <v>29589000</v>
       </c>
       <c r="J54" s="3">
-        <v>30461400</v>
+        <v>30706100</v>
       </c>
       <c r="K54" s="3">
         <v>23459300</v>
@@ -2148,25 +2148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4091800</v>
+        <v>4124700</v>
       </c>
       <c r="E57" s="3">
-        <v>4167100</v>
+        <v>4200600</v>
       </c>
       <c r="F57" s="3">
-        <v>18108000</v>
+        <v>18253500</v>
       </c>
       <c r="G57" s="3">
-        <v>2970500</v>
+        <v>2994300</v>
       </c>
       <c r="H57" s="3">
-        <v>2105300</v>
+        <v>2122300</v>
       </c>
       <c r="I57" s="3">
-        <v>2090800</v>
+        <v>2107600</v>
       </c>
       <c r="J57" s="3">
-        <v>2061800</v>
+        <v>2078300</v>
       </c>
       <c r="K57" s="3">
         <v>14007600</v>
@@ -2181,25 +2181,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1023600</v>
+        <v>1031800</v>
       </c>
       <c r="E58" s="3">
-        <v>1133200</v>
+        <v>1142300</v>
       </c>
       <c r="F58" s="3">
-        <v>216600</v>
+        <v>218300</v>
       </c>
       <c r="G58" s="3">
-        <v>227200</v>
+        <v>229000</v>
       </c>
       <c r="H58" s="3">
-        <v>553400</v>
+        <v>557900</v>
       </c>
       <c r="I58" s="3">
-        <v>89800</v>
+        <v>90500</v>
       </c>
       <c r="J58" s="3">
-        <v>273400</v>
+        <v>275600</v>
       </c>
       <c r="K58" s="3">
         <v>385300</v>
@@ -2214,25 +2214,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14664700</v>
+        <v>14782500</v>
       </c>
       <c r="E59" s="3">
-        <v>14314700</v>
+        <v>14429700</v>
       </c>
       <c r="F59" s="3">
-        <v>19615100</v>
+        <v>19772600</v>
       </c>
       <c r="G59" s="3">
-        <v>9394800</v>
+        <v>9470200</v>
       </c>
       <c r="H59" s="3">
-        <v>8136100</v>
+        <v>8201400</v>
       </c>
       <c r="I59" s="3">
-        <v>7969600</v>
+        <v>8033700</v>
       </c>
       <c r="J59" s="3">
-        <v>10582200</v>
+        <v>10667200</v>
       </c>
       <c r="K59" s="3">
         <v>12483400</v>
@@ -2247,25 +2247,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19780200</v>
+        <v>19939000</v>
       </c>
       <c r="E60" s="3">
-        <v>19615100</v>
+        <v>19772600</v>
       </c>
       <c r="F60" s="3">
-        <v>16418700</v>
+        <v>16550600</v>
       </c>
       <c r="G60" s="3">
-        <v>12592400</v>
+        <v>12693600</v>
       </c>
       <c r="H60" s="3">
-        <v>10794800</v>
+        <v>10881500</v>
       </c>
       <c r="I60" s="3">
-        <v>10150300</v>
+        <v>10231800</v>
       </c>
       <c r="J60" s="3">
-        <v>12917300</v>
+        <v>13021100</v>
       </c>
       <c r="K60" s="3">
         <v>9318600</v>
@@ -2280,25 +2280,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6485100</v>
+        <v>6537200</v>
       </c>
       <c r="E61" s="3">
-        <v>5024300</v>
+        <v>5064600</v>
       </c>
       <c r="F61" s="3">
-        <v>4498600</v>
+        <v>4534700</v>
       </c>
       <c r="G61" s="3">
-        <v>4206700</v>
+        <v>4240500</v>
       </c>
       <c r="H61" s="3">
-        <v>3807800</v>
+        <v>3838400</v>
       </c>
       <c r="I61" s="3">
-        <v>2896500</v>
+        <v>2919800</v>
       </c>
       <c r="J61" s="3">
-        <v>3333700</v>
+        <v>3360500</v>
       </c>
       <c r="K61" s="3">
         <v>2135700</v>
@@ -2313,25 +2313,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20761500</v>
+        <v>20928300</v>
       </c>
       <c r="E62" s="3">
-        <v>18329900</v>
+        <v>18477200</v>
       </c>
       <c r="F62" s="3">
-        <v>23293500</v>
+        <v>23480600</v>
       </c>
       <c r="G62" s="3">
-        <v>14469300</v>
+        <v>14585500</v>
       </c>
       <c r="H62" s="3">
-        <v>8257600</v>
+        <v>8323900</v>
       </c>
       <c r="I62" s="3">
-        <v>7870600</v>
+        <v>7933800</v>
       </c>
       <c r="J62" s="3">
-        <v>5885400</v>
+        <v>5932700</v>
       </c>
       <c r="K62" s="3">
         <v>8779500</v>
@@ -2445,25 +2445,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47075600</v>
+        <v>47453800</v>
       </c>
       <c r="E66" s="3">
-        <v>43494900</v>
+        <v>43844300</v>
       </c>
       <c r="F66" s="3">
-        <v>35657400</v>
+        <v>35943800</v>
       </c>
       <c r="G66" s="3">
-        <v>31271000</v>
+        <v>31522200</v>
       </c>
       <c r="H66" s="3">
-        <v>22862900</v>
+        <v>23046500</v>
       </c>
       <c r="I66" s="3">
-        <v>20924000</v>
+        <v>21092000</v>
       </c>
       <c r="J66" s="3">
-        <v>23058400</v>
+        <v>23243600</v>
       </c>
       <c r="K66" s="3">
         <v>15729600</v>
@@ -2625,25 +2625,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5787700</v>
+        <v>-5834200</v>
       </c>
       <c r="E72" s="3">
-        <v>-3201600</v>
+        <v>-3227300</v>
       </c>
       <c r="F72" s="3">
-        <v>636600</v>
+        <v>641700</v>
       </c>
       <c r="G72" s="3">
-        <v>1876800</v>
+        <v>1891900</v>
       </c>
       <c r="H72" s="3">
-        <v>6032000</v>
+        <v>6080500</v>
       </c>
       <c r="I72" s="3">
-        <v>7803200</v>
+        <v>7865900</v>
       </c>
       <c r="J72" s="3">
-        <v>6890600</v>
+        <v>6945900</v>
       </c>
       <c r="K72" s="3">
         <v>14793600</v>
@@ -2757,25 +2757,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4459000</v>
+        <v>-4494800</v>
       </c>
       <c r="E76" s="3">
-        <v>-1418500</v>
+        <v>-1429900</v>
       </c>
       <c r="F76" s="3">
-        <v>1228300</v>
+        <v>1238200</v>
       </c>
       <c r="G76" s="3">
-        <v>2459300</v>
+        <v>2479100</v>
       </c>
       <c r="H76" s="3">
-        <v>6622400</v>
+        <v>6675600</v>
       </c>
       <c r="I76" s="3">
-        <v>8429300</v>
+        <v>8497000</v>
       </c>
       <c r="J76" s="3">
-        <v>7403000</v>
+        <v>7462500</v>
       </c>
       <c r="K76" s="3">
         <v>7729700</v>
@@ -2861,25 +2861,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1736800</v>
+        <v>-1750800</v>
       </c>
       <c r="E81" s="3">
-        <v>-3171200</v>
+        <v>-3196700</v>
       </c>
       <c r="F81" s="3">
-        <v>4466900</v>
+        <v>4502800</v>
       </c>
       <c r="G81" s="3">
-        <v>-5325400</v>
+        <v>-5368200</v>
       </c>
       <c r="H81" s="3">
-        <v>109600</v>
+        <v>110500</v>
       </c>
       <c r="I81" s="3">
-        <v>91100</v>
+        <v>91900</v>
       </c>
       <c r="J81" s="3">
-        <v>1805500</v>
+        <v>1820000</v>
       </c>
       <c r="K81" s="3">
         <v>3000600</v>
@@ -2909,25 +2909,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1736800</v>
+        <v>1750800</v>
       </c>
       <c r="E83" s="3">
-        <v>1191400</v>
+        <v>1200900</v>
       </c>
       <c r="F83" s="3">
-        <v>1039500</v>
+        <v>1047800</v>
       </c>
       <c r="G83" s="3">
-        <v>1096300</v>
+        <v>1105100</v>
       </c>
       <c r="H83" s="3">
-        <v>1030200</v>
+        <v>1038500</v>
       </c>
       <c r="I83" s="3">
-        <v>980000</v>
+        <v>987900</v>
       </c>
       <c r="J83" s="3">
-        <v>1056600</v>
+        <v>1065100</v>
       </c>
       <c r="K83" s="3">
         <v>629600</v>
@@ -3107,25 +3107,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3033900</v>
+        <v>3058200</v>
       </c>
       <c r="E89" s="3">
-        <v>2940100</v>
+        <v>2963700</v>
       </c>
       <c r="F89" s="3">
-        <v>1997000</v>
+        <v>2013100</v>
       </c>
       <c r="G89" s="3">
-        <v>1863600</v>
+        <v>1878600</v>
       </c>
       <c r="H89" s="3">
-        <v>1444900</v>
+        <v>1456600</v>
       </c>
       <c r="I89" s="3">
-        <v>1718300</v>
+        <v>1732200</v>
       </c>
       <c r="J89" s="3">
-        <v>2694400</v>
+        <v>2716100</v>
       </c>
       <c r="K89" s="3">
         <v>1622500</v>
@@ -3155,25 +3155,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-986600</v>
+        <v>-994600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1195300</v>
+        <v>-1204900</v>
       </c>
       <c r="F91" s="3">
-        <v>-964200</v>
+        <v>-971900</v>
       </c>
       <c r="G91" s="3">
-        <v>-772700</v>
+        <v>-778900</v>
       </c>
       <c r="H91" s="3">
-        <v>-643200</v>
+        <v>-648400</v>
       </c>
       <c r="I91" s="3">
-        <v>-855900</v>
+        <v>-862700</v>
       </c>
       <c r="J91" s="3">
-        <v>-883600</v>
+        <v>-890700</v>
       </c>
       <c r="K91" s="3">
         <v>-562400</v>
@@ -3254,25 +3254,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1212500</v>
+        <v>-1222200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1287800</v>
+        <v>-1298100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1524200</v>
+        <v>-1536400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1800200</v>
+        <v>-1814700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1314200</v>
+        <v>-1324700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2596700</v>
+        <v>-2617500</v>
       </c>
       <c r="J94" s="3">
-        <v>-977400</v>
+        <v>-985200</v>
       </c>
       <c r="K94" s="3">
         <v>548200</v>
@@ -3434,25 +3434,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2366900</v>
+        <v>-2385900</v>
       </c>
       <c r="E100" s="3">
-        <v>927200</v>
+        <v>934600</v>
       </c>
       <c r="F100" s="3">
-        <v>-167700</v>
+        <v>-169100</v>
       </c>
       <c r="G100" s="3">
-        <v>-976100</v>
+        <v>-983900</v>
       </c>
       <c r="H100" s="3">
-        <v>291900</v>
+        <v>294200</v>
       </c>
       <c r="I100" s="3">
-        <v>-618100</v>
+        <v>-623100</v>
       </c>
       <c r="J100" s="3">
-        <v>179600</v>
+        <v>181100</v>
       </c>
       <c r="K100" s="3">
         <v>-427900</v>
@@ -3467,25 +3467,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-137400</v>
+        <v>-138500</v>
       </c>
       <c r="E101" s="3">
-        <v>87200</v>
+        <v>87900</v>
       </c>
       <c r="F101" s="3">
-        <v>-91100</v>
+        <v>-91900</v>
       </c>
       <c r="G101" s="3">
-        <v>377700</v>
+        <v>380800</v>
       </c>
       <c r="H101" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="I101" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="J101" s="3">
-        <v>-44900</v>
+        <v>-45300</v>
       </c>
       <c r="K101" s="3">
         <v>-69800</v>
@@ -3500,25 +3500,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-682800</v>
+        <v>-688300</v>
       </c>
       <c r="E102" s="3">
-        <v>2666700</v>
+        <v>2688100</v>
       </c>
       <c r="F102" s="3">
-        <v>214000</v>
+        <v>215700</v>
       </c>
       <c r="G102" s="3">
-        <v>-534900</v>
+        <v>-539200</v>
       </c>
       <c r="H102" s="3">
-        <v>414700</v>
+        <v>418100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1485900</v>
+        <v>-1497800</v>
       </c>
       <c r="J102" s="3">
-        <v>1851700</v>
+        <v>1866600</v>
       </c>
       <c r="K102" s="3">
         <v>1672900</v>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>RYCEY</t>
   </si>
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22083900</v>
+        <v>22777100</v>
       </c>
       <c r="E8" s="3">
-        <v>20941600</v>
+        <v>21598900</v>
       </c>
       <c r="F8" s="3">
-        <v>19634200</v>
+        <v>20250400</v>
       </c>
       <c r="G8" s="3">
-        <v>19911100</v>
+        <v>20536100</v>
       </c>
       <c r="H8" s="3">
-        <v>18273500</v>
+        <v>18847000</v>
       </c>
       <c r="I8" s="3">
-        <v>18288100</v>
+        <v>18862100</v>
       </c>
       <c r="J8" s="3">
-        <v>19494400</v>
+        <v>20106200</v>
       </c>
       <c r="K8" s="3">
         <v>15721900</v>
@@ -754,25 +754,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20829800</v>
+        <v>21483600</v>
       </c>
       <c r="E9" s="3">
-        <v>19346600</v>
+        <v>19953800</v>
       </c>
       <c r="F9" s="3">
-        <v>33070600</v>
+        <v>34108700</v>
       </c>
       <c r="G9" s="3">
-        <v>15853000</v>
+        <v>16350600</v>
       </c>
       <c r="H9" s="3">
-        <v>13925100</v>
+        <v>14362200</v>
       </c>
       <c r="I9" s="3">
-        <v>14023600</v>
+        <v>14463800</v>
       </c>
       <c r="J9" s="3">
-        <v>31498300</v>
+        <v>32486900</v>
       </c>
       <c r="K9" s="3">
         <v>12193800</v>
@@ -787,25 +787,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1254200</v>
+        <v>1293500</v>
       </c>
       <c r="E10" s="3">
-        <v>1595000</v>
+        <v>1645100</v>
       </c>
       <c r="F10" s="3">
-        <v>-13436500</v>
+        <v>-13858200</v>
       </c>
       <c r="G10" s="3">
-        <v>4058100</v>
+        <v>4185500</v>
       </c>
       <c r="H10" s="3">
-        <v>4348400</v>
+        <v>4484800</v>
       </c>
       <c r="I10" s="3">
-        <v>4264500</v>
+        <v>4398300</v>
       </c>
       <c r="J10" s="3">
-        <v>-12003900</v>
+        <v>-12380700</v>
       </c>
       <c r="K10" s="3">
         <v>3528100</v>
@@ -835,25 +835,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>848100</v>
+        <v>874700</v>
       </c>
       <c r="E12" s="3">
-        <v>861400</v>
+        <v>888500</v>
       </c>
       <c r="F12" s="3">
-        <v>924000</v>
+        <v>953000</v>
       </c>
       <c r="G12" s="3">
-        <v>1026500</v>
+        <v>1058700</v>
       </c>
       <c r="H12" s="3">
-        <v>906700</v>
+        <v>935100</v>
       </c>
       <c r="I12" s="3">
-        <v>889400</v>
+        <v>917300</v>
       </c>
       <c r="J12" s="3">
-        <v>1608300</v>
+        <v>1658800</v>
       </c>
       <c r="K12" s="3">
         <v>1447900</v>
@@ -901,25 +901,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-158400</v>
+        <v>-163400</v>
       </c>
       <c r="E14" s="3">
-        <v>-467300</v>
+        <v>-482000</v>
       </c>
       <c r="F14" s="3">
-        <v>-1045100</v>
+        <v>-1078000</v>
       </c>
       <c r="G14" s="3">
-        <v>1304800</v>
+        <v>1345700</v>
       </c>
       <c r="H14" s="3">
         <v>-2700</v>
       </c>
       <c r="I14" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="J14" s="3">
-        <v>-459300</v>
+        <v>-473800</v>
       </c>
       <c r="K14" s="3">
         <v>-903700</v>
@@ -934,25 +934,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>150400</v>
+        <v>155200</v>
       </c>
       <c r="E15" s="3">
-        <v>151800</v>
+        <v>156500</v>
       </c>
       <c r="F15" s="3">
-        <v>198400</v>
+        <v>204600</v>
       </c>
       <c r="G15" s="3">
-        <v>195700</v>
+        <v>201900</v>
       </c>
       <c r="H15" s="3">
-        <v>182400</v>
+        <v>188100</v>
       </c>
       <c r="I15" s="3">
-        <v>166400</v>
+        <v>171600</v>
       </c>
       <c r="J15" s="3">
-        <v>173100</v>
+        <v>178500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23033200</v>
+        <v>23756200</v>
       </c>
       <c r="E17" s="3">
-        <v>22010700</v>
+        <v>22701600</v>
       </c>
       <c r="F17" s="3">
-        <v>18101700</v>
+        <v>18669900</v>
       </c>
       <c r="G17" s="3">
-        <v>19856500</v>
+        <v>20479800</v>
       </c>
       <c r="H17" s="3">
-        <v>16275000</v>
+        <v>16785900</v>
       </c>
       <c r="I17" s="3">
-        <v>16446800</v>
+        <v>16963000</v>
       </c>
       <c r="J17" s="3">
-        <v>17117800</v>
+        <v>17655100</v>
       </c>
       <c r="K17" s="3">
         <v>13036700</v>
@@ -1012,25 +1012,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-949300</v>
+        <v>-979100</v>
       </c>
       <c r="E18" s="3">
-        <v>-1069100</v>
+        <v>-1102700</v>
       </c>
       <c r="F18" s="3">
-        <v>1532400</v>
+        <v>1580500</v>
       </c>
       <c r="G18" s="3">
-        <v>54600</v>
+        <v>56300</v>
       </c>
       <c r="H18" s="3">
-        <v>1998400</v>
+        <v>2061200</v>
       </c>
       <c r="I18" s="3">
-        <v>1841300</v>
+        <v>1899100</v>
       </c>
       <c r="J18" s="3">
-        <v>2376500</v>
+        <v>2451100</v>
       </c>
       <c r="K18" s="3">
         <v>2685200</v>
@@ -1060,25 +1060,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E20" s="3">
-        <v>-2712100</v>
+        <v>-2797200</v>
       </c>
       <c r="F20" s="3">
-        <v>3746600</v>
+        <v>3864200</v>
       </c>
       <c r="G20" s="3">
-        <v>-6124400</v>
+        <v>-6316700</v>
       </c>
       <c r="H20" s="3">
-        <v>-1690900</v>
+        <v>-1744000</v>
       </c>
       <c r="I20" s="3">
-        <v>-1668200</v>
+        <v>-1720600</v>
       </c>
       <c r="J20" s="3">
-        <v>-35900</v>
+        <v>-37100</v>
       </c>
       <c r="K20" s="3">
         <v>956700</v>
@@ -1093,25 +1093,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>812200</v>
+        <v>825700</v>
       </c>
       <c r="E21" s="3">
-        <v>-2576500</v>
+        <v>-2665600</v>
       </c>
       <c r="F21" s="3">
-        <v>6330000</v>
+        <v>6521600</v>
       </c>
       <c r="G21" s="3">
-        <v>-4961400</v>
+        <v>-5124700</v>
       </c>
       <c r="H21" s="3">
-        <v>1349300</v>
+        <v>1384500</v>
       </c>
       <c r="I21" s="3">
-        <v>1164000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3409000</v>
+        <v>1193800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K21" s="3">
         <v>4274900</v>
@@ -1126,25 +1126,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>242300</v>
+        <v>249900</v>
       </c>
       <c r="E22" s="3">
-        <v>142500</v>
+        <v>146900</v>
       </c>
       <c r="F22" s="3">
-        <v>89200</v>
+        <v>92000</v>
       </c>
       <c r="G22" s="3">
-        <v>102500</v>
+        <v>105700</v>
       </c>
       <c r="H22" s="3">
-        <v>94500</v>
+        <v>97500</v>
       </c>
       <c r="I22" s="3">
-        <v>83900</v>
+        <v>86500</v>
       </c>
       <c r="J22" s="3">
-        <v>77200</v>
+        <v>79600</v>
       </c>
       <c r="K22" s="3">
         <v>65900</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1186300</v>
+        <v>-1223500</v>
       </c>
       <c r="E23" s="3">
-        <v>-3923600</v>
+        <v>-4046800</v>
       </c>
       <c r="F23" s="3">
-        <v>5189800</v>
+        <v>5352700</v>
       </c>
       <c r="G23" s="3">
-        <v>-6172400</v>
+        <v>-6366100</v>
       </c>
       <c r="H23" s="3">
-        <v>213000</v>
+        <v>219700</v>
       </c>
       <c r="I23" s="3">
-        <v>89200</v>
+        <v>92000</v>
       </c>
       <c r="J23" s="3">
-        <v>2263400</v>
+        <v>2334400</v>
       </c>
       <c r="K23" s="3">
         <v>3575900</v>
@@ -1192,25 +1192,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>559200</v>
+        <v>576700</v>
       </c>
       <c r="E24" s="3">
-        <v>-680300</v>
+        <v>-701700</v>
       </c>
       <c r="F24" s="3">
-        <v>619100</v>
+        <v>638500</v>
       </c>
       <c r="G24" s="3">
-        <v>-804200</v>
+        <v>-829400</v>
       </c>
       <c r="H24" s="3">
-        <v>101200</v>
+        <v>104400</v>
       </c>
       <c r="I24" s="3">
-        <v>201000</v>
+        <v>207400</v>
       </c>
       <c r="J24" s="3">
-        <v>501900</v>
+        <v>517700</v>
       </c>
       <c r="K24" s="3">
         <v>557200</v>
@@ -1258,25 +1258,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1745500</v>
+        <v>-1800300</v>
       </c>
       <c r="E26" s="3">
-        <v>-3243300</v>
+        <v>-3345100</v>
       </c>
       <c r="F26" s="3">
-        <v>4570700</v>
+        <v>4714200</v>
       </c>
       <c r="G26" s="3">
-        <v>-5368200</v>
+        <v>-5536700</v>
       </c>
       <c r="H26" s="3">
-        <v>111800</v>
+        <v>115300</v>
       </c>
       <c r="I26" s="3">
-        <v>-111800</v>
+        <v>-115300</v>
       </c>
       <c r="J26" s="3">
-        <v>1761400</v>
+        <v>1816700</v>
       </c>
       <c r="K26" s="3">
         <v>3018700</v>
@@ -1291,25 +1291,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1750800</v>
+        <v>-1805700</v>
       </c>
       <c r="E27" s="3">
-        <v>-3253900</v>
+        <v>-3356100</v>
       </c>
       <c r="F27" s="3">
-        <v>4569400</v>
+        <v>4712800</v>
       </c>
       <c r="G27" s="3">
-        <v>-5368200</v>
+        <v>-5536700</v>
       </c>
       <c r="H27" s="3">
-        <v>110500</v>
+        <v>114000</v>
       </c>
       <c r="I27" s="3">
-        <v>-97200</v>
+        <v>-100200</v>
       </c>
       <c r="J27" s="3">
-        <v>1745500</v>
+        <v>1800300</v>
       </c>
       <c r="K27" s="3">
         <v>3000600</v>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>57300</v>
+        <v>59000</v>
       </c>
       <c r="F29" s="3">
-        <v>-66600</v>
+        <v>-68700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>189100</v>
+        <v>195000</v>
       </c>
       <c r="J29" s="3">
-        <v>74600</v>
+        <v>76900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1456,25 +1456,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="E32" s="3">
-        <v>2712100</v>
+        <v>2797200</v>
       </c>
       <c r="F32" s="3">
-        <v>-3746600</v>
+        <v>-3864200</v>
       </c>
       <c r="G32" s="3">
-        <v>6124400</v>
+        <v>6316700</v>
       </c>
       <c r="H32" s="3">
-        <v>1690900</v>
+        <v>1744000</v>
       </c>
       <c r="I32" s="3">
-        <v>1668200</v>
+        <v>1720600</v>
       </c>
       <c r="J32" s="3">
-        <v>35900</v>
+        <v>37100</v>
       </c>
       <c r="K32" s="3">
         <v>-956700</v>
@@ -1489,25 +1489,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1750800</v>
+        <v>-1805700</v>
       </c>
       <c r="E33" s="3">
-        <v>-3196700</v>
+        <v>-3297000</v>
       </c>
       <c r="F33" s="3">
-        <v>4502800</v>
+        <v>4644100</v>
       </c>
       <c r="G33" s="3">
-        <v>-5368200</v>
+        <v>-5536700</v>
       </c>
       <c r="H33" s="3">
-        <v>110500</v>
+        <v>114000</v>
       </c>
       <c r="I33" s="3">
-        <v>91900</v>
+        <v>94800</v>
       </c>
       <c r="J33" s="3">
-        <v>1820000</v>
+        <v>1877200</v>
       </c>
       <c r="K33" s="3">
         <v>3000600</v>
@@ -1555,25 +1555,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1750800</v>
+        <v>-1805700</v>
       </c>
       <c r="E35" s="3">
-        <v>-3196700</v>
+        <v>-3297000</v>
       </c>
       <c r="F35" s="3">
-        <v>4502800</v>
+        <v>4644100</v>
       </c>
       <c r="G35" s="3">
-        <v>-5368200</v>
+        <v>-5536700</v>
       </c>
       <c r="H35" s="3">
-        <v>110500</v>
+        <v>114000</v>
       </c>
       <c r="I35" s="3">
-        <v>91900</v>
+        <v>94800</v>
       </c>
       <c r="J35" s="3">
-        <v>1820000</v>
+        <v>1877200</v>
       </c>
       <c r="K35" s="3">
         <v>3000600</v>
@@ -1656,25 +1656,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5870100</v>
+        <v>6054400</v>
       </c>
       <c r="E41" s="3">
-        <v>6581100</v>
+        <v>6787700</v>
       </c>
       <c r="F41" s="3">
-        <v>7832600</v>
+        <v>8078500</v>
       </c>
       <c r="G41" s="3">
-        <v>3644000</v>
+        <v>3758400</v>
       </c>
       <c r="H41" s="3">
-        <v>4200600</v>
+        <v>4332400</v>
       </c>
       <c r="I41" s="3">
-        <v>3770500</v>
+        <v>3888900</v>
       </c>
       <c r="J41" s="3">
-        <v>4931500</v>
+        <v>5086300</v>
       </c>
       <c r="K41" s="3">
         <v>8082600</v>
@@ -1689,25 +1689,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24000</v>
+        <v>24700</v>
       </c>
       <c r="E42" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="F42" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G42" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="H42" s="3">
         <v>2700</v>
       </c>
       <c r="I42" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="J42" s="3">
-        <v>427400</v>
+        <v>440800</v>
       </c>
       <c r="K42" s="3">
         <v>1971500</v>
@@ -1722,25 +1722,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8780600</v>
+        <v>9056200</v>
       </c>
       <c r="E43" s="3">
-        <v>8238700</v>
+        <v>8497300</v>
       </c>
       <c r="F43" s="3">
-        <v>16573300</v>
+        <v>17093500</v>
       </c>
       <c r="G43" s="3">
-        <v>9041500</v>
+        <v>9325300</v>
       </c>
       <c r="H43" s="3">
-        <v>8084300</v>
+        <v>8338000</v>
       </c>
       <c r="I43" s="3">
-        <v>7093700</v>
+        <v>7316400</v>
       </c>
       <c r="J43" s="3">
-        <v>6487900</v>
+        <v>6691600</v>
       </c>
       <c r="K43" s="3">
         <v>15530500</v>
@@ -1755,25 +1755,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5751600</v>
+        <v>5932200</v>
       </c>
       <c r="E44" s="3">
-        <v>5707700</v>
+        <v>5886900</v>
       </c>
       <c r="F44" s="3">
-        <v>10251800</v>
+        <v>10573600</v>
       </c>
       <c r="G44" s="3">
-        <v>4108700</v>
+        <v>4237700</v>
       </c>
       <c r="H44" s="3">
-        <v>3510900</v>
+        <v>3621100</v>
       </c>
       <c r="I44" s="3">
-        <v>3685300</v>
+        <v>3801000</v>
       </c>
       <c r="J44" s="3">
-        <v>4418900</v>
+        <v>4557600</v>
       </c>
       <c r="K44" s="3">
         <v>10572600</v>
@@ -1788,25 +1788,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>948000</v>
+        <v>977700</v>
       </c>
       <c r="E45" s="3">
-        <v>1858600</v>
+        <v>1917000</v>
       </c>
       <c r="F45" s="3">
-        <v>364800</v>
+        <v>376300</v>
       </c>
       <c r="G45" s="3">
-        <v>320900</v>
+        <v>330900</v>
       </c>
       <c r="H45" s="3">
-        <v>332800</v>
+        <v>343300</v>
       </c>
       <c r="I45" s="3">
-        <v>336800</v>
+        <v>347400</v>
       </c>
       <c r="J45" s="3">
-        <v>800200</v>
+        <v>825300</v>
       </c>
       <c r="K45" s="3">
         <v>837700</v>
@@ -1821,25 +1821,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21374300</v>
+        <v>22045200</v>
       </c>
       <c r="E46" s="3">
-        <v>22394100</v>
+        <v>23097100</v>
       </c>
       <c r="F46" s="3">
-        <v>17464000</v>
+        <v>18012100</v>
       </c>
       <c r="G46" s="3">
-        <v>17119100</v>
+        <v>17656500</v>
       </c>
       <c r="H46" s="3">
-        <v>16131200</v>
+        <v>16637600</v>
       </c>
       <c r="I46" s="3">
-        <v>14895700</v>
+        <v>15363200</v>
       </c>
       <c r="J46" s="3">
-        <v>17065900</v>
+        <v>17601500</v>
       </c>
       <c r="K46" s="3">
         <v>12401900</v>
@@ -1854,25 +1854,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>575200</v>
+        <v>593200</v>
       </c>
       <c r="E47" s="3">
-        <v>577800</v>
+        <v>596000</v>
       </c>
       <c r="F47" s="3">
-        <v>533900</v>
+        <v>550600</v>
       </c>
       <c r="G47" s="3">
-        <v>1174300</v>
+        <v>1211200</v>
       </c>
       <c r="H47" s="3">
-        <v>810800</v>
+        <v>836300</v>
       </c>
       <c r="I47" s="3">
-        <v>758900</v>
+        <v>782700</v>
       </c>
       <c r="J47" s="3">
-        <v>836100</v>
+        <v>862400</v>
       </c>
       <c r="K47" s="3">
         <v>4669600</v>
@@ -1887,25 +1887,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9069500</v>
+        <v>9354200</v>
       </c>
       <c r="E48" s="3">
-        <v>6562500</v>
+        <v>6768500</v>
       </c>
       <c r="F48" s="3">
-        <v>6201700</v>
+        <v>6396300</v>
       </c>
       <c r="G48" s="3">
-        <v>5477400</v>
+        <v>5649300</v>
       </c>
       <c r="H48" s="3">
-        <v>4646600</v>
+        <v>4792400</v>
       </c>
       <c r="I48" s="3">
-        <v>4588000</v>
+        <v>4732000</v>
       </c>
       <c r="J48" s="3">
-        <v>4516100</v>
+        <v>4657900</v>
       </c>
       <c r="K48" s="3">
         <v>9944300</v>
@@ -1920,25 +1920,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7245500</v>
+        <v>7472900</v>
       </c>
       <c r="E49" s="3">
-        <v>7049800</v>
+        <v>7271000</v>
       </c>
       <c r="F49" s="3">
-        <v>7409200</v>
+        <v>7641800</v>
       </c>
       <c r="G49" s="3">
-        <v>6763500</v>
+        <v>6975800</v>
       </c>
       <c r="H49" s="3">
-        <v>6184400</v>
+        <v>6378500</v>
       </c>
       <c r="I49" s="3">
-        <v>6396000</v>
+        <v>6596800</v>
       </c>
       <c r="J49" s="3">
-        <v>6639700</v>
+        <v>6848100</v>
       </c>
       <c r="K49" s="3">
         <v>11251300</v>
@@ -2019,25 +2019,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4694500</v>
+        <v>4841900</v>
       </c>
       <c r="E52" s="3">
-        <v>5830200</v>
+        <v>6013200</v>
       </c>
       <c r="F52" s="3">
-        <v>5573200</v>
+        <v>5748200</v>
       </c>
       <c r="G52" s="3">
-        <v>3467000</v>
+        <v>3575800</v>
       </c>
       <c r="H52" s="3">
-        <v>1949200</v>
+        <v>2010400</v>
       </c>
       <c r="I52" s="3">
-        <v>2950400</v>
+        <v>3043000</v>
       </c>
       <c r="J52" s="3">
-        <v>1648300</v>
+        <v>1700000</v>
       </c>
       <c r="K52" s="3">
         <v>3248800</v>
@@ -2085,25 +2085,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42959000</v>
+        <v>44307300</v>
       </c>
       <c r="E54" s="3">
-        <v>42414400</v>
+        <v>43745700</v>
       </c>
       <c r="F54" s="3">
-        <v>37182000</v>
+        <v>38349100</v>
       </c>
       <c r="G54" s="3">
-        <v>34001300</v>
+        <v>35068500</v>
       </c>
       <c r="H54" s="3">
-        <v>29722200</v>
+        <v>30655100</v>
       </c>
       <c r="I54" s="3">
-        <v>29589000</v>
+        <v>30517800</v>
       </c>
       <c r="J54" s="3">
-        <v>30706100</v>
+        <v>31669900</v>
       </c>
       <c r="K54" s="3">
         <v>23459300</v>
@@ -2148,25 +2148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4124700</v>
+        <v>4254100</v>
       </c>
       <c r="E57" s="3">
-        <v>4200600</v>
+        <v>4332400</v>
       </c>
       <c r="F57" s="3">
-        <v>18253500</v>
+        <v>18826400</v>
       </c>
       <c r="G57" s="3">
-        <v>2994300</v>
+        <v>3088300</v>
       </c>
       <c r="H57" s="3">
-        <v>2122300</v>
+        <v>2188900</v>
       </c>
       <c r="I57" s="3">
-        <v>2107600</v>
+        <v>2173800</v>
       </c>
       <c r="J57" s="3">
-        <v>2078300</v>
+        <v>2143500</v>
       </c>
       <c r="K57" s="3">
         <v>14007600</v>
@@ -2181,25 +2181,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1031800</v>
+        <v>1064200</v>
       </c>
       <c r="E58" s="3">
-        <v>1142300</v>
+        <v>1178200</v>
       </c>
       <c r="F58" s="3">
-        <v>218300</v>
+        <v>225200</v>
       </c>
       <c r="G58" s="3">
-        <v>229000</v>
+        <v>236200</v>
       </c>
       <c r="H58" s="3">
-        <v>557900</v>
+        <v>575400</v>
       </c>
       <c r="I58" s="3">
-        <v>90500</v>
+        <v>93400</v>
       </c>
       <c r="J58" s="3">
-        <v>275600</v>
+        <v>284300</v>
       </c>
       <c r="K58" s="3">
         <v>385300</v>
@@ -2214,25 +2214,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14782500</v>
+        <v>15246500</v>
       </c>
       <c r="E59" s="3">
-        <v>14429700</v>
+        <v>14882600</v>
       </c>
       <c r="F59" s="3">
-        <v>19772600</v>
+        <v>20393200</v>
       </c>
       <c r="G59" s="3">
-        <v>9470200</v>
+        <v>9767500</v>
       </c>
       <c r="H59" s="3">
-        <v>8201400</v>
+        <v>8458900</v>
       </c>
       <c r="I59" s="3">
-        <v>8033700</v>
+        <v>8285800</v>
       </c>
       <c r="J59" s="3">
-        <v>10667200</v>
+        <v>11002000</v>
       </c>
       <c r="K59" s="3">
         <v>12483400</v>
@@ -2247,25 +2247,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19939000</v>
+        <v>20564900</v>
       </c>
       <c r="E60" s="3">
-        <v>19772600</v>
+        <v>20393200</v>
       </c>
       <c r="F60" s="3">
-        <v>16550600</v>
+        <v>17070100</v>
       </c>
       <c r="G60" s="3">
-        <v>12693600</v>
+        <v>13092000</v>
       </c>
       <c r="H60" s="3">
-        <v>10881500</v>
+        <v>11223100</v>
       </c>
       <c r="I60" s="3">
-        <v>10231800</v>
+        <v>10553000</v>
       </c>
       <c r="J60" s="3">
-        <v>13021100</v>
+        <v>13429800</v>
       </c>
       <c r="K60" s="3">
         <v>9318600</v>
@@ -2280,25 +2280,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6537200</v>
+        <v>6742400</v>
       </c>
       <c r="E61" s="3">
-        <v>5064600</v>
+        <v>5223600</v>
       </c>
       <c r="F61" s="3">
-        <v>4534700</v>
+        <v>4677100</v>
       </c>
       <c r="G61" s="3">
-        <v>4240500</v>
+        <v>4373600</v>
       </c>
       <c r="H61" s="3">
-        <v>3838400</v>
+        <v>3958900</v>
       </c>
       <c r="I61" s="3">
-        <v>2919800</v>
+        <v>3011400</v>
       </c>
       <c r="J61" s="3">
-        <v>3360500</v>
+        <v>3465900</v>
       </c>
       <c r="K61" s="3">
         <v>2135700</v>
@@ -2313,25 +2313,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20928300</v>
+        <v>21585200</v>
       </c>
       <c r="E62" s="3">
-        <v>18477200</v>
+        <v>19057100</v>
       </c>
       <c r="F62" s="3">
-        <v>23480600</v>
+        <v>24217600</v>
       </c>
       <c r="G62" s="3">
-        <v>14585500</v>
+        <v>15043300</v>
       </c>
       <c r="H62" s="3">
-        <v>8323900</v>
+        <v>8585200</v>
       </c>
       <c r="I62" s="3">
-        <v>7933800</v>
+        <v>8182800</v>
       </c>
       <c r="J62" s="3">
-        <v>5932700</v>
+        <v>6118900</v>
       </c>
       <c r="K62" s="3">
         <v>8779500</v>
@@ -2445,25 +2445,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47453800</v>
+        <v>48943200</v>
       </c>
       <c r="E66" s="3">
-        <v>43844300</v>
+        <v>45220500</v>
       </c>
       <c r="F66" s="3">
-        <v>35943800</v>
+        <v>37072000</v>
       </c>
       <c r="G66" s="3">
-        <v>31522200</v>
+        <v>32511600</v>
       </c>
       <c r="H66" s="3">
-        <v>23046500</v>
+        <v>23769900</v>
       </c>
       <c r="I66" s="3">
-        <v>21092000</v>
+        <v>21754100</v>
       </c>
       <c r="J66" s="3">
-        <v>23243600</v>
+        <v>23973200</v>
       </c>
       <c r="K66" s="3">
         <v>15729600</v>
@@ -2625,25 +2625,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5834200</v>
+        <v>-6017300</v>
       </c>
       <c r="E72" s="3">
-        <v>-3227300</v>
+        <v>-3328600</v>
       </c>
       <c r="F72" s="3">
-        <v>641700</v>
+        <v>661900</v>
       </c>
       <c r="G72" s="3">
-        <v>1891900</v>
+        <v>1951300</v>
       </c>
       <c r="H72" s="3">
-        <v>6080500</v>
+        <v>6271400</v>
       </c>
       <c r="I72" s="3">
-        <v>7865900</v>
+        <v>8112800</v>
       </c>
       <c r="J72" s="3">
-        <v>6945900</v>
+        <v>7163900</v>
       </c>
       <c r="K72" s="3">
         <v>14793600</v>
@@ -2757,25 +2757,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4494800</v>
+        <v>-4635900</v>
       </c>
       <c r="E76" s="3">
-        <v>-1429900</v>
+        <v>-1474800</v>
       </c>
       <c r="F76" s="3">
-        <v>1238200</v>
+        <v>1277100</v>
       </c>
       <c r="G76" s="3">
-        <v>2479100</v>
+        <v>2556900</v>
       </c>
       <c r="H76" s="3">
-        <v>6675600</v>
+        <v>6885200</v>
       </c>
       <c r="I76" s="3">
-        <v>8497000</v>
+        <v>8763700</v>
       </c>
       <c r="J76" s="3">
-        <v>7462500</v>
+        <v>7696700</v>
       </c>
       <c r="K76" s="3">
         <v>7729700</v>
@@ -2861,25 +2861,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1750800</v>
+        <v>-1805700</v>
       </c>
       <c r="E81" s="3">
-        <v>-3196700</v>
+        <v>-3297000</v>
       </c>
       <c r="F81" s="3">
-        <v>4502800</v>
+        <v>4644100</v>
       </c>
       <c r="G81" s="3">
-        <v>-5368200</v>
+        <v>-5536700</v>
       </c>
       <c r="H81" s="3">
-        <v>110500</v>
+        <v>114000</v>
       </c>
       <c r="I81" s="3">
-        <v>91900</v>
+        <v>94800</v>
       </c>
       <c r="J81" s="3">
-        <v>1820000</v>
+        <v>1877200</v>
       </c>
       <c r="K81" s="3">
         <v>3000600</v>
@@ -2909,25 +2909,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1750800</v>
+        <v>1805700</v>
       </c>
       <c r="E83" s="3">
-        <v>1200900</v>
+        <v>1238600</v>
       </c>
       <c r="F83" s="3">
-        <v>1047800</v>
+        <v>1080700</v>
       </c>
       <c r="G83" s="3">
-        <v>1105100</v>
+        <v>1139700</v>
       </c>
       <c r="H83" s="3">
-        <v>1038500</v>
+        <v>1071100</v>
       </c>
       <c r="I83" s="3">
-        <v>987900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1065100</v>
+        <v>1018900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K83" s="3">
         <v>629600</v>
@@ -3107,25 +3107,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3058200</v>
+        <v>3154200</v>
       </c>
       <c r="E89" s="3">
-        <v>2963700</v>
+        <v>3056700</v>
       </c>
       <c r="F89" s="3">
-        <v>2013100</v>
+        <v>2076300</v>
       </c>
       <c r="G89" s="3">
-        <v>1878600</v>
+        <v>1937600</v>
       </c>
       <c r="H89" s="3">
-        <v>1456600</v>
+        <v>1502300</v>
       </c>
       <c r="I89" s="3">
-        <v>1732200</v>
+        <v>1786500</v>
       </c>
       <c r="J89" s="3">
-        <v>2716100</v>
+        <v>2801300</v>
       </c>
       <c r="K89" s="3">
         <v>1622500</v>
@@ -3155,25 +3155,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-994600</v>
+        <v>-1025800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1204900</v>
+        <v>-1242700</v>
       </c>
       <c r="F91" s="3">
-        <v>-971900</v>
+        <v>-1002400</v>
       </c>
       <c r="G91" s="3">
-        <v>-778900</v>
+        <v>-803300</v>
       </c>
       <c r="H91" s="3">
-        <v>-648400</v>
+        <v>-668700</v>
       </c>
       <c r="I91" s="3">
-        <v>-862700</v>
+        <v>-889800</v>
       </c>
       <c r="J91" s="3">
-        <v>-890700</v>
+        <v>-918700</v>
       </c>
       <c r="K91" s="3">
         <v>-562400</v>
@@ -3254,25 +3254,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1222200</v>
+        <v>-1260600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1298100</v>
+        <v>-1338900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1536400</v>
+        <v>-1584700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1814700</v>
+        <v>-1871700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1324700</v>
+        <v>-1366300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2617500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-985200</v>
+        <v>-2699700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>548200</v>
@@ -3434,25 +3434,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2385900</v>
+        <v>-2460800</v>
       </c>
       <c r="E100" s="3">
-        <v>934600</v>
+        <v>964000</v>
       </c>
       <c r="F100" s="3">
-        <v>-169100</v>
+        <v>-174400</v>
       </c>
       <c r="G100" s="3">
-        <v>-983900</v>
+        <v>-1014800</v>
       </c>
       <c r="H100" s="3">
-        <v>294200</v>
+        <v>303500</v>
       </c>
       <c r="I100" s="3">
-        <v>-623100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>181100</v>
+        <v>-642700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3">
         <v>-427900</v>
@@ -3467,25 +3467,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-138500</v>
+        <v>-142800</v>
       </c>
       <c r="E101" s="3">
-        <v>87900</v>
+        <v>90600</v>
       </c>
       <c r="F101" s="3">
-        <v>-91900</v>
+        <v>-94800</v>
       </c>
       <c r="G101" s="3">
-        <v>380800</v>
+        <v>392700</v>
       </c>
       <c r="H101" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="I101" s="3">
-        <v>10700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-45300</v>
+        <v>11000</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3">
         <v>-69800</v>
@@ -3500,25 +3500,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-688300</v>
+        <v>-709900</v>
       </c>
       <c r="E102" s="3">
-        <v>2688100</v>
+        <v>2772500</v>
       </c>
       <c r="F102" s="3">
-        <v>215700</v>
+        <v>222500</v>
       </c>
       <c r="G102" s="3">
-        <v>-539200</v>
+        <v>-556100</v>
       </c>
       <c r="H102" s="3">
-        <v>418100</v>
+        <v>431200</v>
       </c>
       <c r="I102" s="3">
-        <v>-1497800</v>
+        <v>-1544800</v>
       </c>
       <c r="J102" s="3">
-        <v>1866600</v>
+        <v>1925200</v>
       </c>
       <c r="K102" s="3">
         <v>1672900</v>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>RYCEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,170 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22777100</v>
+        <v>16732300</v>
       </c>
       <c r="E8" s="3">
-        <v>21598900</v>
+        <v>23472400</v>
       </c>
       <c r="F8" s="3">
-        <v>20250400</v>
+        <v>22258300</v>
       </c>
       <c r="G8" s="3">
-        <v>20536100</v>
+        <v>20868600</v>
       </c>
       <c r="H8" s="3">
-        <v>18847000</v>
+        <v>21163000</v>
       </c>
       <c r="I8" s="3">
-        <v>18862100</v>
+        <v>19422400</v>
       </c>
       <c r="J8" s="3">
+        <v>19438000</v>
+      </c>
+      <c r="K8" s="3">
         <v>20106200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15721900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14648000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21483600</v>
+        <v>17029400</v>
       </c>
       <c r="E9" s="3">
-        <v>19953800</v>
+        <v>22139400</v>
       </c>
       <c r="F9" s="3">
-        <v>34108700</v>
+        <v>20563000</v>
       </c>
       <c r="G9" s="3">
-        <v>16350600</v>
+        <v>35149900</v>
       </c>
       <c r="H9" s="3">
-        <v>14362200</v>
+        <v>16849700</v>
       </c>
       <c r="I9" s="3">
-        <v>14463800</v>
+        <v>14800600</v>
       </c>
       <c r="J9" s="3">
+        <v>14905400</v>
+      </c>
+      <c r="K9" s="3">
         <v>32486900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12193800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11424500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1293500</v>
+        <v>-297200</v>
       </c>
       <c r="E10" s="3">
-        <v>1645100</v>
+        <v>1333000</v>
       </c>
       <c r="F10" s="3">
-        <v>-13858200</v>
+        <v>1695300</v>
       </c>
       <c r="G10" s="3">
-        <v>4185500</v>
+        <v>-14281300</v>
       </c>
       <c r="H10" s="3">
-        <v>4484800</v>
+        <v>4313300</v>
       </c>
       <c r="I10" s="3">
-        <v>4398300</v>
+        <v>4621700</v>
       </c>
       <c r="J10" s="3">
+        <v>4532600</v>
+      </c>
+      <c r="K10" s="3">
         <v>-12380700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3528100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3223500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,41 +842,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>874700</v>
+        <v>943900</v>
       </c>
       <c r="E12" s="3">
-        <v>888500</v>
+        <v>901400</v>
       </c>
       <c r="F12" s="3">
-        <v>953000</v>
+        <v>915600</v>
       </c>
       <c r="G12" s="3">
-        <v>1058700</v>
+        <v>982100</v>
       </c>
       <c r="H12" s="3">
-        <v>935100</v>
+        <v>1091000</v>
       </c>
       <c r="I12" s="3">
-        <v>917300</v>
+        <v>963700</v>
       </c>
       <c r="J12" s="3">
+        <v>945300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1658800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1447900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>609700</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -894,75 +911,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-163400</v>
+        <v>700500</v>
       </c>
       <c r="E14" s="3">
-        <v>-482000</v>
+        <v>-168400</v>
       </c>
       <c r="F14" s="3">
-        <v>-1078000</v>
+        <v>-496700</v>
       </c>
       <c r="G14" s="3">
-        <v>1345700</v>
+        <v>-1110900</v>
       </c>
       <c r="H14" s="3">
-        <v>-2700</v>
+        <v>1386800</v>
       </c>
       <c r="I14" s="3">
-        <v>9600</v>
+        <v>-2800</v>
       </c>
       <c r="J14" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-473800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-903700</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>155200</v>
+        <v>150000</v>
       </c>
       <c r="E15" s="3">
-        <v>156500</v>
+        <v>159900</v>
       </c>
       <c r="F15" s="3">
-        <v>204600</v>
+        <v>161300</v>
       </c>
       <c r="G15" s="3">
-        <v>201900</v>
+        <v>210900</v>
       </c>
       <c r="H15" s="3">
-        <v>188100</v>
+        <v>208000</v>
       </c>
       <c r="I15" s="3">
-        <v>171600</v>
+        <v>193900</v>
       </c>
       <c r="J15" s="3">
+        <v>176900</v>
+      </c>
+      <c r="K15" s="3">
         <v>178500</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,74 +999,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23756200</v>
+        <v>19696900</v>
       </c>
       <c r="E17" s="3">
-        <v>22701600</v>
+        <v>24481400</v>
       </c>
       <c r="F17" s="3">
-        <v>18669900</v>
+        <v>23394600</v>
       </c>
       <c r="G17" s="3">
-        <v>20479800</v>
+        <v>19239800</v>
       </c>
       <c r="H17" s="3">
-        <v>16785900</v>
+        <v>21105000</v>
       </c>
       <c r="I17" s="3">
-        <v>16963000</v>
+        <v>17298300</v>
       </c>
       <c r="J17" s="3">
+        <v>17480900</v>
+      </c>
+      <c r="K17" s="3">
         <v>17655100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13036700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13086300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-979100</v>
+        <v>-2964700</v>
       </c>
       <c r="E18" s="3">
-        <v>-1102700</v>
+        <v>-1009000</v>
       </c>
       <c r="F18" s="3">
-        <v>1580500</v>
+        <v>-1136300</v>
       </c>
       <c r="G18" s="3">
-        <v>56300</v>
+        <v>1628800</v>
       </c>
       <c r="H18" s="3">
-        <v>2061200</v>
+        <v>58000</v>
       </c>
       <c r="I18" s="3">
-        <v>1899100</v>
+        <v>2124100</v>
       </c>
       <c r="J18" s="3">
+        <v>1957100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2451100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2685200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1561700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,173 +1087,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5500</v>
+        <v>-898600</v>
       </c>
       <c r="E20" s="3">
-        <v>-2797200</v>
+        <v>5700</v>
       </c>
       <c r="F20" s="3">
-        <v>3864200</v>
+        <v>-2882600</v>
       </c>
       <c r="G20" s="3">
-        <v>-6316700</v>
+        <v>3982100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1744000</v>
+        <v>-6509500</v>
       </c>
       <c r="I20" s="3">
-        <v>-1720600</v>
+        <v>-1797200</v>
       </c>
       <c r="J20" s="3">
+        <v>-1773100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-37100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>956700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-39500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>825700</v>
+        <v>-388200</v>
       </c>
       <c r="E21" s="3">
-        <v>-2665600</v>
+        <v>858100</v>
       </c>
       <c r="F21" s="3">
-        <v>6521600</v>
+        <v>-2742100</v>
       </c>
       <c r="G21" s="3">
-        <v>-5124700</v>
+        <v>6724900</v>
       </c>
       <c r="H21" s="3">
-        <v>1384500</v>
+        <v>-5276600</v>
       </c>
       <c r="I21" s="3">
-        <v>1193800</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1431000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1234300</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4274900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2060100</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>249900</v>
+        <v>254700</v>
       </c>
       <c r="E22" s="3">
-        <v>146900</v>
+        <v>257600</v>
       </c>
       <c r="F22" s="3">
-        <v>92000</v>
+        <v>151400</v>
       </c>
       <c r="G22" s="3">
-        <v>105700</v>
+        <v>94800</v>
       </c>
       <c r="H22" s="3">
-        <v>97500</v>
+        <v>109000</v>
       </c>
       <c r="I22" s="3">
-        <v>86500</v>
+        <v>100500</v>
       </c>
       <c r="J22" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K22" s="3">
         <v>79600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>65900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>67200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1223500</v>
+        <v>-4118000</v>
       </c>
       <c r="E23" s="3">
-        <v>-4046800</v>
+        <v>-1260900</v>
       </c>
       <c r="F23" s="3">
-        <v>5352700</v>
+        <v>-4170300</v>
       </c>
       <c r="G23" s="3">
-        <v>-6366100</v>
+        <v>5516100</v>
       </c>
       <c r="H23" s="3">
-        <v>219700</v>
+        <v>-6560400</v>
       </c>
       <c r="I23" s="3">
-        <v>92000</v>
+        <v>226400</v>
       </c>
       <c r="J23" s="3">
+        <v>94800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2334400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3575900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1455100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>576700</v>
+        <v>366500</v>
       </c>
       <c r="E24" s="3">
-        <v>-701700</v>
+        <v>594300</v>
       </c>
       <c r="F24" s="3">
-        <v>638500</v>
+        <v>-723100</v>
       </c>
       <c r="G24" s="3">
-        <v>-829400</v>
+        <v>658000</v>
       </c>
       <c r="H24" s="3">
-        <v>104400</v>
+        <v>-854700</v>
       </c>
       <c r="I24" s="3">
-        <v>207400</v>
+        <v>107500</v>
       </c>
       <c r="J24" s="3">
+        <v>213700</v>
+      </c>
+      <c r="K24" s="3">
         <v>517700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>557200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>338400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1251,75 +1300,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1800300</v>
+        <v>-4484500</v>
       </c>
       <c r="E26" s="3">
-        <v>-3345100</v>
+        <v>-1855200</v>
       </c>
       <c r="F26" s="3">
-        <v>4714200</v>
+        <v>-3447200</v>
       </c>
       <c r="G26" s="3">
-        <v>-5536700</v>
+        <v>4858100</v>
       </c>
       <c r="H26" s="3">
-        <v>115300</v>
+        <v>-5705700</v>
       </c>
       <c r="I26" s="3">
-        <v>-115300</v>
+        <v>118900</v>
       </c>
       <c r="J26" s="3">
+        <v>-118900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1816700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3018700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1116600</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1805700</v>
+        <v>-4485900</v>
       </c>
       <c r="E27" s="3">
-        <v>-3356100</v>
+        <v>-1860900</v>
       </c>
       <c r="F27" s="3">
-        <v>4712800</v>
+        <v>-3458500</v>
       </c>
       <c r="G27" s="3">
-        <v>-5536700</v>
+        <v>4856700</v>
       </c>
       <c r="H27" s="3">
-        <v>114000</v>
+        <v>-5705700</v>
       </c>
       <c r="I27" s="3">
-        <v>-100200</v>
+        <v>117500</v>
       </c>
       <c r="J27" s="3">
+        <v>-103300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1800300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3000600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1119300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,42 +1408,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
-        <v>59000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-68700</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>60800</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
-        <v>195000</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>200900</v>
+      </c>
+      <c r="K29" s="3">
         <v>76900</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1416,9 +1480,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1449,75 +1516,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5500</v>
+        <v>898600</v>
       </c>
       <c r="E32" s="3">
-        <v>2797200</v>
+        <v>-5700</v>
       </c>
       <c r="F32" s="3">
-        <v>-3864200</v>
+        <v>2882600</v>
       </c>
       <c r="G32" s="3">
-        <v>6316700</v>
+        <v>-3982100</v>
       </c>
       <c r="H32" s="3">
-        <v>1744000</v>
+        <v>6509500</v>
       </c>
       <c r="I32" s="3">
-        <v>1720600</v>
+        <v>1797200</v>
       </c>
       <c r="J32" s="3">
+        <v>1773100</v>
+      </c>
+      <c r="K32" s="3">
         <v>37100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-956700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>39500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1805700</v>
+        <v>-4485900</v>
       </c>
       <c r="E33" s="3">
-        <v>-3297000</v>
+        <v>-1860900</v>
       </c>
       <c r="F33" s="3">
-        <v>4644100</v>
+        <v>-3397700</v>
       </c>
       <c r="G33" s="3">
-        <v>-5536700</v>
+        <v>4785900</v>
       </c>
       <c r="H33" s="3">
-        <v>114000</v>
+        <v>-5705700</v>
       </c>
       <c r="I33" s="3">
-        <v>94800</v>
+        <v>117500</v>
       </c>
       <c r="J33" s="3">
+        <v>97600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1877200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3000600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1119300</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1548,80 +1624,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1805700</v>
+        <v>-4485900</v>
       </c>
       <c r="E35" s="3">
-        <v>-3297000</v>
+        <v>-1860900</v>
       </c>
       <c r="F35" s="3">
-        <v>4644100</v>
+        <v>-3397700</v>
       </c>
       <c r="G35" s="3">
-        <v>-5536700</v>
+        <v>4785900</v>
       </c>
       <c r="H35" s="3">
-        <v>114000</v>
+        <v>-5705700</v>
       </c>
       <c r="I35" s="3">
-        <v>94800</v>
+        <v>117500</v>
       </c>
       <c r="J35" s="3">
+        <v>97600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1877200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3000600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1119300</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1720,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,305 +1736,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6054400</v>
+        <v>4682600</v>
       </c>
       <c r="E41" s="3">
-        <v>6787700</v>
+        <v>6239200</v>
       </c>
       <c r="F41" s="3">
-        <v>8078500</v>
+        <v>6994900</v>
       </c>
       <c r="G41" s="3">
-        <v>3758400</v>
+        <v>8325100</v>
       </c>
       <c r="H41" s="3">
-        <v>4332400</v>
+        <v>3873200</v>
       </c>
       <c r="I41" s="3">
-        <v>3888900</v>
+        <v>4464700</v>
       </c>
       <c r="J41" s="3">
+        <v>4007600</v>
+      </c>
+      <c r="K41" s="3">
         <v>5086300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8082600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1706600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24700</v>
+        <v>18400</v>
       </c>
       <c r="E42" s="3">
-        <v>8200</v>
+        <v>25500</v>
       </c>
       <c r="F42" s="3">
-        <v>4100</v>
+        <v>8500</v>
       </c>
       <c r="G42" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H42" s="3">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="I42" s="3">
-        <v>9600</v>
+        <v>2800</v>
       </c>
       <c r="J42" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K42" s="3">
         <v>440800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1971500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>32900</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9056200</v>
+        <v>8749600</v>
       </c>
       <c r="E43" s="3">
-        <v>8497300</v>
+        <v>9332700</v>
       </c>
       <c r="F43" s="3">
-        <v>17093500</v>
+        <v>8756700</v>
       </c>
       <c r="G43" s="3">
-        <v>9325300</v>
+        <v>17615300</v>
       </c>
       <c r="H43" s="3">
-        <v>8338000</v>
+        <v>9610000</v>
       </c>
       <c r="I43" s="3">
-        <v>7316400</v>
+        <v>8592500</v>
       </c>
       <c r="J43" s="3">
+        <v>7539700</v>
+      </c>
+      <c r="K43" s="3">
         <v>6691600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15530500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5099900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5932200</v>
+        <v>5221800</v>
       </c>
       <c r="E44" s="3">
-        <v>5886900</v>
+        <v>6113300</v>
       </c>
       <c r="F44" s="3">
-        <v>10573600</v>
+        <v>6066600</v>
       </c>
       <c r="G44" s="3">
-        <v>4237700</v>
+        <v>10896300</v>
       </c>
       <c r="H44" s="3">
-        <v>3621100</v>
+        <v>4367000</v>
       </c>
       <c r="I44" s="3">
-        <v>3801000</v>
+        <v>3731600</v>
       </c>
       <c r="J44" s="3">
+        <v>3917000</v>
+      </c>
+      <c r="K44" s="3">
         <v>4557600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10572600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3372300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>977700</v>
+        <v>1607600</v>
       </c>
       <c r="E45" s="3">
-        <v>1917000</v>
+        <v>1007600</v>
       </c>
       <c r="F45" s="3">
-        <v>376300</v>
+        <v>1975500</v>
       </c>
       <c r="G45" s="3">
-        <v>330900</v>
+        <v>387700</v>
       </c>
       <c r="H45" s="3">
-        <v>343300</v>
+        <v>341000</v>
       </c>
       <c r="I45" s="3">
-        <v>347400</v>
+        <v>353800</v>
       </c>
       <c r="J45" s="3">
+        <v>358000</v>
+      </c>
+      <c r="K45" s="3">
         <v>825300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>837700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>737400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22045200</v>
+        <v>20279900</v>
       </c>
       <c r="E46" s="3">
-        <v>23097100</v>
+        <v>22718200</v>
       </c>
       <c r="F46" s="3">
-        <v>18012100</v>
+        <v>23802200</v>
       </c>
       <c r="G46" s="3">
-        <v>17656500</v>
+        <v>18562000</v>
       </c>
       <c r="H46" s="3">
-        <v>16637600</v>
+        <v>18195500</v>
       </c>
       <c r="I46" s="3">
-        <v>15363200</v>
+        <v>17145500</v>
       </c>
       <c r="J46" s="3">
+        <v>15832300</v>
+      </c>
+      <c r="K46" s="3">
         <v>17601500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12401900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10949100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>593200</v>
+        <v>605700</v>
       </c>
       <c r="E47" s="3">
-        <v>596000</v>
+        <v>611300</v>
       </c>
       <c r="F47" s="3">
-        <v>550600</v>
+        <v>614200</v>
       </c>
       <c r="G47" s="3">
-        <v>1211200</v>
+        <v>567500</v>
       </c>
       <c r="H47" s="3">
-        <v>836300</v>
+        <v>1248100</v>
       </c>
       <c r="I47" s="3">
-        <v>782700</v>
+        <v>861800</v>
       </c>
       <c r="J47" s="3">
+        <v>806600</v>
+      </c>
+      <c r="K47" s="3">
         <v>862400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4669600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2225400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9354200</v>
+        <v>8377500</v>
       </c>
       <c r="E48" s="3">
-        <v>6768500</v>
+        <v>9639700</v>
       </c>
       <c r="F48" s="3">
-        <v>6396300</v>
+        <v>6975100</v>
       </c>
       <c r="G48" s="3">
-        <v>5649300</v>
+        <v>6591600</v>
       </c>
       <c r="H48" s="3">
-        <v>4792400</v>
+        <v>5821800</v>
       </c>
       <c r="I48" s="3">
-        <v>4732000</v>
+        <v>4938700</v>
       </c>
       <c r="J48" s="3">
+        <v>4876500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4657900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9944300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3078700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7472900</v>
+        <v>7280700</v>
       </c>
       <c r="E49" s="3">
-        <v>7271000</v>
+        <v>7701000</v>
       </c>
       <c r="F49" s="3">
-        <v>7641800</v>
+        <v>7493000</v>
       </c>
       <c r="G49" s="3">
-        <v>6975800</v>
+        <v>7875100</v>
       </c>
       <c r="H49" s="3">
-        <v>6378500</v>
+        <v>7188800</v>
       </c>
       <c r="I49" s="3">
-        <v>6596800</v>
+        <v>6573200</v>
       </c>
       <c r="J49" s="3">
+        <v>6798200</v>
+      </c>
+      <c r="K49" s="3">
         <v>6848100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11251300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3795000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1979,9 +2093,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2012,42 +2129,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4841900</v>
+        <v>5226000</v>
       </c>
       <c r="E52" s="3">
-        <v>6013200</v>
+        <v>4989700</v>
       </c>
       <c r="F52" s="3">
-        <v>5748200</v>
+        <v>6196800</v>
       </c>
       <c r="G52" s="3">
-        <v>3575800</v>
+        <v>5923700</v>
       </c>
       <c r="H52" s="3">
-        <v>2010400</v>
+        <v>3684900</v>
       </c>
       <c r="I52" s="3">
-        <v>3043000</v>
+        <v>2071700</v>
       </c>
       <c r="J52" s="3">
+        <v>3135900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1700000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3248800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1577500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2078,42 +2201,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44307300</v>
+        <v>41769800</v>
       </c>
       <c r="E54" s="3">
-        <v>43745700</v>
+        <v>45659900</v>
       </c>
       <c r="F54" s="3">
-        <v>38349100</v>
+        <v>45081200</v>
       </c>
       <c r="G54" s="3">
-        <v>35068500</v>
+        <v>39519800</v>
       </c>
       <c r="H54" s="3">
-        <v>30655100</v>
+        <v>36139100</v>
       </c>
       <c r="I54" s="3">
-        <v>30517800</v>
+        <v>31590900</v>
       </c>
       <c r="J54" s="3">
+        <v>31449400</v>
+      </c>
+      <c r="K54" s="3">
         <v>31669900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23459300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21625600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2127,8 +2256,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2142,206 +2272,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4254100</v>
+        <v>2831600</v>
       </c>
       <c r="E57" s="3">
-        <v>4332400</v>
+        <v>4384000</v>
       </c>
       <c r="F57" s="3">
-        <v>18826400</v>
+        <v>4464700</v>
       </c>
       <c r="G57" s="3">
-        <v>3088300</v>
+        <v>19401200</v>
       </c>
       <c r="H57" s="3">
-        <v>2188900</v>
+        <v>3182600</v>
       </c>
       <c r="I57" s="3">
-        <v>2173800</v>
+        <v>2255700</v>
       </c>
       <c r="J57" s="3">
+        <v>2240100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2143500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14007600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3773900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1064200</v>
+        <v>1800000</v>
       </c>
       <c r="E58" s="3">
-        <v>1178200</v>
+        <v>1096700</v>
       </c>
       <c r="F58" s="3">
-        <v>225200</v>
+        <v>1214200</v>
       </c>
       <c r="G58" s="3">
-        <v>236200</v>
+        <v>232100</v>
       </c>
       <c r="H58" s="3">
-        <v>575400</v>
+        <v>243400</v>
       </c>
       <c r="I58" s="3">
-        <v>93400</v>
+        <v>592900</v>
       </c>
       <c r="J58" s="3">
+        <v>96200</v>
+      </c>
+      <c r="K58" s="3">
         <v>284300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>385300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26300</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15246500</v>
+        <v>14755400</v>
       </c>
       <c r="E59" s="3">
-        <v>14882600</v>
+        <v>15712000</v>
       </c>
       <c r="F59" s="3">
-        <v>20393200</v>
+        <v>15337000</v>
       </c>
       <c r="G59" s="3">
-        <v>9767500</v>
+        <v>21015800</v>
       </c>
       <c r="H59" s="3">
-        <v>8458900</v>
+        <v>10065700</v>
       </c>
       <c r="I59" s="3">
-        <v>8285800</v>
+        <v>8717100</v>
       </c>
       <c r="J59" s="3">
+        <v>8538800</v>
+      </c>
+      <c r="K59" s="3">
         <v>11002000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12483400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5306700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20564900</v>
+        <v>19387000</v>
       </c>
       <c r="E60" s="3">
-        <v>20393200</v>
+        <v>21192700</v>
       </c>
       <c r="F60" s="3">
-        <v>17070100</v>
+        <v>21015800</v>
       </c>
       <c r="G60" s="3">
-        <v>13092000</v>
+        <v>17591200</v>
       </c>
       <c r="H60" s="3">
-        <v>11223100</v>
+        <v>13491700</v>
       </c>
       <c r="I60" s="3">
-        <v>10553000</v>
+        <v>11565700</v>
       </c>
       <c r="J60" s="3">
+        <v>10875100</v>
+      </c>
+      <c r="K60" s="3">
         <v>13429800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9318600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9106900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6742400</v>
+        <v>8572700</v>
       </c>
       <c r="E61" s="3">
-        <v>5223600</v>
+        <v>6948200</v>
       </c>
       <c r="F61" s="3">
-        <v>4677100</v>
+        <v>5383100</v>
       </c>
       <c r="G61" s="3">
-        <v>4373600</v>
+        <v>4819900</v>
       </c>
       <c r="H61" s="3">
-        <v>3958900</v>
+        <v>4507100</v>
       </c>
       <c r="I61" s="3">
-        <v>3011400</v>
+        <v>4079800</v>
       </c>
       <c r="J61" s="3">
+        <v>3103300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3465900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2135700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1559100</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21585200</v>
+        <v>20386100</v>
       </c>
       <c r="E62" s="3">
-        <v>19057100</v>
+        <v>22244100</v>
       </c>
       <c r="F62" s="3">
-        <v>24217600</v>
+        <v>19638900</v>
       </c>
       <c r="G62" s="3">
-        <v>15043300</v>
+        <v>24956900</v>
       </c>
       <c r="H62" s="3">
-        <v>8585200</v>
+        <v>15502500</v>
       </c>
       <c r="I62" s="3">
-        <v>8182800</v>
+        <v>8847300</v>
       </c>
       <c r="J62" s="3">
+        <v>8432600</v>
+      </c>
+      <c r="K62" s="3">
         <v>6118900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8779500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5009100</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2372,9 +2521,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2405,9 +2557,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2438,42 +2593,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48943200</v>
+        <v>48699600</v>
       </c>
       <c r="E66" s="3">
-        <v>45220500</v>
+        <v>50437400</v>
       </c>
       <c r="F66" s="3">
-        <v>37072000</v>
+        <v>46601000</v>
       </c>
       <c r="G66" s="3">
-        <v>32511600</v>
+        <v>38203700</v>
       </c>
       <c r="H66" s="3">
-        <v>23769900</v>
+        <v>33504100</v>
       </c>
       <c r="I66" s="3">
-        <v>21754100</v>
+        <v>24495600</v>
       </c>
       <c r="J66" s="3">
+        <v>22418200</v>
+      </c>
+      <c r="K66" s="3">
         <v>23973200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15729600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15676400</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2487,8 +2648,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2519,9 +2681,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2552,9 +2717,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2585,9 +2753,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2618,42 +2789,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6017300</v>
+        <v>-11339300</v>
       </c>
       <c r="E72" s="3">
-        <v>-3328600</v>
+        <v>-6201000</v>
       </c>
       <c r="F72" s="3">
-        <v>661900</v>
+        <v>-3430200</v>
       </c>
       <c r="G72" s="3">
-        <v>1951300</v>
+        <v>682100</v>
       </c>
       <c r="H72" s="3">
-        <v>6271400</v>
+        <v>2010900</v>
       </c>
       <c r="I72" s="3">
-        <v>8112800</v>
+        <v>6462800</v>
       </c>
       <c r="J72" s="3">
+        <v>8360500</v>
+      </c>
+      <c r="K72" s="3">
         <v>7163900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14793600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5456800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2684,9 +2861,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2717,9 +2897,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2750,42 +2933,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4635900</v>
+        <v>-6929800</v>
       </c>
       <c r="E76" s="3">
-        <v>-1474800</v>
+        <v>-4777400</v>
       </c>
       <c r="F76" s="3">
-        <v>1277100</v>
+        <v>-1519800</v>
       </c>
       <c r="G76" s="3">
-        <v>2556900</v>
+        <v>1316100</v>
       </c>
       <c r="H76" s="3">
-        <v>6885200</v>
+        <v>2634900</v>
       </c>
       <c r="I76" s="3">
-        <v>8763700</v>
+        <v>7095400</v>
       </c>
       <c r="J76" s="3">
+        <v>9031200</v>
+      </c>
+      <c r="K76" s="3">
         <v>7696700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7729700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5949300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2816,80 +3005,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1805700</v>
+        <v>-4485900</v>
       </c>
       <c r="E81" s="3">
-        <v>-3297000</v>
+        <v>-1860900</v>
       </c>
       <c r="F81" s="3">
-        <v>4644100</v>
+        <v>-3397700</v>
       </c>
       <c r="G81" s="3">
-        <v>-5536700</v>
+        <v>4785900</v>
       </c>
       <c r="H81" s="3">
-        <v>114000</v>
+        <v>-5705700</v>
       </c>
       <c r="I81" s="3">
-        <v>94800</v>
+        <v>117500</v>
       </c>
       <c r="J81" s="3">
+        <v>97600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1877200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3000600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1119300</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2903,41 +3101,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1805700</v>
+        <v>3474100</v>
       </c>
       <c r="E83" s="3">
-        <v>1238600</v>
+        <v>1860900</v>
       </c>
       <c r="F83" s="3">
-        <v>1080700</v>
+        <v>1276400</v>
       </c>
       <c r="G83" s="3">
-        <v>1139700</v>
+        <v>1113700</v>
       </c>
       <c r="H83" s="3">
-        <v>1071100</v>
+        <v>1174500</v>
       </c>
       <c r="I83" s="3">
-        <v>1018900</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>1103800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>629600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>539900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2968,9 +3170,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3001,9 +3206,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3034,9 +3242,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3067,9 +3278,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3100,42 +3314,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3154200</v>
+        <v>-4258100</v>
       </c>
       <c r="E89" s="3">
-        <v>3056700</v>
+        <v>3250500</v>
       </c>
       <c r="F89" s="3">
-        <v>2076300</v>
+        <v>3150000</v>
       </c>
       <c r="G89" s="3">
-        <v>1937600</v>
+        <v>2139600</v>
       </c>
       <c r="H89" s="3">
-        <v>1502300</v>
+        <v>1996700</v>
       </c>
       <c r="I89" s="3">
-        <v>1786500</v>
+        <v>1548100</v>
       </c>
       <c r="J89" s="3">
+        <v>1841100</v>
+      </c>
+      <c r="K89" s="3">
         <v>2801300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1622500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1719700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3149,41 +3369,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1025800</v>
+        <v>-827800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1242700</v>
+        <v>-1057100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1002400</v>
+        <v>-1280700</v>
       </c>
       <c r="G91" s="3">
-        <v>-803300</v>
+        <v>-1033000</v>
       </c>
       <c r="H91" s="3">
-        <v>-668700</v>
+        <v>-827800</v>
       </c>
       <c r="I91" s="3">
-        <v>-889800</v>
+        <v>-689200</v>
       </c>
       <c r="J91" s="3">
+        <v>-917000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-918700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-562400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1020500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3214,9 +3438,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3247,42 +3474,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1260600</v>
+        <v>-1429300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1338900</v>
+        <v>-1299100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1584700</v>
+        <v>-1379700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1871700</v>
+        <v>-1633000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1366300</v>
+        <v>-1928800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2699700</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-1408000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2782100</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>548200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2906200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3296,8 +3529,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3328,9 +3562,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3361,9 +3598,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3394,9 +3634,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3427,106 +3670,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2460800</v>
+        <v>4279300</v>
       </c>
       <c r="E100" s="3">
-        <v>964000</v>
+        <v>-2535900</v>
       </c>
       <c r="F100" s="3">
-        <v>-174400</v>
+        <v>993400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1014800</v>
+        <v>-179700</v>
       </c>
       <c r="H100" s="3">
-        <v>303500</v>
+        <v>-1045800</v>
       </c>
       <c r="I100" s="3">
-        <v>-642700</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>312700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-662300</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-427900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-862500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-142800</v>
+        <v>79200</v>
       </c>
       <c r="E101" s="3">
-        <v>90600</v>
+        <v>-147200</v>
       </c>
       <c r="F101" s="3">
-        <v>-94800</v>
+        <v>93400</v>
       </c>
       <c r="G101" s="3">
-        <v>392700</v>
+        <v>-97600</v>
       </c>
       <c r="H101" s="3">
-        <v>-8200</v>
+        <v>404700</v>
       </c>
       <c r="I101" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-8500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-69800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5300</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-709900</v>
+        <v>-1328800</v>
       </c>
       <c r="E102" s="3">
-        <v>2772500</v>
+        <v>-731600</v>
       </c>
       <c r="F102" s="3">
-        <v>222500</v>
+        <v>2857100</v>
       </c>
       <c r="G102" s="3">
-        <v>-556100</v>
+        <v>229200</v>
       </c>
       <c r="H102" s="3">
-        <v>431200</v>
+        <v>-573100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1544800</v>
+        <v>444300</v>
       </c>
       <c r="J102" s="3">
+        <v>-1592000</v>
+      </c>
+      <c r="K102" s="3">
         <v>1925200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1672900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2054200</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16732300</v>
+        <v>16125500</v>
       </c>
       <c r="E8" s="3">
-        <v>23472400</v>
+        <v>22621200</v>
       </c>
       <c r="F8" s="3">
-        <v>22258300</v>
+        <v>21451100</v>
       </c>
       <c r="G8" s="3">
-        <v>20868600</v>
+        <v>20111800</v>
       </c>
       <c r="H8" s="3">
-        <v>21163000</v>
+        <v>20395500</v>
       </c>
       <c r="I8" s="3">
-        <v>19422400</v>
+        <v>18718000</v>
       </c>
       <c r="J8" s="3">
-        <v>19438000</v>
+        <v>18733000</v>
       </c>
       <c r="K8" s="3">
         <v>20106200</v>
@@ -761,25 +761,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17029400</v>
+        <v>16411800</v>
       </c>
       <c r="E9" s="3">
-        <v>22139400</v>
+        <v>21336500</v>
       </c>
       <c r="F9" s="3">
-        <v>20563000</v>
+        <v>19817200</v>
       </c>
       <c r="G9" s="3">
-        <v>35149900</v>
+        <v>33875200</v>
       </c>
       <c r="H9" s="3">
-        <v>16849700</v>
+        <v>16238600</v>
       </c>
       <c r="I9" s="3">
-        <v>14800600</v>
+        <v>14263900</v>
       </c>
       <c r="J9" s="3">
-        <v>14905400</v>
+        <v>14364800</v>
       </c>
       <c r="K9" s="3">
         <v>32486900</v>
@@ -797,25 +797,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-297200</v>
+        <v>-286400</v>
       </c>
       <c r="E10" s="3">
-        <v>1333000</v>
+        <v>1284700</v>
       </c>
       <c r="F10" s="3">
-        <v>1695300</v>
+        <v>1633800</v>
       </c>
       <c r="G10" s="3">
-        <v>-14281300</v>
+        <v>-13763400</v>
       </c>
       <c r="H10" s="3">
-        <v>4313300</v>
+        <v>4156800</v>
       </c>
       <c r="I10" s="3">
-        <v>4621700</v>
+        <v>4454100</v>
       </c>
       <c r="J10" s="3">
-        <v>4532600</v>
+        <v>4368200</v>
       </c>
       <c r="K10" s="3">
         <v>-12380700</v>
@@ -849,25 +849,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>943900</v>
+        <v>909600</v>
       </c>
       <c r="E12" s="3">
-        <v>901400</v>
+        <v>868700</v>
       </c>
       <c r="F12" s="3">
-        <v>915600</v>
+        <v>882400</v>
       </c>
       <c r="G12" s="3">
-        <v>982100</v>
+        <v>946500</v>
       </c>
       <c r="H12" s="3">
-        <v>1091000</v>
+        <v>1051500</v>
       </c>
       <c r="I12" s="3">
-        <v>963700</v>
+        <v>928700</v>
       </c>
       <c r="J12" s="3">
-        <v>945300</v>
+        <v>911000</v>
       </c>
       <c r="K12" s="3">
         <v>1658800</v>
@@ -921,25 +921,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>700500</v>
+        <v>675100</v>
       </c>
       <c r="E14" s="3">
-        <v>-168400</v>
+        <v>-162300</v>
       </c>
       <c r="F14" s="3">
-        <v>-496700</v>
+        <v>-478700</v>
       </c>
       <c r="G14" s="3">
-        <v>-1110900</v>
+        <v>-1070600</v>
       </c>
       <c r="H14" s="3">
-        <v>1386800</v>
+        <v>1336500</v>
       </c>
       <c r="I14" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="J14" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="K14" s="3">
         <v>-473800</v>
@@ -957,25 +957,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>150000</v>
+        <v>144600</v>
       </c>
       <c r="E15" s="3">
-        <v>159900</v>
+        <v>154100</v>
       </c>
       <c r="F15" s="3">
-        <v>161300</v>
+        <v>155500</v>
       </c>
       <c r="G15" s="3">
-        <v>210900</v>
+        <v>203200</v>
       </c>
       <c r="H15" s="3">
-        <v>208000</v>
+        <v>200500</v>
       </c>
       <c r="I15" s="3">
-        <v>193900</v>
+        <v>186800</v>
       </c>
       <c r="J15" s="3">
-        <v>176900</v>
+        <v>170500</v>
       </c>
       <c r="K15" s="3">
         <v>178500</v>
@@ -1006,25 +1006,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19696900</v>
+        <v>18982600</v>
       </c>
       <c r="E17" s="3">
-        <v>24481400</v>
+        <v>23593600</v>
       </c>
       <c r="F17" s="3">
-        <v>23394600</v>
+        <v>22546200</v>
       </c>
       <c r="G17" s="3">
-        <v>19239800</v>
+        <v>18542100</v>
       </c>
       <c r="H17" s="3">
-        <v>21105000</v>
+        <v>20339600</v>
       </c>
       <c r="I17" s="3">
-        <v>17298300</v>
+        <v>16671000</v>
       </c>
       <c r="J17" s="3">
-        <v>17480900</v>
+        <v>16846900</v>
       </c>
       <c r="K17" s="3">
         <v>17655100</v>
@@ -1042,25 +1042,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2964700</v>
+        <v>-2857100</v>
       </c>
       <c r="E18" s="3">
-        <v>-1009000</v>
+        <v>-972400</v>
       </c>
       <c r="F18" s="3">
-        <v>-1136300</v>
+        <v>-1095100</v>
       </c>
       <c r="G18" s="3">
-        <v>1628800</v>
+        <v>1569700</v>
       </c>
       <c r="H18" s="3">
-        <v>58000</v>
+        <v>55900</v>
       </c>
       <c r="I18" s="3">
-        <v>2124100</v>
+        <v>2047000</v>
       </c>
       <c r="J18" s="3">
-        <v>1957100</v>
+        <v>1886100</v>
       </c>
       <c r="K18" s="3">
         <v>2451100</v>
@@ -1094,25 +1094,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-898600</v>
+        <v>-866000</v>
       </c>
       <c r="E20" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2882600</v>
+        <v>-2778000</v>
       </c>
       <c r="G20" s="3">
-        <v>3982100</v>
+        <v>3837700</v>
       </c>
       <c r="H20" s="3">
-        <v>-6509500</v>
+        <v>-6273400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1797200</v>
+        <v>-1732000</v>
       </c>
       <c r="J20" s="3">
-        <v>-1773100</v>
+        <v>-1708800</v>
       </c>
       <c r="K20" s="3">
         <v>-37100</v>
@@ -1130,25 +1130,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-388200</v>
+        <v>-346300</v>
       </c>
       <c r="E21" s="3">
-        <v>858100</v>
+        <v>841900</v>
       </c>
       <c r="F21" s="3">
-        <v>-2742100</v>
+        <v>-2632500</v>
       </c>
       <c r="G21" s="3">
-        <v>6724900</v>
+        <v>6489900</v>
       </c>
       <c r="H21" s="3">
-        <v>-5276600</v>
+        <v>-5075900</v>
       </c>
       <c r="I21" s="3">
-        <v>1431000</v>
+        <v>1387900</v>
       </c>
       <c r="J21" s="3">
-        <v>1234300</v>
+        <v>1197900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1166,25 +1166,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>254700</v>
+        <v>245500</v>
       </c>
       <c r="E22" s="3">
-        <v>257600</v>
+        <v>248200</v>
       </c>
       <c r="F22" s="3">
-        <v>151400</v>
+        <v>145900</v>
       </c>
       <c r="G22" s="3">
-        <v>94800</v>
+        <v>91400</v>
       </c>
       <c r="H22" s="3">
-        <v>109000</v>
+        <v>105000</v>
       </c>
       <c r="I22" s="3">
-        <v>100500</v>
+        <v>96800</v>
       </c>
       <c r="J22" s="3">
-        <v>89200</v>
+        <v>85900</v>
       </c>
       <c r="K22" s="3">
         <v>79600</v>
@@ -1202,25 +1202,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4118000</v>
+        <v>-3968600</v>
       </c>
       <c r="E23" s="3">
-        <v>-1260900</v>
+        <v>-1215100</v>
       </c>
       <c r="F23" s="3">
-        <v>-4170300</v>
+        <v>-4019100</v>
       </c>
       <c r="G23" s="3">
-        <v>5516100</v>
+        <v>5316100</v>
       </c>
       <c r="H23" s="3">
-        <v>-6560400</v>
+        <v>-6322500</v>
       </c>
       <c r="I23" s="3">
-        <v>226400</v>
+        <v>218200</v>
       </c>
       <c r="J23" s="3">
-        <v>94800</v>
+        <v>91400</v>
       </c>
       <c r="K23" s="3">
         <v>2334400</v>
@@ -1238,25 +1238,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>366500</v>
+        <v>353200</v>
       </c>
       <c r="E24" s="3">
-        <v>594300</v>
+        <v>572800</v>
       </c>
       <c r="F24" s="3">
-        <v>-723100</v>
+        <v>-696900</v>
       </c>
       <c r="G24" s="3">
-        <v>658000</v>
+        <v>634200</v>
       </c>
       <c r="H24" s="3">
-        <v>-854700</v>
+        <v>-823700</v>
       </c>
       <c r="I24" s="3">
-        <v>107500</v>
+        <v>103600</v>
       </c>
       <c r="J24" s="3">
-        <v>213700</v>
+        <v>205900</v>
       </c>
       <c r="K24" s="3">
         <v>517700</v>
@@ -1310,25 +1310,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4484500</v>
+        <v>-4321900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1855200</v>
+        <v>-1787900</v>
       </c>
       <c r="F26" s="3">
-        <v>-3447200</v>
+        <v>-3322200</v>
       </c>
       <c r="G26" s="3">
-        <v>4858100</v>
+        <v>4681900</v>
       </c>
       <c r="H26" s="3">
-        <v>-5705700</v>
+        <v>-5498800</v>
       </c>
       <c r="I26" s="3">
-        <v>118900</v>
+        <v>114600</v>
       </c>
       <c r="J26" s="3">
-        <v>-118900</v>
+        <v>-114600</v>
       </c>
       <c r="K26" s="3">
         <v>1816700</v>
@@ -1346,25 +1346,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4485900</v>
+        <v>-4323200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1860900</v>
+        <v>-1793400</v>
       </c>
       <c r="F27" s="3">
-        <v>-3458500</v>
+        <v>-3333100</v>
       </c>
       <c r="G27" s="3">
-        <v>4856700</v>
+        <v>4680500</v>
       </c>
       <c r="H27" s="3">
-        <v>-5705700</v>
+        <v>-5498800</v>
       </c>
       <c r="I27" s="3">
-        <v>117500</v>
+        <v>113200</v>
       </c>
       <c r="J27" s="3">
-        <v>-103300</v>
+        <v>-99600</v>
       </c>
       <c r="K27" s="3">
         <v>1800300</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>60800</v>
+        <v>58600</v>
       </c>
       <c r="G29" s="3">
-        <v>-70800</v>
+        <v>-68200</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>200900</v>
+        <v>193700</v>
       </c>
       <c r="K29" s="3">
         <v>76900</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>898600</v>
+        <v>866000</v>
       </c>
       <c r="E32" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="F32" s="3">
-        <v>2882600</v>
+        <v>2778000</v>
       </c>
       <c r="G32" s="3">
-        <v>-3982100</v>
+        <v>-3837700</v>
       </c>
       <c r="H32" s="3">
-        <v>6509500</v>
+        <v>6273400</v>
       </c>
       <c r="I32" s="3">
-        <v>1797200</v>
+        <v>1732000</v>
       </c>
       <c r="J32" s="3">
-        <v>1773100</v>
+        <v>1708800</v>
       </c>
       <c r="K32" s="3">
         <v>37100</v>
@@ -1562,25 +1562,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4485900</v>
+        <v>-4323200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1860900</v>
+        <v>-1793400</v>
       </c>
       <c r="F33" s="3">
-        <v>-3397700</v>
+        <v>-3274500</v>
       </c>
       <c r="G33" s="3">
-        <v>4785900</v>
+        <v>4612300</v>
       </c>
       <c r="H33" s="3">
-        <v>-5705700</v>
+        <v>-5498800</v>
       </c>
       <c r="I33" s="3">
-        <v>117500</v>
+        <v>113200</v>
       </c>
       <c r="J33" s="3">
-        <v>97600</v>
+        <v>94100</v>
       </c>
       <c r="K33" s="3">
         <v>1877200</v>
@@ -1634,25 +1634,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4485900</v>
+        <v>-4323200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1860900</v>
+        <v>-1793400</v>
       </c>
       <c r="F35" s="3">
-        <v>-3397700</v>
+        <v>-3274500</v>
       </c>
       <c r="G35" s="3">
-        <v>4785900</v>
+        <v>4612300</v>
       </c>
       <c r="H35" s="3">
-        <v>-5705700</v>
+        <v>-5498800</v>
       </c>
       <c r="I35" s="3">
-        <v>117500</v>
+        <v>113200</v>
       </c>
       <c r="J35" s="3">
-        <v>97600</v>
+        <v>94100</v>
       </c>
       <c r="K35" s="3">
         <v>1877200</v>
@@ -1743,25 +1743,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4682600</v>
+        <v>4512800</v>
       </c>
       <c r="E41" s="3">
-        <v>6239200</v>
+        <v>6013000</v>
       </c>
       <c r="F41" s="3">
-        <v>6994900</v>
+        <v>6741200</v>
       </c>
       <c r="G41" s="3">
-        <v>8325100</v>
+        <v>8023200</v>
       </c>
       <c r="H41" s="3">
-        <v>3873200</v>
+        <v>3732700</v>
       </c>
       <c r="I41" s="3">
-        <v>4464700</v>
+        <v>4302800</v>
       </c>
       <c r="J41" s="3">
-        <v>4007600</v>
+        <v>3862300</v>
       </c>
       <c r="K41" s="3">
         <v>5086300</v>
@@ -1779,25 +1779,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18400</v>
+        <v>17700</v>
       </c>
       <c r="E42" s="3">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="F42" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="G42" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H42" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I42" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J42" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="K42" s="3">
         <v>440800</v>
@@ -1815,25 +1815,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8749600</v>
+        <v>8432300</v>
       </c>
       <c r="E43" s="3">
-        <v>9332700</v>
+        <v>8994200</v>
       </c>
       <c r="F43" s="3">
-        <v>8756700</v>
+        <v>8439100</v>
       </c>
       <c r="G43" s="3">
-        <v>17615300</v>
+        <v>16976500</v>
       </c>
       <c r="H43" s="3">
-        <v>9610000</v>
+        <v>9261500</v>
       </c>
       <c r="I43" s="3">
-        <v>8592500</v>
+        <v>8280900</v>
       </c>
       <c r="J43" s="3">
-        <v>7539700</v>
+        <v>7266300</v>
       </c>
       <c r="K43" s="3">
         <v>6691600</v>
@@ -1851,25 +1851,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5221800</v>
+        <v>5032400</v>
       </c>
       <c r="E44" s="3">
-        <v>6113300</v>
+        <v>5891600</v>
       </c>
       <c r="F44" s="3">
-        <v>6066600</v>
+        <v>5846600</v>
       </c>
       <c r="G44" s="3">
-        <v>10896300</v>
+        <v>10501200</v>
       </c>
       <c r="H44" s="3">
-        <v>4367000</v>
+        <v>4208700</v>
       </c>
       <c r="I44" s="3">
-        <v>3731600</v>
+        <v>3596300</v>
       </c>
       <c r="J44" s="3">
-        <v>3917000</v>
+        <v>3775000</v>
       </c>
       <c r="K44" s="3">
         <v>4557600</v>
@@ -1887,25 +1887,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1607600</v>
+        <v>1549300</v>
       </c>
       <c r="E45" s="3">
-        <v>1007600</v>
+        <v>971000</v>
       </c>
       <c r="F45" s="3">
-        <v>1975500</v>
+        <v>1903900</v>
       </c>
       <c r="G45" s="3">
-        <v>387700</v>
+        <v>373700</v>
       </c>
       <c r="H45" s="3">
-        <v>341000</v>
+        <v>328700</v>
       </c>
       <c r="I45" s="3">
-        <v>353800</v>
+        <v>340900</v>
       </c>
       <c r="J45" s="3">
-        <v>358000</v>
+        <v>345000</v>
       </c>
       <c r="K45" s="3">
         <v>825300</v>
@@ -1923,25 +1923,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20279900</v>
+        <v>19544500</v>
       </c>
       <c r="E46" s="3">
-        <v>22718200</v>
+        <v>21894300</v>
       </c>
       <c r="F46" s="3">
-        <v>23802200</v>
+        <v>22938900</v>
       </c>
       <c r="G46" s="3">
-        <v>18562000</v>
+        <v>17888800</v>
       </c>
       <c r="H46" s="3">
-        <v>18195500</v>
+        <v>17535600</v>
       </c>
       <c r="I46" s="3">
-        <v>17145500</v>
+        <v>16523700</v>
       </c>
       <c r="J46" s="3">
-        <v>15832300</v>
+        <v>15258100</v>
       </c>
       <c r="K46" s="3">
         <v>17601500</v>
@@ -1959,25 +1959,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>605700</v>
+        <v>583700</v>
       </c>
       <c r="E47" s="3">
-        <v>611300</v>
+        <v>589200</v>
       </c>
       <c r="F47" s="3">
-        <v>614200</v>
+        <v>591900</v>
       </c>
       <c r="G47" s="3">
-        <v>567500</v>
+        <v>546900</v>
       </c>
       <c r="H47" s="3">
-        <v>1248100</v>
+        <v>1202900</v>
       </c>
       <c r="I47" s="3">
-        <v>861800</v>
+        <v>830500</v>
       </c>
       <c r="J47" s="3">
-        <v>806600</v>
+        <v>777400</v>
       </c>
       <c r="K47" s="3">
         <v>862400</v>
@@ -1995,25 +1995,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8377500</v>
+        <v>8073600</v>
       </c>
       <c r="E48" s="3">
-        <v>9639700</v>
+        <v>9290100</v>
       </c>
       <c r="F48" s="3">
-        <v>6975100</v>
+        <v>6722100</v>
       </c>
       <c r="G48" s="3">
-        <v>6591600</v>
+        <v>6352500</v>
       </c>
       <c r="H48" s="3">
-        <v>5821800</v>
+        <v>5610600</v>
       </c>
       <c r="I48" s="3">
-        <v>4938700</v>
+        <v>4759600</v>
       </c>
       <c r="J48" s="3">
-        <v>4876500</v>
+        <v>4699600</v>
       </c>
       <c r="K48" s="3">
         <v>4657900</v>
@@ -2031,25 +2031,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7280700</v>
+        <v>7016700</v>
       </c>
       <c r="E49" s="3">
-        <v>7701000</v>
+        <v>7421700</v>
       </c>
       <c r="F49" s="3">
-        <v>7493000</v>
+        <v>7221300</v>
       </c>
       <c r="G49" s="3">
-        <v>7875100</v>
+        <v>7589500</v>
       </c>
       <c r="H49" s="3">
-        <v>7188800</v>
+        <v>6928100</v>
       </c>
       <c r="I49" s="3">
-        <v>6573200</v>
+        <v>6334800</v>
       </c>
       <c r="J49" s="3">
-        <v>6798200</v>
+        <v>6551600</v>
       </c>
       <c r="K49" s="3">
         <v>6848100</v>
@@ -2139,25 +2139,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5226000</v>
+        <v>5036500</v>
       </c>
       <c r="E52" s="3">
-        <v>4989700</v>
+        <v>4808700</v>
       </c>
       <c r="F52" s="3">
-        <v>6196800</v>
+        <v>5972000</v>
       </c>
       <c r="G52" s="3">
-        <v>5923700</v>
+        <v>5708800</v>
       </c>
       <c r="H52" s="3">
-        <v>3684900</v>
+        <v>3551300</v>
       </c>
       <c r="I52" s="3">
-        <v>2071700</v>
+        <v>1996600</v>
       </c>
       <c r="J52" s="3">
-        <v>3135900</v>
+        <v>3022200</v>
       </c>
       <c r="K52" s="3">
         <v>1700000</v>
@@ -2211,25 +2211,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41769800</v>
+        <v>40255000</v>
       </c>
       <c r="E54" s="3">
-        <v>45659900</v>
+        <v>44004000</v>
       </c>
       <c r="F54" s="3">
-        <v>45081200</v>
+        <v>43446300</v>
       </c>
       <c r="G54" s="3">
-        <v>39519800</v>
+        <v>38086600</v>
       </c>
       <c r="H54" s="3">
-        <v>36139100</v>
+        <v>34828500</v>
       </c>
       <c r="I54" s="3">
-        <v>31590900</v>
+        <v>30445200</v>
       </c>
       <c r="J54" s="3">
-        <v>31449400</v>
+        <v>30308900</v>
       </c>
       <c r="K54" s="3">
         <v>31669900</v>
@@ -2279,25 +2279,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2831600</v>
+        <v>2728900</v>
       </c>
       <c r="E57" s="3">
-        <v>4384000</v>
+        <v>4225000</v>
       </c>
       <c r="F57" s="3">
-        <v>4464700</v>
+        <v>4302800</v>
       </c>
       <c r="G57" s="3">
-        <v>19401200</v>
+        <v>18697600</v>
       </c>
       <c r="H57" s="3">
-        <v>3182600</v>
+        <v>3067200</v>
       </c>
       <c r="I57" s="3">
-        <v>2255700</v>
+        <v>2173900</v>
       </c>
       <c r="J57" s="3">
-        <v>2240100</v>
+        <v>2158900</v>
       </c>
       <c r="K57" s="3">
         <v>2143500</v>
@@ -2315,25 +2315,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1800000</v>
+        <v>1734700</v>
       </c>
       <c r="E58" s="3">
-        <v>1096700</v>
+        <v>1056900</v>
       </c>
       <c r="F58" s="3">
-        <v>1214200</v>
+        <v>1170100</v>
       </c>
       <c r="G58" s="3">
-        <v>232100</v>
+        <v>223700</v>
       </c>
       <c r="H58" s="3">
-        <v>243400</v>
+        <v>234600</v>
       </c>
       <c r="I58" s="3">
-        <v>592900</v>
+        <v>571400</v>
       </c>
       <c r="J58" s="3">
-        <v>96200</v>
+        <v>92700</v>
       </c>
       <c r="K58" s="3">
         <v>284300</v>
@@ -2351,25 +2351,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14755400</v>
+        <v>14220200</v>
       </c>
       <c r="E59" s="3">
-        <v>15712000</v>
+        <v>15142200</v>
       </c>
       <c r="F59" s="3">
-        <v>15337000</v>
+        <v>14780800</v>
       </c>
       <c r="G59" s="3">
-        <v>21015800</v>
+        <v>20253600</v>
       </c>
       <c r="H59" s="3">
-        <v>10065700</v>
+        <v>9700600</v>
       </c>
       <c r="I59" s="3">
-        <v>8717100</v>
+        <v>8400900</v>
       </c>
       <c r="J59" s="3">
-        <v>8538800</v>
+        <v>8229100</v>
       </c>
       <c r="K59" s="3">
         <v>11002000</v>
@@ -2387,25 +2387,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19387000</v>
+        <v>18683900</v>
       </c>
       <c r="E60" s="3">
-        <v>21192700</v>
+        <v>20424100</v>
       </c>
       <c r="F60" s="3">
-        <v>21015800</v>
+        <v>20253600</v>
       </c>
       <c r="G60" s="3">
-        <v>17591200</v>
+        <v>16953300</v>
       </c>
       <c r="H60" s="3">
-        <v>13491700</v>
+        <v>13002400</v>
       </c>
       <c r="I60" s="3">
-        <v>11565700</v>
+        <v>11146300</v>
       </c>
       <c r="J60" s="3">
-        <v>10875100</v>
+        <v>10480700</v>
       </c>
       <c r="K60" s="3">
         <v>13429800</v>
@@ -2423,25 +2423,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8572700</v>
+        <v>8261800</v>
       </c>
       <c r="E61" s="3">
-        <v>6948200</v>
+        <v>6696200</v>
       </c>
       <c r="F61" s="3">
-        <v>5383100</v>
+        <v>5187900</v>
       </c>
       <c r="G61" s="3">
-        <v>4819900</v>
+        <v>4645100</v>
       </c>
       <c r="H61" s="3">
-        <v>4507100</v>
+        <v>4343700</v>
       </c>
       <c r="I61" s="3">
-        <v>4079800</v>
+        <v>3931800</v>
       </c>
       <c r="J61" s="3">
-        <v>3103300</v>
+        <v>2990800</v>
       </c>
       <c r="K61" s="3">
         <v>3465900</v>
@@ -2459,25 +2459,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20386100</v>
+        <v>19646800</v>
       </c>
       <c r="E62" s="3">
-        <v>22244100</v>
+        <v>21437400</v>
       </c>
       <c r="F62" s="3">
-        <v>19638900</v>
+        <v>18926700</v>
       </c>
       <c r="G62" s="3">
-        <v>24956900</v>
+        <v>24051800</v>
       </c>
       <c r="H62" s="3">
-        <v>15502500</v>
+        <v>14940300</v>
       </c>
       <c r="I62" s="3">
-        <v>8847300</v>
+        <v>8526400</v>
       </c>
       <c r="J62" s="3">
-        <v>8432600</v>
+        <v>8126800</v>
       </c>
       <c r="K62" s="3">
         <v>6118900</v>
@@ -2603,25 +2603,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48699600</v>
+        <v>46933500</v>
       </c>
       <c r="E66" s="3">
-        <v>50437400</v>
+        <v>48608200</v>
       </c>
       <c r="F66" s="3">
-        <v>46601000</v>
+        <v>44911000</v>
       </c>
       <c r="G66" s="3">
-        <v>38203700</v>
+        <v>36818200</v>
       </c>
       <c r="H66" s="3">
-        <v>33504100</v>
+        <v>32289100</v>
       </c>
       <c r="I66" s="3">
-        <v>24495600</v>
+        <v>23607200</v>
       </c>
       <c r="J66" s="3">
-        <v>22418200</v>
+        <v>21605200</v>
       </c>
       <c r="K66" s="3">
         <v>23973200</v>
@@ -2799,25 +2799,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11339300</v>
+        <v>-10928000</v>
       </c>
       <c r="E72" s="3">
-        <v>-6201000</v>
+        <v>-5976100</v>
       </c>
       <c r="F72" s="3">
-        <v>-3430200</v>
+        <v>-3305800</v>
       </c>
       <c r="G72" s="3">
-        <v>682100</v>
+        <v>657300</v>
       </c>
       <c r="H72" s="3">
-        <v>2010900</v>
+        <v>1937900</v>
       </c>
       <c r="I72" s="3">
-        <v>6462800</v>
+        <v>6228400</v>
       </c>
       <c r="J72" s="3">
-        <v>8360500</v>
+        <v>8057300</v>
       </c>
       <c r="K72" s="3">
         <v>7163900</v>
@@ -2943,25 +2943,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-6929800</v>
+        <v>-6678500</v>
       </c>
       <c r="E76" s="3">
-        <v>-4777400</v>
+        <v>-4604200</v>
       </c>
       <c r="F76" s="3">
-        <v>-1519800</v>
+        <v>-1464700</v>
       </c>
       <c r="G76" s="3">
-        <v>1316100</v>
+        <v>1268300</v>
       </c>
       <c r="H76" s="3">
-        <v>2634900</v>
+        <v>2539400</v>
       </c>
       <c r="I76" s="3">
-        <v>7095400</v>
+        <v>6838000</v>
       </c>
       <c r="J76" s="3">
-        <v>9031200</v>
+        <v>8703700</v>
       </c>
       <c r="K76" s="3">
         <v>7696700</v>
@@ -3056,25 +3056,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4485900</v>
+        <v>-4323200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1860900</v>
+        <v>-1793400</v>
       </c>
       <c r="F81" s="3">
-        <v>-3397700</v>
+        <v>-3274500</v>
       </c>
       <c r="G81" s="3">
-        <v>4785900</v>
+        <v>4612300</v>
       </c>
       <c r="H81" s="3">
-        <v>-5705700</v>
+        <v>-5498800</v>
       </c>
       <c r="I81" s="3">
-        <v>117500</v>
+        <v>113200</v>
       </c>
       <c r="J81" s="3">
-        <v>97600</v>
+        <v>94100</v>
       </c>
       <c r="K81" s="3">
         <v>1877200</v>
@@ -3108,25 +3108,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3474100</v>
+        <v>3348100</v>
       </c>
       <c r="E83" s="3">
-        <v>1860900</v>
+        <v>1793400</v>
       </c>
       <c r="F83" s="3">
-        <v>1276400</v>
+        <v>1230100</v>
       </c>
       <c r="G83" s="3">
-        <v>1113700</v>
+        <v>1073300</v>
       </c>
       <c r="H83" s="3">
-        <v>1174500</v>
+        <v>1131900</v>
       </c>
       <c r="I83" s="3">
-        <v>1103800</v>
+        <v>1063800</v>
       </c>
       <c r="J83" s="3">
-        <v>1050000</v>
+        <v>1011900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3324,25 +3324,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4258100</v>
+        <v>-4103600</v>
       </c>
       <c r="E89" s="3">
-        <v>3250500</v>
+        <v>3132600</v>
       </c>
       <c r="F89" s="3">
-        <v>3150000</v>
+        <v>3035800</v>
       </c>
       <c r="G89" s="3">
-        <v>2139600</v>
+        <v>2062100</v>
       </c>
       <c r="H89" s="3">
-        <v>1996700</v>
+        <v>1924300</v>
       </c>
       <c r="I89" s="3">
-        <v>1548100</v>
+        <v>1492000</v>
       </c>
       <c r="J89" s="3">
-        <v>1841100</v>
+        <v>1774300</v>
       </c>
       <c r="K89" s="3">
         <v>2801300</v>
@@ -3376,25 +3376,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-827800</v>
+        <v>-797800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1057100</v>
+        <v>-1018800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1280700</v>
+        <v>-1234200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1033000</v>
+        <v>-995600</v>
       </c>
       <c r="H91" s="3">
-        <v>-827800</v>
+        <v>-797800</v>
       </c>
       <c r="I91" s="3">
-        <v>-689200</v>
+        <v>-664200</v>
       </c>
       <c r="J91" s="3">
-        <v>-917000</v>
+        <v>-883700</v>
       </c>
       <c r="K91" s="3">
         <v>-918700</v>
@@ -3484,25 +3484,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1429300</v>
+        <v>-1377400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1299100</v>
+        <v>-1252000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1379700</v>
+        <v>-1329700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1633000</v>
+        <v>-1573800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1928800</v>
+        <v>-1858800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1408000</v>
+        <v>-1357000</v>
       </c>
       <c r="J94" s="3">
-        <v>-2782100</v>
+        <v>-2681200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -3680,25 +3680,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4279300</v>
+        <v>4124100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2535900</v>
+        <v>-2443900</v>
       </c>
       <c r="F100" s="3">
-        <v>993400</v>
+        <v>957400</v>
       </c>
       <c r="G100" s="3">
-        <v>-179700</v>
+        <v>-173200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1045800</v>
+        <v>-1007800</v>
       </c>
       <c r="I100" s="3">
-        <v>312700</v>
+        <v>301400</v>
       </c>
       <c r="J100" s="3">
-        <v>-662300</v>
+        <v>-638300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -3716,25 +3716,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>79200</v>
+        <v>76400</v>
       </c>
       <c r="E101" s="3">
-        <v>-147200</v>
+        <v>-141800</v>
       </c>
       <c r="F101" s="3">
-        <v>93400</v>
+        <v>90000</v>
       </c>
       <c r="G101" s="3">
-        <v>-97600</v>
+        <v>-94100</v>
       </c>
       <c r="H101" s="3">
-        <v>404700</v>
+        <v>390000</v>
       </c>
       <c r="I101" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="J101" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -3752,25 +3752,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1328800</v>
+        <v>-1280600</v>
       </c>
       <c r="E102" s="3">
-        <v>-731600</v>
+        <v>-705100</v>
       </c>
       <c r="F102" s="3">
-        <v>2857100</v>
+        <v>2753500</v>
       </c>
       <c r="G102" s="3">
-        <v>229200</v>
+        <v>220900</v>
       </c>
       <c r="H102" s="3">
-        <v>-573100</v>
+        <v>-552300</v>
       </c>
       <c r="I102" s="3">
-        <v>444300</v>
+        <v>428200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1592000</v>
+        <v>-1534300</v>
       </c>
       <c r="K102" s="3">
         <v>1925200</v>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16125500</v>
+        <v>15738900</v>
       </c>
       <c r="E8" s="3">
-        <v>22621200</v>
+        <v>22079000</v>
       </c>
       <c r="F8" s="3">
-        <v>21451100</v>
+        <v>20936900</v>
       </c>
       <c r="G8" s="3">
-        <v>20111800</v>
+        <v>19629700</v>
       </c>
       <c r="H8" s="3">
-        <v>20395500</v>
+        <v>19906600</v>
       </c>
       <c r="I8" s="3">
-        <v>18718000</v>
+        <v>18269300</v>
       </c>
       <c r="J8" s="3">
-        <v>18733000</v>
+        <v>18284000</v>
       </c>
       <c r="K8" s="3">
         <v>20106200</v>
@@ -761,25 +761,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16411800</v>
+        <v>16018500</v>
       </c>
       <c r="E9" s="3">
-        <v>21336500</v>
+        <v>20825100</v>
       </c>
       <c r="F9" s="3">
-        <v>19817200</v>
+        <v>19342200</v>
       </c>
       <c r="G9" s="3">
-        <v>33875200</v>
+        <v>33063200</v>
       </c>
       <c r="H9" s="3">
-        <v>16238600</v>
+        <v>15849400</v>
       </c>
       <c r="I9" s="3">
-        <v>14263900</v>
+        <v>13922000</v>
       </c>
       <c r="J9" s="3">
-        <v>14364800</v>
+        <v>14020500</v>
       </c>
       <c r="K9" s="3">
         <v>32486900</v>
@@ -797,25 +797,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-286400</v>
+        <v>-279500</v>
       </c>
       <c r="E10" s="3">
-        <v>1284700</v>
+        <v>1253900</v>
       </c>
       <c r="F10" s="3">
-        <v>1633800</v>
+        <v>1594700</v>
       </c>
       <c r="G10" s="3">
-        <v>-13763400</v>
+        <v>-13433500</v>
       </c>
       <c r="H10" s="3">
-        <v>4156800</v>
+        <v>4057200</v>
       </c>
       <c r="I10" s="3">
-        <v>4454100</v>
+        <v>4347400</v>
       </c>
       <c r="J10" s="3">
-        <v>4368200</v>
+        <v>4263500</v>
       </c>
       <c r="K10" s="3">
         <v>-12380700</v>
@@ -849,25 +849,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>909600</v>
+        <v>887800</v>
       </c>
       <c r="E12" s="3">
-        <v>868700</v>
+        <v>847900</v>
       </c>
       <c r="F12" s="3">
-        <v>882400</v>
+        <v>861200</v>
       </c>
       <c r="G12" s="3">
-        <v>946500</v>
+        <v>923800</v>
       </c>
       <c r="H12" s="3">
-        <v>1051500</v>
+        <v>1026300</v>
       </c>
       <c r="I12" s="3">
-        <v>928700</v>
+        <v>906500</v>
       </c>
       <c r="J12" s="3">
-        <v>911000</v>
+        <v>889200</v>
       </c>
       <c r="K12" s="3">
         <v>1658800</v>
@@ -921,25 +921,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>675100</v>
+        <v>658900</v>
       </c>
       <c r="E14" s="3">
-        <v>-162300</v>
+        <v>-158400</v>
       </c>
       <c r="F14" s="3">
-        <v>-478700</v>
+        <v>-467200</v>
       </c>
       <c r="G14" s="3">
-        <v>-1070600</v>
+        <v>-1044900</v>
       </c>
       <c r="H14" s="3">
-        <v>1336500</v>
+        <v>1304500</v>
       </c>
       <c r="I14" s="3">
         <v>-2700</v>
       </c>
       <c r="J14" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="K14" s="3">
         <v>-473800</v>
@@ -957,25 +957,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>144600</v>
+        <v>141100</v>
       </c>
       <c r="E15" s="3">
-        <v>154100</v>
+        <v>150400</v>
       </c>
       <c r="F15" s="3">
-        <v>155500</v>
+        <v>151700</v>
       </c>
       <c r="G15" s="3">
-        <v>203200</v>
+        <v>198300</v>
       </c>
       <c r="H15" s="3">
-        <v>200500</v>
+        <v>195700</v>
       </c>
       <c r="I15" s="3">
-        <v>186800</v>
+        <v>182400</v>
       </c>
       <c r="J15" s="3">
-        <v>170500</v>
+        <v>166400</v>
       </c>
       <c r="K15" s="3">
         <v>178500</v>
@@ -1006,25 +1006,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18982600</v>
+        <v>18527600</v>
       </c>
       <c r="E17" s="3">
-        <v>23593600</v>
+        <v>23028000</v>
       </c>
       <c r="F17" s="3">
-        <v>22546200</v>
+        <v>22005700</v>
       </c>
       <c r="G17" s="3">
-        <v>18542100</v>
+        <v>18097600</v>
       </c>
       <c r="H17" s="3">
-        <v>20339600</v>
+        <v>19852000</v>
       </c>
       <c r="I17" s="3">
-        <v>16671000</v>
+        <v>16271400</v>
       </c>
       <c r="J17" s="3">
-        <v>16846900</v>
+        <v>16443100</v>
       </c>
       <c r="K17" s="3">
         <v>17655100</v>
@@ -1042,25 +1042,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2857100</v>
+        <v>-2788700</v>
       </c>
       <c r="E18" s="3">
-        <v>-972400</v>
+        <v>-949100</v>
       </c>
       <c r="F18" s="3">
-        <v>-1095100</v>
+        <v>-1068900</v>
       </c>
       <c r="G18" s="3">
-        <v>1569700</v>
+        <v>1532100</v>
       </c>
       <c r="H18" s="3">
-        <v>55900</v>
+        <v>54600</v>
       </c>
       <c r="I18" s="3">
-        <v>2047000</v>
+        <v>1998000</v>
       </c>
       <c r="J18" s="3">
-        <v>1886100</v>
+        <v>1840900</v>
       </c>
       <c r="K18" s="3">
         <v>2451100</v>
@@ -1094,25 +1094,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-866000</v>
+        <v>-845200</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2778000</v>
+        <v>-2711500</v>
       </c>
       <c r="G20" s="3">
-        <v>3837700</v>
+        <v>3745700</v>
       </c>
       <c r="H20" s="3">
-        <v>-6273400</v>
+        <v>-6123100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1732000</v>
+        <v>-1690500</v>
       </c>
       <c r="J20" s="3">
-        <v>-1708800</v>
+        <v>-1667900</v>
       </c>
       <c r="K20" s="3">
         <v>-37100</v>
@@ -1130,25 +1130,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-346300</v>
+        <v>-359000</v>
       </c>
       <c r="E21" s="3">
-        <v>841900</v>
+        <v>810400</v>
       </c>
       <c r="F21" s="3">
-        <v>-2632500</v>
+        <v>-2577100</v>
       </c>
       <c r="G21" s="3">
-        <v>6489900</v>
+        <v>6327700</v>
       </c>
       <c r="H21" s="3">
-        <v>-5075900</v>
+        <v>-4961300</v>
       </c>
       <c r="I21" s="3">
-        <v>1387900</v>
+        <v>1348000</v>
       </c>
       <c r="J21" s="3">
-        <v>1197900</v>
+        <v>1162900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1166,25 +1166,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>245500</v>
+        <v>239600</v>
       </c>
       <c r="E22" s="3">
-        <v>248200</v>
+        <v>242300</v>
       </c>
       <c r="F22" s="3">
-        <v>145900</v>
+        <v>142400</v>
       </c>
       <c r="G22" s="3">
-        <v>91400</v>
+        <v>89200</v>
       </c>
       <c r="H22" s="3">
-        <v>105000</v>
+        <v>102500</v>
       </c>
       <c r="I22" s="3">
-        <v>96800</v>
+        <v>94500</v>
       </c>
       <c r="J22" s="3">
-        <v>85900</v>
+        <v>83900</v>
       </c>
       <c r="K22" s="3">
         <v>79600</v>
@@ -1202,25 +1202,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3968600</v>
+        <v>-3873500</v>
       </c>
       <c r="E23" s="3">
-        <v>-1215100</v>
+        <v>-1186000</v>
       </c>
       <c r="F23" s="3">
-        <v>-4019100</v>
+        <v>-3922800</v>
       </c>
       <c r="G23" s="3">
-        <v>5316100</v>
+        <v>5188600</v>
       </c>
       <c r="H23" s="3">
-        <v>-6322500</v>
+        <v>-6171000</v>
       </c>
       <c r="I23" s="3">
-        <v>218200</v>
+        <v>213000</v>
       </c>
       <c r="J23" s="3">
-        <v>91400</v>
+        <v>89200</v>
       </c>
       <c r="K23" s="3">
         <v>2334400</v>
@@ -1238,25 +1238,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>353200</v>
+        <v>344800</v>
       </c>
       <c r="E24" s="3">
-        <v>572800</v>
+        <v>559100</v>
       </c>
       <c r="F24" s="3">
-        <v>-696900</v>
+        <v>-680200</v>
       </c>
       <c r="G24" s="3">
-        <v>634200</v>
+        <v>619000</v>
       </c>
       <c r="H24" s="3">
-        <v>-823700</v>
+        <v>-804000</v>
       </c>
       <c r="I24" s="3">
-        <v>103600</v>
+        <v>101200</v>
       </c>
       <c r="J24" s="3">
-        <v>205900</v>
+        <v>201000</v>
       </c>
       <c r="K24" s="3">
         <v>517700</v>
@@ -1310,25 +1310,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4321900</v>
+        <v>-4218300</v>
       </c>
       <c r="E26" s="3">
-        <v>-1787900</v>
+        <v>-1745100</v>
       </c>
       <c r="F26" s="3">
-        <v>-3322200</v>
+        <v>-3242600</v>
       </c>
       <c r="G26" s="3">
-        <v>4681900</v>
+        <v>4569700</v>
       </c>
       <c r="H26" s="3">
-        <v>-5498800</v>
+        <v>-5367000</v>
       </c>
       <c r="I26" s="3">
-        <v>114600</v>
+        <v>111800</v>
       </c>
       <c r="J26" s="3">
-        <v>-114600</v>
+        <v>-111800</v>
       </c>
       <c r="K26" s="3">
         <v>1816700</v>
@@ -1346,25 +1346,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4323200</v>
+        <v>-4219600</v>
       </c>
       <c r="E27" s="3">
-        <v>-1793400</v>
+        <v>-1750400</v>
       </c>
       <c r="F27" s="3">
-        <v>-3333100</v>
+        <v>-3253200</v>
       </c>
       <c r="G27" s="3">
-        <v>4680500</v>
+        <v>4568300</v>
       </c>
       <c r="H27" s="3">
-        <v>-5498800</v>
+        <v>-5367000</v>
       </c>
       <c r="I27" s="3">
-        <v>113200</v>
+        <v>110500</v>
       </c>
       <c r="J27" s="3">
-        <v>-99600</v>
+        <v>-97200</v>
       </c>
       <c r="K27" s="3">
         <v>1800300</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>58600</v>
+        <v>57200</v>
       </c>
       <c r="G29" s="3">
-        <v>-68200</v>
+        <v>-66600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>193700</v>
+        <v>189000</v>
       </c>
       <c r="K29" s="3">
         <v>76900</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>866000</v>
+        <v>845200</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="F32" s="3">
-        <v>2778000</v>
+        <v>2711500</v>
       </c>
       <c r="G32" s="3">
-        <v>-3837700</v>
+        <v>-3745700</v>
       </c>
       <c r="H32" s="3">
-        <v>6273400</v>
+        <v>6123100</v>
       </c>
       <c r="I32" s="3">
-        <v>1732000</v>
+        <v>1690500</v>
       </c>
       <c r="J32" s="3">
-        <v>1708800</v>
+        <v>1667900</v>
       </c>
       <c r="K32" s="3">
         <v>37100</v>
@@ -1562,25 +1562,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4323200</v>
+        <v>-4219600</v>
       </c>
       <c r="E33" s="3">
-        <v>-1793400</v>
+        <v>-1750400</v>
       </c>
       <c r="F33" s="3">
-        <v>-3274500</v>
+        <v>-3196000</v>
       </c>
       <c r="G33" s="3">
-        <v>4612300</v>
+        <v>4501800</v>
       </c>
       <c r="H33" s="3">
-        <v>-5498800</v>
+        <v>-5367000</v>
       </c>
       <c r="I33" s="3">
-        <v>113200</v>
+        <v>110500</v>
       </c>
       <c r="J33" s="3">
-        <v>94100</v>
+        <v>91800</v>
       </c>
       <c r="K33" s="3">
         <v>1877200</v>
@@ -1634,25 +1634,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4323200</v>
+        <v>-4219600</v>
       </c>
       <c r="E35" s="3">
-        <v>-1793400</v>
+        <v>-1750400</v>
       </c>
       <c r="F35" s="3">
-        <v>-3274500</v>
+        <v>-3196000</v>
       </c>
       <c r="G35" s="3">
-        <v>4612300</v>
+        <v>4501800</v>
       </c>
       <c r="H35" s="3">
-        <v>-5498800</v>
+        <v>-5367000</v>
       </c>
       <c r="I35" s="3">
-        <v>113200</v>
+        <v>110500</v>
       </c>
       <c r="J35" s="3">
-        <v>94100</v>
+        <v>91800</v>
       </c>
       <c r="K35" s="3">
         <v>1877200</v>
@@ -1743,25 +1743,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4512800</v>
+        <v>4404600</v>
       </c>
       <c r="E41" s="3">
-        <v>6013000</v>
+        <v>5868800</v>
       </c>
       <c r="F41" s="3">
-        <v>6741200</v>
+        <v>6579600</v>
       </c>
       <c r="G41" s="3">
-        <v>8023200</v>
+        <v>7830900</v>
       </c>
       <c r="H41" s="3">
-        <v>3732700</v>
+        <v>3643200</v>
       </c>
       <c r="I41" s="3">
-        <v>4302800</v>
+        <v>4199600</v>
       </c>
       <c r="J41" s="3">
-        <v>3862300</v>
+        <v>3769700</v>
       </c>
       <c r="K41" s="3">
         <v>5086300</v>
@@ -1779,25 +1779,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="E42" s="3">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="F42" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="G42" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H42" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I42" s="3">
         <v>2700</v>
       </c>
       <c r="J42" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="K42" s="3">
         <v>440800</v>
@@ -1815,25 +1815,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8432300</v>
+        <v>8230200</v>
       </c>
       <c r="E43" s="3">
-        <v>8994200</v>
+        <v>8778600</v>
       </c>
       <c r="F43" s="3">
-        <v>8439100</v>
+        <v>8236800</v>
       </c>
       <c r="G43" s="3">
-        <v>16976500</v>
+        <v>16569500</v>
       </c>
       <c r="H43" s="3">
-        <v>9261500</v>
+        <v>9039500</v>
       </c>
       <c r="I43" s="3">
-        <v>8280900</v>
+        <v>8082400</v>
       </c>
       <c r="J43" s="3">
-        <v>7266300</v>
+        <v>7092100</v>
       </c>
       <c r="K43" s="3">
         <v>6691600</v>
@@ -1851,25 +1851,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5032400</v>
+        <v>4911800</v>
       </c>
       <c r="E44" s="3">
-        <v>5891600</v>
+        <v>5750400</v>
       </c>
       <c r="F44" s="3">
-        <v>5846600</v>
+        <v>5706400</v>
       </c>
       <c r="G44" s="3">
-        <v>10501200</v>
+        <v>10249500</v>
       </c>
       <c r="H44" s="3">
-        <v>4208700</v>
+        <v>4107800</v>
       </c>
       <c r="I44" s="3">
-        <v>3596300</v>
+        <v>3510100</v>
       </c>
       <c r="J44" s="3">
-        <v>3775000</v>
+        <v>3684500</v>
       </c>
       <c r="K44" s="3">
         <v>4557600</v>
@@ -1887,25 +1887,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1549300</v>
+        <v>1512100</v>
       </c>
       <c r="E45" s="3">
-        <v>971000</v>
+        <v>947700</v>
       </c>
       <c r="F45" s="3">
-        <v>1903900</v>
+        <v>1858200</v>
       </c>
       <c r="G45" s="3">
-        <v>373700</v>
+        <v>364700</v>
       </c>
       <c r="H45" s="3">
-        <v>328700</v>
+        <v>320800</v>
       </c>
       <c r="I45" s="3">
-        <v>340900</v>
+        <v>332800</v>
       </c>
       <c r="J45" s="3">
-        <v>345000</v>
+        <v>336800</v>
       </c>
       <c r="K45" s="3">
         <v>825300</v>
@@ -1923,25 +1923,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19544500</v>
+        <v>19076000</v>
       </c>
       <c r="E46" s="3">
-        <v>21894300</v>
+        <v>21369500</v>
       </c>
       <c r="F46" s="3">
-        <v>22938900</v>
+        <v>22389100</v>
       </c>
       <c r="G46" s="3">
-        <v>17888800</v>
+        <v>17460000</v>
       </c>
       <c r="H46" s="3">
-        <v>17535600</v>
+        <v>17115300</v>
       </c>
       <c r="I46" s="3">
-        <v>16523700</v>
+        <v>16127600</v>
       </c>
       <c r="J46" s="3">
-        <v>15258100</v>
+        <v>14892300</v>
       </c>
       <c r="K46" s="3">
         <v>17601500</v>
@@ -1959,25 +1959,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>583700</v>
+        <v>569700</v>
       </c>
       <c r="E47" s="3">
-        <v>589200</v>
+        <v>575000</v>
       </c>
       <c r="F47" s="3">
-        <v>591900</v>
+        <v>577700</v>
       </c>
       <c r="G47" s="3">
-        <v>546900</v>
+        <v>533800</v>
       </c>
       <c r="H47" s="3">
-        <v>1202900</v>
+        <v>1174000</v>
       </c>
       <c r="I47" s="3">
-        <v>830500</v>
+        <v>810600</v>
       </c>
       <c r="J47" s="3">
-        <v>777400</v>
+        <v>758700</v>
       </c>
       <c r="K47" s="3">
         <v>862400</v>
@@ -1995,25 +1995,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8073600</v>
+        <v>7880100</v>
       </c>
       <c r="E48" s="3">
-        <v>9290100</v>
+        <v>9067500</v>
       </c>
       <c r="F48" s="3">
-        <v>6722100</v>
+        <v>6561000</v>
       </c>
       <c r="G48" s="3">
-        <v>6352500</v>
+        <v>6200300</v>
       </c>
       <c r="H48" s="3">
-        <v>5610600</v>
+        <v>5476100</v>
       </c>
       <c r="I48" s="3">
-        <v>4759600</v>
+        <v>4645500</v>
       </c>
       <c r="J48" s="3">
-        <v>4699600</v>
+        <v>4587000</v>
       </c>
       <c r="K48" s="3">
         <v>4657900</v>
@@ -2031,25 +2031,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7016700</v>
+        <v>6848500</v>
       </c>
       <c r="E49" s="3">
-        <v>7421700</v>
+        <v>7243800</v>
       </c>
       <c r="F49" s="3">
-        <v>7221300</v>
+        <v>7048200</v>
       </c>
       <c r="G49" s="3">
-        <v>7589500</v>
+        <v>7407600</v>
       </c>
       <c r="H49" s="3">
-        <v>6928100</v>
+        <v>6762000</v>
       </c>
       <c r="I49" s="3">
-        <v>6334800</v>
+        <v>6183000</v>
       </c>
       <c r="J49" s="3">
-        <v>6551600</v>
+        <v>6394600</v>
       </c>
       <c r="K49" s="3">
         <v>6848100</v>
@@ -2139,25 +2139,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5036500</v>
+        <v>4915800</v>
       </c>
       <c r="E52" s="3">
-        <v>4808700</v>
+        <v>4693500</v>
       </c>
       <c r="F52" s="3">
-        <v>5972000</v>
+        <v>5828900</v>
       </c>
       <c r="G52" s="3">
-        <v>5708800</v>
+        <v>5572000</v>
       </c>
       <c r="H52" s="3">
-        <v>3551300</v>
+        <v>3466200</v>
       </c>
       <c r="I52" s="3">
-        <v>1996600</v>
+        <v>1948700</v>
       </c>
       <c r="J52" s="3">
-        <v>3022200</v>
+        <v>2949700</v>
       </c>
       <c r="K52" s="3">
         <v>1700000</v>
@@ -2211,25 +2211,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40255000</v>
+        <v>39290100</v>
       </c>
       <c r="E54" s="3">
-        <v>44004000</v>
+        <v>42949300</v>
       </c>
       <c r="F54" s="3">
-        <v>43446300</v>
+        <v>42404900</v>
       </c>
       <c r="G54" s="3">
-        <v>38086600</v>
+        <v>37173600</v>
       </c>
       <c r="H54" s="3">
-        <v>34828500</v>
+        <v>33993600</v>
       </c>
       <c r="I54" s="3">
-        <v>30445200</v>
+        <v>29715500</v>
       </c>
       <c r="J54" s="3">
-        <v>30308900</v>
+        <v>29582400</v>
       </c>
       <c r="K54" s="3">
         <v>31669900</v>
@@ -2279,25 +2279,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2728900</v>
+        <v>2663500</v>
       </c>
       <c r="E57" s="3">
-        <v>4225000</v>
+        <v>4123700</v>
       </c>
       <c r="F57" s="3">
-        <v>4302800</v>
+        <v>4199600</v>
       </c>
       <c r="G57" s="3">
-        <v>18697600</v>
+        <v>18249400</v>
       </c>
       <c r="H57" s="3">
-        <v>3067200</v>
+        <v>2993600</v>
       </c>
       <c r="I57" s="3">
-        <v>2173900</v>
+        <v>2121800</v>
       </c>
       <c r="J57" s="3">
-        <v>2158900</v>
+        <v>2107100</v>
       </c>
       <c r="K57" s="3">
         <v>2143500</v>
@@ -2315,25 +2315,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1734700</v>
+        <v>1693200</v>
       </c>
       <c r="E58" s="3">
-        <v>1056900</v>
+        <v>1031600</v>
       </c>
       <c r="F58" s="3">
-        <v>1170100</v>
+        <v>1142100</v>
       </c>
       <c r="G58" s="3">
-        <v>223700</v>
+        <v>218300</v>
       </c>
       <c r="H58" s="3">
-        <v>234600</v>
+        <v>228900</v>
       </c>
       <c r="I58" s="3">
-        <v>571400</v>
+        <v>557700</v>
       </c>
       <c r="J58" s="3">
-        <v>92700</v>
+        <v>90500</v>
       </c>
       <c r="K58" s="3">
         <v>284300</v>
@@ -2351,25 +2351,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14220200</v>
+        <v>13879400</v>
       </c>
       <c r="E59" s="3">
-        <v>15142200</v>
+        <v>14779200</v>
       </c>
       <c r="F59" s="3">
-        <v>14780800</v>
+        <v>14426500</v>
       </c>
       <c r="G59" s="3">
-        <v>20253600</v>
+        <v>19768200</v>
       </c>
       <c r="H59" s="3">
-        <v>9700600</v>
+        <v>9468100</v>
       </c>
       <c r="I59" s="3">
-        <v>8400900</v>
+        <v>8199600</v>
       </c>
       <c r="J59" s="3">
-        <v>8229100</v>
+        <v>8031900</v>
       </c>
       <c r="K59" s="3">
         <v>11002000</v>
@@ -2387,25 +2387,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18683900</v>
+        <v>18236100</v>
       </c>
       <c r="E60" s="3">
-        <v>20424100</v>
+        <v>19934600</v>
       </c>
       <c r="F60" s="3">
-        <v>20253600</v>
+        <v>19768200</v>
       </c>
       <c r="G60" s="3">
-        <v>16953300</v>
+        <v>16546900</v>
       </c>
       <c r="H60" s="3">
-        <v>13002400</v>
+        <v>12690700</v>
       </c>
       <c r="I60" s="3">
-        <v>11146300</v>
+        <v>10879100</v>
       </c>
       <c r="J60" s="3">
-        <v>10480700</v>
+        <v>10229500</v>
       </c>
       <c r="K60" s="3">
         <v>13429800</v>
@@ -2423,25 +2423,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8261800</v>
+        <v>8063800</v>
       </c>
       <c r="E61" s="3">
-        <v>6696200</v>
+        <v>6535700</v>
       </c>
       <c r="F61" s="3">
-        <v>5187900</v>
+        <v>5063500</v>
       </c>
       <c r="G61" s="3">
-        <v>4645100</v>
+        <v>4533700</v>
       </c>
       <c r="H61" s="3">
-        <v>4343700</v>
+        <v>4239600</v>
       </c>
       <c r="I61" s="3">
-        <v>3931800</v>
+        <v>3837600</v>
       </c>
       <c r="J61" s="3">
-        <v>2990800</v>
+        <v>2919100</v>
       </c>
       <c r="K61" s="3">
         <v>3465900</v>
@@ -2459,25 +2459,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19646800</v>
+        <v>19175800</v>
       </c>
       <c r="E62" s="3">
-        <v>21437400</v>
+        <v>20923600</v>
       </c>
       <c r="F62" s="3">
-        <v>18926700</v>
+        <v>18473000</v>
       </c>
       <c r="G62" s="3">
-        <v>24051800</v>
+        <v>23475300</v>
       </c>
       <c r="H62" s="3">
-        <v>14940300</v>
+        <v>14582200</v>
       </c>
       <c r="I62" s="3">
-        <v>8526400</v>
+        <v>8322000</v>
       </c>
       <c r="J62" s="3">
-        <v>8126800</v>
+        <v>7932000</v>
       </c>
       <c r="K62" s="3">
         <v>6118900</v>
@@ -2603,25 +2603,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>46933500</v>
+        <v>45808500</v>
       </c>
       <c r="E66" s="3">
-        <v>48608200</v>
+        <v>47443100</v>
       </c>
       <c r="F66" s="3">
-        <v>44911000</v>
+        <v>43834500</v>
       </c>
       <c r="G66" s="3">
-        <v>36818200</v>
+        <v>35935700</v>
       </c>
       <c r="H66" s="3">
-        <v>32289100</v>
+        <v>31515100</v>
       </c>
       <c r="I66" s="3">
-        <v>23607200</v>
+        <v>23041300</v>
       </c>
       <c r="J66" s="3">
-        <v>21605200</v>
+        <v>21087300</v>
       </c>
       <c r="K66" s="3">
         <v>23973200</v>
@@ -2799,25 +2799,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10928000</v>
+        <v>-10666100</v>
       </c>
       <c r="E72" s="3">
-        <v>-5976100</v>
+        <v>-5832900</v>
       </c>
       <c r="F72" s="3">
-        <v>-3305800</v>
+        <v>-3226600</v>
       </c>
       <c r="G72" s="3">
-        <v>657300</v>
+        <v>641600</v>
       </c>
       <c r="H72" s="3">
-        <v>1937900</v>
+        <v>1891500</v>
       </c>
       <c r="I72" s="3">
-        <v>6228400</v>
+        <v>6079100</v>
       </c>
       <c r="J72" s="3">
-        <v>8057300</v>
+        <v>7864100</v>
       </c>
       <c r="K72" s="3">
         <v>7163900</v>
@@ -2943,25 +2943,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-6678500</v>
+        <v>-6518400</v>
       </c>
       <c r="E76" s="3">
-        <v>-4604200</v>
+        <v>-4493800</v>
       </c>
       <c r="F76" s="3">
-        <v>-1464700</v>
+        <v>-1429600</v>
       </c>
       <c r="G76" s="3">
-        <v>1268300</v>
+        <v>1237900</v>
       </c>
       <c r="H76" s="3">
-        <v>2539400</v>
+        <v>2478500</v>
       </c>
       <c r="I76" s="3">
-        <v>6838000</v>
+        <v>6674100</v>
       </c>
       <c r="J76" s="3">
-        <v>8703700</v>
+        <v>8495100</v>
       </c>
       <c r="K76" s="3">
         <v>7696700</v>
@@ -3056,25 +3056,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4323200</v>
+        <v>-4219600</v>
       </c>
       <c r="E81" s="3">
-        <v>-1793400</v>
+        <v>-1750400</v>
       </c>
       <c r="F81" s="3">
-        <v>-3274500</v>
+        <v>-3196000</v>
       </c>
       <c r="G81" s="3">
-        <v>4612300</v>
+        <v>4501800</v>
       </c>
       <c r="H81" s="3">
-        <v>-5498800</v>
+        <v>-5367000</v>
       </c>
       <c r="I81" s="3">
-        <v>113200</v>
+        <v>110500</v>
       </c>
       <c r="J81" s="3">
-        <v>94100</v>
+        <v>91800</v>
       </c>
       <c r="K81" s="3">
         <v>1877200</v>
@@ -3108,25 +3108,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3348100</v>
+        <v>3267900</v>
       </c>
       <c r="E83" s="3">
-        <v>1793400</v>
+        <v>1750400</v>
       </c>
       <c r="F83" s="3">
-        <v>1230100</v>
+        <v>1200700</v>
       </c>
       <c r="G83" s="3">
-        <v>1073300</v>
+        <v>1047600</v>
       </c>
       <c r="H83" s="3">
-        <v>1131900</v>
+        <v>1104800</v>
       </c>
       <c r="I83" s="3">
-        <v>1063800</v>
+        <v>1038300</v>
       </c>
       <c r="J83" s="3">
-        <v>1011900</v>
+        <v>987700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3324,25 +3324,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4103600</v>
+        <v>-4005300</v>
       </c>
       <c r="E89" s="3">
-        <v>3132600</v>
+        <v>3057500</v>
       </c>
       <c r="F89" s="3">
-        <v>3035800</v>
+        <v>2963000</v>
       </c>
       <c r="G89" s="3">
-        <v>2062100</v>
+        <v>2012600</v>
       </c>
       <c r="H89" s="3">
-        <v>1924300</v>
+        <v>1878200</v>
       </c>
       <c r="I89" s="3">
-        <v>1492000</v>
+        <v>1456200</v>
       </c>
       <c r="J89" s="3">
-        <v>1774300</v>
+        <v>1731800</v>
       </c>
       <c r="K89" s="3">
         <v>2801300</v>
@@ -3376,25 +3376,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-797800</v>
+        <v>-778700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1018800</v>
+        <v>-994300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1234200</v>
+        <v>-1204600</v>
       </c>
       <c r="G91" s="3">
-        <v>-995600</v>
+        <v>-971700</v>
       </c>
       <c r="H91" s="3">
-        <v>-797800</v>
+        <v>-778700</v>
       </c>
       <c r="I91" s="3">
-        <v>-664200</v>
+        <v>-648200</v>
       </c>
       <c r="J91" s="3">
-        <v>-883700</v>
+        <v>-862600</v>
       </c>
       <c r="K91" s="3">
         <v>-918700</v>
@@ -3484,25 +3484,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1377400</v>
+        <v>-1344400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1252000</v>
+        <v>-1221900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1329700</v>
+        <v>-1297800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1573800</v>
+        <v>-1536100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1858800</v>
+        <v>-1814300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1357000</v>
+        <v>-1324400</v>
       </c>
       <c r="J94" s="3">
-        <v>-2681200</v>
+        <v>-2616900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -3680,25 +3680,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4124100</v>
+        <v>4025200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2443900</v>
+        <v>-2385300</v>
       </c>
       <c r="F100" s="3">
-        <v>957400</v>
+        <v>934400</v>
       </c>
       <c r="G100" s="3">
-        <v>-173200</v>
+        <v>-169000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1007800</v>
+        <v>-983700</v>
       </c>
       <c r="I100" s="3">
-        <v>301400</v>
+        <v>294200</v>
       </c>
       <c r="J100" s="3">
-        <v>-638300</v>
+        <v>-623000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -3716,25 +3716,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>76400</v>
+        <v>74500</v>
       </c>
       <c r="E101" s="3">
-        <v>-141800</v>
+        <v>-138400</v>
       </c>
       <c r="F101" s="3">
-        <v>90000</v>
+        <v>87900</v>
       </c>
       <c r="G101" s="3">
-        <v>-94100</v>
+        <v>-91800</v>
       </c>
       <c r="H101" s="3">
-        <v>390000</v>
+        <v>380700</v>
       </c>
       <c r="I101" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="J101" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -3752,25 +3752,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1280600</v>
+        <v>-1249900</v>
       </c>
       <c r="E102" s="3">
-        <v>-705100</v>
+        <v>-688200</v>
       </c>
       <c r="F102" s="3">
-        <v>2753500</v>
+        <v>2687500</v>
       </c>
       <c r="G102" s="3">
-        <v>220900</v>
+        <v>215600</v>
       </c>
       <c r="H102" s="3">
-        <v>-552300</v>
+        <v>-539100</v>
       </c>
       <c r="I102" s="3">
-        <v>428200</v>
+        <v>418000</v>
       </c>
       <c r="J102" s="3">
-        <v>-1534300</v>
+        <v>-1497500</v>
       </c>
       <c r="K102" s="3">
         <v>1925200</v>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>RYCEY</t>
   </si>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15738900</v>
+        <v>14979600</v>
       </c>
       <c r="E8" s="3">
-        <v>22079000</v>
+        <v>21622600</v>
       </c>
       <c r="F8" s="3">
-        <v>20936900</v>
+        <v>20504200</v>
       </c>
       <c r="G8" s="3">
-        <v>19629700</v>
+        <v>19224000</v>
       </c>
       <c r="H8" s="3">
-        <v>19906600</v>
+        <v>19495200</v>
       </c>
       <c r="I8" s="3">
-        <v>18269300</v>
+        <v>17891800</v>
       </c>
       <c r="J8" s="3">
-        <v>18284000</v>
+        <v>17906100</v>
       </c>
       <c r="K8" s="3">
         <v>20106200</v>
@@ -761,25 +761,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16018500</v>
+        <v>30910700</v>
       </c>
       <c r="E9" s="3">
-        <v>20825100</v>
+        <v>20394700</v>
       </c>
       <c r="F9" s="3">
-        <v>19342200</v>
+        <v>18942500</v>
       </c>
       <c r="G9" s="3">
-        <v>33063200</v>
+        <v>32379900</v>
       </c>
       <c r="H9" s="3">
-        <v>15849400</v>
+        <v>15521800</v>
       </c>
       <c r="I9" s="3">
-        <v>13922000</v>
+        <v>13634200</v>
       </c>
       <c r="J9" s="3">
-        <v>14020500</v>
+        <v>13730700</v>
       </c>
       <c r="K9" s="3">
         <v>32486900</v>
@@ -797,25 +797,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-279500</v>
+        <v>-15931200</v>
       </c>
       <c r="E10" s="3">
-        <v>1253900</v>
+        <v>1228000</v>
       </c>
       <c r="F10" s="3">
-        <v>1594700</v>
+        <v>1561700</v>
       </c>
       <c r="G10" s="3">
-        <v>-13433500</v>
+        <v>-13155800</v>
       </c>
       <c r="H10" s="3">
-        <v>4057200</v>
+        <v>3973300</v>
       </c>
       <c r="I10" s="3">
-        <v>4347400</v>
+        <v>4257500</v>
       </c>
       <c r="J10" s="3">
-        <v>4263500</v>
+        <v>4175400</v>
       </c>
       <c r="K10" s="3">
         <v>-12380700</v>
@@ -849,25 +849,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>887800</v>
+        <v>839500</v>
       </c>
       <c r="E12" s="3">
-        <v>847900</v>
+        <v>830400</v>
       </c>
       <c r="F12" s="3">
-        <v>861200</v>
+        <v>843400</v>
       </c>
       <c r="G12" s="3">
-        <v>923800</v>
+        <v>904700</v>
       </c>
       <c r="H12" s="3">
-        <v>1026300</v>
+        <v>1005100</v>
       </c>
       <c r="I12" s="3">
-        <v>906500</v>
+        <v>887700</v>
       </c>
       <c r="J12" s="3">
-        <v>889200</v>
+        <v>870800</v>
       </c>
       <c r="K12" s="3">
         <v>1658800</v>
@@ -921,25 +921,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>658900</v>
+        <v>645300</v>
       </c>
       <c r="E14" s="3">
-        <v>-158400</v>
+        <v>-155100</v>
       </c>
       <c r="F14" s="3">
-        <v>-467200</v>
+        <v>-457600</v>
       </c>
       <c r="G14" s="3">
-        <v>-1044900</v>
+        <v>-1023300</v>
       </c>
       <c r="H14" s="3">
-        <v>1304500</v>
+        <v>1277500</v>
       </c>
       <c r="I14" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="J14" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="K14" s="3">
         <v>-473800</v>
@@ -957,25 +957,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>141100</v>
+        <v>730000</v>
       </c>
       <c r="E15" s="3">
-        <v>150400</v>
+        <v>147300</v>
       </c>
       <c r="F15" s="3">
-        <v>151700</v>
+        <v>148600</v>
       </c>
       <c r="G15" s="3">
-        <v>198300</v>
+        <v>194200</v>
       </c>
       <c r="H15" s="3">
-        <v>195700</v>
+        <v>191600</v>
       </c>
       <c r="I15" s="3">
-        <v>182400</v>
+        <v>178600</v>
       </c>
       <c r="J15" s="3">
-        <v>166400</v>
+        <v>162900</v>
       </c>
       <c r="K15" s="3">
         <v>178500</v>
@@ -1006,25 +1006,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18527600</v>
+        <v>17568500</v>
       </c>
       <c r="E17" s="3">
-        <v>23028000</v>
+        <v>22552100</v>
       </c>
       <c r="F17" s="3">
-        <v>22005700</v>
+        <v>21550900</v>
       </c>
       <c r="G17" s="3">
-        <v>18097600</v>
+        <v>17723600</v>
       </c>
       <c r="H17" s="3">
-        <v>19852000</v>
+        <v>19441700</v>
       </c>
       <c r="I17" s="3">
-        <v>16271400</v>
+        <v>15935100</v>
       </c>
       <c r="J17" s="3">
-        <v>16443100</v>
+        <v>16103200</v>
       </c>
       <c r="K17" s="3">
         <v>17655100</v>
@@ -1042,25 +1042,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2788700</v>
+        <v>-2588900</v>
       </c>
       <c r="E18" s="3">
-        <v>-949100</v>
+        <v>-929500</v>
       </c>
       <c r="F18" s="3">
-        <v>-1068900</v>
+        <v>-1046800</v>
       </c>
       <c r="G18" s="3">
-        <v>1532100</v>
+        <v>1500400</v>
       </c>
       <c r="H18" s="3">
-        <v>54600</v>
+        <v>53400</v>
       </c>
       <c r="I18" s="3">
-        <v>1998000</v>
+        <v>1956700</v>
       </c>
       <c r="J18" s="3">
-        <v>1840900</v>
+        <v>1802900</v>
       </c>
       <c r="K18" s="3">
         <v>2451100</v>
@@ -1094,25 +1094,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-845200</v>
+        <v>-593100</v>
       </c>
       <c r="E20" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="F20" s="3">
-        <v>-2711500</v>
+        <v>-2655400</v>
       </c>
       <c r="G20" s="3">
-        <v>3745700</v>
+        <v>3668300</v>
       </c>
       <c r="H20" s="3">
-        <v>-6123100</v>
+        <v>-5996500</v>
       </c>
       <c r="I20" s="3">
-        <v>-1690500</v>
+        <v>-1655600</v>
       </c>
       <c r="J20" s="3">
-        <v>-1667900</v>
+        <v>-1633400</v>
       </c>
       <c r="K20" s="3">
         <v>-37100</v>
@@ -1130,25 +1130,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-359000</v>
+        <v>53400</v>
       </c>
       <c r="E21" s="3">
-        <v>810400</v>
+        <v>808800</v>
       </c>
       <c r="F21" s="3">
-        <v>-2577100</v>
+        <v>-2513400</v>
       </c>
       <c r="G21" s="3">
-        <v>6327700</v>
+        <v>6205900</v>
       </c>
       <c r="H21" s="3">
-        <v>-4961300</v>
+        <v>-4849200</v>
       </c>
       <c r="I21" s="3">
-        <v>1348000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1162900</v>
+        <v>1329100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1166,25 +1166,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>239600</v>
+        <v>466700</v>
       </c>
       <c r="E22" s="3">
-        <v>242300</v>
+        <v>237300</v>
       </c>
       <c r="F22" s="3">
-        <v>142400</v>
+        <v>139500</v>
       </c>
       <c r="G22" s="3">
-        <v>89200</v>
+        <v>87300</v>
       </c>
       <c r="H22" s="3">
-        <v>102500</v>
+        <v>100400</v>
       </c>
       <c r="I22" s="3">
-        <v>94500</v>
+        <v>92600</v>
       </c>
       <c r="J22" s="3">
-        <v>83900</v>
+        <v>82100</v>
       </c>
       <c r="K22" s="3">
         <v>79600</v>
@@ -1202,25 +1202,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3873500</v>
+        <v>-3648700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1186000</v>
+        <v>-1161500</v>
       </c>
       <c r="F23" s="3">
-        <v>-3922800</v>
+        <v>-3841700</v>
       </c>
       <c r="G23" s="3">
-        <v>5188600</v>
+        <v>5081400</v>
       </c>
       <c r="H23" s="3">
-        <v>-6171000</v>
+        <v>-6043400</v>
       </c>
       <c r="I23" s="3">
-        <v>213000</v>
+        <v>208600</v>
       </c>
       <c r="J23" s="3">
-        <v>89200</v>
+        <v>87300</v>
       </c>
       <c r="K23" s="3">
         <v>2334400</v>
@@ -1238,25 +1238,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>344800</v>
+        <v>393700</v>
       </c>
       <c r="E24" s="3">
-        <v>559100</v>
+        <v>547500</v>
       </c>
       <c r="F24" s="3">
-        <v>-680200</v>
+        <v>-666100</v>
       </c>
       <c r="G24" s="3">
-        <v>619000</v>
+        <v>606200</v>
       </c>
       <c r="H24" s="3">
-        <v>-804000</v>
+        <v>-787400</v>
       </c>
       <c r="I24" s="3">
-        <v>101200</v>
+        <v>99100</v>
       </c>
       <c r="J24" s="3">
-        <v>201000</v>
+        <v>196800</v>
       </c>
       <c r="K24" s="3">
         <v>517700</v>
@@ -1310,25 +1310,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4218300</v>
+        <v>-4042400</v>
       </c>
       <c r="E26" s="3">
-        <v>-1745100</v>
+        <v>-1709000</v>
       </c>
       <c r="F26" s="3">
-        <v>-3242600</v>
+        <v>-3175500</v>
       </c>
       <c r="G26" s="3">
-        <v>4569700</v>
+        <v>4475200</v>
       </c>
       <c r="H26" s="3">
-        <v>-5367000</v>
+        <v>-5256100</v>
       </c>
       <c r="I26" s="3">
-        <v>111800</v>
+        <v>109500</v>
       </c>
       <c r="J26" s="3">
-        <v>-111800</v>
+        <v>-109500</v>
       </c>
       <c r="K26" s="3">
         <v>1816700</v>
@@ -1346,25 +1346,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4219600</v>
+        <v>-4043700</v>
       </c>
       <c r="E27" s="3">
-        <v>-1750400</v>
+        <v>-1714200</v>
       </c>
       <c r="F27" s="3">
-        <v>-3253200</v>
+        <v>-3186000</v>
       </c>
       <c r="G27" s="3">
-        <v>4568300</v>
+        <v>4473900</v>
       </c>
       <c r="H27" s="3">
-        <v>-5367000</v>
+        <v>-5256100</v>
       </c>
       <c r="I27" s="3">
-        <v>110500</v>
+        <v>108200</v>
       </c>
       <c r="J27" s="3">
-        <v>-97200</v>
+        <v>-95200</v>
       </c>
       <c r="K27" s="3">
         <v>1800300</v>
@@ -1417,17 +1417,17 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>-88600</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>57200</v>
+        <v>56100</v>
       </c>
       <c r="G29" s="3">
-        <v>-66600</v>
+        <v>-65200</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>189000</v>
+        <v>185100</v>
       </c>
       <c r="K29" s="3">
         <v>76900</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>845200</v>
+        <v>593100</v>
       </c>
       <c r="E32" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="F32" s="3">
-        <v>2711500</v>
+        <v>2655400</v>
       </c>
       <c r="G32" s="3">
-        <v>-3745700</v>
+        <v>-3668300</v>
       </c>
       <c r="H32" s="3">
-        <v>6123100</v>
+        <v>5996500</v>
       </c>
       <c r="I32" s="3">
-        <v>1690500</v>
+        <v>1655600</v>
       </c>
       <c r="J32" s="3">
-        <v>1667900</v>
+        <v>1633400</v>
       </c>
       <c r="K32" s="3">
         <v>37100</v>
@@ -1562,25 +1562,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4219600</v>
+        <v>-4132400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1750400</v>
+        <v>-1714200</v>
       </c>
       <c r="F33" s="3">
-        <v>-3196000</v>
+        <v>-3129900</v>
       </c>
       <c r="G33" s="3">
-        <v>4501800</v>
+        <v>4408700</v>
       </c>
       <c r="H33" s="3">
-        <v>-5367000</v>
+        <v>-5256100</v>
       </c>
       <c r="I33" s="3">
-        <v>110500</v>
+        <v>108200</v>
       </c>
       <c r="J33" s="3">
-        <v>91800</v>
+        <v>89900</v>
       </c>
       <c r="K33" s="3">
         <v>1877200</v>
@@ -1634,25 +1634,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4219600</v>
+        <v>-4132400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1750400</v>
+        <v>-1714200</v>
       </c>
       <c r="F35" s="3">
-        <v>-3196000</v>
+        <v>-3129900</v>
       </c>
       <c r="G35" s="3">
-        <v>4501800</v>
+        <v>4408700</v>
       </c>
       <c r="H35" s="3">
-        <v>-5367000</v>
+        <v>-5256100</v>
       </c>
       <c r="I35" s="3">
-        <v>110500</v>
+        <v>108200</v>
       </c>
       <c r="J35" s="3">
-        <v>91800</v>
+        <v>89900</v>
       </c>
       <c r="K35" s="3">
         <v>1877200</v>
@@ -1743,25 +1743,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4404600</v>
+        <v>3416700</v>
       </c>
       <c r="E41" s="3">
-        <v>5868800</v>
+        <v>4313600</v>
       </c>
       <c r="F41" s="3">
-        <v>6579600</v>
+        <v>5747500</v>
       </c>
       <c r="G41" s="3">
-        <v>7830900</v>
+        <v>6443600</v>
       </c>
       <c r="H41" s="3">
-        <v>3643200</v>
+        <v>7669000</v>
       </c>
       <c r="I41" s="3">
-        <v>4199600</v>
+        <v>3567900</v>
       </c>
       <c r="J41" s="3">
-        <v>3769700</v>
+        <v>4112800</v>
       </c>
       <c r="K41" s="3">
         <v>5086300</v>
@@ -1779,25 +1779,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17300</v>
+        <v>70400</v>
       </c>
       <c r="E42" s="3">
-        <v>24000</v>
+        <v>16900</v>
       </c>
       <c r="F42" s="3">
-        <v>8000</v>
+        <v>23500</v>
       </c>
       <c r="G42" s="3">
-        <v>4000</v>
+        <v>7800</v>
       </c>
       <c r="H42" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I42" s="3">
-        <v>2700</v>
+        <v>3900</v>
       </c>
       <c r="J42" s="3">
-        <v>9300</v>
+        <v>2600</v>
       </c>
       <c r="K42" s="3">
         <v>440800</v>
@@ -1815,25 +1815,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8230200</v>
+        <v>9054700</v>
       </c>
       <c r="E43" s="3">
-        <v>8778600</v>
+        <v>8060100</v>
       </c>
       <c r="F43" s="3">
-        <v>8236800</v>
+        <v>8597200</v>
       </c>
       <c r="G43" s="3">
-        <v>16569500</v>
+        <v>8066600</v>
       </c>
       <c r="H43" s="3">
-        <v>9039500</v>
+        <v>16227100</v>
       </c>
       <c r="I43" s="3">
-        <v>8082400</v>
+        <v>8852700</v>
       </c>
       <c r="J43" s="3">
-        <v>7092100</v>
+        <v>7915400</v>
       </c>
       <c r="K43" s="3">
         <v>6691600</v>
@@ -1851,25 +1851,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4911800</v>
+        <v>4779000</v>
       </c>
       <c r="E44" s="3">
-        <v>5750400</v>
+        <v>4810200</v>
       </c>
       <c r="F44" s="3">
-        <v>5706400</v>
+        <v>5631500</v>
       </c>
       <c r="G44" s="3">
-        <v>10249500</v>
+        <v>5588500</v>
       </c>
       <c r="H44" s="3">
-        <v>4107800</v>
+        <v>10037600</v>
       </c>
       <c r="I44" s="3">
-        <v>3510100</v>
+        <v>4022900</v>
       </c>
       <c r="J44" s="3">
-        <v>3684500</v>
+        <v>3437600</v>
       </c>
       <c r="K44" s="3">
         <v>4557600</v>
@@ -1886,26 +1886,26 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1512100</v>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E45" s="3">
-        <v>947700</v>
+        <v>1480900</v>
       </c>
       <c r="F45" s="3">
-        <v>1858200</v>
+        <v>928200</v>
       </c>
       <c r="G45" s="3">
-        <v>364700</v>
+        <v>1819800</v>
       </c>
       <c r="H45" s="3">
-        <v>320800</v>
+        <v>357200</v>
       </c>
       <c r="I45" s="3">
-        <v>332800</v>
+        <v>314200</v>
       </c>
       <c r="J45" s="3">
-        <v>336800</v>
+        <v>325900</v>
       </c>
       <c r="K45" s="3">
         <v>825300</v>
@@ -1923,25 +1923,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19076000</v>
+        <v>17320800</v>
       </c>
       <c r="E46" s="3">
-        <v>21369500</v>
+        <v>18681700</v>
       </c>
       <c r="F46" s="3">
-        <v>22389100</v>
+        <v>20927800</v>
       </c>
       <c r="G46" s="3">
-        <v>17460000</v>
+        <v>21926400</v>
       </c>
       <c r="H46" s="3">
-        <v>17115300</v>
+        <v>17099200</v>
       </c>
       <c r="I46" s="3">
-        <v>16127600</v>
+        <v>16761600</v>
       </c>
       <c r="J46" s="3">
-        <v>14892300</v>
+        <v>15794300</v>
       </c>
       <c r="K46" s="3">
         <v>17601500</v>
@@ -1959,25 +1959,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>569700</v>
+        <v>1044200</v>
       </c>
       <c r="E47" s="3">
-        <v>575000</v>
+        <v>557900</v>
       </c>
       <c r="F47" s="3">
-        <v>577700</v>
+        <v>563200</v>
       </c>
       <c r="G47" s="3">
-        <v>533800</v>
+        <v>565800</v>
       </c>
       <c r="H47" s="3">
-        <v>1174000</v>
+        <v>522700</v>
       </c>
       <c r="I47" s="3">
-        <v>810600</v>
+        <v>1149800</v>
       </c>
       <c r="J47" s="3">
-        <v>758700</v>
+        <v>793900</v>
       </c>
       <c r="K47" s="3">
         <v>862400</v>
@@ -1995,25 +1995,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7880100</v>
+        <v>6674400</v>
       </c>
       <c r="E48" s="3">
-        <v>9067500</v>
+        <v>7717300</v>
       </c>
       <c r="F48" s="3">
-        <v>6561000</v>
+        <v>8880100</v>
       </c>
       <c r="G48" s="3">
-        <v>6200300</v>
+        <v>6425400</v>
       </c>
       <c r="H48" s="3">
-        <v>5476100</v>
+        <v>6072100</v>
       </c>
       <c r="I48" s="3">
-        <v>4645500</v>
+        <v>5363000</v>
       </c>
       <c r="J48" s="3">
-        <v>4587000</v>
+        <v>4549500</v>
       </c>
       <c r="K48" s="3">
         <v>4657900</v>
@@ -2031,25 +2031,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6848500</v>
+        <v>5267800</v>
       </c>
       <c r="E49" s="3">
-        <v>7243800</v>
+        <v>6707000</v>
       </c>
       <c r="F49" s="3">
-        <v>7048200</v>
+        <v>7094100</v>
       </c>
       <c r="G49" s="3">
-        <v>7407600</v>
+        <v>6902500</v>
       </c>
       <c r="H49" s="3">
-        <v>6762000</v>
+        <v>7254500</v>
       </c>
       <c r="I49" s="3">
-        <v>6183000</v>
+        <v>6622200</v>
       </c>
       <c r="J49" s="3">
-        <v>6394600</v>
+        <v>6055200</v>
       </c>
       <c r="K49" s="3">
         <v>6848100</v>
@@ -2139,25 +2139,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4915800</v>
+        <v>7072000</v>
       </c>
       <c r="E52" s="3">
-        <v>4693500</v>
+        <v>4814200</v>
       </c>
       <c r="F52" s="3">
-        <v>5828900</v>
+        <v>4596500</v>
       </c>
       <c r="G52" s="3">
-        <v>5572000</v>
+        <v>5708400</v>
       </c>
       <c r="H52" s="3">
-        <v>3466200</v>
+        <v>5456800</v>
       </c>
       <c r="I52" s="3">
-        <v>1948700</v>
+        <v>3394500</v>
       </c>
       <c r="J52" s="3">
-        <v>2949700</v>
+        <v>1908500</v>
       </c>
       <c r="K52" s="3">
         <v>1700000</v>
@@ -2211,25 +2211,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39290100</v>
+        <v>37379100</v>
       </c>
       <c r="E54" s="3">
-        <v>42949300</v>
+        <v>38478100</v>
       </c>
       <c r="F54" s="3">
-        <v>42404900</v>
+        <v>42061600</v>
       </c>
       <c r="G54" s="3">
-        <v>37173600</v>
+        <v>41528500</v>
       </c>
       <c r="H54" s="3">
-        <v>33993600</v>
+        <v>36405400</v>
       </c>
       <c r="I54" s="3">
-        <v>29715500</v>
+        <v>33291100</v>
       </c>
       <c r="J54" s="3">
-        <v>29582400</v>
+        <v>29101300</v>
       </c>
       <c r="K54" s="3">
         <v>31669900</v>
@@ -2279,25 +2279,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2663500</v>
+        <v>7842400</v>
       </c>
       <c r="E57" s="3">
-        <v>4123700</v>
+        <v>2608500</v>
       </c>
       <c r="F57" s="3">
-        <v>4199600</v>
+        <v>4038500</v>
       </c>
       <c r="G57" s="3">
-        <v>18249400</v>
+        <v>4112800</v>
       </c>
       <c r="H57" s="3">
-        <v>2993600</v>
+        <v>17872200</v>
       </c>
       <c r="I57" s="3">
-        <v>2121800</v>
+        <v>2931800</v>
       </c>
       <c r="J57" s="3">
-        <v>2107100</v>
+        <v>2077900</v>
       </c>
       <c r="K57" s="3">
         <v>2143500</v>
@@ -2315,25 +2315,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1693200</v>
+        <v>363700</v>
       </c>
       <c r="E58" s="3">
-        <v>1031600</v>
+        <v>1658200</v>
       </c>
       <c r="F58" s="3">
-        <v>1142100</v>
+        <v>1010300</v>
       </c>
       <c r="G58" s="3">
-        <v>218300</v>
+        <v>1118500</v>
       </c>
       <c r="H58" s="3">
-        <v>228900</v>
+        <v>213800</v>
       </c>
       <c r="I58" s="3">
-        <v>557700</v>
+        <v>224200</v>
       </c>
       <c r="J58" s="3">
-        <v>90500</v>
+        <v>546200</v>
       </c>
       <c r="K58" s="3">
         <v>284300</v>
@@ -2351,25 +2351,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13879400</v>
+        <v>6340700</v>
       </c>
       <c r="E59" s="3">
-        <v>14779200</v>
+        <v>13592500</v>
       </c>
       <c r="F59" s="3">
-        <v>14426500</v>
+        <v>14473800</v>
       </c>
       <c r="G59" s="3">
-        <v>19768200</v>
+        <v>14128300</v>
       </c>
       <c r="H59" s="3">
-        <v>9468100</v>
+        <v>19359600</v>
       </c>
       <c r="I59" s="3">
-        <v>8199600</v>
+        <v>9272400</v>
       </c>
       <c r="J59" s="3">
-        <v>8031900</v>
+        <v>8030100</v>
       </c>
       <c r="K59" s="3">
         <v>11002000</v>
@@ -2387,25 +2387,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18236100</v>
+        <v>14546800</v>
       </c>
       <c r="E60" s="3">
-        <v>19934600</v>
+        <v>17859200</v>
       </c>
       <c r="F60" s="3">
-        <v>19768200</v>
+        <v>19522600</v>
       </c>
       <c r="G60" s="3">
-        <v>16546900</v>
+        <v>19359600</v>
       </c>
       <c r="H60" s="3">
-        <v>12690700</v>
+        <v>16204900</v>
       </c>
       <c r="I60" s="3">
-        <v>10879100</v>
+        <v>12428400</v>
       </c>
       <c r="J60" s="3">
-        <v>10229500</v>
+        <v>10654200</v>
       </c>
       <c r="K60" s="3">
         <v>13429800</v>
@@ -2423,25 +2423,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8063800</v>
+        <v>9773000</v>
       </c>
       <c r="E61" s="3">
-        <v>6535700</v>
+        <v>7897100</v>
       </c>
       <c r="F61" s="3">
-        <v>5063500</v>
+        <v>6400600</v>
       </c>
       <c r="G61" s="3">
-        <v>4533700</v>
+        <v>4958900</v>
       </c>
       <c r="H61" s="3">
-        <v>4239600</v>
+        <v>4440000</v>
       </c>
       <c r="I61" s="3">
-        <v>3837600</v>
+        <v>4151900</v>
       </c>
       <c r="J61" s="3">
-        <v>2919100</v>
+        <v>3758200</v>
       </c>
       <c r="K61" s="3">
         <v>3465900</v>
@@ -2459,25 +2459,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19175800</v>
+        <v>18160300</v>
       </c>
       <c r="E62" s="3">
-        <v>20923600</v>
+        <v>18779500</v>
       </c>
       <c r="F62" s="3">
-        <v>18473000</v>
+        <v>20491100</v>
       </c>
       <c r="G62" s="3">
-        <v>23475300</v>
+        <v>18091200</v>
       </c>
       <c r="H62" s="3">
-        <v>14582200</v>
+        <v>22990100</v>
       </c>
       <c r="I62" s="3">
-        <v>8322000</v>
+        <v>14280800</v>
       </c>
       <c r="J62" s="3">
-        <v>7932000</v>
+        <v>8150000</v>
       </c>
       <c r="K62" s="3">
         <v>6118900</v>
@@ -2603,25 +2603,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45808500</v>
+        <v>43456500</v>
       </c>
       <c r="E66" s="3">
-        <v>47443100</v>
+        <v>44861700</v>
       </c>
       <c r="F66" s="3">
-        <v>43834500</v>
+        <v>46462600</v>
       </c>
       <c r="G66" s="3">
-        <v>35935700</v>
+        <v>42928500</v>
       </c>
       <c r="H66" s="3">
-        <v>31515100</v>
+        <v>35193000</v>
       </c>
       <c r="I66" s="3">
-        <v>23041300</v>
+        <v>30863800</v>
       </c>
       <c r="J66" s="3">
-        <v>21087300</v>
+        <v>22565100</v>
       </c>
       <c r="K66" s="3">
         <v>23973200</v>
@@ -2799,25 +2799,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10666100</v>
+        <v>-9965900</v>
       </c>
       <c r="E72" s="3">
-        <v>-5832900</v>
+        <v>-10445700</v>
       </c>
       <c r="F72" s="3">
-        <v>-3226600</v>
+        <v>-5712300</v>
       </c>
       <c r="G72" s="3">
-        <v>641600</v>
+        <v>-3159900</v>
       </c>
       <c r="H72" s="3">
-        <v>1891500</v>
+        <v>628300</v>
       </c>
       <c r="I72" s="3">
-        <v>6079100</v>
+        <v>1852400</v>
       </c>
       <c r="J72" s="3">
-        <v>7864100</v>
+        <v>5953500</v>
       </c>
       <c r="K72" s="3">
         <v>7163900</v>
@@ -2943,25 +2943,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-6518400</v>
+        <v>-6077300</v>
       </c>
       <c r="E76" s="3">
-        <v>-4493800</v>
+        <v>-6383700</v>
       </c>
       <c r="F76" s="3">
-        <v>-1429600</v>
+        <v>-4400900</v>
       </c>
       <c r="G76" s="3">
-        <v>1237900</v>
+        <v>-1400100</v>
       </c>
       <c r="H76" s="3">
-        <v>2478500</v>
+        <v>1212300</v>
       </c>
       <c r="I76" s="3">
-        <v>6674100</v>
+        <v>2427300</v>
       </c>
       <c r="J76" s="3">
-        <v>8495100</v>
+        <v>6536200</v>
       </c>
       <c r="K76" s="3">
         <v>7696700</v>
@@ -3056,25 +3056,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4219600</v>
+        <v>-4132400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1750400</v>
+        <v>-1714200</v>
       </c>
       <c r="F81" s="3">
-        <v>-3196000</v>
+        <v>-3129900</v>
       </c>
       <c r="G81" s="3">
-        <v>4501800</v>
+        <v>4408700</v>
       </c>
       <c r="H81" s="3">
-        <v>-5367000</v>
+        <v>-5256100</v>
       </c>
       <c r="I81" s="3">
-        <v>110500</v>
+        <v>108200</v>
       </c>
       <c r="J81" s="3">
-        <v>91800</v>
+        <v>89900</v>
       </c>
       <c r="K81" s="3">
         <v>1877200</v>
@@ -3108,25 +3108,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3267900</v>
+        <v>3200300</v>
       </c>
       <c r="E83" s="3">
-        <v>1750400</v>
+        <v>1714200</v>
       </c>
       <c r="F83" s="3">
-        <v>1200700</v>
+        <v>1175800</v>
       </c>
       <c r="G83" s="3">
-        <v>1047600</v>
+        <v>1025900</v>
       </c>
       <c r="H83" s="3">
-        <v>1104800</v>
+        <v>1082000</v>
       </c>
       <c r="I83" s="3">
-        <v>1038300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>987700</v>
+        <v>1016800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3324,25 +3324,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4005300</v>
+        <v>-3922500</v>
       </c>
       <c r="E89" s="3">
-        <v>3057500</v>
+        <v>2994300</v>
       </c>
       <c r="F89" s="3">
-        <v>2963000</v>
+        <v>2901800</v>
       </c>
       <c r="G89" s="3">
-        <v>2012600</v>
+        <v>1971000</v>
       </c>
       <c r="H89" s="3">
-        <v>1878200</v>
+        <v>1839400</v>
       </c>
       <c r="I89" s="3">
-        <v>1456200</v>
+        <v>1426100</v>
       </c>
       <c r="J89" s="3">
-        <v>1731800</v>
+        <v>1696000</v>
       </c>
       <c r="K89" s="3">
         <v>2801300</v>
@@ -3376,25 +3376,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-778700</v>
+        <v>-762600</v>
       </c>
       <c r="E91" s="3">
-        <v>-994300</v>
+        <v>-973800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1204600</v>
+        <v>-1179700</v>
       </c>
       <c r="G91" s="3">
-        <v>-971700</v>
+        <v>-951600</v>
       </c>
       <c r="H91" s="3">
-        <v>-778700</v>
+        <v>-762600</v>
       </c>
       <c r="I91" s="3">
-        <v>-648200</v>
+        <v>-634800</v>
       </c>
       <c r="J91" s="3">
-        <v>-862600</v>
+        <v>-844700</v>
       </c>
       <c r="K91" s="3">
         <v>-918700</v>
@@ -3484,25 +3484,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1344400</v>
+        <v>-1316600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1221900</v>
+        <v>-1196700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1297800</v>
+        <v>-1271000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1536100</v>
+        <v>-1504300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1814300</v>
+        <v>-1776800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1324400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2616900</v>
+        <v>-1297100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -3680,25 +3680,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4025200</v>
+        <v>3942100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2385300</v>
+        <v>-2336000</v>
       </c>
       <c r="F100" s="3">
-        <v>934400</v>
+        <v>915100</v>
       </c>
       <c r="G100" s="3">
-        <v>-169000</v>
+        <v>-165600</v>
       </c>
       <c r="H100" s="3">
-        <v>-983700</v>
+        <v>-963400</v>
       </c>
       <c r="I100" s="3">
-        <v>294200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-623000</v>
+        <v>288100</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -3716,25 +3716,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>74500</v>
+        <v>73000</v>
       </c>
       <c r="E101" s="3">
-        <v>-138400</v>
+        <v>-135600</v>
       </c>
       <c r="F101" s="3">
-        <v>87900</v>
+        <v>86000</v>
       </c>
       <c r="G101" s="3">
-        <v>-91800</v>
+        <v>-89900</v>
       </c>
       <c r="H101" s="3">
-        <v>380700</v>
+        <v>372800</v>
       </c>
       <c r="I101" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>10600</v>
+        <v>-7800</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -3752,25 +3752,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1249900</v>
+        <v>-1224100</v>
       </c>
       <c r="E102" s="3">
-        <v>-688200</v>
+        <v>-674000</v>
       </c>
       <c r="F102" s="3">
-        <v>2687500</v>
+        <v>2631900</v>
       </c>
       <c r="G102" s="3">
-        <v>215600</v>
+        <v>211200</v>
       </c>
       <c r="H102" s="3">
-        <v>-539100</v>
+        <v>-528000</v>
       </c>
       <c r="I102" s="3">
-        <v>418000</v>
+        <v>409300</v>
       </c>
       <c r="J102" s="3">
-        <v>-1497500</v>
+        <v>-1466500</v>
       </c>
       <c r="K102" s="3">
         <v>1925200</v>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>RYCEY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,181 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14979600</v>
+        <v>13684800</v>
       </c>
       <c r="E8" s="3">
-        <v>21622600</v>
+        <v>14017900</v>
       </c>
       <c r="F8" s="3">
-        <v>20504200</v>
+        <v>20234500</v>
       </c>
       <c r="G8" s="3">
-        <v>19224000</v>
+        <v>19187800</v>
       </c>
       <c r="H8" s="3">
-        <v>19495200</v>
+        <v>17989900</v>
       </c>
       <c r="I8" s="3">
-        <v>17891800</v>
+        <v>18243600</v>
       </c>
       <c r="J8" s="3">
+        <v>16743100</v>
+      </c>
+      <c r="K8" s="3">
         <v>17906100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20106200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15721900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14648000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>30910700</v>
+        <v>11079100</v>
       </c>
       <c r="E9" s="3">
-        <v>20394700</v>
+        <v>14246000</v>
       </c>
       <c r="F9" s="3">
-        <v>18942500</v>
+        <v>19085300</v>
       </c>
       <c r="G9" s="3">
-        <v>32379900</v>
+        <v>17726400</v>
       </c>
       <c r="H9" s="3">
-        <v>15521800</v>
+        <v>30301100</v>
       </c>
       <c r="I9" s="3">
-        <v>13634200</v>
+        <v>14525300</v>
       </c>
       <c r="J9" s="3">
+        <v>12758900</v>
+      </c>
+      <c r="K9" s="3">
         <v>13730700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32486900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12193800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11424500</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-15931200</v>
+        <v>2605700</v>
       </c>
       <c r="E10" s="3">
-        <v>1228000</v>
+        <v>-228100</v>
       </c>
       <c r="F10" s="3">
-        <v>1561700</v>
+        <v>1149100</v>
       </c>
       <c r="G10" s="3">
-        <v>-13155800</v>
+        <v>1461400</v>
       </c>
       <c r="H10" s="3">
-        <v>3973300</v>
+        <v>-12311200</v>
       </c>
       <c r="I10" s="3">
-        <v>4257500</v>
+        <v>3718300</v>
       </c>
       <c r="J10" s="3">
+        <v>3984200</v>
+      </c>
+      <c r="K10" s="3">
         <v>4175400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-12380700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3528100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3223500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,44 +854,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>839500</v>
+        <v>863700</v>
       </c>
       <c r="E12" s="3">
-        <v>830400</v>
+        <v>785600</v>
       </c>
       <c r="F12" s="3">
-        <v>843400</v>
+        <v>777100</v>
       </c>
       <c r="G12" s="3">
-        <v>904700</v>
+        <v>789300</v>
       </c>
       <c r="H12" s="3">
-        <v>1005100</v>
+        <v>846600</v>
       </c>
       <c r="I12" s="3">
-        <v>887700</v>
+        <v>940500</v>
       </c>
       <c r="J12" s="3">
+        <v>830800</v>
+      </c>
+      <c r="K12" s="3">
         <v>870800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1658800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1447900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>609700</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -914,81 +929,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>645300</v>
+        <v>-68300</v>
       </c>
       <c r="E14" s="3">
-        <v>-155100</v>
+        <v>603900</v>
       </c>
       <c r="F14" s="3">
-        <v>-457600</v>
+        <v>-145200</v>
       </c>
       <c r="G14" s="3">
-        <v>-1023300</v>
+        <v>-428200</v>
       </c>
       <c r="H14" s="3">
-        <v>1277500</v>
+        <v>-957600</v>
       </c>
       <c r="I14" s="3">
-        <v>-2600</v>
+        <v>1195500</v>
       </c>
       <c r="J14" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K14" s="3">
         <v>9100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-473800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-903700</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>730000</v>
+        <v>85400</v>
       </c>
       <c r="E15" s="3">
-        <v>147300</v>
+        <v>683100</v>
       </c>
       <c r="F15" s="3">
-        <v>148600</v>
+        <v>137800</v>
       </c>
       <c r="G15" s="3">
-        <v>194200</v>
+        <v>139100</v>
       </c>
       <c r="H15" s="3">
-        <v>191600</v>
+        <v>181800</v>
       </c>
       <c r="I15" s="3">
-        <v>178600</v>
+        <v>179300</v>
       </c>
       <c r="J15" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K15" s="3">
         <v>162900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>178500</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,80 +1024,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17568500</v>
+        <v>12990700</v>
       </c>
       <c r="E17" s="3">
-        <v>22552100</v>
+        <v>16440600</v>
       </c>
       <c r="F17" s="3">
-        <v>21550900</v>
+        <v>21104300</v>
       </c>
       <c r="G17" s="3">
-        <v>17723600</v>
+        <v>20167400</v>
       </c>
       <c r="H17" s="3">
-        <v>19441700</v>
+        <v>16585800</v>
       </c>
       <c r="I17" s="3">
-        <v>15935100</v>
+        <v>18193600</v>
       </c>
       <c r="J17" s="3">
+        <v>14912100</v>
+      </c>
+      <c r="K17" s="3">
         <v>16103200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17655100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13036700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13086300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2588900</v>
+        <v>694100</v>
       </c>
       <c r="E18" s="3">
-        <v>-929500</v>
+        <v>-2422700</v>
       </c>
       <c r="F18" s="3">
-        <v>-1046800</v>
+        <v>-869800</v>
       </c>
       <c r="G18" s="3">
-        <v>1500400</v>
+        <v>-979600</v>
       </c>
       <c r="H18" s="3">
-        <v>53400</v>
+        <v>1404100</v>
       </c>
       <c r="I18" s="3">
-        <v>1956700</v>
+        <v>50000</v>
       </c>
       <c r="J18" s="3">
+        <v>1831100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1802900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2451100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2685200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1561700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1088,188 +1119,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-593100</v>
+        <v>-745400</v>
       </c>
       <c r="E20" s="3">
-        <v>5200</v>
+        <v>-774600</v>
       </c>
       <c r="F20" s="3">
-        <v>-2655400</v>
+        <v>4900</v>
       </c>
       <c r="G20" s="3">
-        <v>3668300</v>
+        <v>-2484900</v>
       </c>
       <c r="H20" s="3">
-        <v>-5996500</v>
+        <v>3432800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1655600</v>
+        <v>-5611500</v>
       </c>
       <c r="J20" s="3">
+        <v>-1549300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1633400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-37100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>956700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-39500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>53400</v>
+        <v>1184800</v>
       </c>
       <c r="E21" s="3">
-        <v>808800</v>
+        <v>-190000</v>
       </c>
       <c r="F21" s="3">
-        <v>-2513400</v>
+        <v>746000</v>
       </c>
       <c r="G21" s="3">
-        <v>6205900</v>
+        <v>-2359600</v>
       </c>
       <c r="H21" s="3">
-        <v>-4849200</v>
+        <v>5801000</v>
       </c>
       <c r="I21" s="3">
-        <v>1329100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>10</v>
+        <v>-4544800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1237300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3">
         <v>4274900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2060100</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>466700</v>
+        <v>307400</v>
       </c>
       <c r="E22" s="3">
-        <v>237300</v>
+        <v>217100</v>
       </c>
       <c r="F22" s="3">
-        <v>139500</v>
+        <v>222000</v>
       </c>
       <c r="G22" s="3">
-        <v>87300</v>
+        <v>130500</v>
       </c>
       <c r="H22" s="3">
-        <v>100400</v>
+        <v>81700</v>
       </c>
       <c r="I22" s="3">
-        <v>92600</v>
+        <v>93900</v>
       </c>
       <c r="J22" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K22" s="3">
         <v>82100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>79600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>65900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>67200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3648700</v>
+        <v>-358700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1161500</v>
+        <v>-3414500</v>
       </c>
       <c r="F23" s="3">
-        <v>-3841700</v>
+        <v>-1086900</v>
       </c>
       <c r="G23" s="3">
-        <v>5081400</v>
+        <v>-3595000</v>
       </c>
       <c r="H23" s="3">
-        <v>-6043400</v>
+        <v>4755200</v>
       </c>
       <c r="I23" s="3">
-        <v>208600</v>
+        <v>-5655500</v>
       </c>
       <c r="J23" s="3">
+        <v>195200</v>
+      </c>
+      <c r="K23" s="3">
         <v>87300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2334400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3575900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1455100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>393700</v>
+        <v>-509900</v>
       </c>
       <c r="E24" s="3">
-        <v>547500</v>
+        <v>368400</v>
       </c>
       <c r="F24" s="3">
-        <v>-666100</v>
+        <v>512400</v>
       </c>
       <c r="G24" s="3">
-        <v>606200</v>
+        <v>-623400</v>
       </c>
       <c r="H24" s="3">
-        <v>-787400</v>
+        <v>567300</v>
       </c>
       <c r="I24" s="3">
-        <v>99100</v>
+        <v>-736800</v>
       </c>
       <c r="J24" s="3">
+        <v>92700</v>
+      </c>
+      <c r="K24" s="3">
         <v>196800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>517700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>557200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>338400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1303,81 +1350,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4042400</v>
+        <v>151300</v>
       </c>
       <c r="E26" s="3">
-        <v>-1709000</v>
+        <v>-3782900</v>
       </c>
       <c r="F26" s="3">
-        <v>-3175500</v>
+        <v>-1599300</v>
       </c>
       <c r="G26" s="3">
-        <v>4475200</v>
+        <v>-2971700</v>
       </c>
       <c r="H26" s="3">
-        <v>-5256100</v>
+        <v>4187900</v>
       </c>
       <c r="I26" s="3">
-        <v>109500</v>
+        <v>-4918600</v>
       </c>
       <c r="J26" s="3">
+        <v>102500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-109500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1816700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3018700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1116600</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4043700</v>
+        <v>150000</v>
       </c>
       <c r="E27" s="3">
-        <v>-1714200</v>
+        <v>-3784100</v>
       </c>
       <c r="F27" s="3">
-        <v>-3186000</v>
+        <v>-1604200</v>
       </c>
       <c r="G27" s="3">
-        <v>4473900</v>
+        <v>-2981400</v>
       </c>
       <c r="H27" s="3">
-        <v>-5256100</v>
+        <v>4186700</v>
       </c>
       <c r="I27" s="3">
-        <v>108200</v>
+        <v>-4918600</v>
       </c>
       <c r="J27" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-95200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3000600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1119300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1411,45 +1467,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-88600</v>
+        <v>-3700</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-83000</v>
       </c>
       <c r="F29" s="3">
-        <v>56100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-65200</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>52500</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>185100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>76900</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1483,9 +1545,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1519,81 +1584,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>593100</v>
+        <v>745400</v>
       </c>
       <c r="E32" s="3">
-        <v>-5200</v>
+        <v>774600</v>
       </c>
       <c r="F32" s="3">
-        <v>2655400</v>
+        <v>-4900</v>
       </c>
       <c r="G32" s="3">
-        <v>-3668300</v>
+        <v>2484900</v>
       </c>
       <c r="H32" s="3">
-        <v>5996500</v>
+        <v>-3432800</v>
       </c>
       <c r="I32" s="3">
-        <v>1655600</v>
+        <v>5611500</v>
       </c>
       <c r="J32" s="3">
+        <v>1549300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1633400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>37100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-956700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>39500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4132400</v>
+        <v>146400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1714200</v>
+        <v>-3867100</v>
       </c>
       <c r="F33" s="3">
-        <v>-3129900</v>
+        <v>-1604200</v>
       </c>
       <c r="G33" s="3">
-        <v>4408700</v>
+        <v>-2929000</v>
       </c>
       <c r="H33" s="3">
-        <v>-5256100</v>
+        <v>4125700</v>
       </c>
       <c r="I33" s="3">
-        <v>108200</v>
+        <v>-4918600</v>
       </c>
       <c r="J33" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K33" s="3">
         <v>89900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1877200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3000600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1119300</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1627,86 +1701,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4132400</v>
+        <v>146400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1714200</v>
+        <v>-3867100</v>
       </c>
       <c r="F35" s="3">
-        <v>-3129900</v>
+        <v>-1604200</v>
       </c>
       <c r="G35" s="3">
-        <v>4408700</v>
+        <v>-2929000</v>
       </c>
       <c r="H35" s="3">
-        <v>-5256100</v>
+        <v>4125700</v>
       </c>
       <c r="I35" s="3">
-        <v>108200</v>
+        <v>-4918600</v>
       </c>
       <c r="J35" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K35" s="3">
         <v>89900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1877200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3000600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1119300</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1721,8 +1804,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1737,332 +1821,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3416700</v>
+        <v>921000</v>
       </c>
       <c r="E41" s="3">
-        <v>4313600</v>
+        <v>1788400</v>
       </c>
       <c r="F41" s="3">
-        <v>5747500</v>
+        <v>2300700</v>
       </c>
       <c r="G41" s="3">
-        <v>6443600</v>
+        <v>2700900</v>
       </c>
       <c r="H41" s="3">
-        <v>7669000</v>
+        <v>5315100</v>
       </c>
       <c r="I41" s="3">
-        <v>3567900</v>
+        <v>5076000</v>
       </c>
       <c r="J41" s="3">
+        <v>1737100</v>
+      </c>
+      <c r="K41" s="3">
         <v>4112800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5086300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8082600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1706600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>70400</v>
+        <v>2177500</v>
       </c>
       <c r="E42" s="3">
-        <v>16900</v>
+        <v>2248300</v>
       </c>
       <c r="F42" s="3">
-        <v>23500</v>
+        <v>3099800</v>
       </c>
       <c r="G42" s="3">
-        <v>7800</v>
+        <v>3336400</v>
       </c>
       <c r="H42" s="3">
-        <v>3900</v>
+        <v>1865200</v>
       </c>
       <c r="I42" s="3">
-        <v>3900</v>
+        <v>1646900</v>
       </c>
       <c r="J42" s="3">
+        <v>2114100</v>
+      </c>
+      <c r="K42" s="3">
         <v>2600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>440800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1971500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>32900</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9054700</v>
+        <v>7248600</v>
       </c>
       <c r="E43" s="3">
-        <v>8060100</v>
+        <v>7542600</v>
       </c>
       <c r="F43" s="3">
-        <v>8597200</v>
+        <v>8045200</v>
       </c>
       <c r="G43" s="3">
-        <v>8066600</v>
+        <v>7548700</v>
       </c>
       <c r="H43" s="3">
-        <v>16227100</v>
+        <v>15185300</v>
       </c>
       <c r="I43" s="3">
-        <v>8852700</v>
+        <v>15064500</v>
       </c>
       <c r="J43" s="3">
+        <v>7407200</v>
+      </c>
+      <c r="K43" s="3">
         <v>7915400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6691600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15530500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5099900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4779000</v>
+        <v>4472200</v>
       </c>
       <c r="E44" s="3">
-        <v>4810200</v>
+        <v>4501400</v>
       </c>
       <c r="F44" s="3">
-        <v>5631500</v>
+        <v>5270000</v>
       </c>
       <c r="G44" s="3">
-        <v>5588500</v>
+        <v>5229700</v>
       </c>
       <c r="H44" s="3">
-        <v>10037600</v>
+        <v>9393200</v>
       </c>
       <c r="I44" s="3">
-        <v>4022900</v>
+        <v>7854900</v>
       </c>
       <c r="J44" s="3">
+        <v>3216900</v>
+      </c>
+      <c r="K44" s="3">
         <v>3437600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4557600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10572600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3372300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>10</v>
+      <c r="D45" s="3">
+        <v>1389500</v>
       </c>
       <c r="E45" s="3">
-        <v>1480900</v>
+        <v>1401700</v>
       </c>
       <c r="F45" s="3">
-        <v>928200</v>
+        <v>868600</v>
       </c>
       <c r="G45" s="3">
-        <v>1819800</v>
+        <v>1703000</v>
       </c>
       <c r="H45" s="3">
-        <v>357200</v>
+        <v>334300</v>
       </c>
       <c r="I45" s="3">
-        <v>314200</v>
+        <v>294000</v>
       </c>
       <c r="J45" s="3">
+        <v>305000</v>
+      </c>
+      <c r="K45" s="3">
         <v>325900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>825300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>837700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>737400</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17320800</v>
+        <v>16208800</v>
       </c>
       <c r="E46" s="3">
-        <v>18681700</v>
+        <v>17482400</v>
       </c>
       <c r="F46" s="3">
-        <v>20927800</v>
+        <v>19584300</v>
       </c>
       <c r="G46" s="3">
-        <v>21926400</v>
+        <v>20518700</v>
       </c>
       <c r="H46" s="3">
-        <v>17099200</v>
+        <v>16001400</v>
       </c>
       <c r="I46" s="3">
-        <v>16761600</v>
+        <v>14305800</v>
       </c>
       <c r="J46" s="3">
+        <v>14780300</v>
+      </c>
+      <c r="K46" s="3">
         <v>15794300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17601500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12401900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10949100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1044200</v>
+        <v>536800</v>
       </c>
       <c r="E47" s="3">
-        <v>557900</v>
+        <v>503800</v>
       </c>
       <c r="F47" s="3">
-        <v>563200</v>
+        <v>527000</v>
       </c>
       <c r="G47" s="3">
-        <v>565800</v>
+        <v>529400</v>
       </c>
       <c r="H47" s="3">
-        <v>522700</v>
+        <v>489200</v>
       </c>
       <c r="I47" s="3">
-        <v>1149800</v>
+        <v>723400</v>
       </c>
       <c r="J47" s="3">
+        <v>742900</v>
+      </c>
+      <c r="K47" s="3">
         <v>793900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>862400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4669600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2225400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6674400</v>
+        <v>6245900</v>
       </c>
       <c r="E48" s="3">
-        <v>7717300</v>
+        <v>7221800</v>
       </c>
       <c r="F48" s="3">
-        <v>8880100</v>
+        <v>8310000</v>
       </c>
       <c r="G48" s="3">
-        <v>6425400</v>
+        <v>6012900</v>
       </c>
       <c r="H48" s="3">
-        <v>6072100</v>
+        <v>5682300</v>
       </c>
       <c r="I48" s="3">
-        <v>5363000</v>
+        <v>10061700</v>
       </c>
       <c r="J48" s="3">
+        <v>4257500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4549500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4657900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9944300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3078700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5267800</v>
+        <v>4929600</v>
       </c>
       <c r="E49" s="3">
-        <v>6707000</v>
+        <v>6276400</v>
       </c>
       <c r="F49" s="3">
-        <v>7094100</v>
+        <v>6638700</v>
       </c>
       <c r="G49" s="3">
-        <v>6902500</v>
+        <v>6459400</v>
       </c>
       <c r="H49" s="3">
-        <v>7254500</v>
+        <v>6788700</v>
       </c>
       <c r="I49" s="3">
-        <v>6622200</v>
+        <v>11218200</v>
       </c>
       <c r="J49" s="3">
+        <v>5666400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6055200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6848100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11251300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3795000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2096,9 +2208,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2132,45 +2247,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7072000</v>
+        <v>7058300</v>
       </c>
       <c r="E52" s="3">
-        <v>4814200</v>
+        <v>4523400</v>
       </c>
       <c r="F52" s="3">
-        <v>4596500</v>
+        <v>4301400</v>
       </c>
       <c r="G52" s="3">
-        <v>5708400</v>
+        <v>5341900</v>
       </c>
       <c r="H52" s="3">
-        <v>5456800</v>
+        <v>5106500</v>
       </c>
       <c r="I52" s="3">
-        <v>3394500</v>
+        <v>4285500</v>
       </c>
       <c r="J52" s="3">
+        <v>1785900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1908500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3248800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1577500</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2204,45 +2325,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37379100</v>
+        <v>34979400</v>
       </c>
       <c r="E54" s="3">
-        <v>38478100</v>
+        <v>36007800</v>
       </c>
       <c r="F54" s="3">
-        <v>42061600</v>
+        <v>39361300</v>
       </c>
       <c r="G54" s="3">
-        <v>41528500</v>
+        <v>38862400</v>
       </c>
       <c r="H54" s="3">
-        <v>36405400</v>
+        <v>34068100</v>
       </c>
       <c r="I54" s="3">
-        <v>33291100</v>
+        <v>29378900</v>
       </c>
       <c r="J54" s="3">
+        <v>27233000</v>
+      </c>
+      <c r="K54" s="3">
         <v>29101300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31669900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23459300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21625600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2257,8 +2384,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2273,224 +2401,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7842400</v>
+        <v>2144600</v>
       </c>
       <c r="E57" s="3">
-        <v>2608500</v>
+        <v>2441000</v>
       </c>
       <c r="F57" s="3">
-        <v>4038500</v>
+        <v>3779300</v>
       </c>
       <c r="G57" s="3">
-        <v>4112800</v>
+        <v>3848800</v>
       </c>
       <c r="H57" s="3">
-        <v>17872200</v>
+        <v>16724800</v>
       </c>
       <c r="I57" s="3">
-        <v>2931800</v>
+        <v>10225200</v>
       </c>
       <c r="J57" s="3">
+        <v>1944500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2077900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2143500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14007600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3773900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>363700</v>
+        <v>340400</v>
       </c>
       <c r="E58" s="3">
-        <v>1658200</v>
+        <v>1551700</v>
       </c>
       <c r="F58" s="3">
-        <v>1010300</v>
+        <v>945400</v>
       </c>
       <c r="G58" s="3">
-        <v>1118500</v>
+        <v>1046700</v>
       </c>
       <c r="H58" s="3">
-        <v>213800</v>
+        <v>200100</v>
       </c>
       <c r="I58" s="3">
-        <v>224200</v>
+        <v>419600</v>
       </c>
       <c r="J58" s="3">
+        <v>511100</v>
+      </c>
+      <c r="K58" s="3">
         <v>546200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>284300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>385300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26300</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6340700</v>
+        <v>11127900</v>
       </c>
       <c r="E59" s="3">
-        <v>13592500</v>
+        <v>12719900</v>
       </c>
       <c r="F59" s="3">
-        <v>14473800</v>
+        <v>13544500</v>
       </c>
       <c r="G59" s="3">
-        <v>14128300</v>
+        <v>13221300</v>
       </c>
       <c r="H59" s="3">
-        <v>19359600</v>
+        <v>18116700</v>
       </c>
       <c r="I59" s="3">
-        <v>9272400</v>
+        <v>13737300</v>
       </c>
       <c r="J59" s="3">
+        <v>7514600</v>
+      </c>
+      <c r="K59" s="3">
         <v>8030100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11002000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12483400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5306700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14546800</v>
+        <v>13612900</v>
       </c>
       <c r="E60" s="3">
-        <v>17859200</v>
+        <v>16712600</v>
       </c>
       <c r="F60" s="3">
-        <v>19522600</v>
+        <v>18269200</v>
       </c>
       <c r="G60" s="3">
-        <v>19359600</v>
+        <v>18116700</v>
       </c>
       <c r="H60" s="3">
-        <v>16204900</v>
+        <v>15164600</v>
       </c>
       <c r="I60" s="3">
-        <v>12428400</v>
+        <v>13671400</v>
       </c>
       <c r="J60" s="3">
+        <v>9970200</v>
+      </c>
+      <c r="K60" s="3">
         <v>10654200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13429800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9318600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9106900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9773000</v>
+        <v>9145600</v>
       </c>
       <c r="E61" s="3">
-        <v>7897100</v>
+        <v>7390200</v>
       </c>
       <c r="F61" s="3">
-        <v>6400600</v>
+        <v>5989700</v>
       </c>
       <c r="G61" s="3">
-        <v>4958900</v>
+        <v>4640500</v>
       </c>
       <c r="H61" s="3">
-        <v>4440000</v>
+        <v>4155000</v>
       </c>
       <c r="I61" s="3">
-        <v>4151900</v>
+        <v>3885400</v>
       </c>
       <c r="J61" s="3">
+        <v>3517000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3758200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3465900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2135700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1559100</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18160300</v>
+        <v>16994400</v>
       </c>
       <c r="E62" s="3">
-        <v>18779500</v>
+        <v>17573900</v>
       </c>
       <c r="F62" s="3">
-        <v>20491100</v>
+        <v>19175600</v>
       </c>
       <c r="G62" s="3">
-        <v>18091200</v>
+        <v>16929800</v>
       </c>
       <c r="H62" s="3">
-        <v>22990100</v>
+        <v>21514200</v>
       </c>
       <c r="I62" s="3">
-        <v>14280800</v>
+        <v>25417800</v>
       </c>
       <c r="J62" s="3">
+        <v>7626800</v>
+      </c>
+      <c r="K62" s="3">
         <v>8150000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6118900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8779500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5009100</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2524,9 +2671,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2560,9 +2710,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2596,45 +2749,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43456500</v>
+        <v>40666600</v>
       </c>
       <c r="E66" s="3">
-        <v>44861700</v>
+        <v>41981600</v>
       </c>
       <c r="F66" s="3">
-        <v>46462600</v>
+        <v>43479700</v>
       </c>
       <c r="G66" s="3">
-        <v>42928500</v>
+        <v>40172500</v>
       </c>
       <c r="H66" s="3">
-        <v>35193000</v>
+        <v>32933600</v>
       </c>
       <c r="I66" s="3">
-        <v>30863800</v>
+        <v>32500600</v>
       </c>
       <c r="J66" s="3">
+        <v>21116500</v>
+      </c>
+      <c r="K66" s="3">
         <v>22565100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23973200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15729600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15676400</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2649,8 +2808,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2684,9 +2844,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2720,9 +2883,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2756,9 +2922,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2792,45 +2961,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9965900</v>
+        <v>-9326100</v>
       </c>
       <c r="E72" s="3">
-        <v>-10445700</v>
+        <v>-9775100</v>
       </c>
       <c r="F72" s="3">
-        <v>-5712300</v>
+        <v>-5345600</v>
       </c>
       <c r="G72" s="3">
-        <v>-3159900</v>
+        <v>-2957000</v>
       </c>
       <c r="H72" s="3">
-        <v>628300</v>
+        <v>588000</v>
       </c>
       <c r="I72" s="3">
-        <v>1852400</v>
+        <v>-3629200</v>
       </c>
       <c r="J72" s="3">
+        <v>5571300</v>
+      </c>
+      <c r="K72" s="3">
         <v>5953500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7163900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14793600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5456800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2864,9 +3039,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2900,9 +3078,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2936,45 +3117,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-6077300</v>
+        <v>-5687200</v>
       </c>
       <c r="E76" s="3">
-        <v>-6383700</v>
+        <v>-5973900</v>
       </c>
       <c r="F76" s="3">
-        <v>-4400900</v>
+        <v>-4118400</v>
       </c>
       <c r="G76" s="3">
-        <v>-1400100</v>
+        <v>-1310200</v>
       </c>
       <c r="H76" s="3">
-        <v>1212300</v>
+        <v>1134500</v>
       </c>
       <c r="I76" s="3">
-        <v>2427300</v>
+        <v>-3121700</v>
       </c>
       <c r="J76" s="3">
+        <v>6116600</v>
+      </c>
+      <c r="K76" s="3">
         <v>6536200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7696700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7729700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5949300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3008,86 +3195,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4132400</v>
+        <v>146400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1714200</v>
+        <v>-3867100</v>
       </c>
       <c r="F81" s="3">
-        <v>-3129900</v>
+        <v>-1604200</v>
       </c>
       <c r="G81" s="3">
-        <v>4408700</v>
+        <v>-2929000</v>
       </c>
       <c r="H81" s="3">
-        <v>-5256100</v>
+        <v>4125700</v>
       </c>
       <c r="I81" s="3">
-        <v>108200</v>
+        <v>-4918600</v>
       </c>
       <c r="J81" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K81" s="3">
         <v>89900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1877200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3000600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1119300</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3102,44 +3298,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3200300</v>
+        <v>1230900</v>
       </c>
       <c r="E83" s="3">
-        <v>1714200</v>
+        <v>2994900</v>
       </c>
       <c r="F83" s="3">
-        <v>1175800</v>
+        <v>1604200</v>
       </c>
       <c r="G83" s="3">
-        <v>1025900</v>
+        <v>1100300</v>
       </c>
       <c r="H83" s="3">
-        <v>1082000</v>
+        <v>960100</v>
       </c>
       <c r="I83" s="3">
-        <v>1016800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>10</v>
+        <v>1012500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>951500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M83" s="3">
         <v>629600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>539900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3173,9 +3373,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3209,9 +3412,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3245,9 +3451,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3281,9 +3490,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3317,45 +3529,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3922500</v>
+        <v>-316000</v>
       </c>
       <c r="E89" s="3">
-        <v>2994300</v>
+        <v>-3670700</v>
       </c>
       <c r="F89" s="3">
-        <v>2901800</v>
+        <v>2802100</v>
       </c>
       <c r="G89" s="3">
-        <v>1971000</v>
+        <v>2715500</v>
       </c>
       <c r="H89" s="3">
-        <v>1839400</v>
+        <v>1844500</v>
       </c>
       <c r="I89" s="3">
-        <v>1426100</v>
+        <v>1721300</v>
       </c>
       <c r="J89" s="3">
+        <v>1334600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1696000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2801300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1622500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1719700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3370,44 +3588,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-762600</v>
+        <v>-400100</v>
       </c>
       <c r="E91" s="3">
-        <v>-973800</v>
+        <v>-713600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1179700</v>
+        <v>-911300</v>
       </c>
       <c r="G91" s="3">
-        <v>-951600</v>
+        <v>-1104000</v>
       </c>
       <c r="H91" s="3">
-        <v>-762600</v>
+        <v>-890500</v>
       </c>
       <c r="I91" s="3">
-        <v>-634800</v>
+        <v>-713600</v>
       </c>
       <c r="J91" s="3">
+        <v>-594100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-844700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-918700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-562400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1020500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3441,9 +3663,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3477,45 +3702,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1316600</v>
+        <v>-522100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1196700</v>
+        <v>-1232100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1271000</v>
+        <v>-1119900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1504300</v>
+        <v>-1189400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1776800</v>
+        <v>-1407800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1297100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
+        <v>-1662700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1213800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M94" s="3">
         <v>548200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2906200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3530,8 +3761,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3565,9 +3797,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3601,9 +3836,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3637,9 +3875,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3673,115 +3914,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3942100</v>
+        <v>-107400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2336000</v>
+        <v>3689000</v>
       </c>
       <c r="F100" s="3">
-        <v>915100</v>
+        <v>-2186100</v>
       </c>
       <c r="G100" s="3">
-        <v>-165600</v>
+        <v>856400</v>
       </c>
       <c r="H100" s="3">
-        <v>-963400</v>
+        <v>-154900</v>
       </c>
       <c r="I100" s="3">
-        <v>288100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
+        <v>-901500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>269600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" s="3">
         <v>-427900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-862500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>73000</v>
+        <v>-100000</v>
       </c>
       <c r="E101" s="3">
-        <v>-135600</v>
+        <v>68300</v>
       </c>
       <c r="F101" s="3">
-        <v>86000</v>
+        <v>-126900</v>
       </c>
       <c r="G101" s="3">
-        <v>-89900</v>
+        <v>80500</v>
       </c>
       <c r="H101" s="3">
-        <v>372800</v>
+        <v>-84200</v>
       </c>
       <c r="I101" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>10</v>
+        <v>348900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-7300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M101" s="3">
         <v>-69800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5300</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1224100</v>
+        <v>-1045500</v>
       </c>
       <c r="E102" s="3">
-        <v>-674000</v>
+        <v>-1145500</v>
       </c>
       <c r="F102" s="3">
-        <v>2631900</v>
+        <v>-630700</v>
       </c>
       <c r="G102" s="3">
-        <v>211200</v>
+        <v>2463000</v>
       </c>
       <c r="H102" s="3">
-        <v>-528000</v>
+        <v>197600</v>
       </c>
       <c r="I102" s="3">
-        <v>409300</v>
+        <v>-494100</v>
       </c>
       <c r="J102" s="3">
+        <v>383000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1466500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1925200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1672900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2054200</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13684800</v>
+        <v>13269800</v>
       </c>
       <c r="E8" s="3">
-        <v>14017900</v>
+        <v>13592700</v>
       </c>
       <c r="F8" s="3">
-        <v>20234500</v>
+        <v>19620800</v>
       </c>
       <c r="G8" s="3">
-        <v>19187800</v>
+        <v>18605800</v>
       </c>
       <c r="H8" s="3">
-        <v>17989900</v>
+        <v>17444200</v>
       </c>
       <c r="I8" s="3">
-        <v>18243600</v>
+        <v>17690300</v>
       </c>
       <c r="J8" s="3">
-        <v>16743100</v>
+        <v>16235300</v>
       </c>
       <c r="K8" s="3">
         <v>17906100</v>
@@ -766,25 +766,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11079100</v>
+        <v>10743100</v>
       </c>
       <c r="E9" s="3">
-        <v>14246000</v>
+        <v>13813900</v>
       </c>
       <c r="F9" s="3">
-        <v>19085300</v>
+        <v>18506500</v>
       </c>
       <c r="G9" s="3">
-        <v>17726400</v>
+        <v>17188700</v>
       </c>
       <c r="H9" s="3">
-        <v>30301100</v>
+        <v>29382100</v>
       </c>
       <c r="I9" s="3">
-        <v>14525300</v>
+        <v>14084800</v>
       </c>
       <c r="J9" s="3">
-        <v>12758900</v>
+        <v>12372000</v>
       </c>
       <c r="K9" s="3">
         <v>13730700</v>
@@ -805,25 +805,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2605700</v>
+        <v>2526700</v>
       </c>
       <c r="E10" s="3">
-        <v>-228100</v>
+        <v>-221200</v>
       </c>
       <c r="F10" s="3">
-        <v>1149100</v>
+        <v>1114300</v>
       </c>
       <c r="G10" s="3">
-        <v>1461400</v>
+        <v>1417100</v>
       </c>
       <c r="H10" s="3">
-        <v>-12311200</v>
+        <v>-11937800</v>
       </c>
       <c r="I10" s="3">
-        <v>3718300</v>
+        <v>3605500</v>
       </c>
       <c r="J10" s="3">
-        <v>3984200</v>
+        <v>3863400</v>
       </c>
       <c r="K10" s="3">
         <v>4175400</v>
@@ -861,25 +861,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>863700</v>
+        <v>837500</v>
       </c>
       <c r="E12" s="3">
-        <v>785600</v>
+        <v>761800</v>
       </c>
       <c r="F12" s="3">
-        <v>777100</v>
+        <v>753500</v>
       </c>
       <c r="G12" s="3">
-        <v>789300</v>
+        <v>765300</v>
       </c>
       <c r="H12" s="3">
-        <v>846600</v>
+        <v>820900</v>
       </c>
       <c r="I12" s="3">
-        <v>940500</v>
+        <v>912000</v>
       </c>
       <c r="J12" s="3">
-        <v>830800</v>
+        <v>805600</v>
       </c>
       <c r="K12" s="3">
         <v>870800</v>
@@ -939,22 +939,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-68300</v>
+        <v>-66200</v>
       </c>
       <c r="E14" s="3">
-        <v>603900</v>
+        <v>585500</v>
       </c>
       <c r="F14" s="3">
-        <v>-145200</v>
+        <v>-140800</v>
       </c>
       <c r="G14" s="3">
-        <v>-428200</v>
+        <v>-415200</v>
       </c>
       <c r="H14" s="3">
-        <v>-957600</v>
+        <v>-928600</v>
       </c>
       <c r="I14" s="3">
-        <v>1195500</v>
+        <v>1159200</v>
       </c>
       <c r="J14" s="3">
         <v>-2400</v>
@@ -978,25 +978,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>85400</v>
+        <v>82800</v>
       </c>
       <c r="E15" s="3">
-        <v>683100</v>
+        <v>662400</v>
       </c>
       <c r="F15" s="3">
-        <v>137800</v>
+        <v>133700</v>
       </c>
       <c r="G15" s="3">
-        <v>139100</v>
+        <v>134900</v>
       </c>
       <c r="H15" s="3">
-        <v>181800</v>
+        <v>176300</v>
       </c>
       <c r="I15" s="3">
-        <v>179300</v>
+        <v>173900</v>
       </c>
       <c r="J15" s="3">
-        <v>167100</v>
+        <v>162100</v>
       </c>
       <c r="K15" s="3">
         <v>162900</v>
@@ -1031,25 +1031,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12990700</v>
+        <v>12596700</v>
       </c>
       <c r="E17" s="3">
-        <v>16440600</v>
+        <v>15941900</v>
       </c>
       <c r="F17" s="3">
-        <v>21104300</v>
+        <v>20464200</v>
       </c>
       <c r="G17" s="3">
-        <v>20167400</v>
+        <v>19555700</v>
       </c>
       <c r="H17" s="3">
-        <v>16585800</v>
+        <v>16082700</v>
       </c>
       <c r="I17" s="3">
-        <v>18193600</v>
+        <v>17641800</v>
       </c>
       <c r="J17" s="3">
-        <v>14912100</v>
+        <v>14459800</v>
       </c>
       <c r="K17" s="3">
         <v>16103200</v>
@@ -1070,25 +1070,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>694100</v>
+        <v>673100</v>
       </c>
       <c r="E18" s="3">
-        <v>-2422700</v>
+        <v>-2349200</v>
       </c>
       <c r="F18" s="3">
-        <v>-869800</v>
+        <v>-843400</v>
       </c>
       <c r="G18" s="3">
-        <v>-979600</v>
+        <v>-949900</v>
       </c>
       <c r="H18" s="3">
-        <v>1404100</v>
+        <v>1361500</v>
       </c>
       <c r="I18" s="3">
-        <v>50000</v>
+        <v>48500</v>
       </c>
       <c r="J18" s="3">
-        <v>1831100</v>
+        <v>1775500</v>
       </c>
       <c r="K18" s="3">
         <v>1802900</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-745400</v>
+        <v>-722800</v>
       </c>
       <c r="E20" s="3">
-        <v>-774600</v>
+        <v>-751100</v>
       </c>
       <c r="F20" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="G20" s="3">
-        <v>-2484900</v>
+        <v>-2409600</v>
       </c>
       <c r="H20" s="3">
-        <v>3432800</v>
+        <v>3328700</v>
       </c>
       <c r="I20" s="3">
-        <v>-5611500</v>
+        <v>-5441300</v>
       </c>
       <c r="J20" s="3">
-        <v>-1549300</v>
+        <v>-1502300</v>
       </c>
       <c r="K20" s="3">
         <v>-1633400</v>
@@ -1165,25 +1165,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1184800</v>
+        <v>1140600</v>
       </c>
       <c r="E21" s="3">
-        <v>-190000</v>
+        <v>-204200</v>
       </c>
       <c r="F21" s="3">
-        <v>746000</v>
+        <v>712600</v>
       </c>
       <c r="G21" s="3">
-        <v>-2359600</v>
+        <v>-2295300</v>
       </c>
       <c r="H21" s="3">
-        <v>5801000</v>
+        <v>5618600</v>
       </c>
       <c r="I21" s="3">
-        <v>-4544800</v>
+        <v>-4413700</v>
       </c>
       <c r="J21" s="3">
-        <v>1237300</v>
+        <v>1193400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1204,25 +1204,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>307400</v>
+        <v>298100</v>
       </c>
       <c r="E22" s="3">
-        <v>217100</v>
+        <v>210600</v>
       </c>
       <c r="F22" s="3">
-        <v>222000</v>
+        <v>215300</v>
       </c>
       <c r="G22" s="3">
-        <v>130500</v>
+        <v>126600</v>
       </c>
       <c r="H22" s="3">
-        <v>81700</v>
+        <v>79300</v>
       </c>
       <c r="I22" s="3">
-        <v>93900</v>
+        <v>91100</v>
       </c>
       <c r="J22" s="3">
-        <v>86600</v>
+        <v>84000</v>
       </c>
       <c r="K22" s="3">
         <v>82100</v>
@@ -1243,25 +1243,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-358700</v>
+        <v>-347800</v>
       </c>
       <c r="E23" s="3">
-        <v>-3414500</v>
+        <v>-3310900</v>
       </c>
       <c r="F23" s="3">
-        <v>-1086900</v>
+        <v>-1054000</v>
       </c>
       <c r="G23" s="3">
-        <v>-3595000</v>
+        <v>-3486000</v>
       </c>
       <c r="H23" s="3">
-        <v>4755200</v>
+        <v>4610900</v>
       </c>
       <c r="I23" s="3">
-        <v>-5655500</v>
+        <v>-5483900</v>
       </c>
       <c r="J23" s="3">
-        <v>195200</v>
+        <v>189300</v>
       </c>
       <c r="K23" s="3">
         <v>87300</v>
@@ -1282,25 +1282,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-509900</v>
+        <v>-494500</v>
       </c>
       <c r="E24" s="3">
-        <v>368400</v>
+        <v>357200</v>
       </c>
       <c r="F24" s="3">
-        <v>512400</v>
+        <v>496800</v>
       </c>
       <c r="G24" s="3">
-        <v>-623400</v>
+        <v>-604500</v>
       </c>
       <c r="H24" s="3">
-        <v>567300</v>
+        <v>550000</v>
       </c>
       <c r="I24" s="3">
-        <v>-736800</v>
+        <v>-714500</v>
       </c>
       <c r="J24" s="3">
-        <v>92700</v>
+        <v>89900</v>
       </c>
       <c r="K24" s="3">
         <v>196800</v>
@@ -1360,25 +1360,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>151300</v>
+        <v>146700</v>
       </c>
       <c r="E26" s="3">
-        <v>-3782900</v>
+        <v>-3668200</v>
       </c>
       <c r="F26" s="3">
-        <v>-1599300</v>
+        <v>-1550800</v>
       </c>
       <c r="G26" s="3">
-        <v>-2971700</v>
+        <v>-2881500</v>
       </c>
       <c r="H26" s="3">
-        <v>4187900</v>
+        <v>4060900</v>
       </c>
       <c r="I26" s="3">
-        <v>-4918600</v>
+        <v>-4769500</v>
       </c>
       <c r="J26" s="3">
-        <v>102500</v>
+        <v>99400</v>
       </c>
       <c r="K26" s="3">
         <v>-109500</v>
@@ -1399,25 +1399,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>150000</v>
+        <v>145500</v>
       </c>
       <c r="E27" s="3">
-        <v>-3784100</v>
+        <v>-3669400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1604200</v>
+        <v>-1555500</v>
       </c>
       <c r="G27" s="3">
-        <v>-2981400</v>
+        <v>-2891000</v>
       </c>
       <c r="H27" s="3">
-        <v>4186700</v>
+        <v>4059700</v>
       </c>
       <c r="I27" s="3">
-        <v>-4918600</v>
+        <v>-4769500</v>
       </c>
       <c r="J27" s="3">
-        <v>101300</v>
+        <v>98200</v>
       </c>
       <c r="K27" s="3">
         <v>-95200</v>
@@ -1477,19 +1477,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="E29" s="3">
-        <v>-83000</v>
+        <v>-80400</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>52500</v>
+        <v>50900</v>
       </c>
       <c r="H29" s="3">
-        <v>-61000</v>
+        <v>-59100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1594,25 +1594,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>745400</v>
+        <v>722800</v>
       </c>
       <c r="E32" s="3">
-        <v>774600</v>
+        <v>751100</v>
       </c>
       <c r="F32" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="G32" s="3">
-        <v>2484900</v>
+        <v>2409600</v>
       </c>
       <c r="H32" s="3">
-        <v>-3432800</v>
+        <v>-3328700</v>
       </c>
       <c r="I32" s="3">
-        <v>5611500</v>
+        <v>5441300</v>
       </c>
       <c r="J32" s="3">
-        <v>1549300</v>
+        <v>1502300</v>
       </c>
       <c r="K32" s="3">
         <v>1633400</v>
@@ -1633,25 +1633,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>146400</v>
+        <v>141900</v>
       </c>
       <c r="E33" s="3">
-        <v>-3867100</v>
+        <v>-3749800</v>
       </c>
       <c r="F33" s="3">
-        <v>-1604200</v>
+        <v>-1555500</v>
       </c>
       <c r="G33" s="3">
-        <v>-2929000</v>
+        <v>-2840100</v>
       </c>
       <c r="H33" s="3">
-        <v>4125700</v>
+        <v>4000600</v>
       </c>
       <c r="I33" s="3">
-        <v>-4918600</v>
+        <v>-4769500</v>
       </c>
       <c r="J33" s="3">
-        <v>101300</v>
+        <v>98200</v>
       </c>
       <c r="K33" s="3">
         <v>89900</v>
@@ -1711,25 +1711,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>146400</v>
+        <v>141900</v>
       </c>
       <c r="E35" s="3">
-        <v>-3867100</v>
+        <v>-3749800</v>
       </c>
       <c r="F35" s="3">
-        <v>-1604200</v>
+        <v>-1555500</v>
       </c>
       <c r="G35" s="3">
-        <v>-2929000</v>
+        <v>-2840100</v>
       </c>
       <c r="H35" s="3">
-        <v>4125700</v>
+        <v>4000600</v>
       </c>
       <c r="I35" s="3">
-        <v>-4918600</v>
+        <v>-4769500</v>
       </c>
       <c r="J35" s="3">
-        <v>101300</v>
+        <v>98200</v>
       </c>
       <c r="K35" s="3">
         <v>89900</v>
@@ -1828,25 +1828,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>921000</v>
+        <v>893100</v>
       </c>
       <c r="E41" s="3">
-        <v>1788400</v>
+        <v>1734100</v>
       </c>
       <c r="F41" s="3">
-        <v>2300700</v>
+        <v>2230900</v>
       </c>
       <c r="G41" s="3">
-        <v>2700900</v>
+        <v>2618900</v>
       </c>
       <c r="H41" s="3">
-        <v>5315100</v>
+        <v>5153900</v>
       </c>
       <c r="I41" s="3">
-        <v>5076000</v>
+        <v>4922000</v>
       </c>
       <c r="J41" s="3">
-        <v>1737100</v>
+        <v>1684400</v>
       </c>
       <c r="K41" s="3">
         <v>4112800</v>
@@ -1867,25 +1867,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2177500</v>
+        <v>2111500</v>
       </c>
       <c r="E42" s="3">
-        <v>2248300</v>
+        <v>2180100</v>
       </c>
       <c r="F42" s="3">
-        <v>3099800</v>
+        <v>3005700</v>
       </c>
       <c r="G42" s="3">
-        <v>3336400</v>
+        <v>3235200</v>
       </c>
       <c r="H42" s="3">
-        <v>1865200</v>
+        <v>1808700</v>
       </c>
       <c r="I42" s="3">
-        <v>1646900</v>
+        <v>1596900</v>
       </c>
       <c r="J42" s="3">
-        <v>2114100</v>
+        <v>2050000</v>
       </c>
       <c r="K42" s="3">
         <v>2600</v>
@@ -1906,25 +1906,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7248600</v>
+        <v>7028800</v>
       </c>
       <c r="E43" s="3">
-        <v>7542600</v>
+        <v>7313900</v>
       </c>
       <c r="F43" s="3">
-        <v>8045200</v>
+        <v>7801200</v>
       </c>
       <c r="G43" s="3">
-        <v>7548700</v>
+        <v>7319800</v>
       </c>
       <c r="H43" s="3">
-        <v>15185300</v>
+        <v>14724700</v>
       </c>
       <c r="I43" s="3">
-        <v>15064500</v>
+        <v>14607600</v>
       </c>
       <c r="J43" s="3">
-        <v>7407200</v>
+        <v>7182600</v>
       </c>
       <c r="K43" s="3">
         <v>7915400</v>
@@ -1945,25 +1945,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4472200</v>
+        <v>4336500</v>
       </c>
       <c r="E44" s="3">
-        <v>4501400</v>
+        <v>4364900</v>
       </c>
       <c r="F44" s="3">
-        <v>5270000</v>
+        <v>5110100</v>
       </c>
       <c r="G44" s="3">
-        <v>5229700</v>
+        <v>5071100</v>
       </c>
       <c r="H44" s="3">
-        <v>9393200</v>
+        <v>9108300</v>
       </c>
       <c r="I44" s="3">
-        <v>7854900</v>
+        <v>7616700</v>
       </c>
       <c r="J44" s="3">
-        <v>3216900</v>
+        <v>3119300</v>
       </c>
       <c r="K44" s="3">
         <v>3437600</v>
@@ -1984,25 +1984,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1389500</v>
+        <v>1347300</v>
       </c>
       <c r="E45" s="3">
-        <v>1401700</v>
+        <v>1359200</v>
       </c>
       <c r="F45" s="3">
-        <v>868600</v>
+        <v>842200</v>
       </c>
       <c r="G45" s="3">
-        <v>1703000</v>
+        <v>1651300</v>
       </c>
       <c r="H45" s="3">
-        <v>334300</v>
+        <v>324100</v>
       </c>
       <c r="I45" s="3">
-        <v>294000</v>
+        <v>285100</v>
       </c>
       <c r="J45" s="3">
-        <v>305000</v>
+        <v>295700</v>
       </c>
       <c r="K45" s="3">
         <v>325900</v>
@@ -2023,25 +2023,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16208800</v>
+        <v>15717200</v>
       </c>
       <c r="E46" s="3">
-        <v>17482400</v>
+        <v>16952100</v>
       </c>
       <c r="F46" s="3">
-        <v>19584300</v>
+        <v>18990300</v>
       </c>
       <c r="G46" s="3">
-        <v>20518700</v>
+        <v>19896400</v>
       </c>
       <c r="H46" s="3">
-        <v>16001400</v>
+        <v>15516100</v>
       </c>
       <c r="I46" s="3">
-        <v>14305800</v>
+        <v>13871900</v>
       </c>
       <c r="J46" s="3">
-        <v>14780300</v>
+        <v>14332000</v>
       </c>
       <c r="K46" s="3">
         <v>15794300</v>
@@ -2062,25 +2062,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>536800</v>
+        <v>520500</v>
       </c>
       <c r="E47" s="3">
-        <v>503800</v>
+        <v>488500</v>
       </c>
       <c r="F47" s="3">
-        <v>527000</v>
+        <v>511000</v>
       </c>
       <c r="G47" s="3">
-        <v>529400</v>
+        <v>513400</v>
       </c>
       <c r="H47" s="3">
-        <v>489200</v>
+        <v>474300</v>
       </c>
       <c r="I47" s="3">
-        <v>723400</v>
+        <v>701500</v>
       </c>
       <c r="J47" s="3">
-        <v>742900</v>
+        <v>720400</v>
       </c>
       <c r="K47" s="3">
         <v>793900</v>
@@ -2101,25 +2101,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6245900</v>
+        <v>6056400</v>
       </c>
       <c r="E48" s="3">
-        <v>7221800</v>
+        <v>7002800</v>
       </c>
       <c r="F48" s="3">
-        <v>8310000</v>
+        <v>8057900</v>
       </c>
       <c r="G48" s="3">
-        <v>6012900</v>
+        <v>5830500</v>
       </c>
       <c r="H48" s="3">
-        <v>5682300</v>
+        <v>5509900</v>
       </c>
       <c r="I48" s="3">
-        <v>10061700</v>
+        <v>9756600</v>
       </c>
       <c r="J48" s="3">
-        <v>4257500</v>
+        <v>4128300</v>
       </c>
       <c r="K48" s="3">
         <v>4549500</v>
@@ -2140,25 +2140,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4929600</v>
+        <v>4780100</v>
       </c>
       <c r="E49" s="3">
-        <v>6276400</v>
+        <v>6086000</v>
       </c>
       <c r="F49" s="3">
-        <v>6638700</v>
+        <v>6437300</v>
       </c>
       <c r="G49" s="3">
-        <v>6459400</v>
+        <v>6263500</v>
       </c>
       <c r="H49" s="3">
-        <v>6788700</v>
+        <v>6582800</v>
       </c>
       <c r="I49" s="3">
-        <v>11218200</v>
+        <v>10877900</v>
       </c>
       <c r="J49" s="3">
-        <v>5666400</v>
+        <v>5494600</v>
       </c>
       <c r="K49" s="3">
         <v>6055200</v>
@@ -2257,25 +2257,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7058300</v>
+        <v>6844300</v>
       </c>
       <c r="E52" s="3">
-        <v>4523400</v>
+        <v>4386200</v>
       </c>
       <c r="F52" s="3">
-        <v>4301400</v>
+        <v>4170900</v>
       </c>
       <c r="G52" s="3">
-        <v>5341900</v>
+        <v>5179900</v>
       </c>
       <c r="H52" s="3">
-        <v>5106500</v>
+        <v>4951600</v>
       </c>
       <c r="I52" s="3">
-        <v>4285500</v>
+        <v>4155500</v>
       </c>
       <c r="J52" s="3">
-        <v>1785900</v>
+        <v>1731800</v>
       </c>
       <c r="K52" s="3">
         <v>1908500</v>
@@ -2335,25 +2335,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34979400</v>
+        <v>33918500</v>
       </c>
       <c r="E54" s="3">
-        <v>36007800</v>
+        <v>34915700</v>
       </c>
       <c r="F54" s="3">
-        <v>39361300</v>
+        <v>38167500</v>
       </c>
       <c r="G54" s="3">
-        <v>38862400</v>
+        <v>37683600</v>
       </c>
       <c r="H54" s="3">
-        <v>34068100</v>
+        <v>33034800</v>
       </c>
       <c r="I54" s="3">
-        <v>29378900</v>
+        <v>28487800</v>
       </c>
       <c r="J54" s="3">
-        <v>27233000</v>
+        <v>26407100</v>
       </c>
       <c r="K54" s="3">
         <v>29101300</v>
@@ -2408,25 +2408,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2144600</v>
+        <v>2079500</v>
       </c>
       <c r="E57" s="3">
-        <v>2441000</v>
+        <v>2367000</v>
       </c>
       <c r="F57" s="3">
-        <v>3779300</v>
+        <v>3664600</v>
       </c>
       <c r="G57" s="3">
-        <v>3848800</v>
+        <v>3732000</v>
       </c>
       <c r="H57" s="3">
-        <v>16724800</v>
+        <v>16217600</v>
       </c>
       <c r="I57" s="3">
-        <v>10225200</v>
+        <v>9915100</v>
       </c>
       <c r="J57" s="3">
-        <v>1944500</v>
+        <v>1885500</v>
       </c>
       <c r="K57" s="3">
         <v>2077900</v>
@@ -2447,25 +2447,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>340400</v>
+        <v>330000</v>
       </c>
       <c r="E58" s="3">
-        <v>1551700</v>
+        <v>1504600</v>
       </c>
       <c r="F58" s="3">
-        <v>945400</v>
+        <v>916700</v>
       </c>
       <c r="G58" s="3">
-        <v>1046700</v>
+        <v>1014900</v>
       </c>
       <c r="H58" s="3">
-        <v>200100</v>
+        <v>194000</v>
       </c>
       <c r="I58" s="3">
-        <v>419600</v>
+        <v>406900</v>
       </c>
       <c r="J58" s="3">
-        <v>511100</v>
+        <v>495600</v>
       </c>
       <c r="K58" s="3">
         <v>546200</v>
@@ -2486,25 +2486,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11127900</v>
+        <v>10790400</v>
       </c>
       <c r="E59" s="3">
-        <v>12719900</v>
+        <v>12334100</v>
       </c>
       <c r="F59" s="3">
-        <v>13544500</v>
+        <v>13133700</v>
       </c>
       <c r="G59" s="3">
-        <v>13221300</v>
+        <v>12820300</v>
       </c>
       <c r="H59" s="3">
-        <v>18116700</v>
+        <v>17567200</v>
       </c>
       <c r="I59" s="3">
-        <v>13737300</v>
+        <v>13320600</v>
       </c>
       <c r="J59" s="3">
-        <v>7514600</v>
+        <v>7286700</v>
       </c>
       <c r="K59" s="3">
         <v>8030100</v>
@@ -2525,25 +2525,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13612900</v>
+        <v>13200000</v>
       </c>
       <c r="E60" s="3">
-        <v>16712600</v>
+        <v>16205700</v>
       </c>
       <c r="F60" s="3">
-        <v>18269200</v>
+        <v>17715100</v>
       </c>
       <c r="G60" s="3">
-        <v>18116700</v>
+        <v>17567200</v>
       </c>
       <c r="H60" s="3">
-        <v>15164600</v>
+        <v>14704600</v>
       </c>
       <c r="I60" s="3">
-        <v>13671400</v>
+        <v>13256800</v>
       </c>
       <c r="J60" s="3">
-        <v>9970200</v>
+        <v>9667800</v>
       </c>
       <c r="K60" s="3">
         <v>10654200</v>
@@ -2564,25 +2564,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9145600</v>
+        <v>8868200</v>
       </c>
       <c r="E61" s="3">
-        <v>7390200</v>
+        <v>7166000</v>
       </c>
       <c r="F61" s="3">
-        <v>5989700</v>
+        <v>5808000</v>
       </c>
       <c r="G61" s="3">
-        <v>4640500</v>
+        <v>4499800</v>
       </c>
       <c r="H61" s="3">
-        <v>4155000</v>
+        <v>4029000</v>
       </c>
       <c r="I61" s="3">
-        <v>3885400</v>
+        <v>3767500</v>
       </c>
       <c r="J61" s="3">
-        <v>3517000</v>
+        <v>3410300</v>
       </c>
       <c r="K61" s="3">
         <v>3758200</v>
@@ -2603,25 +2603,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16994400</v>
+        <v>16479000</v>
       </c>
       <c r="E62" s="3">
-        <v>17573900</v>
+        <v>17040900</v>
       </c>
       <c r="F62" s="3">
-        <v>19175600</v>
+        <v>18594000</v>
       </c>
       <c r="G62" s="3">
-        <v>16929800</v>
+        <v>16416300</v>
       </c>
       <c r="H62" s="3">
-        <v>21514200</v>
+        <v>20861600</v>
       </c>
       <c r="I62" s="3">
-        <v>25417800</v>
+        <v>24646900</v>
       </c>
       <c r="J62" s="3">
-        <v>7626800</v>
+        <v>7395500</v>
       </c>
       <c r="K62" s="3">
         <v>8150000</v>
@@ -2759,25 +2759,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40666600</v>
+        <v>39433200</v>
       </c>
       <c r="E66" s="3">
-        <v>41981600</v>
+        <v>40708300</v>
       </c>
       <c r="F66" s="3">
-        <v>43479700</v>
+        <v>42160900</v>
       </c>
       <c r="G66" s="3">
-        <v>40172500</v>
+        <v>38954100</v>
       </c>
       <c r="H66" s="3">
-        <v>32933600</v>
+        <v>31934800</v>
       </c>
       <c r="I66" s="3">
-        <v>32500600</v>
+        <v>31514800</v>
       </c>
       <c r="J66" s="3">
-        <v>21116500</v>
+        <v>20476000</v>
       </c>
       <c r="K66" s="3">
         <v>22565100</v>
@@ -2971,25 +2971,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9326100</v>
+        <v>-9043300</v>
       </c>
       <c r="E72" s="3">
-        <v>-9775100</v>
+        <v>-9478600</v>
       </c>
       <c r="F72" s="3">
-        <v>-5345600</v>
+        <v>-5183500</v>
       </c>
       <c r="G72" s="3">
-        <v>-2957000</v>
+        <v>-2867300</v>
       </c>
       <c r="H72" s="3">
-        <v>588000</v>
+        <v>570200</v>
       </c>
       <c r="I72" s="3">
-        <v>-3629200</v>
+        <v>-3519100</v>
       </c>
       <c r="J72" s="3">
-        <v>5571300</v>
+        <v>5402300</v>
       </c>
       <c r="K72" s="3">
         <v>5953500</v>
@@ -3127,25 +3127,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5687200</v>
+        <v>-5514700</v>
       </c>
       <c r="E76" s="3">
-        <v>-5973900</v>
+        <v>-5792700</v>
       </c>
       <c r="F76" s="3">
-        <v>-4118400</v>
+        <v>-3993500</v>
       </c>
       <c r="G76" s="3">
-        <v>-1310200</v>
+        <v>-1270400</v>
       </c>
       <c r="H76" s="3">
-        <v>1134500</v>
+        <v>1100100</v>
       </c>
       <c r="I76" s="3">
-        <v>-3121700</v>
+        <v>-3027000</v>
       </c>
       <c r="J76" s="3">
-        <v>6116600</v>
+        <v>5931100</v>
       </c>
       <c r="K76" s="3">
         <v>6536200</v>
@@ -3249,25 +3249,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>146400</v>
+        <v>141900</v>
       </c>
       <c r="E81" s="3">
-        <v>-3867100</v>
+        <v>-3749800</v>
       </c>
       <c r="F81" s="3">
-        <v>-1604200</v>
+        <v>-1555500</v>
       </c>
       <c r="G81" s="3">
-        <v>-2929000</v>
+        <v>-2840100</v>
       </c>
       <c r="H81" s="3">
-        <v>4125700</v>
+        <v>4000600</v>
       </c>
       <c r="I81" s="3">
-        <v>-4918600</v>
+        <v>-4769500</v>
       </c>
       <c r="J81" s="3">
-        <v>101300</v>
+        <v>98200</v>
       </c>
       <c r="K81" s="3">
         <v>89900</v>
@@ -3305,25 +3305,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1230900</v>
+        <v>1193500</v>
       </c>
       <c r="E83" s="3">
-        <v>2994900</v>
+        <v>2904000</v>
       </c>
       <c r="F83" s="3">
-        <v>1604200</v>
+        <v>1555500</v>
       </c>
       <c r="G83" s="3">
-        <v>1100300</v>
+        <v>1067000</v>
       </c>
       <c r="H83" s="3">
-        <v>960100</v>
+        <v>930900</v>
       </c>
       <c r="I83" s="3">
-        <v>1012500</v>
+        <v>981800</v>
       </c>
       <c r="J83" s="3">
-        <v>951500</v>
+        <v>922700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3539,25 +3539,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-316000</v>
+        <v>-306400</v>
       </c>
       <c r="E89" s="3">
-        <v>-3670700</v>
+        <v>-3559300</v>
       </c>
       <c r="F89" s="3">
-        <v>2802100</v>
+        <v>2717100</v>
       </c>
       <c r="G89" s="3">
-        <v>2715500</v>
+        <v>2633100</v>
       </c>
       <c r="H89" s="3">
-        <v>1844500</v>
+        <v>1788500</v>
       </c>
       <c r="I89" s="3">
-        <v>1721300</v>
+        <v>1669100</v>
       </c>
       <c r="J89" s="3">
-        <v>1334600</v>
+        <v>1294100</v>
       </c>
       <c r="K89" s="3">
         <v>1696000</v>
@@ -3595,25 +3595,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400100</v>
+        <v>-388000</v>
       </c>
       <c r="E91" s="3">
-        <v>-713600</v>
+        <v>-692000</v>
       </c>
       <c r="F91" s="3">
-        <v>-911300</v>
+        <v>-883600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1104000</v>
+        <v>-1070500</v>
       </c>
       <c r="H91" s="3">
-        <v>-890500</v>
+        <v>-863500</v>
       </c>
       <c r="I91" s="3">
-        <v>-713600</v>
+        <v>-692000</v>
       </c>
       <c r="J91" s="3">
-        <v>-594100</v>
+        <v>-576100</v>
       </c>
       <c r="K91" s="3">
         <v>-844700</v>
@@ -3712,25 +3712,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-522100</v>
+        <v>-506300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1232100</v>
+        <v>-1194700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1119900</v>
+        <v>-1085900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1189400</v>
+        <v>-1153300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1407800</v>
+        <v>-1365100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1662700</v>
+        <v>-1612300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1213800</v>
+        <v>-1177000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -3924,25 +3924,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-107400</v>
+        <v>-104100</v>
       </c>
       <c r="E100" s="3">
-        <v>3689000</v>
+        <v>3577100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2186100</v>
+        <v>-2119800</v>
       </c>
       <c r="G100" s="3">
-        <v>856400</v>
+        <v>830400</v>
       </c>
       <c r="H100" s="3">
-        <v>-154900</v>
+        <v>-150200</v>
       </c>
       <c r="I100" s="3">
-        <v>-901500</v>
+        <v>-874200</v>
       </c>
       <c r="J100" s="3">
-        <v>269600</v>
+        <v>261400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -3963,25 +3963,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100000</v>
+        <v>-97000</v>
       </c>
       <c r="E101" s="3">
-        <v>68300</v>
+        <v>66200</v>
       </c>
       <c r="F101" s="3">
-        <v>-126900</v>
+        <v>-123000</v>
       </c>
       <c r="G101" s="3">
-        <v>80500</v>
+        <v>78100</v>
       </c>
       <c r="H101" s="3">
-        <v>-84200</v>
+        <v>-81600</v>
       </c>
       <c r="I101" s="3">
-        <v>348900</v>
+        <v>338300</v>
       </c>
       <c r="J101" s="3">
-        <v>-7300</v>
+        <v>-7100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -4002,25 +4002,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1045500</v>
+        <v>-1013700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1145500</v>
+        <v>-1110700</v>
       </c>
       <c r="F102" s="3">
-        <v>-630700</v>
+        <v>-611600</v>
       </c>
       <c r="G102" s="3">
-        <v>2463000</v>
+        <v>2388300</v>
       </c>
       <c r="H102" s="3">
-        <v>197600</v>
+        <v>191600</v>
       </c>
       <c r="I102" s="3">
-        <v>-494100</v>
+        <v>-479100</v>
       </c>
       <c r="J102" s="3">
-        <v>383000</v>
+        <v>371400</v>
       </c>
       <c r="K102" s="3">
         <v>-1466500</v>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13269800</v>
+        <v>13139600</v>
       </c>
       <c r="E8" s="3">
-        <v>13592700</v>
+        <v>13459400</v>
       </c>
       <c r="F8" s="3">
-        <v>19620800</v>
+        <v>19428400</v>
       </c>
       <c r="G8" s="3">
-        <v>18605800</v>
+        <v>18423400</v>
       </c>
       <c r="H8" s="3">
-        <v>17444200</v>
+        <v>17273200</v>
       </c>
       <c r="I8" s="3">
-        <v>17690300</v>
+        <v>17516800</v>
       </c>
       <c r="J8" s="3">
-        <v>16235300</v>
+        <v>16076100</v>
       </c>
       <c r="K8" s="3">
         <v>17906100</v>
@@ -766,25 +766,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10743100</v>
+        <v>10637700</v>
       </c>
       <c r="E9" s="3">
-        <v>13813900</v>
+        <v>13678400</v>
       </c>
       <c r="F9" s="3">
-        <v>18506500</v>
+        <v>18325000</v>
       </c>
       <c r="G9" s="3">
-        <v>17188700</v>
+        <v>17020200</v>
       </c>
       <c r="H9" s="3">
-        <v>29382100</v>
+        <v>29093900</v>
       </c>
       <c r="I9" s="3">
-        <v>14084800</v>
+        <v>13946700</v>
       </c>
       <c r="J9" s="3">
-        <v>12372000</v>
+        <v>12250600</v>
       </c>
       <c r="K9" s="3">
         <v>13730700</v>
@@ -805,25 +805,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2526700</v>
+        <v>2501900</v>
       </c>
       <c r="E10" s="3">
-        <v>-221200</v>
+        <v>-219000</v>
       </c>
       <c r="F10" s="3">
-        <v>1114300</v>
+        <v>1103400</v>
       </c>
       <c r="G10" s="3">
-        <v>1417100</v>
+        <v>1403200</v>
       </c>
       <c r="H10" s="3">
-        <v>-11937800</v>
+        <v>-11820800</v>
       </c>
       <c r="I10" s="3">
-        <v>3605500</v>
+        <v>3570100</v>
       </c>
       <c r="J10" s="3">
-        <v>3863400</v>
+        <v>3825500</v>
       </c>
       <c r="K10" s="3">
         <v>4175400</v>
@@ -861,25 +861,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>837500</v>
+        <v>829300</v>
       </c>
       <c r="E12" s="3">
-        <v>761800</v>
+        <v>754300</v>
       </c>
       <c r="F12" s="3">
-        <v>753500</v>
+        <v>746100</v>
       </c>
       <c r="G12" s="3">
-        <v>765300</v>
+        <v>757800</v>
       </c>
       <c r="H12" s="3">
-        <v>820900</v>
+        <v>812900</v>
       </c>
       <c r="I12" s="3">
-        <v>912000</v>
+        <v>903100</v>
       </c>
       <c r="J12" s="3">
-        <v>805600</v>
+        <v>797700</v>
       </c>
       <c r="K12" s="3">
         <v>870800</v>
@@ -939,25 +939,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-66200</v>
+        <v>-65600</v>
       </c>
       <c r="E14" s="3">
-        <v>585500</v>
+        <v>579800</v>
       </c>
       <c r="F14" s="3">
-        <v>-140800</v>
+        <v>-139400</v>
       </c>
       <c r="G14" s="3">
-        <v>-415200</v>
+        <v>-411100</v>
       </c>
       <c r="H14" s="3">
-        <v>-928600</v>
+        <v>-919500</v>
       </c>
       <c r="I14" s="3">
-        <v>1159200</v>
+        <v>1147900</v>
       </c>
       <c r="J14" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K14" s="3">
         <v>9100</v>
@@ -978,25 +978,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>82800</v>
+        <v>82000</v>
       </c>
       <c r="E15" s="3">
-        <v>662400</v>
+        <v>655900</v>
       </c>
       <c r="F15" s="3">
-        <v>133700</v>
+        <v>132400</v>
       </c>
       <c r="G15" s="3">
-        <v>134900</v>
+        <v>133500</v>
       </c>
       <c r="H15" s="3">
-        <v>176300</v>
+        <v>174500</v>
       </c>
       <c r="I15" s="3">
-        <v>173900</v>
+        <v>172200</v>
       </c>
       <c r="J15" s="3">
-        <v>162100</v>
+        <v>160500</v>
       </c>
       <c r="K15" s="3">
         <v>162900</v>
@@ -1031,25 +1031,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12596700</v>
+        <v>12473200</v>
       </c>
       <c r="E17" s="3">
-        <v>15941900</v>
+        <v>15785600</v>
       </c>
       <c r="F17" s="3">
-        <v>20464200</v>
+        <v>20263500</v>
       </c>
       <c r="G17" s="3">
-        <v>19555700</v>
+        <v>19363900</v>
       </c>
       <c r="H17" s="3">
-        <v>16082700</v>
+        <v>15925000</v>
       </c>
       <c r="I17" s="3">
-        <v>17641800</v>
+        <v>17468800</v>
       </c>
       <c r="J17" s="3">
-        <v>14459800</v>
+        <v>14318000</v>
       </c>
       <c r="K17" s="3">
         <v>16103200</v>
@@ -1070,25 +1070,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>673100</v>
+        <v>666500</v>
       </c>
       <c r="E18" s="3">
-        <v>-2349200</v>
+        <v>-2326200</v>
       </c>
       <c r="F18" s="3">
-        <v>-843400</v>
+        <v>-835100</v>
       </c>
       <c r="G18" s="3">
-        <v>-949900</v>
+        <v>-940600</v>
       </c>
       <c r="H18" s="3">
-        <v>1361500</v>
+        <v>1348200</v>
       </c>
       <c r="I18" s="3">
-        <v>48500</v>
+        <v>48000</v>
       </c>
       <c r="J18" s="3">
-        <v>1775500</v>
+        <v>1758100</v>
       </c>
       <c r="K18" s="3">
         <v>1802900</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-722800</v>
+        <v>-715700</v>
       </c>
       <c r="E20" s="3">
-        <v>-751100</v>
+        <v>-743800</v>
       </c>
       <c r="F20" s="3">
         <v>4700</v>
       </c>
       <c r="G20" s="3">
-        <v>-2409600</v>
+        <v>-2385900</v>
       </c>
       <c r="H20" s="3">
-        <v>3328700</v>
+        <v>3296000</v>
       </c>
       <c r="I20" s="3">
-        <v>-5441300</v>
+        <v>-5388000</v>
       </c>
       <c r="J20" s="3">
-        <v>-1502300</v>
+        <v>-1487600</v>
       </c>
       <c r="K20" s="3">
         <v>-1633400</v>
@@ -1165,25 +1165,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1140600</v>
+        <v>1096600</v>
       </c>
       <c r="E21" s="3">
-        <v>-204200</v>
+        <v>-282100</v>
       </c>
       <c r="F21" s="3">
-        <v>712600</v>
+        <v>662900</v>
       </c>
       <c r="G21" s="3">
-        <v>-2295300</v>
+        <v>-2302200</v>
       </c>
       <c r="H21" s="3">
-        <v>5618600</v>
+        <v>5537900</v>
       </c>
       <c r="I21" s="3">
-        <v>-4413700</v>
+        <v>-4397400</v>
       </c>
       <c r="J21" s="3">
-        <v>1193400</v>
+        <v>1156300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1204,25 +1204,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>298100</v>
+        <v>295200</v>
       </c>
       <c r="E22" s="3">
-        <v>210600</v>
+        <v>208500</v>
       </c>
       <c r="F22" s="3">
-        <v>215300</v>
+        <v>213200</v>
       </c>
       <c r="G22" s="3">
-        <v>126600</v>
+        <v>125300</v>
       </c>
       <c r="H22" s="3">
-        <v>79300</v>
+        <v>78500</v>
       </c>
       <c r="I22" s="3">
-        <v>91100</v>
+        <v>90200</v>
       </c>
       <c r="J22" s="3">
-        <v>84000</v>
+        <v>83200</v>
       </c>
       <c r="K22" s="3">
         <v>82100</v>
@@ -1243,25 +1243,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-347800</v>
+        <v>-344400</v>
       </c>
       <c r="E23" s="3">
-        <v>-3310900</v>
+        <v>-3278500</v>
       </c>
       <c r="F23" s="3">
-        <v>-1054000</v>
+        <v>-1043600</v>
       </c>
       <c r="G23" s="3">
-        <v>-3486000</v>
+        <v>-3451800</v>
       </c>
       <c r="H23" s="3">
-        <v>4610900</v>
+        <v>4565700</v>
       </c>
       <c r="I23" s="3">
-        <v>-5483900</v>
+        <v>-5430100</v>
       </c>
       <c r="J23" s="3">
-        <v>189300</v>
+        <v>187400</v>
       </c>
       <c r="K23" s="3">
         <v>87300</v>
@@ -1282,25 +1282,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-494500</v>
+        <v>-489600</v>
       </c>
       <c r="E24" s="3">
-        <v>357200</v>
+        <v>353700</v>
       </c>
       <c r="F24" s="3">
-        <v>496800</v>
+        <v>491900</v>
       </c>
       <c r="G24" s="3">
-        <v>-604500</v>
+        <v>-598500</v>
       </c>
       <c r="H24" s="3">
-        <v>550000</v>
+        <v>544700</v>
       </c>
       <c r="I24" s="3">
-        <v>-714500</v>
+        <v>-707500</v>
       </c>
       <c r="J24" s="3">
-        <v>89900</v>
+        <v>89000</v>
       </c>
       <c r="K24" s="3">
         <v>196800</v>
@@ -1360,25 +1360,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>146700</v>
+        <v>145200</v>
       </c>
       <c r="E26" s="3">
-        <v>-3668200</v>
+        <v>-3632200</v>
       </c>
       <c r="F26" s="3">
-        <v>-1550800</v>
+        <v>-1535600</v>
       </c>
       <c r="G26" s="3">
-        <v>-2881500</v>
+        <v>-2853300</v>
       </c>
       <c r="H26" s="3">
-        <v>4060900</v>
+        <v>4021100</v>
       </c>
       <c r="I26" s="3">
-        <v>-4769500</v>
+        <v>-4722700</v>
       </c>
       <c r="J26" s="3">
-        <v>99400</v>
+        <v>98400</v>
       </c>
       <c r="K26" s="3">
         <v>-109500</v>
@@ -1399,25 +1399,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>145500</v>
+        <v>144100</v>
       </c>
       <c r="E27" s="3">
-        <v>-3669400</v>
+        <v>-3633400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1555500</v>
+        <v>-1540300</v>
       </c>
       <c r="G27" s="3">
-        <v>-2891000</v>
+        <v>-2862700</v>
       </c>
       <c r="H27" s="3">
-        <v>4059700</v>
+        <v>4019900</v>
       </c>
       <c r="I27" s="3">
-        <v>-4769500</v>
+        <v>-4722700</v>
       </c>
       <c r="J27" s="3">
-        <v>98200</v>
+        <v>97200</v>
       </c>
       <c r="K27" s="3">
         <v>-95200</v>
@@ -1480,16 +1480,16 @@
         <v>-3500</v>
       </c>
       <c r="E29" s="3">
-        <v>-80400</v>
+        <v>-79600</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>50900</v>
+        <v>50400</v>
       </c>
       <c r="H29" s="3">
-        <v>-59100</v>
+        <v>-58600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1594,25 +1594,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>722800</v>
+        <v>715700</v>
       </c>
       <c r="E32" s="3">
-        <v>751100</v>
+        <v>743800</v>
       </c>
       <c r="F32" s="3">
         <v>-4700</v>
       </c>
       <c r="G32" s="3">
-        <v>2409600</v>
+        <v>2385900</v>
       </c>
       <c r="H32" s="3">
-        <v>-3328700</v>
+        <v>-3296000</v>
       </c>
       <c r="I32" s="3">
-        <v>5441300</v>
+        <v>5388000</v>
       </c>
       <c r="J32" s="3">
-        <v>1502300</v>
+        <v>1487600</v>
       </c>
       <c r="K32" s="3">
         <v>1633400</v>
@@ -1633,25 +1633,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>141900</v>
+        <v>140600</v>
       </c>
       <c r="E33" s="3">
-        <v>-3749800</v>
+        <v>-3713000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1555500</v>
+        <v>-1540300</v>
       </c>
       <c r="G33" s="3">
-        <v>-2840100</v>
+        <v>-2812300</v>
       </c>
       <c r="H33" s="3">
-        <v>4000600</v>
+        <v>3961300</v>
       </c>
       <c r="I33" s="3">
-        <v>-4769500</v>
+        <v>-4722700</v>
       </c>
       <c r="J33" s="3">
-        <v>98200</v>
+        <v>97200</v>
       </c>
       <c r="K33" s="3">
         <v>89900</v>
@@ -1711,25 +1711,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>141900</v>
+        <v>140600</v>
       </c>
       <c r="E35" s="3">
-        <v>-3749800</v>
+        <v>-3713000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1555500</v>
+        <v>-1540300</v>
       </c>
       <c r="G35" s="3">
-        <v>-2840100</v>
+        <v>-2812300</v>
       </c>
       <c r="H35" s="3">
-        <v>4000600</v>
+        <v>3961300</v>
       </c>
       <c r="I35" s="3">
-        <v>-4769500</v>
+        <v>-4722700</v>
       </c>
       <c r="J35" s="3">
-        <v>98200</v>
+        <v>97200</v>
       </c>
       <c r="K35" s="3">
         <v>89900</v>
@@ -1828,25 +1828,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>893100</v>
+        <v>884300</v>
       </c>
       <c r="E41" s="3">
-        <v>1734100</v>
+        <v>1717100</v>
       </c>
       <c r="F41" s="3">
-        <v>2230900</v>
+        <v>2209100</v>
       </c>
       <c r="G41" s="3">
-        <v>2618900</v>
+        <v>2593300</v>
       </c>
       <c r="H41" s="3">
-        <v>5153900</v>
+        <v>5103400</v>
       </c>
       <c r="I41" s="3">
-        <v>4922000</v>
+        <v>4873800</v>
       </c>
       <c r="J41" s="3">
-        <v>1684400</v>
+        <v>1667900</v>
       </c>
       <c r="K41" s="3">
         <v>4112800</v>
@@ -1867,25 +1867,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2111500</v>
+        <v>2090800</v>
       </c>
       <c r="E42" s="3">
-        <v>2180100</v>
+        <v>2158700</v>
       </c>
       <c r="F42" s="3">
-        <v>3005700</v>
+        <v>2976300</v>
       </c>
       <c r="G42" s="3">
-        <v>3235200</v>
+        <v>3203500</v>
       </c>
       <c r="H42" s="3">
-        <v>1808700</v>
+        <v>1790900</v>
       </c>
       <c r="I42" s="3">
-        <v>1596900</v>
+        <v>1581300</v>
       </c>
       <c r="J42" s="3">
-        <v>2050000</v>
+        <v>2029900</v>
       </c>
       <c r="K42" s="3">
         <v>2600</v>
@@ -1906,25 +1906,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7028800</v>
+        <v>6959900</v>
       </c>
       <c r="E43" s="3">
-        <v>7313900</v>
+        <v>7242100</v>
       </c>
       <c r="F43" s="3">
-        <v>7801200</v>
+        <v>7724700</v>
       </c>
       <c r="G43" s="3">
-        <v>7319800</v>
+        <v>7248000</v>
       </c>
       <c r="H43" s="3">
-        <v>14724700</v>
+        <v>14580300</v>
       </c>
       <c r="I43" s="3">
-        <v>14607600</v>
+        <v>14464400</v>
       </c>
       <c r="J43" s="3">
-        <v>7182600</v>
+        <v>7112100</v>
       </c>
       <c r="K43" s="3">
         <v>7915400</v>
@@ -1945,25 +1945,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4336500</v>
+        <v>4294000</v>
       </c>
       <c r="E44" s="3">
-        <v>4364900</v>
+        <v>4322100</v>
       </c>
       <c r="F44" s="3">
-        <v>5110100</v>
+        <v>5060000</v>
       </c>
       <c r="G44" s="3">
-        <v>5071100</v>
+        <v>5021400</v>
       </c>
       <c r="H44" s="3">
-        <v>9108300</v>
+        <v>9019000</v>
       </c>
       <c r="I44" s="3">
-        <v>7616700</v>
+        <v>7542000</v>
       </c>
       <c r="J44" s="3">
-        <v>3119300</v>
+        <v>3088700</v>
       </c>
       <c r="K44" s="3">
         <v>3437600</v>
@@ -1984,25 +1984,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1347300</v>
+        <v>1334100</v>
       </c>
       <c r="E45" s="3">
-        <v>1359200</v>
+        <v>1345800</v>
       </c>
       <c r="F45" s="3">
-        <v>842200</v>
+        <v>834000</v>
       </c>
       <c r="G45" s="3">
-        <v>1651300</v>
+        <v>1635100</v>
       </c>
       <c r="H45" s="3">
-        <v>324100</v>
+        <v>320900</v>
       </c>
       <c r="I45" s="3">
-        <v>285100</v>
+        <v>282300</v>
       </c>
       <c r="J45" s="3">
-        <v>295700</v>
+        <v>292800</v>
       </c>
       <c r="K45" s="3">
         <v>325900</v>
@@ -2023,25 +2023,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15717200</v>
+        <v>15563100</v>
       </c>
       <c r="E46" s="3">
-        <v>16952100</v>
+        <v>16785900</v>
       </c>
       <c r="F46" s="3">
-        <v>18990300</v>
+        <v>18804100</v>
       </c>
       <c r="G46" s="3">
-        <v>19896400</v>
+        <v>19701300</v>
       </c>
       <c r="H46" s="3">
-        <v>15516100</v>
+        <v>15363900</v>
       </c>
       <c r="I46" s="3">
-        <v>13871900</v>
+        <v>13735800</v>
       </c>
       <c r="J46" s="3">
-        <v>14332000</v>
+        <v>14191500</v>
       </c>
       <c r="K46" s="3">
         <v>15794300</v>
@@ -2062,25 +2062,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>520500</v>
+        <v>515400</v>
       </c>
       <c r="E47" s="3">
-        <v>488500</v>
+        <v>483700</v>
       </c>
       <c r="F47" s="3">
-        <v>511000</v>
+        <v>506000</v>
       </c>
       <c r="G47" s="3">
-        <v>513400</v>
+        <v>508300</v>
       </c>
       <c r="H47" s="3">
-        <v>474300</v>
+        <v>469700</v>
       </c>
       <c r="I47" s="3">
-        <v>701500</v>
+        <v>694600</v>
       </c>
       <c r="J47" s="3">
-        <v>720400</v>
+        <v>713300</v>
       </c>
       <c r="K47" s="3">
         <v>793900</v>
@@ -2101,25 +2101,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6056400</v>
+        <v>5997100</v>
       </c>
       <c r="E48" s="3">
-        <v>7002800</v>
+        <v>6934100</v>
       </c>
       <c r="F48" s="3">
-        <v>8057900</v>
+        <v>7978900</v>
       </c>
       <c r="G48" s="3">
-        <v>5830500</v>
+        <v>5773300</v>
       </c>
       <c r="H48" s="3">
-        <v>5509900</v>
+        <v>5455900</v>
       </c>
       <c r="I48" s="3">
-        <v>9756600</v>
+        <v>9660900</v>
       </c>
       <c r="J48" s="3">
-        <v>4128300</v>
+        <v>4087800</v>
       </c>
       <c r="K48" s="3">
         <v>4549500</v>
@@ -2140,25 +2140,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4780100</v>
+        <v>4733200</v>
       </c>
       <c r="E49" s="3">
-        <v>6086000</v>
+        <v>6026300</v>
       </c>
       <c r="F49" s="3">
-        <v>6437300</v>
+        <v>6374200</v>
       </c>
       <c r="G49" s="3">
-        <v>6263500</v>
+        <v>6202000</v>
       </c>
       <c r="H49" s="3">
-        <v>6582800</v>
+        <v>6518300</v>
       </c>
       <c r="I49" s="3">
-        <v>10877900</v>
+        <v>10771300</v>
       </c>
       <c r="J49" s="3">
-        <v>5494600</v>
+        <v>5440700</v>
       </c>
       <c r="K49" s="3">
         <v>6055200</v>
@@ -2257,25 +2257,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6844300</v>
+        <v>6777100</v>
       </c>
       <c r="E52" s="3">
-        <v>4386200</v>
+        <v>4343200</v>
       </c>
       <c r="F52" s="3">
-        <v>4170900</v>
+        <v>4130000</v>
       </c>
       <c r="G52" s="3">
-        <v>5179900</v>
+        <v>5129100</v>
       </c>
       <c r="H52" s="3">
-        <v>4951600</v>
+        <v>4903100</v>
       </c>
       <c r="I52" s="3">
-        <v>4155500</v>
+        <v>4114800</v>
       </c>
       <c r="J52" s="3">
-        <v>1731800</v>
+        <v>1714800</v>
       </c>
       <c r="K52" s="3">
         <v>1908500</v>
@@ -2335,25 +2335,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33918500</v>
+        <v>33585900</v>
       </c>
       <c r="E54" s="3">
-        <v>34915700</v>
+        <v>34573300</v>
       </c>
       <c r="F54" s="3">
-        <v>38167500</v>
+        <v>37793200</v>
       </c>
       <c r="G54" s="3">
-        <v>37683600</v>
+        <v>37314100</v>
       </c>
       <c r="H54" s="3">
-        <v>33034800</v>
+        <v>32710900</v>
       </c>
       <c r="I54" s="3">
-        <v>28487800</v>
+        <v>28208400</v>
       </c>
       <c r="J54" s="3">
-        <v>26407100</v>
+        <v>26148100</v>
       </c>
       <c r="K54" s="3">
         <v>29101300</v>
@@ -2408,25 +2408,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2079500</v>
+        <v>2059100</v>
       </c>
       <c r="E57" s="3">
-        <v>2367000</v>
+        <v>2343800</v>
       </c>
       <c r="F57" s="3">
-        <v>3664600</v>
+        <v>3628700</v>
       </c>
       <c r="G57" s="3">
-        <v>3732000</v>
+        <v>3695500</v>
       </c>
       <c r="H57" s="3">
-        <v>16217600</v>
+        <v>16058500</v>
       </c>
       <c r="I57" s="3">
-        <v>9915100</v>
+        <v>9817800</v>
       </c>
       <c r="J57" s="3">
-        <v>1885500</v>
+        <v>1867100</v>
       </c>
       <c r="K57" s="3">
         <v>2077900</v>
@@ -2447,25 +2447,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>330000</v>
+        <v>326800</v>
       </c>
       <c r="E58" s="3">
-        <v>1504600</v>
+        <v>1489900</v>
       </c>
       <c r="F58" s="3">
-        <v>916700</v>
+        <v>907800</v>
       </c>
       <c r="G58" s="3">
-        <v>1014900</v>
+        <v>1005000</v>
       </c>
       <c r="H58" s="3">
-        <v>194000</v>
+        <v>192100</v>
       </c>
       <c r="I58" s="3">
-        <v>406900</v>
+        <v>402900</v>
       </c>
       <c r="J58" s="3">
-        <v>495600</v>
+        <v>490800</v>
       </c>
       <c r="K58" s="3">
         <v>546200</v>
@@ -2486,25 +2486,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10790400</v>
+        <v>10684600</v>
       </c>
       <c r="E59" s="3">
-        <v>12334100</v>
+        <v>12213100</v>
       </c>
       <c r="F59" s="3">
-        <v>13133700</v>
+        <v>13004900</v>
       </c>
       <c r="G59" s="3">
-        <v>12820300</v>
+        <v>12694500</v>
       </c>
       <c r="H59" s="3">
-        <v>17567200</v>
+        <v>17395000</v>
       </c>
       <c r="I59" s="3">
-        <v>13320600</v>
+        <v>13190000</v>
       </c>
       <c r="J59" s="3">
-        <v>7286700</v>
+        <v>7215200</v>
       </c>
       <c r="K59" s="3">
         <v>8030100</v>
@@ -2525,25 +2525,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13200000</v>
+        <v>13070500</v>
       </c>
       <c r="E60" s="3">
-        <v>16205700</v>
+        <v>16046800</v>
       </c>
       <c r="F60" s="3">
-        <v>17715100</v>
+        <v>17541400</v>
       </c>
       <c r="G60" s="3">
-        <v>17567200</v>
+        <v>17395000</v>
       </c>
       <c r="H60" s="3">
-        <v>14704600</v>
+        <v>14560400</v>
       </c>
       <c r="I60" s="3">
-        <v>13256800</v>
+        <v>13126800</v>
       </c>
       <c r="J60" s="3">
-        <v>9667800</v>
+        <v>9573000</v>
       </c>
       <c r="K60" s="3">
         <v>10654200</v>
@@ -2564,25 +2564,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8868200</v>
+        <v>8781200</v>
       </c>
       <c r="E61" s="3">
-        <v>7166000</v>
+        <v>7095700</v>
       </c>
       <c r="F61" s="3">
-        <v>5808000</v>
+        <v>5751100</v>
       </c>
       <c r="G61" s="3">
-        <v>4499800</v>
+        <v>4455600</v>
       </c>
       <c r="H61" s="3">
-        <v>4029000</v>
+        <v>3989400</v>
       </c>
       <c r="I61" s="3">
-        <v>3767500</v>
+        <v>3730600</v>
       </c>
       <c r="J61" s="3">
-        <v>3410300</v>
+        <v>3376900</v>
       </c>
       <c r="K61" s="3">
         <v>3758200</v>
@@ -2603,25 +2603,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16479000</v>
+        <v>16317400</v>
       </c>
       <c r="E62" s="3">
-        <v>17040900</v>
+        <v>16873700</v>
       </c>
       <c r="F62" s="3">
-        <v>18594000</v>
+        <v>18411700</v>
       </c>
       <c r="G62" s="3">
-        <v>16416300</v>
+        <v>16255300</v>
       </c>
       <c r="H62" s="3">
-        <v>20861600</v>
+        <v>20657000</v>
       </c>
       <c r="I62" s="3">
-        <v>24646900</v>
+        <v>24405200</v>
       </c>
       <c r="J62" s="3">
-        <v>7395500</v>
+        <v>7323000</v>
       </c>
       <c r="K62" s="3">
         <v>8150000</v>
@@ -2759,25 +2759,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39433200</v>
+        <v>39046500</v>
       </c>
       <c r="E66" s="3">
-        <v>40708300</v>
+        <v>40309100</v>
       </c>
       <c r="F66" s="3">
-        <v>42160900</v>
+        <v>41747500</v>
       </c>
       <c r="G66" s="3">
-        <v>38954100</v>
+        <v>38572100</v>
       </c>
       <c r="H66" s="3">
-        <v>31934800</v>
+        <v>31621600</v>
       </c>
       <c r="I66" s="3">
-        <v>31514800</v>
+        <v>31205800</v>
       </c>
       <c r="J66" s="3">
-        <v>20476000</v>
+        <v>20275200</v>
       </c>
       <c r="K66" s="3">
         <v>22565100</v>
@@ -2971,25 +2971,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9043300</v>
+        <v>-8954600</v>
       </c>
       <c r="E72" s="3">
-        <v>-9478600</v>
+        <v>-9385600</v>
       </c>
       <c r="F72" s="3">
-        <v>-5183500</v>
+        <v>-5132600</v>
       </c>
       <c r="G72" s="3">
-        <v>-2867300</v>
+        <v>-2839200</v>
       </c>
       <c r="H72" s="3">
-        <v>570200</v>
+        <v>564600</v>
       </c>
       <c r="I72" s="3">
-        <v>-3519100</v>
+        <v>-3484600</v>
       </c>
       <c r="J72" s="3">
-        <v>5402300</v>
+        <v>5349300</v>
       </c>
       <c r="K72" s="3">
         <v>5953500</v>
@@ -3127,25 +3127,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5514700</v>
+        <v>-5460600</v>
       </c>
       <c r="E76" s="3">
-        <v>-5792700</v>
+        <v>-5735900</v>
       </c>
       <c r="F76" s="3">
-        <v>-3993500</v>
+        <v>-3954300</v>
       </c>
       <c r="G76" s="3">
-        <v>-1270400</v>
+        <v>-1258000</v>
       </c>
       <c r="H76" s="3">
-        <v>1100100</v>
+        <v>1089300</v>
       </c>
       <c r="I76" s="3">
-        <v>-3027000</v>
+        <v>-2997400</v>
       </c>
       <c r="J76" s="3">
-        <v>5931100</v>
+        <v>5872900</v>
       </c>
       <c r="K76" s="3">
         <v>6536200</v>
@@ -3249,25 +3249,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>141900</v>
+        <v>140600</v>
       </c>
       <c r="E81" s="3">
-        <v>-3749800</v>
+        <v>-3713000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1555500</v>
+        <v>-1540300</v>
       </c>
       <c r="G81" s="3">
-        <v>-2840100</v>
+        <v>-2812300</v>
       </c>
       <c r="H81" s="3">
-        <v>4000600</v>
+        <v>3961300</v>
       </c>
       <c r="I81" s="3">
-        <v>-4769500</v>
+        <v>-4722700</v>
       </c>
       <c r="J81" s="3">
-        <v>98200</v>
+        <v>97200</v>
       </c>
       <c r="K81" s="3">
         <v>89900</v>
@@ -3305,25 +3305,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1193500</v>
+        <v>1181800</v>
       </c>
       <c r="E83" s="3">
-        <v>2904000</v>
+        <v>2875500</v>
       </c>
       <c r="F83" s="3">
-        <v>1555500</v>
+        <v>1540300</v>
       </c>
       <c r="G83" s="3">
-        <v>1067000</v>
+        <v>1056500</v>
       </c>
       <c r="H83" s="3">
-        <v>930900</v>
+        <v>921800</v>
       </c>
       <c r="I83" s="3">
-        <v>981800</v>
+        <v>972200</v>
       </c>
       <c r="J83" s="3">
-        <v>922700</v>
+        <v>913600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3539,25 +3539,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-306400</v>
+        <v>-303400</v>
       </c>
       <c r="E89" s="3">
-        <v>-3559300</v>
+        <v>-3524400</v>
       </c>
       <c r="F89" s="3">
-        <v>2717100</v>
+        <v>2690500</v>
       </c>
       <c r="G89" s="3">
-        <v>2633100</v>
+        <v>2607300</v>
       </c>
       <c r="H89" s="3">
-        <v>1788500</v>
+        <v>1771000</v>
       </c>
       <c r="I89" s="3">
-        <v>1669100</v>
+        <v>1652700</v>
       </c>
       <c r="J89" s="3">
-        <v>1294100</v>
+        <v>1281400</v>
       </c>
       <c r="K89" s="3">
         <v>1696000</v>
@@ -3595,25 +3595,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-388000</v>
+        <v>-384200</v>
       </c>
       <c r="E91" s="3">
-        <v>-692000</v>
+        <v>-685200</v>
       </c>
       <c r="F91" s="3">
-        <v>-883600</v>
+        <v>-875000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1070500</v>
+        <v>-1060000</v>
       </c>
       <c r="H91" s="3">
-        <v>-863500</v>
+        <v>-855000</v>
       </c>
       <c r="I91" s="3">
-        <v>-692000</v>
+        <v>-685200</v>
       </c>
       <c r="J91" s="3">
-        <v>-576100</v>
+        <v>-570400</v>
       </c>
       <c r="K91" s="3">
         <v>-844700</v>
@@ -3712,25 +3712,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-506300</v>
+        <v>-501300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1194700</v>
+        <v>-1183000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1085900</v>
+        <v>-1075300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1153300</v>
+        <v>-1142000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1365100</v>
+        <v>-1351700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1612300</v>
+        <v>-1596500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1177000</v>
+        <v>-1165400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -3924,25 +3924,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-104100</v>
+        <v>-103100</v>
       </c>
       <c r="E100" s="3">
-        <v>3577100</v>
+        <v>3542000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2119800</v>
+        <v>-2099000</v>
       </c>
       <c r="G100" s="3">
-        <v>830400</v>
+        <v>822300</v>
       </c>
       <c r="H100" s="3">
-        <v>-150200</v>
+        <v>-148800</v>
       </c>
       <c r="I100" s="3">
-        <v>-874200</v>
+        <v>-865600</v>
       </c>
       <c r="J100" s="3">
-        <v>261400</v>
+        <v>258900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -3963,25 +3963,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-97000</v>
+        <v>-96000</v>
       </c>
       <c r="E101" s="3">
-        <v>66200</v>
+        <v>65600</v>
       </c>
       <c r="F101" s="3">
-        <v>-123000</v>
+        <v>-121800</v>
       </c>
       <c r="G101" s="3">
-        <v>78100</v>
+        <v>77300</v>
       </c>
       <c r="H101" s="3">
-        <v>-81600</v>
+        <v>-80800</v>
       </c>
       <c r="I101" s="3">
-        <v>338300</v>
+        <v>335000</v>
       </c>
       <c r="J101" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -4002,25 +4002,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1013700</v>
+        <v>-1003800</v>
       </c>
       <c r="E102" s="3">
-        <v>-1110700</v>
+        <v>-1099900</v>
       </c>
       <c r="F102" s="3">
-        <v>-611600</v>
+        <v>-605600</v>
       </c>
       <c r="G102" s="3">
-        <v>2388300</v>
+        <v>2364900</v>
       </c>
       <c r="H102" s="3">
-        <v>191600</v>
+        <v>189800</v>
       </c>
       <c r="I102" s="3">
-        <v>-479100</v>
+        <v>-474400</v>
       </c>
       <c r="J102" s="3">
-        <v>371400</v>
+        <v>367800</v>
       </c>
       <c r="K102" s="3">
         <v>-1466500</v>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13139600</v>
+        <v>16122700</v>
       </c>
       <c r="E8" s="3">
-        <v>13459400</v>
+        <v>13377600</v>
       </c>
       <c r="F8" s="3">
-        <v>19428400</v>
+        <v>13703100</v>
       </c>
       <c r="G8" s="3">
-        <v>18423400</v>
+        <v>19780200</v>
       </c>
       <c r="H8" s="3">
-        <v>17273200</v>
+        <v>18757000</v>
       </c>
       <c r="I8" s="3">
-        <v>17516800</v>
+        <v>17585900</v>
       </c>
       <c r="J8" s="3">
+        <v>17834000</v>
+      </c>
+      <c r="K8" s="3">
         <v>16076100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17906100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20106200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15721900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14648000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10637700</v>
+        <v>12835000</v>
       </c>
       <c r="E9" s="3">
-        <v>13678400</v>
+        <v>10830400</v>
       </c>
       <c r="F9" s="3">
-        <v>18325000</v>
+        <v>13926100</v>
       </c>
       <c r="G9" s="3">
-        <v>17020200</v>
+        <v>18656800</v>
       </c>
       <c r="H9" s="3">
-        <v>29093900</v>
+        <v>17328400</v>
       </c>
       <c r="I9" s="3">
-        <v>13946700</v>
+        <v>29620800</v>
       </c>
       <c r="J9" s="3">
+        <v>14199200</v>
+      </c>
+      <c r="K9" s="3">
         <v>12250600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13730700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32486900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12193800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11424500</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2501900</v>
+        <v>3287800</v>
       </c>
       <c r="E10" s="3">
-        <v>-219000</v>
+        <v>2547200</v>
       </c>
       <c r="F10" s="3">
-        <v>1103400</v>
+        <v>-223000</v>
       </c>
       <c r="G10" s="3">
-        <v>1403200</v>
+        <v>1123300</v>
       </c>
       <c r="H10" s="3">
-        <v>-11820800</v>
+        <v>1428600</v>
       </c>
       <c r="I10" s="3">
-        <v>3570100</v>
+        <v>-12034800</v>
       </c>
       <c r="J10" s="3">
+        <v>3634800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3825500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4175400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-12380700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3528100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3223500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,47 +868,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>829300</v>
+        <v>950400</v>
       </c>
       <c r="E12" s="3">
-        <v>754300</v>
+        <v>844300</v>
       </c>
       <c r="F12" s="3">
-        <v>746100</v>
+        <v>768000</v>
       </c>
       <c r="G12" s="3">
-        <v>757800</v>
+        <v>759600</v>
       </c>
       <c r="H12" s="3">
-        <v>812900</v>
+        <v>771600</v>
       </c>
       <c r="I12" s="3">
-        <v>903100</v>
+        <v>827600</v>
       </c>
       <c r="J12" s="3">
+        <v>919400</v>
+      </c>
+      <c r="K12" s="3">
         <v>797700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>870800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1658800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1447900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>609700</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,87 +949,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-65600</v>
+        <v>-96600</v>
       </c>
       <c r="E14" s="3">
-        <v>579800</v>
+        <v>-66800</v>
       </c>
       <c r="F14" s="3">
-        <v>-139400</v>
+        <v>590300</v>
       </c>
       <c r="G14" s="3">
-        <v>-411100</v>
+        <v>-141900</v>
       </c>
       <c r="H14" s="3">
-        <v>-919500</v>
+        <v>-418600</v>
       </c>
       <c r="I14" s="3">
-        <v>1147900</v>
+        <v>-936100</v>
       </c>
       <c r="J14" s="3">
+        <v>1168700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-473800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-903700</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>82000</v>
+        <v>112100</v>
       </c>
       <c r="E15" s="3">
-        <v>655900</v>
+        <v>83500</v>
       </c>
       <c r="F15" s="3">
-        <v>132400</v>
+        <v>667800</v>
       </c>
       <c r="G15" s="3">
-        <v>133500</v>
+        <v>134800</v>
       </c>
       <c r="H15" s="3">
-        <v>174500</v>
+        <v>135900</v>
       </c>
       <c r="I15" s="3">
-        <v>172200</v>
+        <v>177700</v>
       </c>
       <c r="J15" s="3">
+        <v>175300</v>
+      </c>
+      <c r="K15" s="3">
         <v>160500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>162900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>178500</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,86 +1051,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12473200</v>
+        <v>15028000</v>
       </c>
       <c r="E17" s="3">
-        <v>15785600</v>
+        <v>12699000</v>
       </c>
       <c r="F17" s="3">
-        <v>20263500</v>
+        <v>16071500</v>
       </c>
       <c r="G17" s="3">
-        <v>19363900</v>
+        <v>20630400</v>
       </c>
       <c r="H17" s="3">
-        <v>15925000</v>
+        <v>19714600</v>
       </c>
       <c r="I17" s="3">
-        <v>17468800</v>
+        <v>16213400</v>
       </c>
       <c r="J17" s="3">
+        <v>17785100</v>
+      </c>
+      <c r="K17" s="3">
         <v>14318000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16103200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17655100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13036700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13086300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>666500</v>
+        <v>1094700</v>
       </c>
       <c r="E18" s="3">
-        <v>-2326200</v>
+        <v>678500</v>
       </c>
       <c r="F18" s="3">
-        <v>-835100</v>
+        <v>-2368300</v>
       </c>
       <c r="G18" s="3">
-        <v>-940600</v>
+        <v>-850300</v>
       </c>
       <c r="H18" s="3">
-        <v>1348200</v>
+        <v>-957600</v>
       </c>
       <c r="I18" s="3">
-        <v>48000</v>
+        <v>1372600</v>
       </c>
       <c r="J18" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1758100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1802900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2451100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2685200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1561700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1120,203 +1153,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-715700</v>
+        <v>-2476800</v>
       </c>
       <c r="E20" s="3">
-        <v>-743800</v>
+        <v>-728600</v>
       </c>
       <c r="F20" s="3">
-        <v>4700</v>
+        <v>-757200</v>
       </c>
       <c r="G20" s="3">
-        <v>-2385900</v>
+        <v>4800</v>
       </c>
       <c r="H20" s="3">
-        <v>3296000</v>
+        <v>-2429100</v>
       </c>
       <c r="I20" s="3">
-        <v>-5388000</v>
+        <v>3355700</v>
       </c>
       <c r="J20" s="3">
+        <v>-5485500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1487600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1633400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-37100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>956700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-39500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1096600</v>
+        <v>-193200</v>
       </c>
       <c r="E21" s="3">
-        <v>-282100</v>
+        <v>1144800</v>
       </c>
       <c r="F21" s="3">
-        <v>662900</v>
+        <v>-218400</v>
       </c>
       <c r="G21" s="3">
-        <v>-2302200</v>
+        <v>711700</v>
       </c>
       <c r="H21" s="3">
-        <v>5537900</v>
+        <v>-2318600</v>
       </c>
       <c r="I21" s="3">
-        <v>-4397400</v>
+        <v>5660300</v>
       </c>
       <c r="J21" s="3">
+        <v>-4453800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1156300</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3">
         <v>4274900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2060100</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>295200</v>
+        <v>409000</v>
       </c>
       <c r="E22" s="3">
-        <v>208500</v>
+        <v>300500</v>
       </c>
       <c r="F22" s="3">
-        <v>213200</v>
+        <v>212300</v>
       </c>
       <c r="G22" s="3">
-        <v>125300</v>
+        <v>217000</v>
       </c>
       <c r="H22" s="3">
-        <v>78500</v>
+        <v>127600</v>
       </c>
       <c r="I22" s="3">
-        <v>90200</v>
+        <v>79900</v>
       </c>
       <c r="J22" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K22" s="3">
         <v>83200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>82100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>79600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>65900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>67200</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-344400</v>
+        <v>-1791200</v>
       </c>
       <c r="E23" s="3">
-        <v>-3278500</v>
+        <v>-350600</v>
       </c>
       <c r="F23" s="3">
-        <v>-1043600</v>
+        <v>-3337800</v>
       </c>
       <c r="G23" s="3">
-        <v>-3451800</v>
+        <v>-1062500</v>
       </c>
       <c r="H23" s="3">
-        <v>4565700</v>
+        <v>-3514300</v>
       </c>
       <c r="I23" s="3">
-        <v>-5430100</v>
+        <v>4648400</v>
       </c>
       <c r="J23" s="3">
+        <v>-5528500</v>
+      </c>
+      <c r="K23" s="3">
         <v>187400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>87300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2334400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3575900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1455100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-489600</v>
+        <v>-367300</v>
       </c>
       <c r="E24" s="3">
-        <v>353700</v>
+        <v>-498500</v>
       </c>
       <c r="F24" s="3">
-        <v>491900</v>
+        <v>360100</v>
       </c>
       <c r="G24" s="3">
-        <v>-598500</v>
+        <v>500900</v>
       </c>
       <c r="H24" s="3">
-        <v>544700</v>
+        <v>-609400</v>
       </c>
       <c r="I24" s="3">
-        <v>-707500</v>
+        <v>554500</v>
       </c>
       <c r="J24" s="3">
+        <v>-720300</v>
+      </c>
+      <c r="K24" s="3">
         <v>89000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>196800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>517700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>557200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>338400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1353,87 +1402,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>145200</v>
+        <v>-1423900</v>
       </c>
       <c r="E26" s="3">
-        <v>-3632200</v>
+        <v>147900</v>
       </c>
       <c r="F26" s="3">
-        <v>-1535600</v>
+        <v>-3698000</v>
       </c>
       <c r="G26" s="3">
-        <v>-2853300</v>
+        <v>-1563400</v>
       </c>
       <c r="H26" s="3">
-        <v>4021100</v>
+        <v>-2905000</v>
       </c>
       <c r="I26" s="3">
-        <v>-4722700</v>
+        <v>4093900</v>
       </c>
       <c r="J26" s="3">
+        <v>-4808200</v>
+      </c>
+      <c r="K26" s="3">
         <v>98400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-109500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1816700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3018700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1116600</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>144100</v>
+        <v>-1417900</v>
       </c>
       <c r="E27" s="3">
-        <v>-3633400</v>
+        <v>146700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1540300</v>
+        <v>-3699200</v>
       </c>
       <c r="G27" s="3">
-        <v>-2862700</v>
+        <v>-1568200</v>
       </c>
       <c r="H27" s="3">
-        <v>4019900</v>
+        <v>-2914500</v>
       </c>
       <c r="I27" s="3">
-        <v>-4722700</v>
+        <v>4092700</v>
       </c>
       <c r="J27" s="3">
+        <v>-4808200</v>
+      </c>
+      <c r="K27" s="3">
         <v>97200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-95200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3000600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1119300</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1470,48 +1528,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-3500</v>
+        <v>-95400</v>
       </c>
       <c r="E29" s="3">
-        <v>-79600</v>
+        <v>-3600</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-81100</v>
       </c>
       <c r="G29" s="3">
-        <v>50400</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-58600</v>
-      </c>
-      <c r="I29" s="3" t="s">
+        <v>51300</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>185100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>76900</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1548,9 +1612,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1587,87 +1654,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>715700</v>
+        <v>2476800</v>
       </c>
       <c r="E32" s="3">
-        <v>743800</v>
+        <v>728600</v>
       </c>
       <c r="F32" s="3">
-        <v>-4700</v>
+        <v>757200</v>
       </c>
       <c r="G32" s="3">
-        <v>2385900</v>
+        <v>-4800</v>
       </c>
       <c r="H32" s="3">
-        <v>-3296000</v>
+        <v>2429100</v>
       </c>
       <c r="I32" s="3">
-        <v>5388000</v>
+        <v>-3355700</v>
       </c>
       <c r="J32" s="3">
+        <v>5485500</v>
+      </c>
+      <c r="K32" s="3">
         <v>1487600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1633400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>37100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-956700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>39500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>140600</v>
+        <v>-1513300</v>
       </c>
       <c r="E33" s="3">
-        <v>-3713000</v>
+        <v>143100</v>
       </c>
       <c r="F33" s="3">
-        <v>-1540300</v>
+        <v>-3780300</v>
       </c>
       <c r="G33" s="3">
-        <v>-2812300</v>
+        <v>-1568200</v>
       </c>
       <c r="H33" s="3">
-        <v>3961300</v>
+        <v>-2863200</v>
       </c>
       <c r="I33" s="3">
-        <v>-4722700</v>
+        <v>4033100</v>
       </c>
       <c r="J33" s="3">
+        <v>-4808200</v>
+      </c>
+      <c r="K33" s="3">
         <v>97200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>89900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1877200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3000600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1119300</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1704,92 +1780,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>140600</v>
+        <v>-1513300</v>
       </c>
       <c r="E35" s="3">
-        <v>-3713000</v>
+        <v>143100</v>
       </c>
       <c r="F35" s="3">
-        <v>-1540300</v>
+        <v>-3780300</v>
       </c>
       <c r="G35" s="3">
-        <v>-2812300</v>
+        <v>-1568200</v>
       </c>
       <c r="H35" s="3">
-        <v>3961300</v>
+        <v>-2863200</v>
       </c>
       <c r="I35" s="3">
-        <v>-4722700</v>
+        <v>4033100</v>
       </c>
       <c r="J35" s="3">
+        <v>-4808200</v>
+      </c>
+      <c r="K35" s="3">
         <v>97200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>89900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1877200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3000600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1119300</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1805,8 +1890,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1822,359 +1908,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>884300</v>
+        <v>770400</v>
       </c>
       <c r="E41" s="3">
-        <v>1717100</v>
+        <v>900300</v>
       </c>
       <c r="F41" s="3">
-        <v>2209100</v>
+        <v>1748200</v>
       </c>
       <c r="G41" s="3">
-        <v>2593300</v>
+        <v>2249100</v>
       </c>
       <c r="H41" s="3">
-        <v>5103400</v>
+        <v>2640200</v>
       </c>
       <c r="I41" s="3">
-        <v>4873800</v>
+        <v>5195800</v>
       </c>
       <c r="J41" s="3">
+        <v>4962000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1667900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4112800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5086300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8082600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1706600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2090800</v>
+        <v>2071400</v>
       </c>
       <c r="E42" s="3">
-        <v>2158700</v>
+        <v>2128600</v>
       </c>
       <c r="F42" s="3">
-        <v>2976300</v>
+        <v>2197800</v>
       </c>
       <c r="G42" s="3">
-        <v>3203500</v>
+        <v>3030200</v>
       </c>
       <c r="H42" s="3">
-        <v>1790900</v>
+        <v>3261500</v>
       </c>
       <c r="I42" s="3">
-        <v>1581300</v>
+        <v>1823300</v>
       </c>
       <c r="J42" s="3">
+        <v>1609900</v>
+      </c>
+      <c r="K42" s="3">
         <v>2029900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>440800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1971500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>32900</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6959900</v>
+        <v>7973100</v>
       </c>
       <c r="E43" s="3">
-        <v>7242100</v>
+        <v>7085900</v>
       </c>
       <c r="F43" s="3">
-        <v>7724700</v>
+        <v>7373300</v>
       </c>
       <c r="G43" s="3">
-        <v>7248000</v>
+        <v>7864600</v>
       </c>
       <c r="H43" s="3">
-        <v>14580300</v>
+        <v>7379300</v>
       </c>
       <c r="I43" s="3">
-        <v>14464400</v>
+        <v>14844400</v>
       </c>
       <c r="J43" s="3">
+        <v>14726300</v>
+      </c>
+      <c r="K43" s="3">
         <v>7112100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7915400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6691600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15530500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5099900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4294000</v>
+        <v>5614300</v>
       </c>
       <c r="E44" s="3">
-        <v>4322100</v>
+        <v>4371700</v>
       </c>
       <c r="F44" s="3">
-        <v>5060000</v>
+        <v>4400400</v>
       </c>
       <c r="G44" s="3">
-        <v>5021400</v>
+        <v>5151600</v>
       </c>
       <c r="H44" s="3">
-        <v>9019000</v>
+        <v>5112300</v>
       </c>
       <c r="I44" s="3">
-        <v>7542000</v>
+        <v>9182300</v>
       </c>
       <c r="J44" s="3">
+        <v>7678600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3088700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3437600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4557600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10572600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3372300</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1334100</v>
+        <v>2664100</v>
       </c>
       <c r="E45" s="3">
-        <v>1345800</v>
+        <v>1358300</v>
       </c>
       <c r="F45" s="3">
-        <v>834000</v>
+        <v>1370200</v>
       </c>
       <c r="G45" s="3">
-        <v>1635100</v>
+        <v>849100</v>
       </c>
       <c r="H45" s="3">
-        <v>320900</v>
+        <v>1664700</v>
       </c>
       <c r="I45" s="3">
-        <v>282300</v>
+        <v>326700</v>
       </c>
       <c r="J45" s="3">
+        <v>287400</v>
+      </c>
+      <c r="K45" s="3">
         <v>292800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>325900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>825300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>837700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>737400</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15563100</v>
+        <v>19093300</v>
       </c>
       <c r="E46" s="3">
-        <v>16785900</v>
+        <v>15844900</v>
       </c>
       <c r="F46" s="3">
-        <v>18804100</v>
+        <v>17089900</v>
       </c>
       <c r="G46" s="3">
-        <v>19701300</v>
+        <v>19144600</v>
       </c>
       <c r="H46" s="3">
-        <v>15363900</v>
+        <v>20058000</v>
       </c>
       <c r="I46" s="3">
-        <v>13735800</v>
+        <v>15642200</v>
       </c>
       <c r="J46" s="3">
+        <v>13984600</v>
+      </c>
+      <c r="K46" s="3">
         <v>14191500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15794300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17601500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12401900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10949100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>515400</v>
+        <v>546200</v>
       </c>
       <c r="E47" s="3">
-        <v>483700</v>
+        <v>524700</v>
       </c>
       <c r="F47" s="3">
-        <v>506000</v>
+        <v>492500</v>
       </c>
       <c r="G47" s="3">
-        <v>508300</v>
+        <v>515200</v>
       </c>
       <c r="H47" s="3">
-        <v>469700</v>
+        <v>517500</v>
       </c>
       <c r="I47" s="3">
-        <v>694600</v>
+        <v>478200</v>
       </c>
       <c r="J47" s="3">
+        <v>707200</v>
+      </c>
+      <c r="K47" s="3">
         <v>713300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>793900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>862400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4669600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2225400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5997100</v>
+        <v>5959000</v>
       </c>
       <c r="E48" s="3">
-        <v>6934100</v>
+        <v>6105700</v>
       </c>
       <c r="F48" s="3">
-        <v>7978900</v>
+        <v>7059700</v>
       </c>
       <c r="G48" s="3">
-        <v>5773300</v>
+        <v>8123400</v>
       </c>
       <c r="H48" s="3">
-        <v>5455900</v>
+        <v>5877900</v>
       </c>
       <c r="I48" s="3">
-        <v>9660900</v>
+        <v>5554700</v>
       </c>
       <c r="J48" s="3">
+        <v>9835800</v>
+      </c>
+      <c r="K48" s="3">
         <v>4087800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4549500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4657900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9944300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3078700</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4733200</v>
+        <v>4886900</v>
       </c>
       <c r="E49" s="3">
-        <v>6026300</v>
+        <v>4818900</v>
       </c>
       <c r="F49" s="3">
-        <v>6374200</v>
+        <v>6135500</v>
       </c>
       <c r="G49" s="3">
-        <v>6202000</v>
+        <v>6489600</v>
       </c>
       <c r="H49" s="3">
-        <v>6518300</v>
+        <v>6314300</v>
       </c>
       <c r="I49" s="3">
-        <v>10771300</v>
+        <v>6636300</v>
       </c>
       <c r="J49" s="3">
+        <v>10966300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5440700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6055200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6848100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11251300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3795000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2211,9 +2325,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2250,48 +2367,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6777100</v>
+        <v>4634100</v>
       </c>
       <c r="E52" s="3">
-        <v>4343200</v>
+        <v>6899900</v>
       </c>
       <c r="F52" s="3">
-        <v>4130000</v>
+        <v>4421800</v>
       </c>
       <c r="G52" s="3">
-        <v>5129100</v>
+        <v>4204800</v>
       </c>
       <c r="H52" s="3">
-        <v>4903100</v>
+        <v>5222000</v>
       </c>
       <c r="I52" s="3">
-        <v>4114800</v>
+        <v>4991800</v>
       </c>
       <c r="J52" s="3">
+        <v>4189300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1714800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1908500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3248800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1577500</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2328,48 +2451,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33585900</v>
+        <v>35119400</v>
       </c>
       <c r="E54" s="3">
-        <v>34573300</v>
+        <v>34194000</v>
       </c>
       <c r="F54" s="3">
-        <v>37793200</v>
+        <v>35199300</v>
       </c>
       <c r="G54" s="3">
-        <v>37314100</v>
+        <v>38477500</v>
       </c>
       <c r="H54" s="3">
-        <v>32710900</v>
+        <v>37989800</v>
       </c>
       <c r="I54" s="3">
-        <v>28208400</v>
+        <v>33303200</v>
       </c>
       <c r="J54" s="3">
+        <v>28719200</v>
+      </c>
+      <c r="K54" s="3">
         <v>26148100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29101300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31669900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23459300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21625600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2385,8 +2514,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2402,242 +2532,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2059100</v>
+        <v>2745200</v>
       </c>
       <c r="E57" s="3">
-        <v>2343800</v>
+        <v>2096400</v>
       </c>
       <c r="F57" s="3">
-        <v>3628700</v>
+        <v>2386200</v>
       </c>
       <c r="G57" s="3">
-        <v>3695500</v>
+        <v>3694400</v>
       </c>
       <c r="H57" s="3">
-        <v>16058500</v>
+        <v>3762400</v>
       </c>
       <c r="I57" s="3">
-        <v>9817800</v>
+        <v>16349300</v>
       </c>
       <c r="J57" s="3">
+        <v>9995600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1867100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2077900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2143500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14007600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3773900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>326800</v>
+        <v>426900</v>
       </c>
       <c r="E58" s="3">
-        <v>1489900</v>
+        <v>332700</v>
       </c>
       <c r="F58" s="3">
-        <v>907800</v>
+        <v>1516900</v>
       </c>
       <c r="G58" s="3">
-        <v>1005000</v>
+        <v>924200</v>
       </c>
       <c r="H58" s="3">
-        <v>192100</v>
+        <v>1023200</v>
       </c>
       <c r="I58" s="3">
-        <v>402900</v>
+        <v>195600</v>
       </c>
       <c r="J58" s="3">
+        <v>410200</v>
+      </c>
+      <c r="K58" s="3">
         <v>490800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>546200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>284300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>385300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26300</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10684600</v>
+        <v>13425300</v>
       </c>
       <c r="E59" s="3">
-        <v>12213100</v>
+        <v>10878100</v>
       </c>
       <c r="F59" s="3">
-        <v>13004900</v>
+        <v>12434300</v>
       </c>
       <c r="G59" s="3">
-        <v>12694500</v>
+        <v>13240400</v>
       </c>
       <c r="H59" s="3">
-        <v>17395000</v>
+        <v>12924400</v>
       </c>
       <c r="I59" s="3">
-        <v>13190000</v>
+        <v>17710000</v>
       </c>
       <c r="J59" s="3">
+        <v>13428900</v>
+      </c>
+      <c r="K59" s="3">
         <v>7215200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8030100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11002000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12483400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5306700</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13070500</v>
+        <v>16597400</v>
       </c>
       <c r="E60" s="3">
-        <v>16046800</v>
+        <v>13307200</v>
       </c>
       <c r="F60" s="3">
-        <v>17541400</v>
+        <v>16337400</v>
       </c>
       <c r="G60" s="3">
-        <v>17395000</v>
+        <v>17859000</v>
       </c>
       <c r="H60" s="3">
-        <v>14560400</v>
+        <v>17710000</v>
       </c>
       <c r="I60" s="3">
-        <v>13126800</v>
+        <v>14824100</v>
       </c>
       <c r="J60" s="3">
+        <v>13364500</v>
+      </c>
+      <c r="K60" s="3">
         <v>9573000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10654200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13429800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9318600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9106900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8781200</v>
+        <v>6674500</v>
       </c>
       <c r="E61" s="3">
-        <v>7095700</v>
+        <v>8940200</v>
       </c>
       <c r="F61" s="3">
-        <v>5751100</v>
+        <v>7224200</v>
       </c>
       <c r="G61" s="3">
-        <v>4455600</v>
+        <v>5855200</v>
       </c>
       <c r="H61" s="3">
-        <v>3989400</v>
+        <v>4536300</v>
       </c>
       <c r="I61" s="3">
-        <v>3730600</v>
+        <v>4061700</v>
       </c>
       <c r="J61" s="3">
+        <v>3798100</v>
+      </c>
+      <c r="K61" s="3">
         <v>3376900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3758200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3465900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2135700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1559100</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16317400</v>
+        <v>19021700</v>
       </c>
       <c r="E62" s="3">
-        <v>16873700</v>
+        <v>16612900</v>
       </c>
       <c r="F62" s="3">
-        <v>18411700</v>
+        <v>17179300</v>
       </c>
       <c r="G62" s="3">
-        <v>16255300</v>
+        <v>18745100</v>
       </c>
       <c r="H62" s="3">
-        <v>20657000</v>
+        <v>16549700</v>
       </c>
       <c r="I62" s="3">
-        <v>24405200</v>
+        <v>21031100</v>
       </c>
       <c r="J62" s="3">
+        <v>24847100</v>
+      </c>
+      <c r="K62" s="3">
         <v>7323000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8150000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6118900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8779500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5009100</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2674,9 +2823,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2713,9 +2865,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2752,48 +2907,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39046500</v>
+        <v>42334100</v>
       </c>
       <c r="E66" s="3">
-        <v>40309100</v>
+        <v>39753500</v>
       </c>
       <c r="F66" s="3">
-        <v>41747500</v>
+        <v>41039000</v>
       </c>
       <c r="G66" s="3">
-        <v>38572100</v>
+        <v>42503400</v>
       </c>
       <c r="H66" s="3">
-        <v>31621600</v>
+        <v>39270500</v>
       </c>
       <c r="I66" s="3">
-        <v>31205800</v>
+        <v>32194200</v>
       </c>
       <c r="J66" s="3">
+        <v>31770900</v>
+      </c>
+      <c r="K66" s="3">
         <v>20275200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22565100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23973200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15729600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15676400</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2809,8 +2970,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2847,9 +3009,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2886,9 +3051,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2925,9 +3093,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2964,48 +3135,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8954600</v>
+        <v>-11475500</v>
       </c>
       <c r="E72" s="3">
-        <v>-9385600</v>
+        <v>-9116700</v>
       </c>
       <c r="F72" s="3">
-        <v>-5132600</v>
+        <v>-9555600</v>
       </c>
       <c r="G72" s="3">
-        <v>-2839200</v>
+        <v>-5225600</v>
       </c>
       <c r="H72" s="3">
-        <v>564600</v>
+        <v>-2890600</v>
       </c>
       <c r="I72" s="3">
-        <v>-3484600</v>
+        <v>574800</v>
       </c>
       <c r="J72" s="3">
+        <v>-3547700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5349300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5953500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7163900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14793600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5456800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3042,9 +3219,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3081,9 +3261,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3120,48 +3303,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5460600</v>
+        <v>-7214700</v>
       </c>
       <c r="E76" s="3">
-        <v>-5735900</v>
+        <v>-5559500</v>
       </c>
       <c r="F76" s="3">
-        <v>-3954300</v>
+        <v>-5839700</v>
       </c>
       <c r="G76" s="3">
-        <v>-1258000</v>
+        <v>-4025900</v>
       </c>
       <c r="H76" s="3">
-        <v>1089300</v>
+        <v>-1280800</v>
       </c>
       <c r="I76" s="3">
-        <v>-2997400</v>
+        <v>1109000</v>
       </c>
       <c r="J76" s="3">
+        <v>-3051600</v>
+      </c>
+      <c r="K76" s="3">
         <v>5872900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6536200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7696700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7729700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5949300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3198,92 +3387,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>140600</v>
+        <v>-1513300</v>
       </c>
       <c r="E81" s="3">
-        <v>-3713000</v>
+        <v>143100</v>
       </c>
       <c r="F81" s="3">
-        <v>-1540300</v>
+        <v>-3780300</v>
       </c>
       <c r="G81" s="3">
-        <v>-2812300</v>
+        <v>-1568200</v>
       </c>
       <c r="H81" s="3">
-        <v>3961300</v>
+        <v>-2863200</v>
       </c>
       <c r="I81" s="3">
-        <v>-4722700</v>
+        <v>4033100</v>
       </c>
       <c r="J81" s="3">
+        <v>-4808200</v>
+      </c>
+      <c r="K81" s="3">
         <v>97200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>89900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1877200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3000600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1119300</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3299,47 +3497,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1181800</v>
+        <v>1197300</v>
       </c>
       <c r="E83" s="3">
-        <v>2875500</v>
+        <v>1203200</v>
       </c>
       <c r="F83" s="3">
-        <v>1540300</v>
+        <v>2927600</v>
       </c>
       <c r="G83" s="3">
-        <v>1056500</v>
+        <v>1568200</v>
       </c>
       <c r="H83" s="3">
-        <v>921800</v>
+        <v>1075600</v>
       </c>
       <c r="I83" s="3">
-        <v>972200</v>
+        <v>938500</v>
       </c>
       <c r="J83" s="3">
+        <v>989800</v>
+      </c>
+      <c r="K83" s="3">
         <v>913600</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N83" s="3">
         <v>629600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>539900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3376,9 +3578,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3415,9 +3620,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3454,9 +3662,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3493,9 +3704,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3532,48 +3746,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-303400</v>
+        <v>2206100</v>
       </c>
       <c r="E89" s="3">
-        <v>-3524400</v>
+        <v>-308900</v>
       </c>
       <c r="F89" s="3">
-        <v>2690500</v>
+        <v>-3588300</v>
       </c>
       <c r="G89" s="3">
-        <v>2607300</v>
+        <v>2739200</v>
       </c>
       <c r="H89" s="3">
-        <v>1771000</v>
+        <v>2654500</v>
       </c>
       <c r="I89" s="3">
-        <v>1652700</v>
+        <v>1803100</v>
       </c>
       <c r="J89" s="3">
+        <v>1682600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1281400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1696000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2801300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1622500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1719700</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3589,47 +3809,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-384200</v>
+        <v>-428100</v>
       </c>
       <c r="E91" s="3">
-        <v>-685200</v>
+        <v>-391100</v>
       </c>
       <c r="F91" s="3">
-        <v>-875000</v>
+        <v>-697600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1060000</v>
+        <v>-890800</v>
       </c>
       <c r="H91" s="3">
-        <v>-855000</v>
+        <v>-1079200</v>
       </c>
       <c r="I91" s="3">
-        <v>-685200</v>
+        <v>-870500</v>
       </c>
       <c r="J91" s="3">
+        <v>-697600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-570400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-844700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-918700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-562400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1020500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3666,9 +3890,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3705,48 +3932,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-501300</v>
+        <v>985000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1183000</v>
+        <v>-510400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1075300</v>
+        <v>-1204400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1142000</v>
+        <v>-1094700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1351700</v>
+        <v>-1162700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1596500</v>
+        <v>-1376200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1625400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1165400</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N94" s="3">
         <v>548200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2906200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3762,8 +3995,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3800,9 +4034,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3839,9 +4076,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3878,9 +4118,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3917,124 +4160,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-103100</v>
+        <v>-3417700</v>
       </c>
       <c r="E100" s="3">
-        <v>3542000</v>
+        <v>-104900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2099000</v>
+        <v>3606200</v>
       </c>
       <c r="G100" s="3">
-        <v>822300</v>
+        <v>-2137000</v>
       </c>
       <c r="H100" s="3">
-        <v>-148800</v>
+        <v>837100</v>
       </c>
       <c r="I100" s="3">
-        <v>-865600</v>
+        <v>-151400</v>
       </c>
       <c r="J100" s="3">
+        <v>-881300</v>
+      </c>
+      <c r="K100" s="3">
         <v>258900</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N100" s="3">
         <v>-427900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-862500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-96000</v>
+        <v>186000</v>
       </c>
       <c r="E101" s="3">
-        <v>65600</v>
+        <v>-97800</v>
       </c>
       <c r="F101" s="3">
-        <v>-121800</v>
+        <v>66800</v>
       </c>
       <c r="G101" s="3">
-        <v>77300</v>
+        <v>-124000</v>
       </c>
       <c r="H101" s="3">
-        <v>-80800</v>
+        <v>78700</v>
       </c>
       <c r="I101" s="3">
-        <v>335000</v>
+        <v>-82300</v>
       </c>
       <c r="J101" s="3">
+        <v>341100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-7000</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N101" s="3">
         <v>-69800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5300</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1003800</v>
+        <v>-40500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1099900</v>
+        <v>-1022000</v>
       </c>
       <c r="F102" s="3">
-        <v>-605600</v>
+        <v>-1119800</v>
       </c>
       <c r="G102" s="3">
-        <v>2364900</v>
+        <v>-616500</v>
       </c>
       <c r="H102" s="3">
-        <v>189800</v>
+        <v>2407700</v>
       </c>
       <c r="I102" s="3">
-        <v>-474400</v>
+        <v>193200</v>
       </c>
       <c r="J102" s="3">
+        <v>-483000</v>
+      </c>
+      <c r="K102" s="3">
         <v>367800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1466500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1925200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1672900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2054200</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -731,25 +731,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16122700</v>
+        <v>16775600</v>
       </c>
       <c r="E8" s="3">
-        <v>13377600</v>
+        <v>13919300</v>
       </c>
       <c r="F8" s="3">
-        <v>13703100</v>
+        <v>14258000</v>
       </c>
       <c r="G8" s="3">
-        <v>19780200</v>
+        <v>20581100</v>
       </c>
       <c r="H8" s="3">
-        <v>18757000</v>
+        <v>19516500</v>
       </c>
       <c r="I8" s="3">
-        <v>17585900</v>
+        <v>18298100</v>
       </c>
       <c r="J8" s="3">
-        <v>17834000</v>
+        <v>18556200</v>
       </c>
       <c r="K8" s="3">
         <v>16076100</v>
@@ -773,25 +773,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12835000</v>
+        <v>13354700</v>
       </c>
       <c r="E9" s="3">
-        <v>10830400</v>
+        <v>11268900</v>
       </c>
       <c r="F9" s="3">
-        <v>13926100</v>
+        <v>14490100</v>
       </c>
       <c r="G9" s="3">
-        <v>18656800</v>
+        <v>19412300</v>
       </c>
       <c r="H9" s="3">
-        <v>17328400</v>
+        <v>18030100</v>
       </c>
       <c r="I9" s="3">
-        <v>29620800</v>
+        <v>30820200</v>
       </c>
       <c r="J9" s="3">
-        <v>14199200</v>
+        <v>14774200</v>
       </c>
       <c r="K9" s="3">
         <v>12250600</v>
@@ -815,25 +815,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3287800</v>
+        <v>3420900</v>
       </c>
       <c r="E10" s="3">
-        <v>2547200</v>
+        <v>2650300</v>
       </c>
       <c r="F10" s="3">
-        <v>-223000</v>
+        <v>-232000</v>
       </c>
       <c r="G10" s="3">
-        <v>1123300</v>
+        <v>1168800</v>
       </c>
       <c r="H10" s="3">
-        <v>1428600</v>
+        <v>1486500</v>
       </c>
       <c r="I10" s="3">
-        <v>-12034800</v>
+        <v>-12522200</v>
       </c>
       <c r="J10" s="3">
-        <v>3634800</v>
+        <v>3782000</v>
       </c>
       <c r="K10" s="3">
         <v>3825500</v>
@@ -875,25 +875,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>950400</v>
+        <v>988900</v>
       </c>
       <c r="E12" s="3">
-        <v>844300</v>
+        <v>878500</v>
       </c>
       <c r="F12" s="3">
-        <v>768000</v>
+        <v>799100</v>
       </c>
       <c r="G12" s="3">
-        <v>759600</v>
+        <v>790400</v>
       </c>
       <c r="H12" s="3">
-        <v>771600</v>
+        <v>802800</v>
       </c>
       <c r="I12" s="3">
-        <v>827600</v>
+        <v>861100</v>
       </c>
       <c r="J12" s="3">
-        <v>919400</v>
+        <v>956700</v>
       </c>
       <c r="K12" s="3">
         <v>797700</v>
@@ -959,25 +959,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-96600</v>
+        <v>-100500</v>
       </c>
       <c r="E14" s="3">
-        <v>-66800</v>
+        <v>-69500</v>
       </c>
       <c r="F14" s="3">
-        <v>590300</v>
+        <v>614200</v>
       </c>
       <c r="G14" s="3">
-        <v>-141900</v>
+        <v>-147700</v>
       </c>
       <c r="H14" s="3">
-        <v>-418600</v>
+        <v>-435500</v>
       </c>
       <c r="I14" s="3">
-        <v>-936100</v>
+        <v>-974000</v>
       </c>
       <c r="J14" s="3">
-        <v>1168700</v>
+        <v>1216000</v>
       </c>
       <c r="K14" s="3">
         <v>-2300</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>112100</v>
+        <v>116600</v>
       </c>
       <c r="E15" s="3">
-        <v>83500</v>
+        <v>86900</v>
       </c>
       <c r="F15" s="3">
-        <v>667800</v>
+        <v>694800</v>
       </c>
       <c r="G15" s="3">
-        <v>134800</v>
+        <v>140200</v>
       </c>
       <c r="H15" s="3">
-        <v>135900</v>
+        <v>141500</v>
       </c>
       <c r="I15" s="3">
-        <v>177700</v>
+        <v>184900</v>
       </c>
       <c r="J15" s="3">
-        <v>175300</v>
+        <v>182400</v>
       </c>
       <c r="K15" s="3">
         <v>160500</v>
@@ -1058,25 +1058,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15028000</v>
+        <v>15636600</v>
       </c>
       <c r="E17" s="3">
-        <v>12699000</v>
+        <v>13213300</v>
       </c>
       <c r="F17" s="3">
-        <v>16071500</v>
+        <v>16722300</v>
       </c>
       <c r="G17" s="3">
-        <v>20630400</v>
+        <v>21465800</v>
       </c>
       <c r="H17" s="3">
-        <v>19714600</v>
+        <v>20512900</v>
       </c>
       <c r="I17" s="3">
-        <v>16213400</v>
+        <v>16869900</v>
       </c>
       <c r="J17" s="3">
-        <v>17785100</v>
+        <v>18505300</v>
       </c>
       <c r="K17" s="3">
         <v>14318000</v>
@@ -1100,25 +1100,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1094700</v>
+        <v>1139100</v>
       </c>
       <c r="E18" s="3">
-        <v>678500</v>
+        <v>706000</v>
       </c>
       <c r="F18" s="3">
-        <v>-2368300</v>
+        <v>-2464200</v>
       </c>
       <c r="G18" s="3">
-        <v>-850300</v>
+        <v>-884700</v>
       </c>
       <c r="H18" s="3">
-        <v>-957600</v>
+        <v>-996400</v>
       </c>
       <c r="I18" s="3">
-        <v>1372600</v>
+        <v>1428200</v>
       </c>
       <c r="J18" s="3">
-        <v>48900</v>
+        <v>50900</v>
       </c>
       <c r="K18" s="3">
         <v>1758100</v>
@@ -1160,25 +1160,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2476800</v>
+        <v>-2577100</v>
       </c>
       <c r="E20" s="3">
-        <v>-728600</v>
+        <v>-758100</v>
       </c>
       <c r="F20" s="3">
-        <v>-757200</v>
+        <v>-787900</v>
       </c>
       <c r="G20" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="H20" s="3">
-        <v>-2429100</v>
+        <v>-2527500</v>
       </c>
       <c r="I20" s="3">
-        <v>3355700</v>
+        <v>3491600</v>
       </c>
       <c r="J20" s="3">
-        <v>-5485500</v>
+        <v>-5707700</v>
       </c>
       <c r="K20" s="3">
         <v>-1487600</v>
@@ -1202,25 +1202,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-193200</v>
+        <v>-184500</v>
       </c>
       <c r="E21" s="3">
-        <v>1144800</v>
+        <v>1207700</v>
       </c>
       <c r="F21" s="3">
-        <v>-218400</v>
+        <v>-186800</v>
       </c>
       <c r="G21" s="3">
-        <v>711700</v>
+        <v>762200</v>
       </c>
       <c r="H21" s="3">
-        <v>-2318600</v>
+        <v>-2397600</v>
       </c>
       <c r="I21" s="3">
-        <v>5660300</v>
+        <v>5902400</v>
       </c>
       <c r="J21" s="3">
-        <v>-4453800</v>
+        <v>-4620500</v>
       </c>
       <c r="K21" s="3">
         <v>1156300</v>
@@ -1244,25 +1244,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>409000</v>
+        <v>425600</v>
       </c>
       <c r="E22" s="3">
-        <v>300500</v>
+        <v>312700</v>
       </c>
       <c r="F22" s="3">
-        <v>212300</v>
+        <v>220900</v>
       </c>
       <c r="G22" s="3">
-        <v>217000</v>
+        <v>225800</v>
       </c>
       <c r="H22" s="3">
-        <v>127600</v>
+        <v>132800</v>
       </c>
       <c r="I22" s="3">
-        <v>79900</v>
+        <v>83100</v>
       </c>
       <c r="J22" s="3">
-        <v>91800</v>
+        <v>95500</v>
       </c>
       <c r="K22" s="3">
         <v>83200</v>
@@ -1286,25 +1286,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1791200</v>
+        <v>-1863700</v>
       </c>
       <c r="E23" s="3">
-        <v>-350600</v>
+        <v>-364800</v>
       </c>
       <c r="F23" s="3">
-        <v>-3337800</v>
+        <v>-3473000</v>
       </c>
       <c r="G23" s="3">
-        <v>-1062500</v>
+        <v>-1105600</v>
       </c>
       <c r="H23" s="3">
-        <v>-3514300</v>
+        <v>-3656600</v>
       </c>
       <c r="I23" s="3">
-        <v>4648400</v>
+        <v>4836600</v>
       </c>
       <c r="J23" s="3">
-        <v>-5528500</v>
+        <v>-5752300</v>
       </c>
       <c r="K23" s="3">
         <v>187400</v>
@@ -1328,25 +1328,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-367300</v>
+        <v>-382200</v>
       </c>
       <c r="E24" s="3">
-        <v>-498500</v>
+        <v>-518700</v>
       </c>
       <c r="F24" s="3">
-        <v>360100</v>
+        <v>374700</v>
       </c>
       <c r="G24" s="3">
-        <v>500900</v>
+        <v>521100</v>
       </c>
       <c r="H24" s="3">
-        <v>-609400</v>
+        <v>-634000</v>
       </c>
       <c r="I24" s="3">
-        <v>554500</v>
+        <v>577000</v>
       </c>
       <c r="J24" s="3">
-        <v>-720300</v>
+        <v>-749400</v>
       </c>
       <c r="K24" s="3">
         <v>89000</v>
@@ -1412,25 +1412,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1423900</v>
+        <v>-1481500</v>
       </c>
       <c r="E26" s="3">
-        <v>147900</v>
+        <v>153900</v>
       </c>
       <c r="F26" s="3">
-        <v>-3698000</v>
+        <v>-3847700</v>
       </c>
       <c r="G26" s="3">
-        <v>-1563400</v>
+        <v>-1626700</v>
       </c>
       <c r="H26" s="3">
-        <v>-2905000</v>
+        <v>-3022600</v>
       </c>
       <c r="I26" s="3">
-        <v>4093900</v>
+        <v>4259700</v>
       </c>
       <c r="J26" s="3">
-        <v>-4808200</v>
+        <v>-5002900</v>
       </c>
       <c r="K26" s="3">
         <v>98400</v>
@@ -1454,25 +1454,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1417900</v>
+        <v>-1475300</v>
       </c>
       <c r="E27" s="3">
-        <v>146700</v>
+        <v>152600</v>
       </c>
       <c r="F27" s="3">
-        <v>-3699200</v>
+        <v>-3849000</v>
       </c>
       <c r="G27" s="3">
-        <v>-1568200</v>
+        <v>-1631700</v>
       </c>
       <c r="H27" s="3">
-        <v>-2914500</v>
+        <v>-3032500</v>
       </c>
       <c r="I27" s="3">
-        <v>4092700</v>
+        <v>4258400</v>
       </c>
       <c r="J27" s="3">
-        <v>-4808200</v>
+        <v>-5002900</v>
       </c>
       <c r="K27" s="3">
         <v>97200</v>
@@ -1538,22 +1538,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-95400</v>
+        <v>-99300</v>
       </c>
       <c r="E29" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="F29" s="3">
-        <v>-81100</v>
+        <v>-84400</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>51300</v>
+        <v>53400</v>
       </c>
       <c r="I29" s="3">
-        <v>-59600</v>
+        <v>-62000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1664,25 +1664,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2476800</v>
+        <v>2577100</v>
       </c>
       <c r="E32" s="3">
-        <v>728600</v>
+        <v>758100</v>
       </c>
       <c r="F32" s="3">
-        <v>757200</v>
+        <v>787900</v>
       </c>
       <c r="G32" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="H32" s="3">
-        <v>2429100</v>
+        <v>2527500</v>
       </c>
       <c r="I32" s="3">
-        <v>-3355700</v>
+        <v>-3491600</v>
       </c>
       <c r="J32" s="3">
-        <v>5485500</v>
+        <v>5707700</v>
       </c>
       <c r="K32" s="3">
         <v>1487600</v>
@@ -1706,25 +1706,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1513300</v>
+        <v>-1574600</v>
       </c>
       <c r="E33" s="3">
-        <v>143100</v>
+        <v>148900</v>
       </c>
       <c r="F33" s="3">
-        <v>-3780300</v>
+        <v>-3933300</v>
       </c>
       <c r="G33" s="3">
-        <v>-1568200</v>
+        <v>-1631700</v>
       </c>
       <c r="H33" s="3">
-        <v>-2863200</v>
+        <v>-2979200</v>
       </c>
       <c r="I33" s="3">
-        <v>4033100</v>
+        <v>4196400</v>
       </c>
       <c r="J33" s="3">
-        <v>-4808200</v>
+        <v>-5002900</v>
       </c>
       <c r="K33" s="3">
         <v>97200</v>
@@ -1790,25 +1790,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1513300</v>
+        <v>-1574600</v>
       </c>
       <c r="E35" s="3">
-        <v>143100</v>
+        <v>148900</v>
       </c>
       <c r="F35" s="3">
-        <v>-3780300</v>
+        <v>-3933300</v>
       </c>
       <c r="G35" s="3">
-        <v>-1568200</v>
+        <v>-1631700</v>
       </c>
       <c r="H35" s="3">
-        <v>-2863200</v>
+        <v>-2979200</v>
       </c>
       <c r="I35" s="3">
-        <v>4033100</v>
+        <v>4196400</v>
       </c>
       <c r="J35" s="3">
-        <v>-4808200</v>
+        <v>-5002900</v>
       </c>
       <c r="K35" s="3">
         <v>97200</v>
@@ -1915,25 +1915,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>770400</v>
+        <v>801600</v>
       </c>
       <c r="E41" s="3">
-        <v>900300</v>
+        <v>936800</v>
       </c>
       <c r="F41" s="3">
-        <v>1748200</v>
+        <v>1819000</v>
       </c>
       <c r="G41" s="3">
-        <v>2249100</v>
+        <v>2340100</v>
       </c>
       <c r="H41" s="3">
-        <v>2640200</v>
+        <v>2747100</v>
       </c>
       <c r="I41" s="3">
-        <v>5195800</v>
+        <v>5406200</v>
       </c>
       <c r="J41" s="3">
-        <v>4962000</v>
+        <v>5163000</v>
       </c>
       <c r="K41" s="3">
         <v>1667900</v>
@@ -1957,25 +1957,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2071400</v>
+        <v>2155300</v>
       </c>
       <c r="E42" s="3">
-        <v>2128600</v>
+        <v>2214800</v>
       </c>
       <c r="F42" s="3">
-        <v>2197800</v>
+        <v>2286800</v>
       </c>
       <c r="G42" s="3">
-        <v>3030200</v>
+        <v>3152900</v>
       </c>
       <c r="H42" s="3">
-        <v>3261500</v>
+        <v>3393600</v>
       </c>
       <c r="I42" s="3">
-        <v>1823300</v>
+        <v>1897200</v>
       </c>
       <c r="J42" s="3">
-        <v>1609900</v>
+        <v>1675100</v>
       </c>
       <c r="K42" s="3">
         <v>2029900</v>
@@ -1999,25 +1999,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7973100</v>
+        <v>8296000</v>
       </c>
       <c r="E43" s="3">
-        <v>7085900</v>
+        <v>7372800</v>
       </c>
       <c r="F43" s="3">
-        <v>7373300</v>
+        <v>7671900</v>
       </c>
       <c r="G43" s="3">
-        <v>7864600</v>
+        <v>8183100</v>
       </c>
       <c r="H43" s="3">
-        <v>7379300</v>
+        <v>7678100</v>
       </c>
       <c r="I43" s="3">
-        <v>14844400</v>
+        <v>15445500</v>
       </c>
       <c r="J43" s="3">
-        <v>14726300</v>
+        <v>15322600</v>
       </c>
       <c r="K43" s="3">
         <v>7112100</v>
@@ -2041,25 +2041,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5614300</v>
+        <v>5841700</v>
       </c>
       <c r="E44" s="3">
-        <v>4371700</v>
+        <v>4548800</v>
       </c>
       <c r="F44" s="3">
-        <v>4400400</v>
+        <v>4578600</v>
       </c>
       <c r="G44" s="3">
-        <v>5151600</v>
+        <v>5360300</v>
       </c>
       <c r="H44" s="3">
-        <v>5112300</v>
+        <v>5319300</v>
       </c>
       <c r="I44" s="3">
-        <v>9182300</v>
+        <v>9554200</v>
       </c>
       <c r="J44" s="3">
-        <v>7678600</v>
+        <v>7989500</v>
       </c>
       <c r="K44" s="3">
         <v>3088700</v>
@@ -2083,25 +2083,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2664100</v>
+        <v>2771900</v>
       </c>
       <c r="E45" s="3">
-        <v>1358300</v>
+        <v>1413300</v>
       </c>
       <c r="F45" s="3">
-        <v>1370200</v>
+        <v>1425700</v>
       </c>
       <c r="G45" s="3">
-        <v>849100</v>
+        <v>883400</v>
       </c>
       <c r="H45" s="3">
-        <v>1664700</v>
+        <v>1732200</v>
       </c>
       <c r="I45" s="3">
-        <v>326700</v>
+        <v>340000</v>
       </c>
       <c r="J45" s="3">
-        <v>287400</v>
+        <v>299000</v>
       </c>
       <c r="K45" s="3">
         <v>292800</v>
@@ -2125,25 +2125,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19093300</v>
+        <v>19866400</v>
       </c>
       <c r="E46" s="3">
-        <v>15844900</v>
+        <v>16486500</v>
       </c>
       <c r="F46" s="3">
-        <v>17089900</v>
+        <v>17781900</v>
       </c>
       <c r="G46" s="3">
-        <v>19144600</v>
+        <v>19919800</v>
       </c>
       <c r="H46" s="3">
-        <v>20058000</v>
+        <v>20870300</v>
       </c>
       <c r="I46" s="3">
-        <v>15642200</v>
+        <v>16275600</v>
       </c>
       <c r="J46" s="3">
-        <v>13984600</v>
+        <v>14550900</v>
       </c>
       <c r="K46" s="3">
         <v>14191500</v>
@@ -2167,25 +2167,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>546200</v>
+        <v>568300</v>
       </c>
       <c r="E47" s="3">
-        <v>524700</v>
+        <v>546000</v>
       </c>
       <c r="F47" s="3">
-        <v>492500</v>
+        <v>512500</v>
       </c>
       <c r="G47" s="3">
-        <v>515200</v>
+        <v>536000</v>
       </c>
       <c r="H47" s="3">
-        <v>517500</v>
+        <v>538500</v>
       </c>
       <c r="I47" s="3">
-        <v>478200</v>
+        <v>497600</v>
       </c>
       <c r="J47" s="3">
-        <v>707200</v>
+        <v>735800</v>
       </c>
       <c r="K47" s="3">
         <v>713300</v>
@@ -2209,25 +2209,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5959000</v>
+        <v>6200300</v>
       </c>
       <c r="E48" s="3">
-        <v>6105700</v>
+        <v>6352900</v>
       </c>
       <c r="F48" s="3">
-        <v>7059700</v>
+        <v>7345500</v>
       </c>
       <c r="G48" s="3">
-        <v>8123400</v>
+        <v>8452300</v>
       </c>
       <c r="H48" s="3">
-        <v>5877900</v>
+        <v>6115900</v>
       </c>
       <c r="I48" s="3">
-        <v>5554700</v>
+        <v>5779600</v>
       </c>
       <c r="J48" s="3">
-        <v>9835800</v>
+        <v>10234100</v>
       </c>
       <c r="K48" s="3">
         <v>4087800</v>
@@ -2251,25 +2251,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4886900</v>
+        <v>5084800</v>
       </c>
       <c r="E49" s="3">
-        <v>4818900</v>
+        <v>5014100</v>
       </c>
       <c r="F49" s="3">
-        <v>6135500</v>
+        <v>6383900</v>
       </c>
       <c r="G49" s="3">
-        <v>6489600</v>
+        <v>6752400</v>
       </c>
       <c r="H49" s="3">
-        <v>6314300</v>
+        <v>6570000</v>
       </c>
       <c r="I49" s="3">
-        <v>6636300</v>
+        <v>6905100</v>
       </c>
       <c r="J49" s="3">
-        <v>10966300</v>
+        <v>11410400</v>
       </c>
       <c r="K49" s="3">
         <v>5440700</v>
@@ -2377,25 +2377,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4634100</v>
+        <v>4821700</v>
       </c>
       <c r="E52" s="3">
-        <v>6899900</v>
+        <v>7179300</v>
       </c>
       <c r="F52" s="3">
-        <v>4421800</v>
+        <v>4600900</v>
       </c>
       <c r="G52" s="3">
-        <v>4204800</v>
+        <v>4375100</v>
       </c>
       <c r="H52" s="3">
-        <v>5222000</v>
+        <v>5433500</v>
       </c>
       <c r="I52" s="3">
-        <v>4991800</v>
+        <v>5194000</v>
       </c>
       <c r="J52" s="3">
-        <v>4189300</v>
+        <v>4358900</v>
       </c>
       <c r="K52" s="3">
         <v>1714800</v>
@@ -2461,25 +2461,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35119400</v>
+        <v>36541600</v>
       </c>
       <c r="E54" s="3">
-        <v>34194000</v>
+        <v>35578700</v>
       </c>
       <c r="F54" s="3">
-        <v>35199300</v>
+        <v>36624700</v>
       </c>
       <c r="G54" s="3">
-        <v>38477500</v>
+        <v>40035700</v>
       </c>
       <c r="H54" s="3">
-        <v>37989800</v>
+        <v>39528200</v>
       </c>
       <c r="I54" s="3">
-        <v>33303200</v>
+        <v>34651800</v>
       </c>
       <c r="J54" s="3">
-        <v>28719200</v>
+        <v>29882200</v>
       </c>
       <c r="K54" s="3">
         <v>26148100</v>
@@ -2539,25 +2539,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2745200</v>
+        <v>2856300</v>
       </c>
       <c r="E57" s="3">
-        <v>2096400</v>
+        <v>2181300</v>
       </c>
       <c r="F57" s="3">
-        <v>2386200</v>
+        <v>2482800</v>
       </c>
       <c r="G57" s="3">
-        <v>3694400</v>
+        <v>3844000</v>
       </c>
       <c r="H57" s="3">
-        <v>3762400</v>
+        <v>3914700</v>
       </c>
       <c r="I57" s="3">
-        <v>16349300</v>
+        <v>17011400</v>
       </c>
       <c r="J57" s="3">
-        <v>9995600</v>
+        <v>10400400</v>
       </c>
       <c r="K57" s="3">
         <v>1867100</v>
@@ -2581,25 +2581,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>426900</v>
+        <v>444200</v>
       </c>
       <c r="E58" s="3">
-        <v>332700</v>
+        <v>346200</v>
       </c>
       <c r="F58" s="3">
-        <v>1516900</v>
+        <v>1578300</v>
       </c>
       <c r="G58" s="3">
-        <v>924200</v>
+        <v>961600</v>
       </c>
       <c r="H58" s="3">
-        <v>1023200</v>
+        <v>1064600</v>
       </c>
       <c r="I58" s="3">
-        <v>195600</v>
+        <v>203500</v>
       </c>
       <c r="J58" s="3">
-        <v>410200</v>
+        <v>426800</v>
       </c>
       <c r="K58" s="3">
         <v>490800</v>
@@ -2623,25 +2623,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13425300</v>
+        <v>13968900</v>
       </c>
       <c r="E59" s="3">
-        <v>10878100</v>
+        <v>11318600</v>
       </c>
       <c r="F59" s="3">
-        <v>12434300</v>
+        <v>12937800</v>
       </c>
       <c r="G59" s="3">
-        <v>13240400</v>
+        <v>13776600</v>
       </c>
       <c r="H59" s="3">
-        <v>12924400</v>
+        <v>13447800</v>
       </c>
       <c r="I59" s="3">
-        <v>17710000</v>
+        <v>18427100</v>
       </c>
       <c r="J59" s="3">
-        <v>13428900</v>
+        <v>13972600</v>
       </c>
       <c r="K59" s="3">
         <v>7215200</v>
@@ -2665,25 +2665,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16597400</v>
+        <v>17269500</v>
       </c>
       <c r="E60" s="3">
-        <v>13307200</v>
+        <v>13846100</v>
       </c>
       <c r="F60" s="3">
-        <v>16337400</v>
+        <v>16999000</v>
       </c>
       <c r="G60" s="3">
-        <v>17859000</v>
+        <v>18582200</v>
       </c>
       <c r="H60" s="3">
-        <v>17710000</v>
+        <v>18427100</v>
       </c>
       <c r="I60" s="3">
-        <v>14824100</v>
+        <v>15424400</v>
       </c>
       <c r="J60" s="3">
-        <v>13364500</v>
+        <v>13905600</v>
       </c>
       <c r="K60" s="3">
         <v>9573000</v>
@@ -2707,25 +2707,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6674500</v>
+        <v>6944800</v>
       </c>
       <c r="E61" s="3">
-        <v>8940200</v>
+        <v>9302300</v>
       </c>
       <c r="F61" s="3">
-        <v>7224200</v>
+        <v>7516800</v>
       </c>
       <c r="G61" s="3">
-        <v>5855200</v>
+        <v>6092300</v>
       </c>
       <c r="H61" s="3">
-        <v>4536300</v>
+        <v>4720000</v>
       </c>
       <c r="I61" s="3">
-        <v>4061700</v>
+        <v>4226200</v>
       </c>
       <c r="J61" s="3">
-        <v>3798100</v>
+        <v>3951900</v>
       </c>
       <c r="K61" s="3">
         <v>3376900</v>
@@ -2749,25 +2749,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19021700</v>
+        <v>19792000</v>
       </c>
       <c r="E62" s="3">
-        <v>16612900</v>
+        <v>17285600</v>
       </c>
       <c r="F62" s="3">
-        <v>17179300</v>
+        <v>17875000</v>
       </c>
       <c r="G62" s="3">
-        <v>18745100</v>
+        <v>19504100</v>
       </c>
       <c r="H62" s="3">
-        <v>16549700</v>
+        <v>17219800</v>
       </c>
       <c r="I62" s="3">
-        <v>21031100</v>
+        <v>21882700</v>
       </c>
       <c r="J62" s="3">
-        <v>24847100</v>
+        <v>25853300</v>
       </c>
       <c r="K62" s="3">
         <v>7323000</v>
@@ -2917,25 +2917,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42334100</v>
+        <v>44048400</v>
       </c>
       <c r="E66" s="3">
-        <v>39753500</v>
+        <v>41363300</v>
       </c>
       <c r="F66" s="3">
-        <v>41039000</v>
+        <v>42700900</v>
       </c>
       <c r="G66" s="3">
-        <v>42503400</v>
+        <v>44224600</v>
       </c>
       <c r="H66" s="3">
-        <v>39270500</v>
+        <v>40860800</v>
       </c>
       <c r="I66" s="3">
-        <v>32194200</v>
+        <v>33497900</v>
       </c>
       <c r="J66" s="3">
-        <v>31770900</v>
+        <v>33057400</v>
       </c>
       <c r="K66" s="3">
         <v>20275200</v>
@@ -3145,25 +3145,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11475500</v>
+        <v>-11940200</v>
       </c>
       <c r="E72" s="3">
-        <v>-9116700</v>
+        <v>-9485900</v>
       </c>
       <c r="F72" s="3">
-        <v>-9555600</v>
+        <v>-9942500</v>
       </c>
       <c r="G72" s="3">
-        <v>-5225600</v>
+        <v>-5437200</v>
       </c>
       <c r="H72" s="3">
-        <v>-2890600</v>
+        <v>-3007700</v>
       </c>
       <c r="I72" s="3">
-        <v>574800</v>
+        <v>598100</v>
       </c>
       <c r="J72" s="3">
-        <v>-3547700</v>
+        <v>-3691400</v>
       </c>
       <c r="K72" s="3">
         <v>5349300</v>
@@ -3313,25 +3313,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-7214700</v>
+        <v>-7506800</v>
       </c>
       <c r="E76" s="3">
-        <v>-5559500</v>
+        <v>-5784600</v>
       </c>
       <c r="F76" s="3">
-        <v>-5839700</v>
+        <v>-6076200</v>
       </c>
       <c r="G76" s="3">
-        <v>-4025900</v>
+        <v>-4188900</v>
       </c>
       <c r="H76" s="3">
-        <v>-1280800</v>
+        <v>-1332600</v>
       </c>
       <c r="I76" s="3">
-        <v>1109000</v>
+        <v>1153900</v>
       </c>
       <c r="J76" s="3">
-        <v>-3051600</v>
+        <v>-3175200</v>
       </c>
       <c r="K76" s="3">
         <v>5872900</v>
@@ -3444,25 +3444,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1513300</v>
+        <v>-1574600</v>
       </c>
       <c r="E81" s="3">
-        <v>143100</v>
+        <v>148900</v>
       </c>
       <c r="F81" s="3">
-        <v>-3780300</v>
+        <v>-3933300</v>
       </c>
       <c r="G81" s="3">
-        <v>-1568200</v>
+        <v>-1631700</v>
       </c>
       <c r="H81" s="3">
-        <v>-2863200</v>
+        <v>-2979200</v>
       </c>
       <c r="I81" s="3">
-        <v>4033100</v>
+        <v>4196400</v>
       </c>
       <c r="J81" s="3">
-        <v>-4808200</v>
+        <v>-5002900</v>
       </c>
       <c r="K81" s="3">
         <v>97200</v>
@@ -3504,25 +3504,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1197300</v>
+        <v>1245800</v>
       </c>
       <c r="E83" s="3">
-        <v>1203200</v>
+        <v>1252000</v>
       </c>
       <c r="F83" s="3">
-        <v>2927600</v>
+        <v>3046200</v>
       </c>
       <c r="G83" s="3">
-        <v>1568200</v>
+        <v>1631700</v>
       </c>
       <c r="H83" s="3">
-        <v>1075600</v>
+        <v>1119200</v>
       </c>
       <c r="I83" s="3">
-        <v>938500</v>
+        <v>976500</v>
       </c>
       <c r="J83" s="3">
-        <v>989800</v>
+        <v>1029900</v>
       </c>
       <c r="K83" s="3">
         <v>913600</v>
@@ -3756,25 +3756,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2206100</v>
+        <v>2295500</v>
       </c>
       <c r="E89" s="3">
-        <v>-308900</v>
+        <v>-321400</v>
       </c>
       <c r="F89" s="3">
-        <v>-3588300</v>
+        <v>-3733600</v>
       </c>
       <c r="G89" s="3">
-        <v>2739200</v>
+        <v>2850100</v>
       </c>
       <c r="H89" s="3">
-        <v>2654500</v>
+        <v>2762000</v>
       </c>
       <c r="I89" s="3">
-        <v>1803100</v>
+        <v>1876100</v>
       </c>
       <c r="J89" s="3">
-        <v>1682600</v>
+        <v>1750800</v>
       </c>
       <c r="K89" s="3">
         <v>1281400</v>
@@ -3816,25 +3816,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-428100</v>
+        <v>-445400</v>
       </c>
       <c r="E91" s="3">
-        <v>-391100</v>
+        <v>-407000</v>
       </c>
       <c r="F91" s="3">
-        <v>-697600</v>
+        <v>-725900</v>
       </c>
       <c r="G91" s="3">
-        <v>-890800</v>
+        <v>-926900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1079200</v>
+        <v>-1122900</v>
       </c>
       <c r="I91" s="3">
-        <v>-870500</v>
+        <v>-905800</v>
       </c>
       <c r="J91" s="3">
-        <v>-697600</v>
+        <v>-725900</v>
       </c>
       <c r="K91" s="3">
         <v>-570400</v>
@@ -3942,25 +3942,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>985000</v>
+        <v>1024900</v>
       </c>
       <c r="E94" s="3">
-        <v>-510400</v>
+        <v>-531100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1204400</v>
+        <v>-1253200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1094700</v>
+        <v>-1139100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1162700</v>
+        <v>-1209800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1376200</v>
+        <v>-1431900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1625400</v>
+        <v>-1691200</v>
       </c>
       <c r="K94" s="3">
         <v>-1165400</v>
@@ -4170,25 +4170,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3417700</v>
+        <v>-3556100</v>
       </c>
       <c r="E100" s="3">
-        <v>-104900</v>
+        <v>-109200</v>
       </c>
       <c r="F100" s="3">
-        <v>3606200</v>
+        <v>3752200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2137000</v>
+        <v>-2223500</v>
       </c>
       <c r="H100" s="3">
-        <v>837100</v>
+        <v>871000</v>
       </c>
       <c r="I100" s="3">
-        <v>-151400</v>
+        <v>-157600</v>
       </c>
       <c r="J100" s="3">
-        <v>-881300</v>
+        <v>-917000</v>
       </c>
       <c r="K100" s="3">
         <v>258900</v>
@@ -4212,25 +4212,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>186000</v>
+        <v>193600</v>
       </c>
       <c r="E101" s="3">
-        <v>-97800</v>
+        <v>-101700</v>
       </c>
       <c r="F101" s="3">
-        <v>66800</v>
+        <v>69500</v>
       </c>
       <c r="G101" s="3">
-        <v>-124000</v>
+        <v>-129000</v>
       </c>
       <c r="H101" s="3">
-        <v>78700</v>
+        <v>81900</v>
       </c>
       <c r="I101" s="3">
-        <v>-82300</v>
+        <v>-85600</v>
       </c>
       <c r="J101" s="3">
-        <v>341100</v>
+        <v>354900</v>
       </c>
       <c r="K101" s="3">
         <v>-7000</v>
@@ -4254,25 +4254,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-40500</v>
+        <v>-42200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1022000</v>
+        <v>-1063400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1119800</v>
+        <v>-1165100</v>
       </c>
       <c r="G102" s="3">
-        <v>-616500</v>
+        <v>-641500</v>
       </c>
       <c r="H102" s="3">
-        <v>2407700</v>
+        <v>2505200</v>
       </c>
       <c r="I102" s="3">
-        <v>193200</v>
+        <v>201000</v>
       </c>
       <c r="J102" s="3">
-        <v>-483000</v>
+        <v>-502500</v>
       </c>
       <c r="K102" s="3">
         <v>367800</v>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -666,7 +666,9 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -731,25 +733,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16775600</v>
+        <v>17133900</v>
       </c>
       <c r="E8" s="3">
-        <v>13919300</v>
+        <v>14216600</v>
       </c>
       <c r="F8" s="3">
-        <v>14258000</v>
+        <v>14562500</v>
       </c>
       <c r="G8" s="3">
-        <v>20581100</v>
+        <v>21020700</v>
       </c>
       <c r="H8" s="3">
-        <v>19516500</v>
+        <v>19933400</v>
       </c>
       <c r="I8" s="3">
-        <v>18298100</v>
+        <v>18688900</v>
       </c>
       <c r="J8" s="3">
-        <v>18556200</v>
+        <v>18952500</v>
       </c>
       <c r="K8" s="3">
         <v>16076100</v>
@@ -773,25 +775,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13354700</v>
+        <v>13639900</v>
       </c>
       <c r="E9" s="3">
-        <v>11268900</v>
+        <v>11509600</v>
       </c>
       <c r="F9" s="3">
-        <v>14490100</v>
+        <v>14799500</v>
       </c>
       <c r="G9" s="3">
-        <v>19412300</v>
+        <v>19826900</v>
       </c>
       <c r="H9" s="3">
-        <v>18030100</v>
+        <v>18415100</v>
       </c>
       <c r="I9" s="3">
-        <v>30820200</v>
+        <v>31478500</v>
       </c>
       <c r="J9" s="3">
-        <v>14774200</v>
+        <v>15089700</v>
       </c>
       <c r="K9" s="3">
         <v>12250600</v>
@@ -815,25 +817,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3420900</v>
+        <v>3493900</v>
       </c>
       <c r="E10" s="3">
-        <v>2650300</v>
+        <v>2707000</v>
       </c>
       <c r="F10" s="3">
-        <v>-232000</v>
+        <v>-237000</v>
       </c>
       <c r="G10" s="3">
-        <v>1168800</v>
+        <v>1193800</v>
       </c>
       <c r="H10" s="3">
-        <v>1486500</v>
+        <v>1518200</v>
       </c>
       <c r="I10" s="3">
-        <v>-12522200</v>
+        <v>-12789600</v>
       </c>
       <c r="J10" s="3">
-        <v>3782000</v>
+        <v>3862700</v>
       </c>
       <c r="K10" s="3">
         <v>3825500</v>
@@ -875,25 +877,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>988900</v>
+        <v>1010000</v>
       </c>
       <c r="E12" s="3">
-        <v>878500</v>
+        <v>897200</v>
       </c>
       <c r="F12" s="3">
-        <v>799100</v>
+        <v>816100</v>
       </c>
       <c r="G12" s="3">
-        <v>790400</v>
+        <v>807300</v>
       </c>
       <c r="H12" s="3">
-        <v>802800</v>
+        <v>819900</v>
       </c>
       <c r="I12" s="3">
-        <v>861100</v>
+        <v>879500</v>
       </c>
       <c r="J12" s="3">
-        <v>956700</v>
+        <v>977100</v>
       </c>
       <c r="K12" s="3">
         <v>797700</v>
@@ -959,25 +961,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-100500</v>
+        <v>-102700</v>
       </c>
       <c r="E14" s="3">
-        <v>-69500</v>
+        <v>-71000</v>
       </c>
       <c r="F14" s="3">
-        <v>614200</v>
+        <v>627300</v>
       </c>
       <c r="G14" s="3">
-        <v>-147700</v>
+        <v>-150800</v>
       </c>
       <c r="H14" s="3">
-        <v>-435500</v>
+        <v>-444800</v>
       </c>
       <c r="I14" s="3">
-        <v>-974000</v>
+        <v>-994800</v>
       </c>
       <c r="J14" s="3">
-        <v>1216000</v>
+        <v>1242000</v>
       </c>
       <c r="K14" s="3">
         <v>-2300</v>
@@ -1001,25 +1003,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>116600</v>
+        <v>119100</v>
       </c>
       <c r="E15" s="3">
-        <v>86900</v>
+        <v>88700</v>
       </c>
       <c r="F15" s="3">
-        <v>694800</v>
+        <v>709700</v>
       </c>
       <c r="G15" s="3">
-        <v>140200</v>
+        <v>143200</v>
       </c>
       <c r="H15" s="3">
-        <v>141500</v>
+        <v>144500</v>
       </c>
       <c r="I15" s="3">
-        <v>184900</v>
+        <v>188800</v>
       </c>
       <c r="J15" s="3">
-        <v>182400</v>
+        <v>186300</v>
       </c>
       <c r="K15" s="3">
         <v>160500</v>
@@ -1058,25 +1060,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15636600</v>
+        <v>15970500</v>
       </c>
       <c r="E17" s="3">
-        <v>13213300</v>
+        <v>13495500</v>
       </c>
       <c r="F17" s="3">
-        <v>16722300</v>
+        <v>17079400</v>
       </c>
       <c r="G17" s="3">
-        <v>21465800</v>
+        <v>21924300</v>
       </c>
       <c r="H17" s="3">
-        <v>20512900</v>
+        <v>20951000</v>
       </c>
       <c r="I17" s="3">
-        <v>16869900</v>
+        <v>17230200</v>
       </c>
       <c r="J17" s="3">
-        <v>18505300</v>
+        <v>18900500</v>
       </c>
       <c r="K17" s="3">
         <v>14318000</v>
@@ -1100,25 +1102,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1139100</v>
+        <v>1163400</v>
       </c>
       <c r="E18" s="3">
-        <v>706000</v>
+        <v>721100</v>
       </c>
       <c r="F18" s="3">
-        <v>-2464200</v>
+        <v>-2516900</v>
       </c>
       <c r="G18" s="3">
-        <v>-884700</v>
+        <v>-903600</v>
       </c>
       <c r="H18" s="3">
-        <v>-996400</v>
+        <v>-1017600</v>
       </c>
       <c r="I18" s="3">
-        <v>1428200</v>
+        <v>1458700</v>
       </c>
       <c r="J18" s="3">
-        <v>50900</v>
+        <v>52000</v>
       </c>
       <c r="K18" s="3">
         <v>1758100</v>
@@ -1160,25 +1162,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2577100</v>
+        <v>-2632200</v>
       </c>
       <c r="E20" s="3">
-        <v>-758100</v>
+        <v>-774300</v>
       </c>
       <c r="F20" s="3">
-        <v>-787900</v>
+        <v>-804700</v>
       </c>
       <c r="G20" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H20" s="3">
-        <v>-2527500</v>
+        <v>-2581500</v>
       </c>
       <c r="I20" s="3">
-        <v>3491600</v>
+        <v>3566200</v>
       </c>
       <c r="J20" s="3">
-        <v>-5707700</v>
+        <v>-5829600</v>
       </c>
       <c r="K20" s="3">
         <v>-1487600</v>
@@ -1202,25 +1204,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-184500</v>
+        <v>-196400</v>
       </c>
       <c r="E21" s="3">
-        <v>1207700</v>
+        <v>1225500</v>
       </c>
       <c r="F21" s="3">
-        <v>-186800</v>
+        <v>-210400</v>
       </c>
       <c r="G21" s="3">
-        <v>762200</v>
+        <v>768000</v>
       </c>
       <c r="H21" s="3">
-        <v>-2397600</v>
+        <v>-2456000</v>
       </c>
       <c r="I21" s="3">
-        <v>5902400</v>
+        <v>6022200</v>
       </c>
       <c r="J21" s="3">
-        <v>-4620500</v>
+        <v>-4725800</v>
       </c>
       <c r="K21" s="3">
         <v>1156300</v>
@@ -1244,25 +1246,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>425600</v>
+        <v>434700</v>
       </c>
       <c r="E22" s="3">
-        <v>312700</v>
+        <v>319400</v>
       </c>
       <c r="F22" s="3">
-        <v>220900</v>
+        <v>225600</v>
       </c>
       <c r="G22" s="3">
-        <v>225800</v>
+        <v>230600</v>
       </c>
       <c r="H22" s="3">
-        <v>132800</v>
+        <v>135600</v>
       </c>
       <c r="I22" s="3">
-        <v>83100</v>
+        <v>84900</v>
       </c>
       <c r="J22" s="3">
-        <v>95500</v>
+        <v>97600</v>
       </c>
       <c r="K22" s="3">
         <v>83200</v>
@@ -1286,25 +1288,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1863700</v>
+        <v>-1903500</v>
       </c>
       <c r="E23" s="3">
-        <v>-364800</v>
+        <v>-372600</v>
       </c>
       <c r="F23" s="3">
-        <v>-3473000</v>
+        <v>-3547200</v>
       </c>
       <c r="G23" s="3">
-        <v>-1105600</v>
+        <v>-1129200</v>
       </c>
       <c r="H23" s="3">
-        <v>-3656600</v>
+        <v>-3734700</v>
       </c>
       <c r="I23" s="3">
-        <v>4836600</v>
+        <v>4939900</v>
       </c>
       <c r="J23" s="3">
-        <v>-5752300</v>
+        <v>-5875200</v>
       </c>
       <c r="K23" s="3">
         <v>187400</v>
@@ -1328,25 +1330,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-382200</v>
+        <v>-390300</v>
       </c>
       <c r="E24" s="3">
-        <v>-518700</v>
+        <v>-529700</v>
       </c>
       <c r="F24" s="3">
-        <v>374700</v>
+        <v>382700</v>
       </c>
       <c r="G24" s="3">
-        <v>521100</v>
+        <v>532300</v>
       </c>
       <c r="H24" s="3">
-        <v>-634000</v>
+        <v>-647600</v>
       </c>
       <c r="I24" s="3">
-        <v>577000</v>
+        <v>589300</v>
       </c>
       <c r="J24" s="3">
-        <v>-749400</v>
+        <v>-765400</v>
       </c>
       <c r="K24" s="3">
         <v>89000</v>
@@ -1412,25 +1414,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1481500</v>
+        <v>-1513200</v>
       </c>
       <c r="E26" s="3">
-        <v>153900</v>
+        <v>157100</v>
       </c>
       <c r="F26" s="3">
-        <v>-3847700</v>
+        <v>-3929900</v>
       </c>
       <c r="G26" s="3">
-        <v>-1626700</v>
+        <v>-1661400</v>
       </c>
       <c r="H26" s="3">
-        <v>-3022600</v>
+        <v>-3087100</v>
       </c>
       <c r="I26" s="3">
-        <v>4259700</v>
+        <v>4350600</v>
       </c>
       <c r="J26" s="3">
-        <v>-5002900</v>
+        <v>-5109800</v>
       </c>
       <c r="K26" s="3">
         <v>98400</v>
@@ -1454,25 +1456,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1475300</v>
+        <v>-1506800</v>
       </c>
       <c r="E27" s="3">
-        <v>152600</v>
+        <v>155900</v>
       </c>
       <c r="F27" s="3">
-        <v>-3849000</v>
+        <v>-3931200</v>
       </c>
       <c r="G27" s="3">
-        <v>-1631700</v>
+        <v>-1666500</v>
       </c>
       <c r="H27" s="3">
-        <v>-3032500</v>
+        <v>-3097300</v>
       </c>
       <c r="I27" s="3">
-        <v>4258400</v>
+        <v>4349400</v>
       </c>
       <c r="J27" s="3">
-        <v>-5002900</v>
+        <v>-5109800</v>
       </c>
       <c r="K27" s="3">
         <v>97200</v>
@@ -1538,22 +1540,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-99300</v>
+        <v>-101400</v>
       </c>
       <c r="E29" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="F29" s="3">
-        <v>-84400</v>
+        <v>-86200</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>53400</v>
+        <v>54500</v>
       </c>
       <c r="I29" s="3">
-        <v>-62000</v>
+        <v>-63400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1664,25 +1666,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2577100</v>
+        <v>2632200</v>
       </c>
       <c r="E32" s="3">
-        <v>758100</v>
+        <v>774300</v>
       </c>
       <c r="F32" s="3">
-        <v>787900</v>
+        <v>804700</v>
       </c>
       <c r="G32" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="H32" s="3">
-        <v>2527500</v>
+        <v>2581500</v>
       </c>
       <c r="I32" s="3">
-        <v>-3491600</v>
+        <v>-3566200</v>
       </c>
       <c r="J32" s="3">
-        <v>5707700</v>
+        <v>5829600</v>
       </c>
       <c r="K32" s="3">
         <v>1487600</v>
@@ -1706,25 +1708,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1574600</v>
+        <v>-1608200</v>
       </c>
       <c r="E33" s="3">
-        <v>148900</v>
+        <v>152100</v>
       </c>
       <c r="F33" s="3">
-        <v>-3933300</v>
+        <v>-4017300</v>
       </c>
       <c r="G33" s="3">
-        <v>-1631700</v>
+        <v>-1666500</v>
       </c>
       <c r="H33" s="3">
-        <v>-2979200</v>
+        <v>-3042800</v>
       </c>
       <c r="I33" s="3">
-        <v>4196400</v>
+        <v>4286000</v>
       </c>
       <c r="J33" s="3">
-        <v>-5002900</v>
+        <v>-5109800</v>
       </c>
       <c r="K33" s="3">
         <v>97200</v>
@@ -1790,25 +1792,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1574600</v>
+        <v>-1608200</v>
       </c>
       <c r="E35" s="3">
-        <v>148900</v>
+        <v>152100</v>
       </c>
       <c r="F35" s="3">
-        <v>-3933300</v>
+        <v>-4017300</v>
       </c>
       <c r="G35" s="3">
-        <v>-1631700</v>
+        <v>-1666500</v>
       </c>
       <c r="H35" s="3">
-        <v>-2979200</v>
+        <v>-3042800</v>
       </c>
       <c r="I35" s="3">
-        <v>4196400</v>
+        <v>4286000</v>
       </c>
       <c r="J35" s="3">
-        <v>-5002900</v>
+        <v>-5109800</v>
       </c>
       <c r="K35" s="3">
         <v>97200</v>
@@ -1915,25 +1917,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>801600</v>
+        <v>818700</v>
       </c>
       <c r="E41" s="3">
-        <v>936800</v>
+        <v>956800</v>
       </c>
       <c r="F41" s="3">
-        <v>1819000</v>
+        <v>1857900</v>
       </c>
       <c r="G41" s="3">
-        <v>2340100</v>
+        <v>2390100</v>
       </c>
       <c r="H41" s="3">
-        <v>2747100</v>
+        <v>2805800</v>
       </c>
       <c r="I41" s="3">
-        <v>5406200</v>
+        <v>5521600</v>
       </c>
       <c r="J41" s="3">
-        <v>5163000</v>
+        <v>5273200</v>
       </c>
       <c r="K41" s="3">
         <v>1667900</v>
@@ -1957,25 +1959,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2155300</v>
+        <v>2201300</v>
       </c>
       <c r="E42" s="3">
-        <v>2214800</v>
+        <v>2262100</v>
       </c>
       <c r="F42" s="3">
-        <v>2286800</v>
+        <v>2335600</v>
       </c>
       <c r="G42" s="3">
-        <v>3152900</v>
+        <v>3220200</v>
       </c>
       <c r="H42" s="3">
-        <v>3393600</v>
+        <v>3466100</v>
       </c>
       <c r="I42" s="3">
-        <v>1897200</v>
+        <v>1937700</v>
       </c>
       <c r="J42" s="3">
-        <v>1675100</v>
+        <v>1710900</v>
       </c>
       <c r="K42" s="3">
         <v>2029900</v>
@@ -1999,25 +2001,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8296000</v>
+        <v>8473200</v>
       </c>
       <c r="E43" s="3">
-        <v>7372800</v>
+        <v>7530300</v>
       </c>
       <c r="F43" s="3">
-        <v>7671900</v>
+        <v>7835700</v>
       </c>
       <c r="G43" s="3">
-        <v>8183100</v>
+        <v>8357800</v>
       </c>
       <c r="H43" s="3">
-        <v>7678100</v>
+        <v>7842100</v>
       </c>
       <c r="I43" s="3">
-        <v>15445500</v>
+        <v>15775400</v>
       </c>
       <c r="J43" s="3">
-        <v>15322600</v>
+        <v>15649900</v>
       </c>
       <c r="K43" s="3">
         <v>7112100</v>
@@ -2041,25 +2043,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5841700</v>
+        <v>5966400</v>
       </c>
       <c r="E44" s="3">
-        <v>4548800</v>
+        <v>4645900</v>
       </c>
       <c r="F44" s="3">
-        <v>4578600</v>
+        <v>4676300</v>
       </c>
       <c r="G44" s="3">
-        <v>5360300</v>
+        <v>5474700</v>
       </c>
       <c r="H44" s="3">
-        <v>5319300</v>
+        <v>5432900</v>
       </c>
       <c r="I44" s="3">
-        <v>9554200</v>
+        <v>9758200</v>
       </c>
       <c r="J44" s="3">
-        <v>7989500</v>
+        <v>8160100</v>
       </c>
       <c r="K44" s="3">
         <v>3088700</v>
@@ -2083,25 +2085,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2771900</v>
+        <v>2831100</v>
       </c>
       <c r="E45" s="3">
-        <v>1413300</v>
+        <v>1443500</v>
       </c>
       <c r="F45" s="3">
-        <v>1425700</v>
+        <v>1456100</v>
       </c>
       <c r="G45" s="3">
-        <v>883400</v>
+        <v>902300</v>
       </c>
       <c r="H45" s="3">
-        <v>1732200</v>
+        <v>1769200</v>
       </c>
       <c r="I45" s="3">
-        <v>340000</v>
+        <v>347200</v>
       </c>
       <c r="J45" s="3">
-        <v>299000</v>
+        <v>305400</v>
       </c>
       <c r="K45" s="3">
         <v>292800</v>
@@ -2125,25 +2127,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19866400</v>
+        <v>20290700</v>
       </c>
       <c r="E46" s="3">
-        <v>16486500</v>
+        <v>16838600</v>
       </c>
       <c r="F46" s="3">
-        <v>17781900</v>
+        <v>18161700</v>
       </c>
       <c r="G46" s="3">
-        <v>19919800</v>
+        <v>20345200</v>
       </c>
       <c r="H46" s="3">
-        <v>20870300</v>
+        <v>21316000</v>
       </c>
       <c r="I46" s="3">
-        <v>16275600</v>
+        <v>16623200</v>
       </c>
       <c r="J46" s="3">
-        <v>14550900</v>
+        <v>14861600</v>
       </c>
       <c r="K46" s="3">
         <v>14191500</v>
@@ -2167,25 +2169,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>568300</v>
+        <v>580400</v>
       </c>
       <c r="E47" s="3">
-        <v>546000</v>
+        <v>557600</v>
       </c>
       <c r="F47" s="3">
-        <v>512500</v>
+        <v>523400</v>
       </c>
       <c r="G47" s="3">
-        <v>536000</v>
+        <v>547500</v>
       </c>
       <c r="H47" s="3">
-        <v>538500</v>
+        <v>550000</v>
       </c>
       <c r="I47" s="3">
-        <v>497600</v>
+        <v>508200</v>
       </c>
       <c r="J47" s="3">
-        <v>735800</v>
+        <v>751500</v>
       </c>
       <c r="K47" s="3">
         <v>713300</v>
@@ -2209,25 +2211,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6200300</v>
+        <v>6332700</v>
       </c>
       <c r="E48" s="3">
-        <v>6352900</v>
+        <v>6488600</v>
       </c>
       <c r="F48" s="3">
-        <v>7345500</v>
+        <v>7502400</v>
       </c>
       <c r="G48" s="3">
-        <v>8452300</v>
+        <v>8632800</v>
       </c>
       <c r="H48" s="3">
-        <v>6115900</v>
+        <v>6246500</v>
       </c>
       <c r="I48" s="3">
-        <v>5779600</v>
+        <v>5903100</v>
       </c>
       <c r="J48" s="3">
-        <v>10234100</v>
+        <v>10452700</v>
       </c>
       <c r="K48" s="3">
         <v>4087800</v>
@@ -2251,25 +2253,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5084800</v>
+        <v>5193400</v>
       </c>
       <c r="E49" s="3">
-        <v>5014100</v>
+        <v>5121200</v>
       </c>
       <c r="F49" s="3">
-        <v>6383900</v>
+        <v>6520300</v>
       </c>
       <c r="G49" s="3">
-        <v>6752400</v>
+        <v>6896600</v>
       </c>
       <c r="H49" s="3">
-        <v>6570000</v>
+        <v>6710400</v>
       </c>
       <c r="I49" s="3">
-        <v>6905100</v>
+        <v>7052500</v>
       </c>
       <c r="J49" s="3">
-        <v>11410400</v>
+        <v>11654100</v>
       </c>
       <c r="K49" s="3">
         <v>5440700</v>
@@ -2377,25 +2379,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4821700</v>
+        <v>4924700</v>
       </c>
       <c r="E52" s="3">
-        <v>7179300</v>
+        <v>7332600</v>
       </c>
       <c r="F52" s="3">
-        <v>4600900</v>
+        <v>4699100</v>
       </c>
       <c r="G52" s="3">
-        <v>4375100</v>
+        <v>4468500</v>
       </c>
       <c r="H52" s="3">
-        <v>5433500</v>
+        <v>5549500</v>
       </c>
       <c r="I52" s="3">
-        <v>5194000</v>
+        <v>5304900</v>
       </c>
       <c r="J52" s="3">
-        <v>4358900</v>
+        <v>4452000</v>
       </c>
       <c r="K52" s="3">
         <v>1714800</v>
@@ -2461,25 +2463,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36541600</v>
+        <v>37322000</v>
       </c>
       <c r="E54" s="3">
-        <v>35578700</v>
+        <v>36338600</v>
       </c>
       <c r="F54" s="3">
-        <v>36624700</v>
+        <v>37406900</v>
       </c>
       <c r="G54" s="3">
-        <v>40035700</v>
+        <v>40890700</v>
       </c>
       <c r="H54" s="3">
-        <v>39528200</v>
+        <v>40372400</v>
       </c>
       <c r="I54" s="3">
-        <v>34651800</v>
+        <v>35391900</v>
       </c>
       <c r="J54" s="3">
-        <v>29882200</v>
+        <v>30520400</v>
       </c>
       <c r="K54" s="3">
         <v>26148100</v>
@@ -2539,25 +2541,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2856300</v>
+        <v>2917300</v>
       </c>
       <c r="E57" s="3">
-        <v>2181300</v>
+        <v>2227900</v>
       </c>
       <c r="F57" s="3">
-        <v>2482800</v>
+        <v>2535900</v>
       </c>
       <c r="G57" s="3">
-        <v>3844000</v>
+        <v>3926100</v>
       </c>
       <c r="H57" s="3">
-        <v>3914700</v>
+        <v>3998300</v>
       </c>
       <c r="I57" s="3">
-        <v>17011400</v>
+        <v>17374700</v>
       </c>
       <c r="J57" s="3">
-        <v>10400400</v>
+        <v>10622500</v>
       </c>
       <c r="K57" s="3">
         <v>1867100</v>
@@ -2581,25 +2583,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>444200</v>
+        <v>453700</v>
       </c>
       <c r="E58" s="3">
-        <v>346200</v>
+        <v>353600</v>
       </c>
       <c r="F58" s="3">
-        <v>1578300</v>
+        <v>1612000</v>
       </c>
       <c r="G58" s="3">
-        <v>961600</v>
+        <v>982200</v>
       </c>
       <c r="H58" s="3">
-        <v>1064600</v>
+        <v>1087300</v>
       </c>
       <c r="I58" s="3">
-        <v>203500</v>
+        <v>207800</v>
       </c>
       <c r="J58" s="3">
-        <v>426800</v>
+        <v>436000</v>
       </c>
       <c r="K58" s="3">
         <v>490800</v>
@@ -2623,25 +2625,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13968900</v>
+        <v>14267300</v>
       </c>
       <c r="E59" s="3">
-        <v>11318600</v>
+        <v>11560300</v>
       </c>
       <c r="F59" s="3">
-        <v>12937800</v>
+        <v>13214100</v>
       </c>
       <c r="G59" s="3">
-        <v>13776600</v>
+        <v>14070800</v>
       </c>
       <c r="H59" s="3">
-        <v>13447800</v>
+        <v>13735000</v>
       </c>
       <c r="I59" s="3">
-        <v>18427100</v>
+        <v>18820700</v>
       </c>
       <c r="J59" s="3">
-        <v>13972600</v>
+        <v>14271100</v>
       </c>
       <c r="K59" s="3">
         <v>7215200</v>
@@ -2665,25 +2667,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17269500</v>
+        <v>17638300</v>
       </c>
       <c r="E60" s="3">
-        <v>13846100</v>
+        <v>14141800</v>
       </c>
       <c r="F60" s="3">
-        <v>16999000</v>
+        <v>17362000</v>
       </c>
       <c r="G60" s="3">
-        <v>18582200</v>
+        <v>18979100</v>
       </c>
       <c r="H60" s="3">
-        <v>18427100</v>
+        <v>18820700</v>
       </c>
       <c r="I60" s="3">
-        <v>15424400</v>
+        <v>15753800</v>
       </c>
       <c r="J60" s="3">
-        <v>13905600</v>
+        <v>14202600</v>
       </c>
       <c r="K60" s="3">
         <v>9573000</v>
@@ -2707,25 +2709,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6944800</v>
+        <v>7093100</v>
       </c>
       <c r="E61" s="3">
-        <v>9302300</v>
+        <v>9500900</v>
       </c>
       <c r="F61" s="3">
-        <v>7516800</v>
+        <v>7677300</v>
       </c>
       <c r="G61" s="3">
-        <v>6092300</v>
+        <v>6222400</v>
       </c>
       <c r="H61" s="3">
-        <v>4720000</v>
+        <v>4820800</v>
       </c>
       <c r="I61" s="3">
-        <v>4226200</v>
+        <v>4316400</v>
       </c>
       <c r="J61" s="3">
-        <v>3951900</v>
+        <v>4036400</v>
       </c>
       <c r="K61" s="3">
         <v>3376900</v>
@@ -2749,25 +2751,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19792000</v>
+        <v>20214700</v>
       </c>
       <c r="E62" s="3">
-        <v>17285600</v>
+        <v>17654800</v>
       </c>
       <c r="F62" s="3">
-        <v>17875000</v>
+        <v>18256700</v>
       </c>
       <c r="G62" s="3">
-        <v>19504100</v>
+        <v>19920700</v>
       </c>
       <c r="H62" s="3">
-        <v>17219800</v>
+        <v>17587600</v>
       </c>
       <c r="I62" s="3">
-        <v>21882700</v>
+        <v>22350100</v>
       </c>
       <c r="J62" s="3">
-        <v>25853300</v>
+        <v>26405500</v>
       </c>
       <c r="K62" s="3">
         <v>7323000</v>
@@ -2917,25 +2919,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44048400</v>
+        <v>44989200</v>
       </c>
       <c r="E66" s="3">
-        <v>41363300</v>
+        <v>42246700</v>
       </c>
       <c r="F66" s="3">
-        <v>42700900</v>
+        <v>43612900</v>
       </c>
       <c r="G66" s="3">
-        <v>44224600</v>
+        <v>45169100</v>
       </c>
       <c r="H66" s="3">
-        <v>40860800</v>
+        <v>41733500</v>
       </c>
       <c r="I66" s="3">
-        <v>33497900</v>
+        <v>34213300</v>
       </c>
       <c r="J66" s="3">
-        <v>33057400</v>
+        <v>33763400</v>
       </c>
       <c r="K66" s="3">
         <v>20275200</v>
@@ -3145,25 +3147,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11940200</v>
+        <v>-12195200</v>
       </c>
       <c r="E72" s="3">
-        <v>-9485900</v>
+        <v>-9688500</v>
       </c>
       <c r="F72" s="3">
-        <v>-9942500</v>
+        <v>-10154900</v>
       </c>
       <c r="G72" s="3">
-        <v>-5437200</v>
+        <v>-5553300</v>
       </c>
       <c r="H72" s="3">
-        <v>-3007700</v>
+        <v>-3071900</v>
       </c>
       <c r="I72" s="3">
-        <v>598100</v>
+        <v>610800</v>
       </c>
       <c r="J72" s="3">
-        <v>-3691400</v>
+        <v>-3770200</v>
       </c>
       <c r="K72" s="3">
         <v>5349300</v>
@@ -3313,25 +3315,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-7506800</v>
+        <v>-7667200</v>
       </c>
       <c r="E76" s="3">
-        <v>-5784600</v>
+        <v>-5908200</v>
       </c>
       <c r="F76" s="3">
-        <v>-6076200</v>
+        <v>-6206000</v>
       </c>
       <c r="G76" s="3">
-        <v>-4188900</v>
+        <v>-4278400</v>
       </c>
       <c r="H76" s="3">
-        <v>-1332600</v>
+        <v>-1361100</v>
       </c>
       <c r="I76" s="3">
-        <v>1153900</v>
+        <v>1178600</v>
       </c>
       <c r="J76" s="3">
-        <v>-3175200</v>
+        <v>-3243000</v>
       </c>
       <c r="K76" s="3">
         <v>5872900</v>
@@ -3444,25 +3446,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1574600</v>
+        <v>-1608200</v>
       </c>
       <c r="E81" s="3">
-        <v>148900</v>
+        <v>152100</v>
       </c>
       <c r="F81" s="3">
-        <v>-3933300</v>
+        <v>-4017300</v>
       </c>
       <c r="G81" s="3">
-        <v>-1631700</v>
+        <v>-1666500</v>
       </c>
       <c r="H81" s="3">
-        <v>-2979200</v>
+        <v>-3042800</v>
       </c>
       <c r="I81" s="3">
-        <v>4196400</v>
+        <v>4286000</v>
       </c>
       <c r="J81" s="3">
-        <v>-5002900</v>
+        <v>-5109800</v>
       </c>
       <c r="K81" s="3">
         <v>97200</v>
@@ -3504,25 +3506,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1245800</v>
+        <v>1272400</v>
       </c>
       <c r="E83" s="3">
-        <v>1252000</v>
+        <v>1278700</v>
       </c>
       <c r="F83" s="3">
-        <v>3046200</v>
+        <v>3111200</v>
       </c>
       <c r="G83" s="3">
-        <v>1631700</v>
+        <v>1666500</v>
       </c>
       <c r="H83" s="3">
-        <v>1119200</v>
+        <v>1143100</v>
       </c>
       <c r="I83" s="3">
-        <v>976500</v>
+        <v>997400</v>
       </c>
       <c r="J83" s="3">
-        <v>1029900</v>
+        <v>1051900</v>
       </c>
       <c r="K83" s="3">
         <v>913600</v>
@@ -3756,25 +3758,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2295500</v>
+        <v>2344500</v>
       </c>
       <c r="E89" s="3">
-        <v>-321400</v>
+        <v>-328200</v>
       </c>
       <c r="F89" s="3">
-        <v>-3733600</v>
+        <v>-3813300</v>
       </c>
       <c r="G89" s="3">
-        <v>2850100</v>
+        <v>2911000</v>
       </c>
       <c r="H89" s="3">
-        <v>2762000</v>
+        <v>2821000</v>
       </c>
       <c r="I89" s="3">
-        <v>1876100</v>
+        <v>1916200</v>
       </c>
       <c r="J89" s="3">
-        <v>1750800</v>
+        <v>1788200</v>
       </c>
       <c r="K89" s="3">
         <v>1281400</v>
@@ -3816,25 +3818,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-445400</v>
+        <v>-455000</v>
       </c>
       <c r="E91" s="3">
-        <v>-407000</v>
+        <v>-415700</v>
       </c>
       <c r="F91" s="3">
-        <v>-725900</v>
+        <v>-741400</v>
       </c>
       <c r="G91" s="3">
-        <v>-926900</v>
+        <v>-946700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1122900</v>
+        <v>-1146900</v>
       </c>
       <c r="I91" s="3">
-        <v>-905800</v>
+        <v>-925100</v>
       </c>
       <c r="J91" s="3">
-        <v>-725900</v>
+        <v>-741400</v>
       </c>
       <c r="K91" s="3">
         <v>-570400</v>
@@ -3942,25 +3944,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1024900</v>
+        <v>1046800</v>
       </c>
       <c r="E94" s="3">
-        <v>-531100</v>
+        <v>-542400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1253200</v>
+        <v>-1280000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1139100</v>
+        <v>-1163400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1209800</v>
+        <v>-1235600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1431900</v>
+        <v>-1462500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1691200</v>
+        <v>-1727300</v>
       </c>
       <c r="K94" s="3">
         <v>-1165400</v>
@@ -4170,25 +4172,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3556100</v>
+        <v>-3632100</v>
       </c>
       <c r="E100" s="3">
-        <v>-109200</v>
+        <v>-111500</v>
       </c>
       <c r="F100" s="3">
-        <v>3752200</v>
+        <v>3832300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2223500</v>
+        <v>-2271000</v>
       </c>
       <c r="H100" s="3">
-        <v>871000</v>
+        <v>889600</v>
       </c>
       <c r="I100" s="3">
-        <v>-157600</v>
+        <v>-160900</v>
       </c>
       <c r="J100" s="3">
-        <v>-917000</v>
+        <v>-936500</v>
       </c>
       <c r="K100" s="3">
         <v>258900</v>
@@ -4212,25 +4214,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>193600</v>
+        <v>197700</v>
       </c>
       <c r="E101" s="3">
-        <v>-101700</v>
+        <v>-103900</v>
       </c>
       <c r="F101" s="3">
-        <v>69500</v>
+        <v>71000</v>
       </c>
       <c r="G101" s="3">
-        <v>-129000</v>
+        <v>-131800</v>
       </c>
       <c r="H101" s="3">
-        <v>81900</v>
+        <v>83600</v>
       </c>
       <c r="I101" s="3">
-        <v>-85600</v>
+        <v>-87400</v>
       </c>
       <c r="J101" s="3">
-        <v>354900</v>
+        <v>362400</v>
       </c>
       <c r="K101" s="3">
         <v>-7000</v>
@@ -4254,25 +4256,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-42200</v>
+        <v>-43100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1063400</v>
+        <v>-1086100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1165100</v>
+        <v>-1190000</v>
       </c>
       <c r="G102" s="3">
-        <v>-641500</v>
+        <v>-655200</v>
       </c>
       <c r="H102" s="3">
-        <v>2505200</v>
+        <v>2558700</v>
       </c>
       <c r="I102" s="3">
-        <v>201000</v>
+        <v>205300</v>
       </c>
       <c r="J102" s="3">
-        <v>-502500</v>
+        <v>-513300</v>
       </c>
       <c r="K102" s="3">
         <v>367800</v>

--- a/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -666,9 +666,7 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -733,25 +731,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17133900</v>
+        <v>16772900</v>
       </c>
       <c r="E8" s="3">
-        <v>14216600</v>
+        <v>13917100</v>
       </c>
       <c r="F8" s="3">
-        <v>14562500</v>
+        <v>14255700</v>
       </c>
       <c r="G8" s="3">
-        <v>21020700</v>
+        <v>20577800</v>
       </c>
       <c r="H8" s="3">
-        <v>19933400</v>
+        <v>19513400</v>
       </c>
       <c r="I8" s="3">
-        <v>18688900</v>
+        <v>18295100</v>
       </c>
       <c r="J8" s="3">
-        <v>18952500</v>
+        <v>18553200</v>
       </c>
       <c r="K8" s="3">
         <v>16076100</v>
@@ -775,25 +773,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13639900</v>
+        <v>13352600</v>
       </c>
       <c r="E9" s="3">
-        <v>11509600</v>
+        <v>11267100</v>
       </c>
       <c r="F9" s="3">
-        <v>14799500</v>
+        <v>14487700</v>
       </c>
       <c r="G9" s="3">
-        <v>19826900</v>
+        <v>19409200</v>
       </c>
       <c r="H9" s="3">
-        <v>18415100</v>
+        <v>18027200</v>
       </c>
       <c r="I9" s="3">
-        <v>31478500</v>
+        <v>30815300</v>
       </c>
       <c r="J9" s="3">
-        <v>15089700</v>
+        <v>14771800</v>
       </c>
       <c r="K9" s="3">
         <v>12250600</v>
@@ -817,25 +815,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3493900</v>
+        <v>3420300</v>
       </c>
       <c r="E10" s="3">
-        <v>2707000</v>
+        <v>2649900</v>
       </c>
       <c r="F10" s="3">
-        <v>-237000</v>
+        <v>-232000</v>
       </c>
       <c r="G10" s="3">
-        <v>1193800</v>
+        <v>1168600</v>
       </c>
       <c r="H10" s="3">
-        <v>1518200</v>
+        <v>1486200</v>
       </c>
       <c r="I10" s="3">
-        <v>-12789600</v>
+        <v>-12520100</v>
       </c>
       <c r="J10" s="3">
-        <v>3862700</v>
+        <v>3781300</v>
       </c>
       <c r="K10" s="3">
         <v>3825500</v>
@@ -877,25 +875,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1010000</v>
+        <v>988800</v>
       </c>
       <c r="E12" s="3">
-        <v>897200</v>
+        <v>878300</v>
       </c>
       <c r="F12" s="3">
-        <v>816100</v>
+        <v>798900</v>
       </c>
       <c r="G12" s="3">
-        <v>807300</v>
+        <v>790300</v>
       </c>
       <c r="H12" s="3">
-        <v>819900</v>
+        <v>802700</v>
       </c>
       <c r="I12" s="3">
-        <v>879500</v>
+        <v>861000</v>
       </c>
       <c r="J12" s="3">
-        <v>977100</v>
+        <v>956500</v>
       </c>
       <c r="K12" s="3">
         <v>797700</v>
@@ -961,25 +959,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-102700</v>
+        <v>-100500</v>
       </c>
       <c r="E14" s="3">
-        <v>-71000</v>
+        <v>-69500</v>
       </c>
       <c r="F14" s="3">
-        <v>627300</v>
+        <v>614100</v>
       </c>
       <c r="G14" s="3">
-        <v>-150800</v>
+        <v>-147600</v>
       </c>
       <c r="H14" s="3">
-        <v>-444800</v>
+        <v>-435500</v>
       </c>
       <c r="I14" s="3">
-        <v>-994800</v>
+        <v>-973900</v>
       </c>
       <c r="J14" s="3">
-        <v>1242000</v>
+        <v>1215800</v>
       </c>
       <c r="K14" s="3">
         <v>-2300</v>
@@ -1003,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>119100</v>
+        <v>116600</v>
       </c>
       <c r="E15" s="3">
-        <v>88700</v>
+        <v>86800</v>
       </c>
       <c r="F15" s="3">
-        <v>709700</v>
+        <v>694700</v>
       </c>
       <c r="G15" s="3">
-        <v>143200</v>
+        <v>140200</v>
       </c>
       <c r="H15" s="3">
-        <v>144500</v>
+        <v>141400</v>
       </c>
       <c r="I15" s="3">
-        <v>188800</v>
+        <v>184800</v>
       </c>
       <c r="J15" s="3">
-        <v>186300</v>
+        <v>182400</v>
       </c>
       <c r="K15" s="3">
         <v>160500</v>
@@ -1060,25 +1058,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15970500</v>
+        <v>15634000</v>
       </c>
       <c r="E17" s="3">
-        <v>13495500</v>
+        <v>13211100</v>
       </c>
       <c r="F17" s="3">
-        <v>17079400</v>
+        <v>16719600</v>
       </c>
       <c r="G17" s="3">
-        <v>21924300</v>
+        <v>21462400</v>
       </c>
       <c r="H17" s="3">
-        <v>20951000</v>
+        <v>20509600</v>
       </c>
       <c r="I17" s="3">
-        <v>17230200</v>
+        <v>16867200</v>
       </c>
       <c r="J17" s="3">
-        <v>18900500</v>
+        <v>18502300</v>
       </c>
       <c r="K17" s="3">
         <v>14318000</v>
@@ -1102,25 +1100,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1163400</v>
+        <v>1138900</v>
       </c>
       <c r="E18" s="3">
-        <v>721100</v>
+        <v>705900</v>
       </c>
       <c r="F18" s="3">
-        <v>-2516900</v>
+        <v>-2463800</v>
       </c>
       <c r="G18" s="3">
-        <v>-903600</v>
+        <v>-884500</v>
       </c>
       <c r="H18" s="3">
-        <v>-1017600</v>
+        <v>-996200</v>
       </c>
       <c r="I18" s="3">
-        <v>1458700</v>
+        <v>1427900</v>
       </c>
       <c r="J18" s="3">
-        <v>52000</v>
+        <v>50900</v>
       </c>
       <c r="K18" s="3">
         <v>1758100</v>
@@ -1162,25 +1160,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2632200</v>
+        <v>-2576700</v>
       </c>
       <c r="E20" s="3">
-        <v>-774300</v>
+        <v>-758000</v>
       </c>
       <c r="F20" s="3">
-        <v>-804700</v>
+        <v>-787800</v>
       </c>
       <c r="G20" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H20" s="3">
-        <v>-2581500</v>
+        <v>-2527100</v>
       </c>
       <c r="I20" s="3">
-        <v>3566200</v>
+        <v>3491000</v>
       </c>
       <c r="J20" s="3">
-        <v>-5829600</v>
+        <v>-5706800</v>
       </c>
       <c r="K20" s="3">
         <v>-1487600</v>
@@ -1204,25 +1202,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-196400</v>
+        <v>-191100</v>
       </c>
       <c r="E21" s="3">
-        <v>1225500</v>
+        <v>1200900</v>
       </c>
       <c r="F21" s="3">
-        <v>-210400</v>
+        <v>-203000</v>
       </c>
       <c r="G21" s="3">
-        <v>768000</v>
+        <v>753400</v>
       </c>
       <c r="H21" s="3">
-        <v>-2456000</v>
+        <v>-2403200</v>
       </c>
       <c r="I21" s="3">
-        <v>6022200</v>
+        <v>5896300</v>
       </c>
       <c r="J21" s="3">
-        <v>-4725800</v>
+        <v>-4625200</v>
       </c>
       <c r="K21" s="3">
         <v>1156300</v>
@@ -1246,25 +1244,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>434700</v>
+        <v>425500</v>
       </c>
       <c r="E22" s="3">
-        <v>319400</v>
+        <v>312600</v>
       </c>
       <c r="F22" s="3">
-        <v>225600</v>
+        <v>220800</v>
       </c>
       <c r="G22" s="3">
-        <v>230600</v>
+        <v>225800</v>
       </c>
       <c r="H22" s="3">
-        <v>135600</v>
+        <v>132700</v>
       </c>
       <c r="I22" s="3">
-        <v>84900</v>
+        <v>83100</v>
       </c>
       <c r="J22" s="3">
-        <v>97600</v>
+        <v>95500</v>
       </c>
       <c r="K22" s="3">
         <v>83200</v>
@@ -1288,25 +1286,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1903500</v>
+        <v>-1863400</v>
       </c>
       <c r="E23" s="3">
-        <v>-372600</v>
+        <v>-364700</v>
       </c>
       <c r="F23" s="3">
-        <v>-3547200</v>
+        <v>-3472400</v>
       </c>
       <c r="G23" s="3">
-        <v>-1129200</v>
+        <v>-1105400</v>
       </c>
       <c r="H23" s="3">
-        <v>-3734700</v>
+        <v>-3656000</v>
       </c>
       <c r="I23" s="3">
-        <v>4939900</v>
+        <v>4835900</v>
       </c>
       <c r="J23" s="3">
-        <v>-5875200</v>
+        <v>-5751400</v>
       </c>
       <c r="K23" s="3">
         <v>187400</v>
@@ -1330,25 +1328,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-390300</v>
+        <v>-382100</v>
       </c>
       <c r="E24" s="3">
-        <v>-529700</v>
+        <v>-518600</v>
       </c>
       <c r="F24" s="3">
-        <v>382700</v>
+        <v>374700</v>
       </c>
       <c r="G24" s="3">
-        <v>532300</v>
+        <v>521100</v>
       </c>
       <c r="H24" s="3">
-        <v>-647600</v>
+        <v>-633900</v>
       </c>
       <c r="I24" s="3">
-        <v>589300</v>
+        <v>576900</v>
       </c>
       <c r="J24" s="3">
-        <v>-765400</v>
+        <v>-749300</v>
       </c>
       <c r="K24" s="3">
         <v>89000</v>
@@ -1414,25 +1412,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1513200</v>
+        <v>-1481300</v>
       </c>
       <c r="E26" s="3">
-        <v>157100</v>
+        <v>153800</v>
       </c>
       <c r="F26" s="3">
-        <v>-3929900</v>
+        <v>-3847100</v>
       </c>
       <c r="G26" s="3">
-        <v>-1661400</v>
+        <v>-1626400</v>
       </c>
       <c r="H26" s="3">
-        <v>-3087100</v>
+        <v>-3022100</v>
       </c>
       <c r="I26" s="3">
-        <v>4350600</v>
+        <v>4259000</v>
       </c>
       <c r="J26" s="3">
-        <v>-5109800</v>
+        <v>-5002100</v>
       </c>
       <c r="K26" s="3">
         <v>98400</v>
@@ -1456,25 +1454,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1506800</v>
+        <v>-1475100</v>
       </c>
       <c r="E27" s="3">
-        <v>155900</v>
+        <v>152600</v>
       </c>
       <c r="F27" s="3">
-        <v>-3931200</v>
+        <v>-3848300</v>
       </c>
       <c r="G27" s="3">
-        <v>-1666500</v>
+        <v>-1631400</v>
       </c>
       <c r="H27" s="3">
-        <v>-3097300</v>
+        <v>-3032000</v>
       </c>
       <c r="I27" s="3">
-        <v>4349400</v>
+        <v>4257700</v>
       </c>
       <c r="J27" s="3">
-        <v>-5109800</v>
+        <v>-5002100</v>
       </c>
       <c r="K27" s="3">
         <v>97200</v>
@@ -1540,22 +1538,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-101400</v>
+        <v>-99200</v>
       </c>
       <c r="E29" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="F29" s="3">
-        <v>-86200</v>
+        <v>-84400</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>54500</v>
+        <v>53300</v>
       </c>
       <c r="I29" s="3">
-        <v>-63400</v>
+        <v>-62000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1666,25 +1664,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2632200</v>
+        <v>2576700</v>
       </c>
       <c r="E32" s="3">
-        <v>774300</v>
+        <v>758000</v>
       </c>
       <c r="F32" s="3">
-        <v>804700</v>
+        <v>787800</v>
       </c>
       <c r="G32" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="H32" s="3">
-        <v>2581500</v>
+        <v>2527100</v>
       </c>
       <c r="I32" s="3">
-        <v>-3566200</v>
+        <v>-3491000</v>
       </c>
       <c r="J32" s="3">
-        <v>5829600</v>
+        <v>5706800</v>
       </c>
       <c r="K32" s="3">
         <v>1487600</v>
@@ -1708,25 +1706,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1608200</v>
+        <v>-1574300</v>
       </c>
       <c r="E33" s="3">
-        <v>152100</v>
+        <v>148900</v>
       </c>
       <c r="F33" s="3">
-        <v>-4017300</v>
+        <v>-3932700</v>
       </c>
       <c r="G33" s="3">
-        <v>-1666500</v>
+        <v>-1631400</v>
       </c>
       <c r="H33" s="3">
-        <v>-3042800</v>
+        <v>-2978700</v>
       </c>
       <c r="I33" s="3">
-        <v>4286000</v>
+        <v>4195700</v>
       </c>
       <c r="J33" s="3">
-        <v>-5109800</v>
+        <v>-5002100</v>
       </c>
       <c r="K33" s="3">
         <v>97200</v>
@@ -1792,25 +1790,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1608200</v>
+        <v>-1574300</v>
       </c>
       <c r="E35" s="3">
-        <v>152100</v>
+        <v>148900</v>
       </c>
       <c r="F35" s="3">
-        <v>-4017300</v>
+        <v>-3932700</v>
       </c>
       <c r="G35" s="3">
-        <v>-1666500</v>
+        <v>-1631400</v>
       </c>
       <c r="H35" s="3">
-        <v>-3042800</v>
+        <v>-2978700</v>
       </c>
       <c r="I35" s="3">
-        <v>4286000</v>
+        <v>4195700</v>
       </c>
       <c r="J35" s="3">
-        <v>-5109800</v>
+        <v>-5002100</v>
       </c>
       <c r="K35" s="3">
         <v>97200</v>
@@ -1917,25 +1915,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>818700</v>
+        <v>801400</v>
       </c>
       <c r="E41" s="3">
-        <v>956800</v>
+        <v>936700</v>
       </c>
       <c r="F41" s="3">
-        <v>1857900</v>
+        <v>1818700</v>
       </c>
       <c r="G41" s="3">
-        <v>2390100</v>
+        <v>2339800</v>
       </c>
       <c r="H41" s="3">
-        <v>2805800</v>
+        <v>2746700</v>
       </c>
       <c r="I41" s="3">
-        <v>5521600</v>
+        <v>5405300</v>
       </c>
       <c r="J41" s="3">
-        <v>5273200</v>
+        <v>5162100</v>
       </c>
       <c r="K41" s="3">
         <v>1667900</v>
@@ -1959,25 +1957,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2201300</v>
+        <v>2154900</v>
       </c>
       <c r="E42" s="3">
-        <v>2262100</v>
+        <v>2214500</v>
       </c>
       <c r="F42" s="3">
-        <v>2335600</v>
+        <v>2286400</v>
       </c>
       <c r="G42" s="3">
-        <v>3220200</v>
+        <v>3152400</v>
       </c>
       <c r="H42" s="3">
-        <v>3466100</v>
+        <v>3393000</v>
       </c>
       <c r="I42" s="3">
-        <v>1937700</v>
+        <v>1896900</v>
       </c>
       <c r="J42" s="3">
-        <v>1710900</v>
+        <v>1674800</v>
       </c>
       <c r="K42" s="3">
         <v>2029900</v>
@@ -2001,25 +1999,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8473200</v>
+        <v>8294700</v>
       </c>
       <c r="E43" s="3">
-        <v>7530300</v>
+        <v>7371600</v>
       </c>
       <c r="F43" s="3">
-        <v>7835700</v>
+        <v>7670600</v>
       </c>
       <c r="G43" s="3">
-        <v>8357800</v>
+        <v>8181800</v>
       </c>
       <c r="H43" s="3">
-        <v>7842100</v>
+        <v>7676800</v>
       </c>
       <c r="I43" s="3">
-        <v>15775400</v>
+        <v>15443000</v>
       </c>
       <c r="J43" s="3">
-        <v>15649900</v>
+        <v>15320200</v>
       </c>
       <c r="K43" s="3">
         <v>7112100</v>
@@ -2043,25 +2041,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5966400</v>
+        <v>5840700</v>
       </c>
       <c r="E44" s="3">
-        <v>4645900</v>
+        <v>4548000</v>
       </c>
       <c r="F44" s="3">
-        <v>4676300</v>
+        <v>4577800</v>
       </c>
       <c r="G44" s="3">
-        <v>5474700</v>
+        <v>5359400</v>
       </c>
       <c r="H44" s="3">
-        <v>5432900</v>
+        <v>5318500</v>
       </c>
       <c r="I44" s="3">
-        <v>9758200</v>
+        <v>9552600</v>
       </c>
       <c r="J44" s="3">
-        <v>8160100</v>
+        <v>7988200</v>
       </c>
       <c r="K44" s="3">
         <v>3088700</v>
@@ -2085,25 +2083,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2831100</v>
+        <v>2771500</v>
       </c>
       <c r="E45" s="3">
-        <v>1443500</v>
+        <v>1413000</v>
       </c>
       <c r="F45" s="3">
-        <v>1456100</v>
+        <v>1425400</v>
       </c>
       <c r="G45" s="3">
-        <v>902300</v>
+        <v>883300</v>
       </c>
       <c r="H45" s="3">
-        <v>1769200</v>
+        <v>1731900</v>
       </c>
       <c r="I45" s="3">
-        <v>347200</v>
+        <v>339900</v>
       </c>
       <c r="J45" s="3">
-        <v>305400</v>
+        <v>299000</v>
       </c>
       <c r="K45" s="3">
         <v>292800</v>
@@ -2127,25 +2125,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20290700</v>
+        <v>19863200</v>
       </c>
       <c r="E46" s="3">
-        <v>16838600</v>
+        <v>16483900</v>
       </c>
       <c r="F46" s="3">
-        <v>18161700</v>
+        <v>17779000</v>
       </c>
       <c r="G46" s="3">
-        <v>20345200</v>
+        <v>19916600</v>
       </c>
       <c r="H46" s="3">
-        <v>21316000</v>
+        <v>20866900</v>
       </c>
       <c r="I46" s="3">
-        <v>16623200</v>
+        <v>16273000</v>
       </c>
       <c r="J46" s="3">
-        <v>14861600</v>
+        <v>14548500</v>
       </c>
       <c r="K46" s="3">
         <v>14191500</v>
@@ -2169,25 +2167,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>580400</v>
+        <v>568200</v>
       </c>
       <c r="E47" s="3">
-        <v>557600</v>
+        <v>545900</v>
       </c>
       <c r="F47" s="3">
-        <v>523400</v>
+        <v>512400</v>
       </c>
       <c r="G47" s="3">
-        <v>547500</v>
+        <v>535900</v>
       </c>
       <c r="H47" s="3">
-        <v>550000</v>
+        <v>538400</v>
       </c>
       <c r="I47" s="3">
-        <v>508200</v>
+        <v>497500</v>
       </c>
       <c r="J47" s="3">
-        <v>751500</v>
+        <v>735700</v>
       </c>
       <c r="K47" s="3">
         <v>713300</v>
@@ -2211,25 +2209,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6332700</v>
+        <v>6199300</v>
       </c>
       <c r="E48" s="3">
-        <v>6488600</v>
+        <v>6351900</v>
       </c>
       <c r="F48" s="3">
-        <v>7502400</v>
+        <v>7344400</v>
       </c>
       <c r="G48" s="3">
-        <v>8632800</v>
+        <v>8451000</v>
       </c>
       <c r="H48" s="3">
-        <v>6246500</v>
+        <v>6114900</v>
       </c>
       <c r="I48" s="3">
-        <v>5903100</v>
+        <v>5778700</v>
       </c>
       <c r="J48" s="3">
-        <v>10452700</v>
+        <v>10232500</v>
       </c>
       <c r="K48" s="3">
         <v>4087800</v>
@@ -2253,25 +2251,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5193400</v>
+        <v>5084000</v>
       </c>
       <c r="E49" s="3">
-        <v>5121200</v>
+        <v>5013300</v>
       </c>
       <c r="F49" s="3">
-        <v>6520300</v>
+        <v>6382900</v>
       </c>
       <c r="G49" s="3">
-        <v>6896600</v>
+        <v>6751300</v>
       </c>
       <c r="H49" s="3">
-        <v>6710400</v>
+        <v>6569000</v>
       </c>
       <c r="I49" s="3">
-        <v>7052500</v>
+        <v>6903900</v>
       </c>
       <c r="J49" s="3">
-        <v>11654100</v>
+        <v>11408600</v>
       </c>
       <c r="K49" s="3">
         <v>5440700</v>
@@ -2379,25 +2377,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4924700</v>
+        <v>4821000</v>
       </c>
       <c r="E52" s="3">
-        <v>7332600</v>
+        <v>7178100</v>
       </c>
       <c r="F52" s="3">
-        <v>4699100</v>
+        <v>4600100</v>
       </c>
       <c r="G52" s="3">
-        <v>4468500</v>
+        <v>4374400</v>
       </c>
       <c r="H52" s="3">
-        <v>5549500</v>
+        <v>5432600</v>
       </c>
       <c r="I52" s="3">
-        <v>5304900</v>
+        <v>5193200</v>
       </c>
       <c r="J52" s="3">
-        <v>4452000</v>
+        <v>4358200</v>
       </c>
       <c r="K52" s="3">
         <v>1714800</v>
@@ -2463,25 +2461,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37322000</v>
+        <v>36535700</v>
       </c>
       <c r="E54" s="3">
-        <v>36338600</v>
+        <v>35573000</v>
       </c>
       <c r="F54" s="3">
-        <v>37406900</v>
+        <v>36618800</v>
       </c>
       <c r="G54" s="3">
-        <v>40890700</v>
+        <v>40029200</v>
       </c>
       <c r="H54" s="3">
-        <v>40372400</v>
+        <v>39521800</v>
       </c>
       <c r="I54" s="3">
-        <v>35391900</v>
+        <v>34646200</v>
       </c>
       <c r="J54" s="3">
-        <v>30520400</v>
+        <v>29877400</v>
       </c>
       <c r="K54" s="3">
         <v>26148100</v>
@@ -2541,25 +2539,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2917300</v>
+        <v>2855900</v>
       </c>
       <c r="E57" s="3">
-        <v>2227900</v>
+        <v>2181000</v>
       </c>
       <c r="F57" s="3">
-        <v>2535900</v>
+        <v>2482400</v>
       </c>
       <c r="G57" s="3">
-        <v>3926100</v>
+        <v>3843400</v>
       </c>
       <c r="H57" s="3">
-        <v>3998300</v>
+        <v>3914100</v>
       </c>
       <c r="I57" s="3">
-        <v>17374700</v>
+        <v>17008600</v>
       </c>
       <c r="J57" s="3">
-        <v>10622500</v>
+        <v>10398700</v>
       </c>
       <c r="K57" s="3">
         <v>1867100</v>
@@ -2583,25 +2581,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>453700</v>
+        <v>444100</v>
       </c>
       <c r="E58" s="3">
-        <v>353600</v>
+        <v>346100</v>
       </c>
       <c r="F58" s="3">
-        <v>1612000</v>
+        <v>1578000</v>
       </c>
       <c r="G58" s="3">
-        <v>982200</v>
+        <v>961500</v>
       </c>
       <c r="H58" s="3">
-        <v>1087300</v>
+        <v>1064400</v>
       </c>
       <c r="I58" s="3">
-        <v>207800</v>
+        <v>203500</v>
       </c>
       <c r="J58" s="3">
-        <v>436000</v>
+        <v>426800</v>
       </c>
       <c r="K58" s="3">
         <v>490800</v>
@@ -2625,25 +2623,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14267300</v>
+        <v>13966700</v>
       </c>
       <c r="E59" s="3">
-        <v>11560300</v>
+        <v>11316800</v>
       </c>
       <c r="F59" s="3">
-        <v>13214100</v>
+        <v>12935700</v>
       </c>
       <c r="G59" s="3">
-        <v>14070800</v>
+        <v>13774400</v>
       </c>
       <c r="H59" s="3">
-        <v>13735000</v>
+        <v>13445600</v>
       </c>
       <c r="I59" s="3">
-        <v>18820700</v>
+        <v>18424200</v>
       </c>
       <c r="J59" s="3">
-        <v>14271100</v>
+        <v>13970400</v>
       </c>
       <c r="K59" s="3">
         <v>7215200</v>
@@ -2667,25 +2665,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17638300</v>
+        <v>17266700</v>
       </c>
       <c r="E60" s="3">
-        <v>14141800</v>
+        <v>13843900</v>
       </c>
       <c r="F60" s="3">
-        <v>17362000</v>
+        <v>16996200</v>
       </c>
       <c r="G60" s="3">
-        <v>18979100</v>
+        <v>18579200</v>
       </c>
       <c r="H60" s="3">
-        <v>18820700</v>
+        <v>18424200</v>
       </c>
       <c r="I60" s="3">
-        <v>15753800</v>
+        <v>15421900</v>
       </c>
       <c r="J60" s="3">
-        <v>14202600</v>
+        <v>13903400</v>
       </c>
       <c r="K60" s="3">
         <v>9573000</v>
@@ -2709,25 +2707,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7093100</v>
+        <v>6943600</v>
       </c>
       <c r="E61" s="3">
-        <v>9500900</v>
+        <v>9300800</v>
       </c>
       <c r="F61" s="3">
-        <v>7677300</v>
+        <v>7515600</v>
       </c>
       <c r="G61" s="3">
-        <v>6222400</v>
+        <v>6091300</v>
       </c>
       <c r="H61" s="3">
-        <v>4820800</v>
+        <v>4719200</v>
       </c>
       <c r="I61" s="3">
-        <v>4316400</v>
+        <v>4225500</v>
       </c>
       <c r="J61" s="3">
-        <v>4036400</v>
+        <v>3951300</v>
       </c>
       <c r="K61" s="3">
         <v>3376900</v>
@@ -2751,25 +2749,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20214700</v>
+        <v>19788800</v>
       </c>
       <c r="E62" s="3">
-        <v>17654800</v>
+        <v>17282800</v>
       </c>
       <c r="F62" s="3">
-        <v>18256700</v>
+        <v>17872100</v>
       </c>
       <c r="G62" s="3">
-        <v>19920700</v>
+        <v>19501000</v>
       </c>
       <c r="H62" s="3">
-        <v>17587600</v>
+        <v>17217000</v>
       </c>
       <c r="I62" s="3">
-        <v>22350100</v>
+        <v>21879200</v>
       </c>
       <c r="J62" s="3">
-        <v>26405500</v>
+        <v>25849100</v>
       </c>
       <c r="K62" s="3">
         <v>7323000</v>
@@ -2919,25 +2917,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44989200</v>
+        <v>44041300</v>
       </c>
       <c r="E66" s="3">
-        <v>42246700</v>
+        <v>41356600</v>
       </c>
       <c r="F66" s="3">
-        <v>43612900</v>
+        <v>42694000</v>
       </c>
       <c r="G66" s="3">
-        <v>45169100</v>
+        <v>44217500</v>
       </c>
       <c r="H66" s="3">
-        <v>41733500</v>
+        <v>40854200</v>
       </c>
       <c r="I66" s="3">
-        <v>34213300</v>
+        <v>33492500</v>
       </c>
       <c r="J66" s="3">
-        <v>33763400</v>
+        <v>33052100</v>
       </c>
       <c r="K66" s="3">
         <v>20275200</v>
@@ -3147,25 +3145,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-12195200</v>
+        <v>-11938300</v>
       </c>
       <c r="E72" s="3">
-        <v>-9688500</v>
+        <v>-9484400</v>
       </c>
       <c r="F72" s="3">
-        <v>-10154900</v>
+        <v>-9940900</v>
       </c>
       <c r="G72" s="3">
-        <v>-5553300</v>
+        <v>-5436300</v>
       </c>
       <c r="H72" s="3">
-        <v>-3071900</v>
+        <v>-3007200</v>
       </c>
       <c r="I72" s="3">
-        <v>610800</v>
+        <v>598000</v>
       </c>
       <c r="J72" s="3">
-        <v>-3770200</v>
+        <v>-3690800</v>
       </c>
       <c r="K72" s="3">
         <v>5349300</v>
@@ -3315,25 +3313,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-7667200</v>
+        <v>-7505600</v>
       </c>
       <c r="E76" s="3">
-        <v>-5908200</v>
+        <v>-5783700</v>
       </c>
       <c r="F76" s="3">
-        <v>-6206000</v>
+        <v>-6075200</v>
       </c>
       <c r="G76" s="3">
-        <v>-4278400</v>
+        <v>-4188300</v>
       </c>
       <c r="H76" s="3">
-        <v>-1361100</v>
+        <v>-1332400</v>
       </c>
       <c r="I76" s="3">
-        <v>1178600</v>
+        <v>1153800</v>
       </c>
       <c r="J76" s="3">
-        <v>-3243000</v>
+        <v>-3174700</v>
       </c>
       <c r="K76" s="3">
         <v>5872900</v>
@@ -3446,25 +3444,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1608200</v>
+        <v>-1574300</v>
       </c>
       <c r="E81" s="3">
-        <v>152100</v>
+        <v>148900</v>
       </c>
       <c r="F81" s="3">
-        <v>-4017300</v>
+        <v>-3932700</v>
       </c>
       <c r="G81" s="3">
-        <v>-1666500</v>
+        <v>-1631400</v>
       </c>
       <c r="H81" s="3">
-        <v>-3042800</v>
+        <v>-2978700</v>
       </c>
       <c r="I81" s="3">
-        <v>4286000</v>
+        <v>4195700</v>
       </c>
       <c r="J81" s="3">
-        <v>-5109800</v>
+        <v>-5002100</v>
       </c>
       <c r="K81" s="3">
         <v>97200</v>
@@ -3506,25 +3504,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1272400</v>
+        <v>1245600</v>
       </c>
       <c r="E83" s="3">
-        <v>1278700</v>
+        <v>1251800</v>
       </c>
       <c r="F83" s="3">
-        <v>3111200</v>
+        <v>3045700</v>
       </c>
       <c r="G83" s="3">
-        <v>1666500</v>
+        <v>1631400</v>
       </c>
       <c r="H83" s="3">
-        <v>1143100</v>
+        <v>1119000</v>
       </c>
       <c r="I83" s="3">
-        <v>997400</v>
+        <v>976400</v>
       </c>
       <c r="J83" s="3">
-        <v>1051900</v>
+        <v>1029700</v>
       </c>
       <c r="K83" s="3">
         <v>913600</v>
@@ -3758,25 +3756,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2344500</v>
+        <v>2295100</v>
       </c>
       <c r="E89" s="3">
-        <v>-328200</v>
+        <v>-321300</v>
       </c>
       <c r="F89" s="3">
-        <v>-3813300</v>
+        <v>-3733000</v>
       </c>
       <c r="G89" s="3">
-        <v>2911000</v>
+        <v>2849700</v>
       </c>
       <c r="H89" s="3">
-        <v>2821000</v>
+        <v>2761600</v>
       </c>
       <c r="I89" s="3">
-        <v>1916200</v>
+        <v>1875800</v>
       </c>
       <c r="J89" s="3">
-        <v>1788200</v>
+        <v>1750500</v>
       </c>
       <c r="K89" s="3">
         <v>1281400</v>
@@ -3818,25 +3816,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-455000</v>
+        <v>-445400</v>
       </c>
       <c r="E91" s="3">
-        <v>-415700</v>
+        <v>-406900</v>
       </c>
       <c r="F91" s="3">
-        <v>-741400</v>
+        <v>-725800</v>
       </c>
       <c r="G91" s="3">
-        <v>-946700</v>
+        <v>-926700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1146900</v>
+        <v>-1122700</v>
       </c>
       <c r="I91" s="3">
-        <v>-925100</v>
+        <v>-905600</v>
       </c>
       <c r="J91" s="3">
-        <v>-741400</v>
+        <v>-725800</v>
       </c>
       <c r="K91" s="3">
         <v>-570400</v>
@@ -3944,25 +3942,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1046800</v>
+        <v>1024700</v>
       </c>
       <c r="E94" s="3">
-        <v>-542400</v>
+        <v>-531000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1280000</v>
+        <v>-1253000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1163400</v>
+        <v>-1138900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1235600</v>
+        <v>-1209600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1462500</v>
+        <v>-1431700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1727300</v>
+        <v>-1690900</v>
       </c>
       <c r="K94" s="3">
         <v>-1165400</v>
@@ -4172,25 +4170,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3632100</v>
+        <v>-3555600</v>
       </c>
       <c r="E100" s="3">
-        <v>-111500</v>
+        <v>-109200</v>
       </c>
       <c r="F100" s="3">
-        <v>3832300</v>
+        <v>3751600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2271000</v>
+        <v>-2223200</v>
       </c>
       <c r="H100" s="3">
-        <v>889600</v>
+        <v>870900</v>
       </c>
       <c r="I100" s="3">
-        <v>-160900</v>
+        <v>-157600</v>
       </c>
       <c r="J100" s="3">
-        <v>-936500</v>
+        <v>-916800</v>
       </c>
       <c r="K100" s="3">
         <v>258900</v>
@@ -4214,25 +4212,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>197700</v>
+        <v>193500</v>
       </c>
       <c r="E101" s="3">
-        <v>-103900</v>
+        <v>-101700</v>
       </c>
       <c r="F101" s="3">
-        <v>71000</v>
+        <v>69500</v>
       </c>
       <c r="G101" s="3">
-        <v>-131800</v>
+        <v>-129000</v>
       </c>
       <c r="H101" s="3">
-        <v>83600</v>
+        <v>81900</v>
       </c>
       <c r="I101" s="3">
-        <v>-87400</v>
+        <v>-85600</v>
       </c>
       <c r="J101" s="3">
-        <v>362400</v>
+        <v>354800</v>
       </c>
       <c r="K101" s="3">
         <v>-7000</v>
@@ -4256,25 +4254,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-43100</v>
+        <v>-42200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1086100</v>
+        <v>-1063200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1190000</v>
+        <v>-1164900</v>
       </c>
       <c r="G102" s="3">
-        <v>-655200</v>
+        <v>-641400</v>
       </c>
       <c r="H102" s="3">
-        <v>2558700</v>
+        <v>2504800</v>
       </c>
       <c r="I102" s="3">
-        <v>205300</v>
+        <v>201000</v>
       </c>
       <c r="J102" s="3">
-        <v>-513300</v>
+        <v>-502400</v>
       </c>
       <c r="K102" s="3">
         <v>367800</v>
